--- a/BackTest/2020-01-13 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-13 BackTest STEEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M121"/>
+  <dimension ref="A1:M122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,22 +436,22 @@
         <v>147</v>
       </c>
       <c r="C2" t="n">
-        <v>146.8</v>
+        <v>147</v>
       </c>
       <c r="D2" t="n">
         <v>147</v>
       </c>
       <c r="E2" t="n">
-        <v>146.8</v>
+        <v>147</v>
       </c>
       <c r="F2" t="n">
-        <v>5271.2321</v>
+        <v>22046.367</v>
       </c>
       <c r="G2" t="n">
-        <v>148.8466666666666</v>
+        <v>148.9333333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>147.2</v>
+        <v>147</v>
       </c>
       <c r="C3" t="n">
-        <v>147.2</v>
+        <v>146.8</v>
       </c>
       <c r="D3" t="n">
-        <v>147.2</v>
+        <v>147</v>
       </c>
       <c r="E3" t="n">
-        <v>147.2</v>
+        <v>146.8</v>
       </c>
       <c r="F3" t="n">
-        <v>3.5</v>
+        <v>5271.2321</v>
       </c>
       <c r="G3" t="n">
-        <v>148.7683333333333</v>
+        <v>148.8466666666666</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>147</v>
+        <v>147.2</v>
       </c>
       <c r="C4" t="n">
-        <v>146.8</v>
+        <v>147.2</v>
       </c>
       <c r="D4" t="n">
-        <v>147</v>
+        <v>147.2</v>
       </c>
       <c r="E4" t="n">
-        <v>146.8</v>
+        <v>147.2</v>
       </c>
       <c r="F4" t="n">
-        <v>3162.2067</v>
+        <v>3.5</v>
       </c>
       <c r="G4" t="n">
-        <v>148.6849999999999</v>
+        <v>148.7683333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>147.8</v>
+        <v>147</v>
       </c>
       <c r="C5" t="n">
-        <v>147.8</v>
+        <v>146.8</v>
       </c>
       <c r="D5" t="n">
-        <v>147.8</v>
+        <v>147</v>
       </c>
       <c r="E5" t="n">
-        <v>147.8</v>
+        <v>146.8</v>
       </c>
       <c r="F5" t="n">
-        <v>470.2319</v>
+        <v>3162.2067</v>
       </c>
       <c r="G5" t="n">
-        <v>148.6183333333333</v>
+        <v>148.6849999999999</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>146.8</v>
+        <v>147.8</v>
       </c>
       <c r="C6" t="n">
-        <v>146.8</v>
+        <v>147.8</v>
       </c>
       <c r="D6" t="n">
-        <v>146.8</v>
+        <v>147.8</v>
       </c>
       <c r="E6" t="n">
-        <v>146.8</v>
+        <v>147.8</v>
       </c>
       <c r="F6" t="n">
-        <v>781.1024</v>
+        <v>470.2319</v>
       </c>
       <c r="G6" t="n">
-        <v>148.5333333333332</v>
+        <v>148.6183333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>146.3</v>
+        <v>146.8</v>
       </c>
       <c r="C7" t="n">
-        <v>146.3</v>
+        <v>146.8</v>
       </c>
       <c r="D7" t="n">
-        <v>146.3</v>
+        <v>146.8</v>
       </c>
       <c r="E7" t="n">
-        <v>146.3</v>
+        <v>146.8</v>
       </c>
       <c r="F7" t="n">
-        <v>683.526</v>
+        <v>781.1024</v>
       </c>
       <c r="G7" t="n">
-        <v>148.4399999999999</v>
+        <v>148.5333333333332</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>146</v>
+        <v>146.3</v>
       </c>
       <c r="C8" t="n">
-        <v>144.5</v>
+        <v>146.3</v>
       </c>
       <c r="D8" t="n">
-        <v>146</v>
+        <v>146.3</v>
       </c>
       <c r="E8" t="n">
-        <v>144.5</v>
+        <v>146.3</v>
       </c>
       <c r="F8" t="n">
-        <v>24321.9726</v>
+        <v>683.526</v>
       </c>
       <c r="G8" t="n">
-        <v>148.3483333333332</v>
+        <v>148.4399999999999</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>145.8</v>
+        <v>146</v>
       </c>
       <c r="C9" t="n">
-        <v>146</v>
+        <v>144.5</v>
       </c>
       <c r="D9" t="n">
         <v>146</v>
       </c>
       <c r="E9" t="n">
-        <v>145.8</v>
+        <v>144.5</v>
       </c>
       <c r="F9" t="n">
-        <v>1500</v>
+        <v>24321.9726</v>
       </c>
       <c r="G9" t="n">
-        <v>148.2983333333332</v>
+        <v>148.3483333333332</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>145.9</v>
+        <v>145.8</v>
       </c>
       <c r="C10" t="n">
-        <v>146.8</v>
+        <v>146</v>
       </c>
       <c r="D10" t="n">
-        <v>146.8</v>
+        <v>146</v>
       </c>
       <c r="E10" t="n">
-        <v>145</v>
+        <v>145.8</v>
       </c>
       <c r="F10" t="n">
-        <v>5588</v>
+        <v>1500</v>
       </c>
       <c r="G10" t="n">
-        <v>148.2599999999999</v>
+        <v>148.2983333333332</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>146.7</v>
+        <v>145.9</v>
       </c>
       <c r="C11" t="n">
-        <v>146.6</v>
+        <v>146.8</v>
       </c>
       <c r="D11" t="n">
-        <v>146.7</v>
+        <v>146.8</v>
       </c>
       <c r="E11" t="n">
-        <v>146.6</v>
+        <v>145</v>
       </c>
       <c r="F11" t="n">
-        <v>1490</v>
+        <v>5588</v>
       </c>
       <c r="G11" t="n">
-        <v>148.1899999999999</v>
+        <v>148.2599999999999</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>146.7</v>
+      </c>
+      <c r="C12" t="n">
         <v>146.6</v>
       </c>
-      <c r="C12" t="n">
-        <v>147.9</v>
-      </c>
       <c r="D12" t="n">
-        <v>147.9</v>
+        <v>146.7</v>
       </c>
       <c r="E12" t="n">
-        <v>144.7</v>
+        <v>146.6</v>
       </c>
       <c r="F12" t="n">
-        <v>16095.7996</v>
+        <v>1490</v>
       </c>
       <c r="G12" t="n">
-        <v>148.1716666666666</v>
+        <v>148.1899999999999</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>147.9</v>
+        <v>146.6</v>
       </c>
       <c r="C13" t="n">
         <v>147.9</v>
@@ -827,13 +827,13 @@
         <v>147.9</v>
       </c>
       <c r="E13" t="n">
-        <v>147.9</v>
+        <v>144.7</v>
       </c>
       <c r="F13" t="n">
-        <v>5277.105</v>
+        <v>16095.7996</v>
       </c>
       <c r="G13" t="n">
-        <v>148.1199999999999</v>
+        <v>148.1716666666666</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>147.9</v>
       </c>
       <c r="F14" t="n">
-        <v>3189</v>
+        <v>5277.105</v>
       </c>
       <c r="G14" t="n">
-        <v>148.0683333333332</v>
+        <v>148.1199999999999</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>147.9</v>
       </c>
       <c r="F15" t="n">
-        <v>8703</v>
+        <v>3189</v>
       </c>
       <c r="G15" t="n">
-        <v>148.0166666666665</v>
+        <v>148.0683333333332</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>146.7</v>
+        <v>147.9</v>
       </c>
       <c r="C16" t="n">
-        <v>146.7</v>
+        <v>147.9</v>
       </c>
       <c r="D16" t="n">
-        <v>146.7</v>
+        <v>147.9</v>
       </c>
       <c r="E16" t="n">
-        <v>146.7</v>
+        <v>147.9</v>
       </c>
       <c r="F16" t="n">
-        <v>108.4226</v>
+        <v>8703</v>
       </c>
       <c r="G16" t="n">
-        <v>147.9349999999999</v>
+        <v>148.0166666666665</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>147</v>
+        <v>146.7</v>
       </c>
       <c r="C17" t="n">
-        <v>147</v>
+        <v>146.7</v>
       </c>
       <c r="D17" t="n">
-        <v>147</v>
+        <v>146.7</v>
       </c>
       <c r="E17" t="n">
-        <v>147</v>
+        <v>146.7</v>
       </c>
       <c r="F17" t="n">
-        <v>13227.2153</v>
+        <v>108.4226</v>
       </c>
       <c r="G17" t="n">
-        <v>147.9016666666666</v>
+        <v>147.9349999999999</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C18" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D18" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E18" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F18" t="n">
-        <v>29.9609</v>
+        <v>13227.2153</v>
       </c>
       <c r="G18" t="n">
-        <v>147.8849999999999</v>
+        <v>147.9016666666666</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>148</v>
       </c>
       <c r="F19" t="n">
-        <v>21.8495</v>
+        <v>29.9609</v>
       </c>
       <c r="G19" t="n">
-        <v>147.8933333333332</v>
+        <v>147.8849999999999</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1066,19 +1066,19 @@
         <v>148</v>
       </c>
       <c r="C20" t="n">
-        <v>148.1</v>
+        <v>148</v>
       </c>
       <c r="D20" t="n">
-        <v>148.1</v>
+        <v>148</v>
       </c>
       <c r="E20" t="n">
-        <v>147.2</v>
+        <v>148</v>
       </c>
       <c r="F20" t="n">
-        <v>13518.2383</v>
+        <v>21.8495</v>
       </c>
       <c r="G20" t="n">
-        <v>147.9133333333332</v>
+        <v>147.8933333333332</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>148.9</v>
+        <v>148</v>
       </c>
       <c r="C21" t="n">
-        <v>147.5</v>
+        <v>148.1</v>
       </c>
       <c r="D21" t="n">
-        <v>148.9</v>
+        <v>148.1</v>
       </c>
       <c r="E21" t="n">
-        <v>147.5</v>
+        <v>147.2</v>
       </c>
       <c r="F21" t="n">
-        <v>7053.4781</v>
+        <v>13518.2383</v>
       </c>
       <c r="G21" t="n">
-        <v>147.8733333333332</v>
+        <v>147.9133333333332</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>148.9</v>
       </c>
       <c r="C22" t="n">
-        <v>149</v>
+        <v>147.5</v>
       </c>
       <c r="D22" t="n">
-        <v>149</v>
+        <v>148.9</v>
       </c>
       <c r="E22" t="n">
-        <v>148.9</v>
+        <v>147.5</v>
       </c>
       <c r="F22" t="n">
-        <v>1034</v>
+        <v>7053.4781</v>
       </c>
       <c r="G22" t="n">
-        <v>147.8883333333332</v>
+        <v>147.8733333333332</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1171,19 +1171,19 @@
         <v>148.9</v>
       </c>
       <c r="C23" t="n">
-        <v>148.9</v>
+        <v>149</v>
       </c>
       <c r="D23" t="n">
-        <v>148.9</v>
+        <v>149</v>
       </c>
       <c r="E23" t="n">
         <v>148.9</v>
       </c>
       <c r="F23" t="n">
-        <v>2898.7734</v>
+        <v>1034</v>
       </c>
       <c r="G23" t="n">
-        <v>147.8866666666666</v>
+        <v>147.8883333333332</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>149.9</v>
+        <v>148.9</v>
       </c>
       <c r="C24" t="n">
-        <v>149.6</v>
+        <v>148.9</v>
       </c>
       <c r="D24" t="n">
-        <v>149.9</v>
+        <v>148.9</v>
       </c>
       <c r="E24" t="n">
-        <v>146.2</v>
+        <v>148.9</v>
       </c>
       <c r="F24" t="n">
-        <v>5845.5895</v>
+        <v>2898.7734</v>
       </c>
       <c r="G24" t="n">
-        <v>147.8849999999999</v>
+        <v>147.8866666666666</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>149.8</v>
+        <v>149.9</v>
       </c>
       <c r="C25" t="n">
-        <v>148.6</v>
+        <v>149.6</v>
       </c>
       <c r="D25" t="n">
-        <v>149.8</v>
+        <v>149.9</v>
       </c>
       <c r="E25" t="n">
-        <v>148</v>
+        <v>146.2</v>
       </c>
       <c r="F25" t="n">
-        <v>2466.5087</v>
+        <v>5845.5895</v>
       </c>
       <c r="G25" t="n">
-        <v>147.8616666666666</v>
+        <v>147.8849999999999</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>148.6</v>
+        <v>149.8</v>
       </c>
       <c r="C26" t="n">
         <v>148.6</v>
       </c>
       <c r="D26" t="n">
-        <v>148.6</v>
+        <v>149.8</v>
       </c>
       <c r="E26" t="n">
-        <v>148.6</v>
+        <v>148</v>
       </c>
       <c r="F26" t="n">
-        <v>1702.0953</v>
+        <v>2466.5087</v>
       </c>
       <c r="G26" t="n">
-        <v>147.8716666666666</v>
+        <v>147.8616666666666</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>147.6</v>
+        <v>148.6</v>
       </c>
       <c r="C27" t="n">
-        <v>147.6</v>
+        <v>148.6</v>
       </c>
       <c r="D27" t="n">
-        <v>147.6</v>
+        <v>148.6</v>
       </c>
       <c r="E27" t="n">
-        <v>147.6</v>
+        <v>148.6</v>
       </c>
       <c r="F27" t="n">
-        <v>650.8567</v>
+        <v>1702.0953</v>
       </c>
       <c r="G27" t="n">
-        <v>147.8649999999999</v>
+        <v>147.8716666666666</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,28 +1343,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>149</v>
+        <v>147.6</v>
       </c>
       <c r="C28" t="n">
-        <v>149</v>
+        <v>147.6</v>
       </c>
       <c r="D28" t="n">
-        <v>149</v>
+        <v>147.6</v>
       </c>
       <c r="E28" t="n">
-        <v>149</v>
+        <v>147.6</v>
       </c>
       <c r="F28" t="n">
-        <v>4866.7383</v>
+        <v>650.8567</v>
       </c>
       <c r="G28" t="n">
-        <v>147.8799999999999</v>
+        <v>147.8649999999999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1378,28 +1378,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>149.7</v>
+        <v>149</v>
       </c>
       <c r="C29" t="n">
-        <v>149.5</v>
+        <v>149</v>
       </c>
       <c r="D29" t="n">
-        <v>149.7</v>
+        <v>149</v>
       </c>
       <c r="E29" t="n">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F29" t="n">
-        <v>12437.47</v>
+        <v>4866.7383</v>
       </c>
       <c r="G29" t="n">
-        <v>147.9033333333332</v>
+        <v>147.8799999999999</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1413,28 +1413,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>149</v>
+        <v>149.7</v>
       </c>
       <c r="C30" t="n">
-        <v>149.8</v>
+        <v>149.5</v>
       </c>
       <c r="D30" t="n">
-        <v>149.8</v>
+        <v>149.7</v>
       </c>
       <c r="E30" t="n">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F30" t="n">
-        <v>1972.6031</v>
+        <v>12437.47</v>
       </c>
       <c r="G30" t="n">
-        <v>147.9183333333332</v>
+        <v>147.9033333333332</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1448,10 +1448,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
+        <v>149</v>
+      </c>
+      <c r="C31" t="n">
         <v>149.8</v>
-      </c>
-      <c r="C31" t="n">
-        <v>149</v>
       </c>
       <c r="D31" t="n">
         <v>149.8</v>
@@ -1460,7 +1460,7 @@
         <v>149</v>
       </c>
       <c r="F31" t="n">
-        <v>4991.744</v>
+        <v>1972.6031</v>
       </c>
       <c r="G31" t="n">
         <v>147.9183333333332</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>149.6</v>
+        <v>149.8</v>
       </c>
       <c r="C32" t="n">
-        <v>149.6</v>
+        <v>149</v>
       </c>
       <c r="D32" t="n">
-        <v>149.6</v>
+        <v>149.8</v>
       </c>
       <c r="E32" t="n">
-        <v>149.6</v>
+        <v>149</v>
       </c>
       <c r="F32" t="n">
-        <v>2662.2052</v>
+        <v>4991.744</v>
       </c>
       <c r="G32" t="n">
-        <v>147.9449999999999</v>
+        <v>147.9183333333332</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>149.6</v>
       </c>
       <c r="F33" t="n">
-        <v>591.2987000000001</v>
+        <v>2662.2052</v>
       </c>
       <c r="G33" t="n">
-        <v>147.9716666666666</v>
+        <v>147.9449999999999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         <v>149.6</v>
       </c>
       <c r="F34" t="n">
-        <v>157.7328</v>
+        <v>591.2987000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>148.0183333333333</v>
+        <v>147.9716666666666</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>149.6</v>
       </c>
       <c r="F35" t="n">
-        <v>375</v>
+        <v>157.7328</v>
       </c>
       <c r="G35" t="n">
-        <v>148.0449999999999</v>
+        <v>148.0183333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>149.6</v>
       </c>
       <c r="F36" t="n">
-        <v>228.8543</v>
+        <v>375</v>
       </c>
       <c r="G36" t="n">
-        <v>148.0916666666666</v>
+        <v>148.0449999999999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>149</v>
+        <v>149.6</v>
       </c>
       <c r="C37" t="n">
-        <v>148.1</v>
+        <v>149.6</v>
       </c>
       <c r="D37" t="n">
-        <v>149</v>
+        <v>149.6</v>
       </c>
       <c r="E37" t="n">
-        <v>148.1</v>
+        <v>149.6</v>
       </c>
       <c r="F37" t="n">
-        <v>1503</v>
+        <v>228.8543</v>
       </c>
       <c r="G37" t="n">
-        <v>148.0933333333333</v>
+        <v>148.0916666666666</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1696,19 +1696,19 @@
         <v>149</v>
       </c>
       <c r="C38" t="n">
-        <v>149.1</v>
+        <v>148.1</v>
       </c>
       <c r="D38" t="n">
-        <v>149.1</v>
+        <v>149</v>
       </c>
       <c r="E38" t="n">
-        <v>149</v>
+        <v>148.1</v>
       </c>
       <c r="F38" t="n">
-        <v>3526.7472</v>
+        <v>1503</v>
       </c>
       <c r="G38" t="n">
-        <v>148.1116666666666</v>
+        <v>148.0933333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>148.2</v>
+        <v>149</v>
       </c>
       <c r="C39" t="n">
-        <v>148.2</v>
+        <v>149.1</v>
       </c>
       <c r="D39" t="n">
-        <v>148.2</v>
+        <v>149.1</v>
       </c>
       <c r="E39" t="n">
-        <v>148.2</v>
+        <v>149</v>
       </c>
       <c r="F39" t="n">
-        <v>4218.7209</v>
+        <v>3526.7472</v>
       </c>
       <c r="G39" t="n">
-        <v>148.1316666666666</v>
+        <v>148.1116666666666</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>149.9</v>
+        <v>148.2</v>
       </c>
       <c r="C40" t="n">
-        <v>149</v>
+        <v>148.2</v>
       </c>
       <c r="D40" t="n">
-        <v>149.9</v>
+        <v>148.2</v>
       </c>
       <c r="E40" t="n">
-        <v>149</v>
+        <v>148.2</v>
       </c>
       <c r="F40" t="n">
-        <v>3392.2528</v>
+        <v>4218.7209</v>
       </c>
       <c r="G40" t="n">
-        <v>148.135</v>
+        <v>148.1316666666666</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1801,19 +1801,19 @@
         <v>149.9</v>
       </c>
       <c r="C41" t="n">
-        <v>149.9</v>
+        <v>149</v>
       </c>
       <c r="D41" t="n">
         <v>149.9</v>
       </c>
       <c r="E41" t="n">
-        <v>149.9</v>
+        <v>149</v>
       </c>
       <c r="F41" t="n">
-        <v>2130</v>
+        <v>3392.2528</v>
       </c>
       <c r="G41" t="n">
-        <v>148.15</v>
+        <v>148.135</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1836,19 +1836,19 @@
         <v>149.9</v>
       </c>
       <c r="C42" t="n">
-        <v>150</v>
+        <v>149.9</v>
       </c>
       <c r="D42" t="n">
-        <v>150</v>
+        <v>149.9</v>
       </c>
       <c r="E42" t="n">
         <v>149.9</v>
       </c>
       <c r="F42" t="n">
-        <v>5706.5985</v>
+        <v>2130</v>
       </c>
       <c r="G42" t="n">
-        <v>148.1833333333333</v>
+        <v>148.15</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="C43" t="n">
         <v>150</v>
-      </c>
-      <c r="C43" t="n">
-        <v>149.1</v>
       </c>
       <c r="D43" t="n">
         <v>150</v>
       </c>
       <c r="E43" t="n">
-        <v>149.1</v>
+        <v>149.9</v>
       </c>
       <c r="F43" t="n">
-        <v>2794.6867</v>
+        <v>5706.5985</v>
       </c>
       <c r="G43" t="n">
-        <v>148.185</v>
+        <v>148.1833333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1906,19 +1906,19 @@
         <v>150</v>
       </c>
       <c r="C44" t="n">
-        <v>150</v>
+        <v>149.1</v>
       </c>
       <c r="D44" t="n">
         <v>150</v>
       </c>
       <c r="E44" t="n">
-        <v>150</v>
+        <v>149.1</v>
       </c>
       <c r="F44" t="n">
-        <v>6650.0404</v>
+        <v>2794.6867</v>
       </c>
       <c r="G44" t="n">
-        <v>148.1883333333333</v>
+        <v>148.185</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>150</v>
       </c>
       <c r="F45" t="n">
-        <v>910.8684</v>
+        <v>6650.0404</v>
       </c>
       <c r="G45" t="n">
-        <v>148.22</v>
+        <v>148.1883333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>150.5</v>
+        <v>150</v>
       </c>
       <c r="C46" t="n">
-        <v>150.5</v>
+        <v>150</v>
       </c>
       <c r="D46" t="n">
-        <v>150.5</v>
+        <v>150</v>
       </c>
       <c r="E46" t="n">
-        <v>150.5</v>
+        <v>150</v>
       </c>
       <c r="F46" t="n">
-        <v>188</v>
+        <v>910.8684</v>
       </c>
       <c r="G46" t="n">
-        <v>148.26</v>
+        <v>148.22</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,28 +2008,28 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>150.6</v>
+        <v>150.5</v>
       </c>
       <c r="C47" t="n">
-        <v>149</v>
+        <v>150.5</v>
       </c>
       <c r="D47" t="n">
-        <v>150.6</v>
+        <v>150.5</v>
       </c>
       <c r="E47" t="n">
-        <v>149</v>
+        <v>150.5</v>
       </c>
       <c r="F47" t="n">
-        <v>1693.3859</v>
+        <v>188</v>
       </c>
       <c r="G47" t="n">
-        <v>148.275</v>
+        <v>148.26</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2043,28 +2043,28 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>149</v>
+        <v>150.6</v>
       </c>
       <c r="C48" t="n">
-        <v>148.3</v>
+        <v>149</v>
       </c>
       <c r="D48" t="n">
-        <v>149</v>
+        <v>150.6</v>
       </c>
       <c r="E48" t="n">
-        <v>148.3</v>
+        <v>149</v>
       </c>
       <c r="F48" t="n">
-        <v>14738.7501</v>
+        <v>1693.3859</v>
       </c>
       <c r="G48" t="n">
-        <v>148.2783333333333</v>
+        <v>148.275</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2081,19 +2081,19 @@
         <v>149</v>
       </c>
       <c r="C49" t="n">
-        <v>149</v>
+        <v>148.3</v>
       </c>
       <c r="D49" t="n">
         <v>149</v>
       </c>
       <c r="E49" t="n">
-        <v>149</v>
+        <v>148.3</v>
       </c>
       <c r="F49" t="n">
-        <v>2210.8125</v>
+        <v>14738.7501</v>
       </c>
       <c r="G49" t="n">
-        <v>148.3033333333333</v>
+        <v>148.2783333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>148.3</v>
+        <v>149</v>
       </c>
       <c r="C50" t="n">
-        <v>148.3</v>
+        <v>149</v>
       </c>
       <c r="D50" t="n">
-        <v>148.3</v>
+        <v>149</v>
       </c>
       <c r="E50" t="n">
-        <v>148.3</v>
+        <v>149</v>
       </c>
       <c r="F50" t="n">
-        <v>5</v>
+        <v>2210.8125</v>
       </c>
       <c r="G50" t="n">
-        <v>148.3249999999999</v>
+        <v>148.3033333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>148.9</v>
+        <v>148.3</v>
       </c>
       <c r="C51" t="n">
-        <v>148.9</v>
+        <v>148.3</v>
       </c>
       <c r="D51" t="n">
-        <v>148.9</v>
+        <v>148.3</v>
       </c>
       <c r="E51" t="n">
-        <v>148.9</v>
+        <v>148.3</v>
       </c>
       <c r="F51" t="n">
-        <v>522</v>
+        <v>5</v>
       </c>
       <c r="G51" t="n">
-        <v>148.3416666666666</v>
+        <v>148.3249999999999</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>149</v>
+        <v>148.9</v>
       </c>
       <c r="C52" t="n">
-        <v>149</v>
+        <v>148.9</v>
       </c>
       <c r="D52" t="n">
-        <v>149</v>
+        <v>148.9</v>
       </c>
       <c r="E52" t="n">
-        <v>149</v>
+        <v>148.9</v>
       </c>
       <c r="F52" t="n">
-        <v>2000</v>
+        <v>522</v>
       </c>
       <c r="G52" t="n">
-        <v>148.3566666666666</v>
+        <v>148.3416666666666</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>148.2</v>
+        <v>149</v>
       </c>
       <c r="C53" t="n">
-        <v>147.6</v>
+        <v>149</v>
       </c>
       <c r="D53" t="n">
-        <v>148.2</v>
+        <v>149</v>
       </c>
       <c r="E53" t="n">
-        <v>147.6</v>
+        <v>149</v>
       </c>
       <c r="F53" t="n">
-        <v>5.588</v>
+        <v>2000</v>
       </c>
       <c r="G53" t="n">
-        <v>148.3366666666666</v>
+        <v>148.3566666666666</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>147.7</v>
+        <v>148.2</v>
       </c>
       <c r="C54" t="n">
-        <v>149.1</v>
+        <v>147.6</v>
       </c>
       <c r="D54" t="n">
-        <v>149.1</v>
+        <v>148.2</v>
       </c>
       <c r="E54" t="n">
-        <v>147.7</v>
+        <v>147.6</v>
       </c>
       <c r="F54" t="n">
-        <v>3098.3026</v>
+        <v>5.588</v>
       </c>
       <c r="G54" t="n">
-        <v>148.325</v>
+        <v>148.3366666666666</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,7 +2288,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>149.1</v>
+        <v>147.7</v>
       </c>
       <c r="C55" t="n">
         <v>149.1</v>
@@ -2297,13 +2297,13 @@
         <v>149.1</v>
       </c>
       <c r="E55" t="n">
-        <v>149.1</v>
+        <v>147.7</v>
       </c>
       <c r="F55" t="n">
-        <v>161</v>
+        <v>3098.3026</v>
       </c>
       <c r="G55" t="n">
-        <v>148.295</v>
+        <v>148.325</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>147.6</v>
+        <v>149.1</v>
       </c>
       <c r="C56" t="n">
-        <v>147.6</v>
+        <v>149.1</v>
       </c>
       <c r="D56" t="n">
-        <v>147.6</v>
+        <v>149.1</v>
       </c>
       <c r="E56" t="n">
-        <v>147.6</v>
+        <v>149.1</v>
       </c>
       <c r="F56" t="n">
-        <v>9.48</v>
+        <v>161</v>
       </c>
       <c r="G56" t="n">
-        <v>148.2883333333333</v>
+        <v>148.295</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>149</v>
+        <v>147.6</v>
       </c>
       <c r="C57" t="n">
-        <v>149.1</v>
+        <v>147.6</v>
       </c>
       <c r="D57" t="n">
-        <v>149.1</v>
+        <v>147.6</v>
       </c>
       <c r="E57" t="n">
-        <v>149</v>
+        <v>147.6</v>
       </c>
       <c r="F57" t="n">
-        <v>3000</v>
+        <v>9.48</v>
       </c>
       <c r="G57" t="n">
-        <v>148.3066666666667</v>
+        <v>148.2883333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2405,10 +2405,10 @@
         <v>149</v>
       </c>
       <c r="F58" t="n">
-        <v>2900.1758</v>
+        <v>3000</v>
       </c>
       <c r="G58" t="n">
-        <v>148.3316666666666</v>
+        <v>148.3066666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>149.2</v>
+        <v>149</v>
       </c>
       <c r="C59" t="n">
-        <v>149.2</v>
+        <v>149.1</v>
       </c>
       <c r="D59" t="n">
-        <v>149.2</v>
+        <v>149.1</v>
       </c>
       <c r="E59" t="n">
-        <v>149.2</v>
+        <v>149</v>
       </c>
       <c r="F59" t="n">
-        <v>1267</v>
+        <v>2900.1758</v>
       </c>
       <c r="G59" t="n">
-        <v>148.3683333333333</v>
+        <v>148.3316666666666</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>149.1</v>
+        <v>149.2</v>
       </c>
       <c r="C60" t="n">
-        <v>149.4</v>
+        <v>149.2</v>
       </c>
       <c r="D60" t="n">
-        <v>149.4</v>
+        <v>149.2</v>
       </c>
       <c r="E60" t="n">
-        <v>149.1</v>
+        <v>149.2</v>
       </c>
       <c r="F60" t="n">
-        <v>4579.8473</v>
+        <v>1267</v>
       </c>
       <c r="G60" t="n">
-        <v>148.395</v>
+        <v>148.3683333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>149.5</v>
+        <v>149.1</v>
       </c>
       <c r="C61" t="n">
-        <v>149.5</v>
+        <v>149.4</v>
       </c>
       <c r="D61" t="n">
-        <v>149.5</v>
+        <v>149.4</v>
       </c>
       <c r="E61" t="n">
-        <v>149.5</v>
+        <v>149.1</v>
       </c>
       <c r="F61" t="n">
-        <v>1104.1531</v>
+        <v>4579.8473</v>
       </c>
       <c r="G61" t="n">
-        <v>148.4366666666667</v>
+        <v>148.395</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>149</v>
+        <v>149.5</v>
       </c>
       <c r="C62" t="n">
-        <v>149</v>
+        <v>149.5</v>
       </c>
       <c r="D62" t="n">
-        <v>149</v>
+        <v>149.5</v>
       </c>
       <c r="E62" t="n">
-        <v>149</v>
+        <v>149.5</v>
       </c>
       <c r="F62" t="n">
-        <v>8</v>
+        <v>1104.1531</v>
       </c>
       <c r="G62" t="n">
-        <v>148.4733333333334</v>
+        <v>148.4366666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>149.6</v>
+        <v>149</v>
       </c>
       <c r="C63" t="n">
-        <v>149.7</v>
+        <v>149</v>
       </c>
       <c r="D63" t="n">
-        <v>149.7</v>
+        <v>149</v>
       </c>
       <c r="E63" t="n">
-        <v>149.6</v>
+        <v>149</v>
       </c>
       <c r="F63" t="n">
-        <v>77.77</v>
+        <v>8</v>
       </c>
       <c r="G63" t="n">
-        <v>148.515</v>
+        <v>148.4733333333334</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>149.4</v>
+        <v>149.6</v>
       </c>
       <c r="C64" t="n">
-        <v>148.1</v>
+        <v>149.7</v>
       </c>
       <c r="D64" t="n">
-        <v>149.4</v>
+        <v>149.7</v>
       </c>
       <c r="E64" t="n">
-        <v>148.1</v>
+        <v>149.6</v>
       </c>
       <c r="F64" t="n">
-        <v>669.9807</v>
+        <v>77.77</v>
       </c>
       <c r="G64" t="n">
-        <v>148.5366666666667</v>
+        <v>148.515</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>148.1</v>
+        <v>149.4</v>
       </c>
       <c r="C65" t="n">
         <v>148.1</v>
       </c>
       <c r="D65" t="n">
-        <v>148.1</v>
+        <v>149.4</v>
       </c>
       <c r="E65" t="n">
         <v>148.1</v>
       </c>
       <c r="F65" t="n">
-        <v>2204.644</v>
+        <v>669.9807</v>
       </c>
       <c r="G65" t="n">
-        <v>148.5416666666667</v>
+        <v>148.5366666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>148</v>
+        <v>148.1</v>
       </c>
       <c r="C66" t="n">
-        <v>147</v>
+        <v>148.1</v>
       </c>
       <c r="D66" t="n">
-        <v>148</v>
+        <v>148.1</v>
       </c>
       <c r="E66" t="n">
-        <v>147</v>
+        <v>148.1</v>
       </c>
       <c r="F66" t="n">
-        <v>4200</v>
+        <v>2204.644</v>
       </c>
       <c r="G66" t="n">
-        <v>148.5450000000001</v>
+        <v>148.5416666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>147.3</v>
+        <v>148</v>
       </c>
       <c r="C67" t="n">
-        <v>147.2</v>
+        <v>147</v>
       </c>
       <c r="D67" t="n">
-        <v>147.3</v>
+        <v>148</v>
       </c>
       <c r="E67" t="n">
-        <v>147.2</v>
+        <v>147</v>
       </c>
       <c r="F67" t="n">
-        <v>11527.4004</v>
+        <v>4200</v>
       </c>
       <c r="G67" t="n">
-        <v>148.5600000000001</v>
+        <v>148.5450000000001</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>148.1</v>
+        <v>147.3</v>
       </c>
       <c r="C68" t="n">
-        <v>148.1</v>
+        <v>147.2</v>
       </c>
       <c r="D68" t="n">
-        <v>148.1</v>
+        <v>147.3</v>
       </c>
       <c r="E68" t="n">
-        <v>148.1</v>
+        <v>147.2</v>
       </c>
       <c r="F68" t="n">
-        <v>250</v>
+        <v>11527.4004</v>
       </c>
       <c r="G68" t="n">
-        <v>148.6200000000001</v>
+        <v>148.5600000000001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>148.1</v>
       </c>
       <c r="F69" t="n">
-        <v>76</v>
+        <v>250</v>
       </c>
       <c r="G69" t="n">
-        <v>148.6550000000001</v>
+        <v>148.6200000000001</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,10 +2825,10 @@
         <v>148.1</v>
       </c>
       <c r="F70" t="n">
-        <v>8199.967699999999</v>
+        <v>76</v>
       </c>
       <c r="G70" t="n">
-        <v>148.6766666666668</v>
+        <v>148.6550000000001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2860,10 +2860,10 @@
         <v>148.1</v>
       </c>
       <c r="F71" t="n">
-        <v>3072.5298</v>
+        <v>8199.967699999999</v>
       </c>
       <c r="G71" t="n">
-        <v>148.7016666666668</v>
+        <v>148.6766666666668</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2895,10 +2895,10 @@
         <v>148.1</v>
       </c>
       <c r="F72" t="n">
-        <v>1485.5384</v>
+        <v>3072.5298</v>
       </c>
       <c r="G72" t="n">
-        <v>148.7050000000001</v>
+        <v>148.7016666666668</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>148.1</v>
       </c>
       <c r="F73" t="n">
-        <v>134.8118</v>
+        <v>1485.5384</v>
       </c>
       <c r="G73" t="n">
-        <v>148.7083333333335</v>
+        <v>148.7050000000001</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>148.1</v>
       </c>
       <c r="F74" t="n">
-        <v>120.3758</v>
+        <v>134.8118</v>
       </c>
       <c r="G74" t="n">
-        <v>148.7116666666668</v>
+        <v>148.7083333333335</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>147.1</v>
+        <v>148.1</v>
       </c>
       <c r="C75" t="n">
-        <v>147.1</v>
+        <v>148.1</v>
       </c>
       <c r="D75" t="n">
-        <v>147.1</v>
+        <v>148.1</v>
       </c>
       <c r="E75" t="n">
-        <v>147.1</v>
+        <v>148.1</v>
       </c>
       <c r="F75" t="n">
-        <v>52.3034</v>
+        <v>120.3758</v>
       </c>
       <c r="G75" t="n">
-        <v>148.6983333333335</v>
+        <v>148.7116666666668</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>147.2</v>
+        <v>147.1</v>
       </c>
       <c r="C76" t="n">
-        <v>148</v>
+        <v>147.1</v>
       </c>
       <c r="D76" t="n">
-        <v>148.1</v>
+        <v>147.1</v>
       </c>
       <c r="E76" t="n">
-        <v>147.2</v>
+        <v>147.1</v>
       </c>
       <c r="F76" t="n">
-        <v>3821</v>
+        <v>52.3034</v>
       </c>
       <c r="G76" t="n">
-        <v>148.7200000000002</v>
+        <v>148.6983333333335</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,31 +3058,35 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>148.1</v>
+        <v>147.2</v>
       </c>
       <c r="C77" t="n">
-        <v>148.1</v>
+        <v>148</v>
       </c>
       <c r="D77" t="n">
         <v>148.1</v>
       </c>
       <c r="E77" t="n">
-        <v>148.1</v>
+        <v>147.2</v>
       </c>
       <c r="F77" t="n">
-        <v>20253.1188</v>
+        <v>3821</v>
       </c>
       <c r="G77" t="n">
-        <v>148.7383333333335</v>
+        <v>148.7200000000002</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>147.1</v>
+      </c>
+      <c r="K77" t="n">
+        <v>147.1</v>
+      </c>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
@@ -3105,20 +3109,28 @@
         <v>148.1</v>
       </c>
       <c r="F78" t="n">
-        <v>3881.6002</v>
+        <v>20253.1188</v>
       </c>
       <c r="G78" t="n">
-        <v>148.7400000000002</v>
+        <v>148.7383333333335</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>148</v>
+      </c>
+      <c r="K78" t="n">
+        <v>147.1</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3140,10 +3152,10 @@
         <v>148.1</v>
       </c>
       <c r="F79" t="n">
-        <v>2076.1073</v>
+        <v>3881.6002</v>
       </c>
       <c r="G79" t="n">
-        <v>148.7416666666668</v>
+        <v>148.7400000000002</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3152,8 +3164,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>147.1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3163,22 +3181,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>147.1</v>
+        <v>148.1</v>
       </c>
       <c r="C80" t="n">
-        <v>147</v>
+        <v>148.1</v>
       </c>
       <c r="D80" t="n">
-        <v>147.1</v>
+        <v>148.1</v>
       </c>
       <c r="E80" t="n">
-        <v>147</v>
+        <v>148.1</v>
       </c>
       <c r="F80" t="n">
-        <v>2778.2707</v>
+        <v>2076.1073</v>
       </c>
       <c r="G80" t="n">
-        <v>148.7233333333335</v>
+        <v>148.7416666666668</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3201,19 +3219,19 @@
         <v>147.1</v>
       </c>
       <c r="C81" t="n">
-        <v>148.3</v>
+        <v>147</v>
       </c>
       <c r="D81" t="n">
-        <v>148.3</v>
+        <v>147.1</v>
       </c>
       <c r="E81" t="n">
-        <v>147.1</v>
+        <v>147</v>
       </c>
       <c r="F81" t="n">
-        <v>4873.7832</v>
+        <v>2778.2707</v>
       </c>
       <c r="G81" t="n">
-        <v>148.7366666666668</v>
+        <v>148.7233333333335</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3251,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>148.5</v>
+        <v>147.1</v>
       </c>
       <c r="C82" t="n">
-        <v>148.5</v>
+        <v>148.3</v>
       </c>
       <c r="D82" t="n">
-        <v>148.5</v>
+        <v>148.3</v>
       </c>
       <c r="E82" t="n">
-        <v>148.5</v>
+        <v>147.1</v>
       </c>
       <c r="F82" t="n">
-        <v>745</v>
+        <v>4873.7832</v>
       </c>
       <c r="G82" t="n">
-        <v>148.7283333333335</v>
+        <v>148.7366666666668</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3286,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>147.8</v>
+        <v>148.5</v>
       </c>
       <c r="C83" t="n">
-        <v>147.8</v>
+        <v>148.5</v>
       </c>
       <c r="D83" t="n">
-        <v>147.8</v>
+        <v>148.5</v>
       </c>
       <c r="E83" t="n">
-        <v>147.8</v>
+        <v>148.5</v>
       </c>
       <c r="F83" t="n">
-        <v>20</v>
+        <v>745</v>
       </c>
       <c r="G83" t="n">
-        <v>148.7100000000002</v>
+        <v>148.7283333333335</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3315,10 +3333,10 @@
         <v>147.8</v>
       </c>
       <c r="F84" t="n">
-        <v>67.48999999999999</v>
+        <v>20</v>
       </c>
       <c r="G84" t="n">
-        <v>148.6800000000001</v>
+        <v>148.7100000000002</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3356,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>146.1</v>
+        <v>147.8</v>
       </c>
       <c r="C85" t="n">
-        <v>146.1</v>
+        <v>147.8</v>
       </c>
       <c r="D85" t="n">
-        <v>146.1</v>
+        <v>147.8</v>
       </c>
       <c r="E85" t="n">
-        <v>146.1</v>
+        <v>147.8</v>
       </c>
       <c r="F85" t="n">
-        <v>3.5</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="G85" t="n">
-        <v>148.6383333333335</v>
+        <v>148.6800000000001</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3391,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>147.8</v>
+        <v>146.1</v>
       </c>
       <c r="C86" t="n">
-        <v>147.8</v>
+        <v>146.1</v>
       </c>
       <c r="D86" t="n">
-        <v>147.8</v>
+        <v>146.1</v>
       </c>
       <c r="E86" t="n">
-        <v>147.8</v>
+        <v>146.1</v>
       </c>
       <c r="F86" t="n">
-        <v>73.614</v>
+        <v>3.5</v>
       </c>
       <c r="G86" t="n">
-        <v>148.6250000000001</v>
+        <v>148.6383333333335</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3426,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>148.6</v>
+        <v>147.8</v>
       </c>
       <c r="C87" t="n">
-        <v>148.6</v>
+        <v>147.8</v>
       </c>
       <c r="D87" t="n">
-        <v>148.6</v>
+        <v>147.8</v>
       </c>
       <c r="E87" t="n">
-        <v>148.6</v>
+        <v>147.8</v>
       </c>
       <c r="F87" t="n">
-        <v>73</v>
+        <v>73.614</v>
       </c>
       <c r="G87" t="n">
-        <v>148.6416666666668</v>
+        <v>148.6250000000001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3461,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>148</v>
+        <v>148.6</v>
       </c>
       <c r="C88" t="n">
-        <v>148</v>
+        <v>148.6</v>
       </c>
       <c r="D88" t="n">
-        <v>148</v>
+        <v>148.6</v>
       </c>
       <c r="E88" t="n">
-        <v>148</v>
+        <v>148.6</v>
       </c>
       <c r="F88" t="n">
-        <v>2956.8202</v>
+        <v>73</v>
       </c>
       <c r="G88" t="n">
-        <v>148.6250000000001</v>
+        <v>148.6416666666668</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3490,10 +3508,10 @@
         <v>148</v>
       </c>
       <c r="F89" t="n">
-        <v>1964.343</v>
+        <v>2956.8202</v>
       </c>
       <c r="G89" t="n">
-        <v>148.6000000000001</v>
+        <v>148.6250000000001</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3516,19 +3534,19 @@
         <v>148</v>
       </c>
       <c r="C90" t="n">
-        <v>148.3</v>
+        <v>148</v>
       </c>
       <c r="D90" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E90" t="n">
         <v>148</v>
       </c>
       <c r="F90" t="n">
-        <v>1458.71</v>
+        <v>1964.343</v>
       </c>
       <c r="G90" t="n">
-        <v>148.5750000000001</v>
+        <v>148.6000000000001</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3566,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
+        <v>148</v>
+      </c>
+      <c r="C91" t="n">
         <v>148.3</v>
       </c>
-      <c r="C91" t="n">
-        <v>148.2</v>
-      </c>
       <c r="D91" t="n">
-        <v>148.3</v>
+        <v>149</v>
       </c>
       <c r="E91" t="n">
-        <v>148.2</v>
+        <v>148</v>
       </c>
       <c r="F91" t="n">
-        <v>470.5335</v>
+        <v>1458.71</v>
       </c>
       <c r="G91" t="n">
-        <v>148.5616666666668</v>
+        <v>148.5750000000001</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3601,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>149</v>
+        <v>148.3</v>
       </c>
       <c r="C92" t="n">
-        <v>149</v>
+        <v>148.2</v>
       </c>
       <c r="D92" t="n">
-        <v>149</v>
+        <v>148.3</v>
       </c>
       <c r="E92" t="n">
-        <v>149</v>
+        <v>148.2</v>
       </c>
       <c r="F92" t="n">
-        <v>560.8654</v>
+        <v>470.5335</v>
       </c>
       <c r="G92" t="n">
-        <v>148.5516666666668</v>
+        <v>148.5616666666668</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3636,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>148.9</v>
+        <v>149</v>
       </c>
       <c r="C93" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D93" t="n">
-        <v>148.9</v>
+        <v>149</v>
       </c>
       <c r="E93" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F93" t="n">
-        <v>2391</v>
+        <v>560.8654</v>
       </c>
       <c r="G93" t="n">
-        <v>148.5250000000001</v>
+        <v>148.5516666666668</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3671,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>148.2</v>
+        <v>148.9</v>
       </c>
       <c r="C94" t="n">
-        <v>148.2</v>
+        <v>148</v>
       </c>
       <c r="D94" t="n">
-        <v>148.2</v>
+        <v>148.9</v>
       </c>
       <c r="E94" t="n">
-        <v>148.2</v>
+        <v>148</v>
       </c>
       <c r="F94" t="n">
-        <v>608</v>
+        <v>2391</v>
       </c>
       <c r="G94" t="n">
-        <v>148.5016666666668</v>
+        <v>148.5250000000001</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3706,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>148.6</v>
+        <v>148.2</v>
       </c>
       <c r="C95" t="n">
-        <v>148.6</v>
+        <v>148.2</v>
       </c>
       <c r="D95" t="n">
-        <v>148.6</v>
+        <v>148.2</v>
       </c>
       <c r="E95" t="n">
-        <v>148.6</v>
+        <v>148.2</v>
       </c>
       <c r="F95" t="n">
-        <v>320</v>
+        <v>608</v>
       </c>
       <c r="G95" t="n">
-        <v>148.4850000000001</v>
+        <v>148.5016666666668</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3726,19 +3744,19 @@
         <v>148.6</v>
       </c>
       <c r="C96" t="n">
-        <v>149.5</v>
+        <v>148.6</v>
       </c>
       <c r="D96" t="n">
-        <v>149.6</v>
+        <v>148.6</v>
       </c>
       <c r="E96" t="n">
         <v>148.6</v>
       </c>
       <c r="F96" t="n">
-        <v>1269.911</v>
+        <v>320</v>
       </c>
       <c r="G96" t="n">
-        <v>148.4833333333335</v>
+        <v>148.4850000000001</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3776,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>148.2</v>
+        <v>148.6</v>
       </c>
       <c r="C97" t="n">
-        <v>148.2</v>
+        <v>149.5</v>
       </c>
       <c r="D97" t="n">
-        <v>148.2</v>
+        <v>149.6</v>
       </c>
       <c r="E97" t="n">
-        <v>148.2</v>
+        <v>148.6</v>
       </c>
       <c r="F97" t="n">
-        <v>597.5133</v>
+        <v>1269.911</v>
       </c>
       <c r="G97" t="n">
-        <v>148.4850000000001</v>
+        <v>148.4833333333335</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3805,10 +3823,10 @@
         <v>148.2</v>
       </c>
       <c r="F98" t="n">
-        <v>503.2466</v>
+        <v>597.5133</v>
       </c>
       <c r="G98" t="n">
-        <v>148.4700000000001</v>
+        <v>148.4850000000001</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,19 +3846,19 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>149</v>
+        <v>148.2</v>
       </c>
       <c r="C99" t="n">
         <v>148.2</v>
       </c>
       <c r="D99" t="n">
-        <v>149</v>
+        <v>148.2</v>
       </c>
       <c r="E99" t="n">
         <v>148.2</v>
       </c>
       <c r="F99" t="n">
-        <v>10133.7773</v>
+        <v>503.2466</v>
       </c>
       <c r="G99" t="n">
         <v>148.4700000000001</v>
@@ -3863,22 +3881,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>148.2</v>
+        <v>149</v>
       </c>
       <c r="C100" t="n">
         <v>148.2</v>
       </c>
       <c r="D100" t="n">
-        <v>148.2</v>
+        <v>149</v>
       </c>
       <c r="E100" t="n">
         <v>148.2</v>
       </c>
       <c r="F100" t="n">
-        <v>107.9</v>
+        <v>10133.7773</v>
       </c>
       <c r="G100" t="n">
-        <v>148.4566666666668</v>
+        <v>148.4700000000001</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3910,10 +3928,10 @@
         <v>148.2</v>
       </c>
       <c r="F101" t="n">
-        <v>1265</v>
+        <v>107.9</v>
       </c>
       <c r="G101" t="n">
-        <v>148.4283333333335</v>
+        <v>148.4566666666668</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3948,7 +3966,7 @@
         <v>1265</v>
       </c>
       <c r="G102" t="n">
-        <v>148.3983333333335</v>
+        <v>148.4283333333335</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3986,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>148.1</v>
+        <v>148.2</v>
       </c>
       <c r="C103" t="n">
-        <v>148.1</v>
+        <v>148.2</v>
       </c>
       <c r="D103" t="n">
-        <v>148.1</v>
+        <v>148.2</v>
       </c>
       <c r="E103" t="n">
-        <v>148.1</v>
+        <v>148.2</v>
       </c>
       <c r="F103" t="n">
-        <v>52.7372</v>
+        <v>1265</v>
       </c>
       <c r="G103" t="n">
-        <v>148.3816666666668</v>
+        <v>148.3983333333335</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4021,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>148.8</v>
+        <v>148.1</v>
       </c>
       <c r="C104" t="n">
-        <v>148.8</v>
+        <v>148.1</v>
       </c>
       <c r="D104" t="n">
-        <v>148.8</v>
+        <v>148.1</v>
       </c>
       <c r="E104" t="n">
-        <v>148.8</v>
+        <v>148.1</v>
       </c>
       <c r="F104" t="n">
-        <v>381.114</v>
+        <v>52.7372</v>
       </c>
       <c r="G104" t="n">
-        <v>148.3616666666668</v>
+        <v>148.3816666666668</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4056,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>149</v>
+        <v>148.8</v>
       </c>
       <c r="C105" t="n">
-        <v>149</v>
+        <v>148.8</v>
       </c>
       <c r="D105" t="n">
-        <v>149</v>
+        <v>148.8</v>
       </c>
       <c r="E105" t="n">
-        <v>149</v>
+        <v>148.8</v>
       </c>
       <c r="F105" t="n">
-        <v>1254.2847</v>
+        <v>381.114</v>
       </c>
       <c r="G105" t="n">
-        <v>148.3450000000002</v>
+        <v>148.3616666666668</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,7 +4091,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>148.9</v>
+        <v>149</v>
       </c>
       <c r="C106" t="n">
         <v>149</v>
@@ -4082,13 +4100,13 @@
         <v>149</v>
       </c>
       <c r="E106" t="n">
-        <v>148.9</v>
+        <v>149</v>
       </c>
       <c r="F106" t="n">
-        <v>1953.5721</v>
+        <v>1254.2847</v>
       </c>
       <c r="G106" t="n">
-        <v>148.3200000000002</v>
+        <v>148.3450000000002</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4126,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>148.5</v>
+        <v>148.9</v>
       </c>
       <c r="C107" t="n">
-        <v>148.5</v>
+        <v>149</v>
       </c>
       <c r="D107" t="n">
-        <v>148.5</v>
+        <v>149</v>
       </c>
       <c r="E107" t="n">
-        <v>148.5</v>
+        <v>148.9</v>
       </c>
       <c r="F107" t="n">
-        <v>202.999</v>
+        <v>1953.5721</v>
       </c>
       <c r="G107" t="n">
-        <v>148.3116666666668</v>
+        <v>148.3200000000002</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4161,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>149</v>
+        <v>148.5</v>
       </c>
       <c r="C108" t="n">
-        <v>148.4</v>
+        <v>148.5</v>
       </c>
       <c r="D108" t="n">
-        <v>149</v>
+        <v>148.5</v>
       </c>
       <c r="E108" t="n">
-        <v>148.4</v>
+        <v>148.5</v>
       </c>
       <c r="F108" t="n">
-        <v>770</v>
+        <v>202.999</v>
       </c>
       <c r="G108" t="n">
-        <v>148.3133333333335</v>
+        <v>148.3116666666668</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4181,16 +4199,16 @@
         <v>149</v>
       </c>
       <c r="C109" t="n">
-        <v>149</v>
+        <v>148.4</v>
       </c>
       <c r="D109" t="n">
         <v>149</v>
       </c>
       <c r="E109" t="n">
-        <v>149</v>
+        <v>148.4</v>
       </c>
       <c r="F109" t="n">
-        <v>1305</v>
+        <v>770</v>
       </c>
       <c r="G109" t="n">
         <v>148.3133333333335</v>
@@ -4225,10 +4243,10 @@
         <v>149</v>
       </c>
       <c r="F110" t="n">
-        <v>2548</v>
+        <v>1305</v>
       </c>
       <c r="G110" t="n">
-        <v>148.3250000000002</v>
+        <v>148.3133333333335</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4260,10 +4278,10 @@
         <v>149</v>
       </c>
       <c r="F111" t="n">
-        <v>23232.3888</v>
+        <v>2548</v>
       </c>
       <c r="G111" t="n">
-        <v>148.3266666666669</v>
+        <v>148.3250000000002</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4295,7 +4313,7 @@
         <v>149</v>
       </c>
       <c r="F112" t="n">
-        <v>382.8758</v>
+        <v>23232.3888</v>
       </c>
       <c r="G112" t="n">
         <v>148.3266666666669</v>
@@ -4330,16 +4348,16 @@
         <v>149</v>
       </c>
       <c r="F113" t="n">
-        <v>387.9997</v>
+        <v>382.8758</v>
       </c>
       <c r="G113" t="n">
-        <v>148.3500000000002</v>
+        <v>148.3266666666669</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4353,22 +4371,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>149.6</v>
+        <v>149</v>
       </c>
       <c r="C114" t="n">
-        <v>149.8</v>
+        <v>149</v>
       </c>
       <c r="D114" t="n">
-        <v>149.8</v>
+        <v>149</v>
       </c>
       <c r="E114" t="n">
-        <v>149.6</v>
+        <v>149</v>
       </c>
       <c r="F114" t="n">
-        <v>2154.91</v>
+        <v>387.9997</v>
       </c>
       <c r="G114" t="n">
-        <v>148.3616666666668</v>
+        <v>148.3500000000002</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,28 +4406,28 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>148.9</v>
+        <v>149.6</v>
       </c>
       <c r="C115" t="n">
-        <v>148.9</v>
+        <v>149.8</v>
       </c>
       <c r="D115" t="n">
-        <v>148.9</v>
+        <v>149.8</v>
       </c>
       <c r="E115" t="n">
-        <v>148.9</v>
+        <v>149.6</v>
       </c>
       <c r="F115" t="n">
-        <v>1256.1823</v>
+        <v>2154.91</v>
       </c>
       <c r="G115" t="n">
-        <v>148.3583333333335</v>
+        <v>148.3616666666668</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4435,10 +4453,10 @@
         <v>148.9</v>
       </c>
       <c r="F116" t="n">
-        <v>30</v>
+        <v>1256.1823</v>
       </c>
       <c r="G116" t="n">
-        <v>148.3800000000001</v>
+        <v>148.3583333333335</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4461,19 +4479,19 @@
         <v>148.9</v>
       </c>
       <c r="C117" t="n">
-        <v>149.7</v>
+        <v>148.9</v>
       </c>
       <c r="D117" t="n">
-        <v>149.7</v>
+        <v>148.9</v>
       </c>
       <c r="E117" t="n">
         <v>148.9</v>
       </c>
       <c r="F117" t="n">
-        <v>2691</v>
+        <v>30</v>
       </c>
       <c r="G117" t="n">
-        <v>148.3900000000002</v>
+        <v>148.3800000000001</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4511,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>149.8</v>
+        <v>148.9</v>
       </c>
       <c r="C118" t="n">
-        <v>149.8</v>
+        <v>149.7</v>
       </c>
       <c r="D118" t="n">
-        <v>149.8</v>
+        <v>149.7</v>
       </c>
       <c r="E118" t="n">
-        <v>149.8</v>
+        <v>148.9</v>
       </c>
       <c r="F118" t="n">
-        <v>918</v>
+        <v>2691</v>
       </c>
       <c r="G118" t="n">
-        <v>148.4016666666668</v>
+        <v>148.3900000000002</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4540,10 +4558,10 @@
         <v>149.8</v>
       </c>
       <c r="F119" t="n">
-        <v>15.2408</v>
+        <v>918</v>
       </c>
       <c r="G119" t="n">
-        <v>148.4116666666668</v>
+        <v>148.4016666666668</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,28 +4581,28 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>149</v>
+        <v>149.8</v>
       </c>
       <c r="C120" t="n">
-        <v>149</v>
+        <v>149.8</v>
       </c>
       <c r="D120" t="n">
-        <v>149</v>
+        <v>149.8</v>
       </c>
       <c r="E120" t="n">
-        <v>149</v>
+        <v>149.8</v>
       </c>
       <c r="F120" t="n">
-        <v>3183.2636</v>
+        <v>15.2408</v>
       </c>
       <c r="G120" t="n">
-        <v>148.4050000000001</v>
+        <v>148.4116666666668</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -4598,28 +4616,28 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C121" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D121" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E121" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F121" t="n">
-        <v>218.9002</v>
+        <v>3183.2636</v>
       </c>
       <c r="G121" t="n">
-        <v>148.4133333333334</v>
+        <v>148.4050000000001</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -4628,6 +4646,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>150</v>
+      </c>
+      <c r="C122" t="n">
+        <v>150</v>
+      </c>
+      <c r="D122" t="n">
+        <v>150</v>
+      </c>
+      <c r="E122" t="n">
+        <v>150</v>
+      </c>
+      <c r="F122" t="n">
+        <v>218.9002</v>
+      </c>
+      <c r="G122" t="n">
+        <v>148.4133333333334</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-13 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-13 BackTest STEEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M122"/>
+  <dimension ref="A1:N132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>22046.367</v>
       </c>
       <c r="G2" t="n">
+        <v>148.1066666666667</v>
+      </c>
+      <c r="H2" t="n">
         <v>148.9333333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>5271.2321</v>
       </c>
       <c r="G3" t="n">
+        <v>148.02</v>
+      </c>
+      <c r="H3" t="n">
         <v>148.8466666666666</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>3.5</v>
       </c>
       <c r="G4" t="n">
+        <v>147.96</v>
+      </c>
+      <c r="H4" t="n">
         <v>148.7683333333333</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>3162.2067</v>
       </c>
       <c r="G5" t="n">
+        <v>147.9133333333334</v>
+      </c>
+      <c r="H5" t="n">
         <v>148.6849999999999</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>470.2319</v>
       </c>
       <c r="G6" t="n">
+        <v>147.9666666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>148.6183333333333</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>781.1024</v>
       </c>
       <c r="G7" t="n">
+        <v>147.8933333333334</v>
+      </c>
+      <c r="H7" t="n">
         <v>148.5333333333332</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>683.526</v>
       </c>
       <c r="G8" t="n">
+        <v>147.7733333333334</v>
+      </c>
+      <c r="H8" t="n">
         <v>148.4399999999999</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>24321.9726</v>
       </c>
       <c r="G9" t="n">
+        <v>147.4866666666667</v>
+      </c>
+      <c r="H9" t="n">
         <v>148.3483333333332</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>1500</v>
       </c>
       <c r="G10" t="n">
+        <v>147.2333333333334</v>
+      </c>
+      <c r="H10" t="n">
         <v>148.2983333333332</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>5588</v>
       </c>
       <c r="G11" t="n">
+        <v>146.9600000000001</v>
+      </c>
+      <c r="H11" t="n">
         <v>148.2599999999999</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>1490</v>
       </c>
       <c r="G12" t="n">
+        <v>146.8666666666667</v>
+      </c>
+      <c r="H12" t="n">
         <v>148.1899999999999</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>16095.7996</v>
       </c>
       <c r="G13" t="n">
+        <v>146.8600000000001</v>
+      </c>
+      <c r="H13" t="n">
         <v>148.1716666666666</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>5277.105</v>
       </c>
       <c r="G14" t="n">
+        <v>146.8800000000001</v>
+      </c>
+      <c r="H14" t="n">
         <v>148.1199999999999</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>3189</v>
       </c>
       <c r="G15" t="n">
+        <v>146.9400000000001</v>
+      </c>
+      <c r="H15" t="n">
         <v>148.0683333333332</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>8703</v>
       </c>
       <c r="G16" t="n">
+        <v>146.9466666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>148.0166666666665</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>108.4226</v>
       </c>
       <c r="G17" t="n">
+        <v>146.9266666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>147.9349999999999</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,25 @@
         <v>13227.2153</v>
       </c>
       <c r="G18" t="n">
+        <v>146.9400000000001</v>
+      </c>
+      <c r="H18" t="n">
         <v>147.9016666666666</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>146.7</v>
+      </c>
+      <c r="L18" t="n">
+        <v>146.7</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1103,27 @@
         <v>29.9609</v>
       </c>
       <c r="G19" t="n">
+        <v>146.9933333333334</v>
+      </c>
+      <c r="H19" t="n">
         <v>147.8849999999999</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="L19" t="n">
+        <v>146.7</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1147,27 @@
         <v>21.8495</v>
       </c>
       <c r="G20" t="n">
+        <v>147.0733333333334</v>
+      </c>
+      <c r="H20" t="n">
         <v>147.8933333333332</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="L20" t="n">
+        <v>146.7</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1191,21 @@
         <v>13518.2383</v>
       </c>
       <c r="G21" t="n">
+        <v>147.0933333333334</v>
+      </c>
+      <c r="H21" t="n">
         <v>147.9133333333332</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1229,21 @@
         <v>7053.4781</v>
       </c>
       <c r="G22" t="n">
+        <v>147.14</v>
+      </c>
+      <c r="H22" t="n">
         <v>147.8733333333332</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1267,21 @@
         <v>1034</v>
       </c>
       <c r="G23" t="n">
+        <v>147.32</v>
+      </c>
+      <c r="H23" t="n">
         <v>147.8883333333332</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1305,21 @@
         <v>2898.7734</v>
       </c>
       <c r="G24" t="n">
+        <v>147.6133333333333</v>
+      </c>
+      <c r="H24" t="n">
         <v>147.8866666666666</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1343,21 @@
         <v>5845.5895</v>
       </c>
       <c r="G25" t="n">
+        <v>147.8533333333334</v>
+      </c>
+      <c r="H25" t="n">
         <v>147.8849999999999</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1381,21 @@
         <v>2466.5087</v>
       </c>
       <c r="G26" t="n">
+        <v>147.9733333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>147.8616666666666</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1419,21 @@
         <v>1702.0953</v>
       </c>
       <c r="G27" t="n">
+        <v>148.1066666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>147.8716666666666</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1457,21 @@
         <v>650.8567</v>
       </c>
       <c r="G28" t="n">
+        <v>148.0866666666666</v>
+      </c>
+      <c r="H28" t="n">
         <v>147.8649999999999</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1495,21 @@
         <v>4866.7383</v>
       </c>
       <c r="G29" t="n">
+        <v>148.16</v>
+      </c>
+      <c r="H29" t="n">
         <v>147.8799999999999</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1533,21 @@
         <v>12437.47</v>
       </c>
       <c r="G30" t="n">
+        <v>148.2666666666666</v>
+      </c>
+      <c r="H30" t="n">
         <v>147.9033333333332</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1571,21 @@
         <v>1972.6031</v>
       </c>
       <c r="G31" t="n">
+        <v>148.3933333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>147.9183333333332</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1609,21 @@
         <v>4991.744</v>
       </c>
       <c r="G32" t="n">
+        <v>148.5466666666667</v>
+      </c>
+      <c r="H32" t="n">
         <v>147.9183333333332</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1647,21 @@
         <v>2662.2052</v>
       </c>
       <c r="G33" t="n">
+        <v>148.72</v>
+      </c>
+      <c r="H33" t="n">
         <v>147.9449999999999</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1685,21 @@
         <v>591.2987000000001</v>
       </c>
       <c r="G34" t="n">
+        <v>148.8266666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>147.9716666666666</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1723,21 @@
         <v>157.7328</v>
       </c>
       <c r="G35" t="n">
+        <v>148.9333333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>148.0183333333333</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1761,21 @@
         <v>375</v>
       </c>
       <c r="G36" t="n">
+        <v>149.0333333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>148.0449999999999</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1799,21 @@
         <v>228.8543</v>
       </c>
       <c r="G37" t="n">
+        <v>149.1733333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>148.0916666666666</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1837,21 @@
         <v>1503</v>
       </c>
       <c r="G38" t="n">
+        <v>149.1133333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>148.0933333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1875,21 @@
         <v>3526.7472</v>
       </c>
       <c r="G39" t="n">
+        <v>149.1266666666666</v>
+      </c>
+      <c r="H39" t="n">
         <v>148.1116666666666</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1913,21 @@
         <v>4218.7209</v>
       </c>
       <c r="G40" t="n">
+        <v>149.0333333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>148.1316666666666</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1951,21 @@
         <v>3392.2528</v>
       </c>
       <c r="G41" t="n">
+        <v>149.0599999999999</v>
+      </c>
+      <c r="H41" t="n">
         <v>148.135</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1989,21 @@
         <v>2130</v>
       </c>
       <c r="G42" t="n">
+        <v>149.1466666666666</v>
+      </c>
+      <c r="H42" t="n">
         <v>148.15</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2027,21 @@
         <v>5706.5985</v>
       </c>
       <c r="G43" t="n">
+        <v>149.3066666666666</v>
+      </c>
+      <c r="H43" t="n">
         <v>148.1833333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2065,21 @@
         <v>2794.6867</v>
       </c>
       <c r="G44" t="n">
+        <v>149.3133333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>148.185</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2103,21 @@
         <v>6650.0404</v>
       </c>
       <c r="G45" t="n">
+        <v>149.3466666666666</v>
+      </c>
+      <c r="H45" t="n">
         <v>148.1883333333333</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2141,21 @@
         <v>910.8684</v>
       </c>
       <c r="G46" t="n">
+        <v>149.36</v>
+      </c>
+      <c r="H46" t="n">
         <v>148.22</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2179,21 @@
         <v>188</v>
       </c>
       <c r="G47" t="n">
+        <v>149.46</v>
+      </c>
+      <c r="H47" t="n">
         <v>148.26</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2217,21 @@
         <v>1693.3859</v>
       </c>
       <c r="G48" t="n">
+        <v>149.42</v>
+      </c>
+      <c r="H48" t="n">
         <v>148.275</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2255,21 @@
         <v>14738.7501</v>
       </c>
       <c r="G49" t="n">
+        <v>149.3333333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>148.2783333333333</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2293,21 @@
         <v>2210.8125</v>
       </c>
       <c r="G50" t="n">
+        <v>149.2933333333333</v>
+      </c>
+      <c r="H50" t="n">
         <v>148.3033333333333</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2331,21 @@
         <v>5</v>
       </c>
       <c r="G51" t="n">
+        <v>149.2066666666666</v>
+      </c>
+      <c r="H51" t="n">
         <v>148.3249999999999</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2369,21 @@
         <v>522</v>
       </c>
       <c r="G52" t="n">
+        <v>149.16</v>
+      </c>
+      <c r="H52" t="n">
         <v>148.3416666666666</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2407,21 @@
         <v>2000</v>
       </c>
       <c r="G53" t="n">
+        <v>149.22</v>
+      </c>
+      <c r="H53" t="n">
         <v>148.3566666666666</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2445,21 @@
         <v>5.588</v>
       </c>
       <c r="G54" t="n">
+        <v>149.12</v>
+      </c>
+      <c r="H54" t="n">
         <v>148.3366666666666</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2483,21 @@
         <v>3098.3026</v>
       </c>
       <c r="G55" t="n">
+        <v>149.18</v>
+      </c>
+      <c r="H55" t="n">
         <v>148.325</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2521,21 @@
         <v>161</v>
       </c>
       <c r="G56" t="n">
+        <v>149.1866666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>148.295</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2559,21 @@
         <v>9.48</v>
       </c>
       <c r="G57" t="n">
+        <v>149.0333333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>148.2883333333333</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2597,21 @@
         <v>3000</v>
       </c>
       <c r="G58" t="n">
+        <v>148.9733333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>148.3066666666667</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2635,21 @@
         <v>2900.1758</v>
       </c>
       <c r="G59" t="n">
+        <v>148.9733333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>148.3316666666666</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2673,21 @@
         <v>1267</v>
       </c>
       <c r="G60" t="n">
+        <v>148.92</v>
+      </c>
+      <c r="H60" t="n">
         <v>148.3683333333333</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2711,21 @@
         <v>4579.8473</v>
       </c>
       <c r="G61" t="n">
+        <v>148.88</v>
+      </c>
+      <c r="H61" t="n">
         <v>148.395</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2749,21 @@
         <v>1104.1531</v>
       </c>
       <c r="G62" t="n">
+        <v>148.8133333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>148.4366666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2787,21 @@
         <v>8</v>
       </c>
       <c r="G63" t="n">
+        <v>148.8133333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>148.4733333333334</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2825,21 @@
         <v>77.77</v>
       </c>
       <c r="G64" t="n">
+        <v>148.9066666666666</v>
+      </c>
+      <c r="H64" t="n">
         <v>148.515</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2863,21 @@
         <v>669.9807</v>
       </c>
       <c r="G65" t="n">
+        <v>148.8466666666666</v>
+      </c>
+      <c r="H65" t="n">
         <v>148.5366666666667</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2901,21 @@
         <v>2204.644</v>
       </c>
       <c r="G66" t="n">
+        <v>148.8333333333333</v>
+      </c>
+      <c r="H66" t="n">
         <v>148.5416666666667</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2939,21 @@
         <v>4200</v>
       </c>
       <c r="G67" t="n">
+        <v>148.7066666666666</v>
+      </c>
+      <c r="H67" t="n">
         <v>148.5450000000001</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2977,21 @@
         <v>11527.4004</v>
       </c>
       <c r="G68" t="n">
+        <v>148.5866666666666</v>
+      </c>
+      <c r="H68" t="n">
         <v>148.5600000000001</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3015,25 @@
         <v>250</v>
       </c>
       <c r="G69" t="n">
+        <v>148.6199999999999</v>
+      </c>
+      <c r="H69" t="n">
         <v>148.6200000000001</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>147.2</v>
+      </c>
+      <c r="L69" t="n">
+        <v>147.2</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3057,29 @@
         <v>76</v>
       </c>
       <c r="G70" t="n">
+        <v>148.5533333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>148.6550000000001</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="L70" t="n">
+        <v>147.2</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3103,29 @@
         <v>8199.967699999999</v>
       </c>
       <c r="G71" t="n">
+        <v>148.4866666666666</v>
+      </c>
+      <c r="H71" t="n">
         <v>148.6766666666668</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="L71" t="n">
+        <v>147.2</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3149,21 @@
         <v>3072.5298</v>
       </c>
       <c r="G72" t="n">
+        <v>148.5199999999999</v>
+      </c>
+      <c r="H72" t="n">
         <v>148.7016666666668</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3187,21 @@
         <v>1485.5384</v>
       </c>
       <c r="G73" t="n">
+        <v>148.4533333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>148.7050000000001</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3225,25 @@
         <v>134.8118</v>
       </c>
       <c r="G74" t="n">
+        <v>148.3866666666666</v>
+      </c>
+      <c r="H74" t="n">
         <v>148.7083333333335</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="L74" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3267,29 @@
         <v>120.3758</v>
       </c>
       <c r="G75" t="n">
+        <v>148.3133333333332</v>
+      </c>
+      <c r="H75" t="n">
         <v>148.7116666666668</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="L75" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3313,27 @@
         <v>52.3034</v>
       </c>
       <c r="G76" t="n">
+        <v>148.1599999999999</v>
+      </c>
+      <c r="H76" t="n">
         <v>148.6983333333335</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,22 +3357,25 @@
         <v>3821</v>
       </c>
       <c r="G77" t="n">
+        <v>148.0599999999999</v>
+      </c>
+      <c r="H77" t="n">
         <v>148.7200000000002</v>
       </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>147.1</v>
+        <v>0</v>
       </c>
       <c r="K77" t="n">
         <v>147.1</v>
       </c>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>147.1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3112,26 +3399,29 @@
         <v>20253.1188</v>
       </c>
       <c r="G78" t="n">
+        <v>147.9999999999999</v>
+      </c>
+      <c r="H78" t="n">
         <v>148.7383333333335</v>
       </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
         <v>148</v>
       </c>
-      <c r="K78" t="n">
+      <c r="L78" t="n">
         <v>147.1</v>
       </c>
-      <c r="L78" t="inlineStr">
+      <c r="M78" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M78" t="n">
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3155,24 +3445,27 @@
         <v>3881.6002</v>
       </c>
       <c r="G79" t="n">
+        <v>147.8933333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>148.7400000000002</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
         <v>147.1</v>
       </c>
-      <c r="L79" t="inlineStr">
+      <c r="M79" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M79" t="n">
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3196,18 +3489,21 @@
         <v>2076.1073</v>
       </c>
       <c r="G80" t="n">
+        <v>147.8933333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>148.7416666666668</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3231,18 +3527,27 @@
         <v>2778.2707</v>
       </c>
       <c r="G81" t="n">
+        <v>147.8199999999999</v>
+      </c>
+      <c r="H81" t="n">
         <v>148.7233333333335</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>148.1</v>
+      </c>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3266,18 +3571,27 @@
         <v>4873.7832</v>
       </c>
       <c r="G82" t="n">
+        <v>147.9066666666666</v>
+      </c>
+      <c r="H82" t="n">
         <v>148.7366666666668</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>147</v>
+      </c>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3301,18 +3615,27 @@
         <v>745</v>
       </c>
       <c r="G83" t="n">
+        <v>147.9933333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>148.7283333333335</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>148.3</v>
+      </c>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3336,18 +3659,25 @@
         <v>20</v>
       </c>
       <c r="G84" t="n">
+        <v>147.9733333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>148.7100000000002</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3371,18 +3701,25 @@
         <v>67.48999999999999</v>
       </c>
       <c r="G85" t="n">
+        <v>147.9533333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>148.6800000000001</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,18 +3743,25 @@
         <v>3.5</v>
       </c>
       <c r="G86" t="n">
+        <v>147.82</v>
+      </c>
+      <c r="H86" t="n">
         <v>148.6383333333335</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3441,18 +3785,25 @@
         <v>73.614</v>
       </c>
       <c r="G87" t="n">
+        <v>147.8</v>
+      </c>
+      <c r="H87" t="n">
         <v>148.6250000000001</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3476,18 +3827,25 @@
         <v>73</v>
       </c>
       <c r="G88" t="n">
+        <v>147.8333333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>148.6416666666668</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3511,18 +3869,25 @@
         <v>2956.8202</v>
       </c>
       <c r="G89" t="n">
+        <v>147.8266666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>148.6250000000001</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3546,18 +3911,25 @@
         <v>1964.343</v>
       </c>
       <c r="G90" t="n">
+        <v>147.82</v>
+      </c>
+      <c r="H90" t="n">
         <v>148.6000000000001</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3581,18 +3953,25 @@
         <v>1458.71</v>
       </c>
       <c r="G91" t="n">
+        <v>147.9</v>
+      </c>
+      <c r="H91" t="n">
         <v>148.5750000000001</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3616,18 +3995,25 @@
         <v>470.5335</v>
       </c>
       <c r="G92" t="n">
+        <v>147.9133333333334</v>
+      </c>
+      <c r="H92" t="n">
         <v>148.5616666666668</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3651,18 +4037,27 @@
         <v>560.8654</v>
       </c>
       <c r="G93" t="n">
+        <v>147.9733333333334</v>
+      </c>
+      <c r="H93" t="n">
         <v>148.5516666666668</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>148.2</v>
+      </c>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3686,18 +4081,25 @@
         <v>2391</v>
       </c>
       <c r="G94" t="n">
+        <v>147.9666666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>148.5250000000001</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3721,18 +4123,25 @@
         <v>608</v>
       </c>
       <c r="G95" t="n">
+        <v>147.9733333333334</v>
+      </c>
+      <c r="H95" t="n">
         <v>148.5016666666668</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3756,18 +4165,25 @@
         <v>320</v>
       </c>
       <c r="G96" t="n">
+        <v>148.08</v>
+      </c>
+      <c r="H96" t="n">
         <v>148.4850000000001</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3791,18 +4207,27 @@
         <v>1269.911</v>
       </c>
       <c r="G97" t="n">
+        <v>148.16</v>
+      </c>
+      <c r="H97" t="n">
         <v>148.4833333333335</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>148.6</v>
+      </c>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3826,18 +4251,25 @@
         <v>597.5133</v>
       </c>
       <c r="G98" t="n">
+        <v>148.14</v>
+      </c>
+      <c r="H98" t="n">
         <v>148.4850000000001</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3861,18 +4293,27 @@
         <v>503.2466</v>
       </c>
       <c r="G99" t="n">
+        <v>148.1666666666666</v>
+      </c>
+      <c r="H99" t="n">
         <v>148.4700000000001</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>148.2</v>
+      </c>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,18 +4337,25 @@
         <v>10133.7773</v>
       </c>
       <c r="G100" t="n">
+        <v>148.1933333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>148.4700000000001</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3931,18 +4379,27 @@
         <v>107.9</v>
       </c>
       <c r="G101" t="n">
+        <v>148.3333333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>148.4566666666668</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>148.2</v>
+      </c>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3966,18 +4423,27 @@
         <v>1265</v>
       </c>
       <c r="G102" t="n">
+        <v>148.3599999999999</v>
+      </c>
+      <c r="H102" t="n">
         <v>148.4283333333335</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>148.2</v>
+      </c>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4001,18 +4467,27 @@
         <v>1265</v>
       </c>
       <c r="G103" t="n">
+        <v>148.3333333333332</v>
+      </c>
+      <c r="H103" t="n">
         <v>148.3983333333335</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>148.2</v>
+      </c>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4036,18 +4511,27 @@
         <v>52.7372</v>
       </c>
       <c r="G104" t="n">
+        <v>148.3399999999999</v>
+      </c>
+      <c r="H104" t="n">
         <v>148.3816666666668</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>148.2</v>
+      </c>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4071,18 +4555,27 @@
         <v>381.114</v>
       </c>
       <c r="G105" t="n">
+        <v>148.3933333333333</v>
+      </c>
+      <c r="H105" t="n">
         <v>148.3616666666668</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>148.1</v>
+      </c>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4106,18 +4599,27 @@
         <v>1254.2847</v>
       </c>
       <c r="G106" t="n">
+        <v>148.4399999999999</v>
+      </c>
+      <c r="H106" t="n">
         <v>148.3450000000002</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>148.8</v>
+      </c>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4141,18 +4643,25 @@
         <v>1953.5721</v>
       </c>
       <c r="G107" t="n">
+        <v>148.4933333333333</v>
+      </c>
+      <c r="H107" t="n">
         <v>148.3200000000002</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4176,18 +4685,25 @@
         <v>202.999</v>
       </c>
       <c r="G108" t="n">
+        <v>148.4599999999999</v>
+      </c>
+      <c r="H108" t="n">
         <v>148.3116666666668</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4211,18 +4727,25 @@
         <v>770</v>
       </c>
       <c r="G109" t="n">
+        <v>148.4866666666666</v>
+      </c>
+      <c r="H109" t="n">
         <v>148.3133333333335</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4246,18 +4769,25 @@
         <v>1305</v>
       </c>
       <c r="G110" t="n">
+        <v>148.5399999999999</v>
+      </c>
+      <c r="H110" t="n">
         <v>148.3133333333335</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4281,18 +4811,25 @@
         <v>2548</v>
       </c>
       <c r="G111" t="n">
+        <v>148.5666666666666</v>
+      </c>
+      <c r="H111" t="n">
         <v>148.3250000000002</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4316,18 +4853,25 @@
         <v>23232.3888</v>
       </c>
       <c r="G112" t="n">
+        <v>148.5333333333333</v>
+      </c>
+      <c r="H112" t="n">
         <v>148.3266666666669</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4351,18 +4895,25 @@
         <v>382.8758</v>
       </c>
       <c r="G113" t="n">
+        <v>148.5866666666666</v>
+      </c>
+      <c r="H113" t="n">
         <v>148.3266666666669</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4386,18 +4937,25 @@
         <v>387.9997</v>
       </c>
       <c r="G114" t="n">
+        <v>148.64</v>
+      </c>
+      <c r="H114" t="n">
         <v>148.3500000000002</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
-        <v>1</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4421,18 +4979,25 @@
         <v>2154.91</v>
       </c>
       <c r="G115" t="n">
+        <v>148.7466666666666</v>
+      </c>
+      <c r="H115" t="n">
         <v>148.3616666666668</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
-        <v>1</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4456,18 +5021,25 @@
         <v>1256.1823</v>
       </c>
       <c r="G116" t="n">
+        <v>148.7933333333334</v>
+      </c>
+      <c r="H116" t="n">
         <v>148.3583333333335</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4491,18 +5063,25 @@
         <v>30</v>
       </c>
       <c r="G117" t="n">
+        <v>148.84</v>
+      </c>
+      <c r="H117" t="n">
         <v>148.3800000000001</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4526,18 +5105,25 @@
         <v>2691</v>
       </c>
       <c r="G118" t="n">
+        <v>148.94</v>
+      </c>
+      <c r="H118" t="n">
         <v>148.3900000000002</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4561,18 +5147,25 @@
         <v>918</v>
       </c>
       <c r="G119" t="n">
+        <v>149.0533333333334</v>
+      </c>
+      <c r="H119" t="n">
         <v>148.4016666666668</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4596,18 +5189,25 @@
         <v>15.2408</v>
       </c>
       <c r="G120" t="n">
+        <v>149.12</v>
+      </c>
+      <c r="H120" t="n">
         <v>148.4116666666668</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4631,18 +5231,25 @@
         <v>3183.2636</v>
       </c>
       <c r="G121" t="n">
+        <v>149.12</v>
+      </c>
+      <c r="H121" t="n">
         <v>148.4050000000001</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4666,18 +5273,419 @@
         <v>218.9002</v>
       </c>
       <c r="G122" t="n">
+        <v>149.1866666666667</v>
+      </c>
+      <c r="H122" t="n">
         <v>148.4133333333334</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>150.6</v>
+      </c>
+      <c r="C123" t="n">
+        <v>150.8</v>
+      </c>
+      <c r="D123" t="n">
+        <v>150.9</v>
+      </c>
+      <c r="E123" t="n">
+        <v>150.6</v>
+      </c>
+      <c r="F123" t="n">
+        <v>2117.597</v>
+      </c>
+      <c r="G123" t="n">
+        <v>149.3400000000001</v>
+      </c>
+      <c r="H123" t="n">
+        <v>148.4433333333334</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>150.9</v>
+      </c>
+      <c r="C124" t="n">
+        <v>151</v>
+      </c>
+      <c r="D124" t="n">
+        <v>151</v>
+      </c>
+      <c r="E124" t="n">
+        <v>150.9</v>
+      </c>
+      <c r="F124" t="n">
+        <v>7621.7408</v>
+      </c>
+      <c r="G124" t="n">
+        <v>149.5133333333334</v>
+      </c>
+      <c r="H124" t="n">
+        <v>148.4650000000001</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="C125" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="D125" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="E125" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="F125" t="n">
+        <v>214.39</v>
+      </c>
+      <c r="G125" t="n">
+        <v>149.6533333333334</v>
+      </c>
+      <c r="H125" t="n">
+        <v>148.5150000000001</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="C126" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="D126" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="E126" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="F126" t="n">
+        <v>485.61</v>
+      </c>
+      <c r="G126" t="n">
+        <v>149.7933333333334</v>
+      </c>
+      <c r="H126" t="n">
+        <v>148.5650000000001</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>151</v>
+      </c>
+      <c r="C127" t="n">
+        <v>151</v>
+      </c>
+      <c r="D127" t="n">
+        <v>151</v>
+      </c>
+      <c r="E127" t="n">
+        <v>151</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1914.589</v>
+      </c>
+      <c r="G127" t="n">
+        <v>149.9266666666667</v>
+      </c>
+      <c r="H127" t="n">
+        <v>148.6316666666667</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>151</v>
+      </c>
+      <c r="C128" t="n">
+        <v>151</v>
+      </c>
+      <c r="D128" t="n">
+        <v>151</v>
+      </c>
+      <c r="E128" t="n">
+        <v>151</v>
+      </c>
+      <c r="F128" t="n">
+        <v>125</v>
+      </c>
+      <c r="G128" t="n">
+        <v>150.06</v>
+      </c>
+      <c r="H128" t="n">
+        <v>148.6950000000001</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>151</v>
+      </c>
+      <c r="C129" t="n">
+        <v>151</v>
+      </c>
+      <c r="D129" t="n">
+        <v>151</v>
+      </c>
+      <c r="E129" t="n">
+        <v>151</v>
+      </c>
+      <c r="F129" t="n">
+        <v>556.3424</v>
+      </c>
+      <c r="G129" t="n">
+        <v>150.1933333333334</v>
+      </c>
+      <c r="H129" t="n">
+        <v>148.7433333333334</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>150.2</v>
+      </c>
+      <c r="C130" t="n">
+        <v>150.2</v>
+      </c>
+      <c r="D130" t="n">
+        <v>150.2</v>
+      </c>
+      <c r="E130" t="n">
+        <v>150.2</v>
+      </c>
+      <c r="F130" t="n">
+        <v>897.4362</v>
+      </c>
+      <c r="G130" t="n">
+        <v>150.22</v>
+      </c>
+      <c r="H130" t="n">
+        <v>148.7783333333334</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>150.9</v>
+      </c>
+      <c r="C131" t="n">
+        <v>150.9</v>
+      </c>
+      <c r="D131" t="n">
+        <v>150.9</v>
+      </c>
+      <c r="E131" t="n">
+        <v>150.9</v>
+      </c>
+      <c r="F131" t="n">
+        <v>287.8392</v>
+      </c>
+      <c r="G131" t="n">
+        <v>150.3533333333334</v>
+      </c>
+      <c r="H131" t="n">
+        <v>148.8250000000001</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>150.1</v>
+      </c>
+      <c r="C132" t="n">
+        <v>150</v>
+      </c>
+      <c r="D132" t="n">
+        <v>150.1</v>
+      </c>
+      <c r="E132" t="n">
+        <v>150</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2860.7484</v>
+      </c>
+      <c r="G132" t="n">
+        <v>150.4266666666667</v>
+      </c>
+      <c r="H132" t="n">
+        <v>148.8566666666667</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-13 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-13 BackTest STEEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N132"/>
+  <dimension ref="A1:M161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C2" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D2" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E2" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F2" t="n">
-        <v>22046.367</v>
+        <v>259.1909</v>
       </c>
       <c r="G2" t="n">
-        <v>148.1066666666667</v>
+        <v>-25919.9436</v>
       </c>
       <c r="H2" t="n">
-        <v>148.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -479,33 +471,30 @@
         <v>147</v>
       </c>
       <c r="C3" t="n">
-        <v>146.8</v>
+        <v>148</v>
       </c>
       <c r="D3" t="n">
+        <v>148</v>
+      </c>
+      <c r="E3" t="n">
         <v>147</v>
       </c>
-      <c r="E3" t="n">
-        <v>146.8</v>
-      </c>
       <c r="F3" t="n">
-        <v>5271.2321</v>
+        <v>2655.656</v>
       </c>
       <c r="G3" t="n">
-        <v>148.02</v>
+        <v>-25919.9436</v>
       </c>
       <c r="H3" t="n">
-        <v>148.8466666666666</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>147.2</v>
+        <v>146.9</v>
       </c>
       <c r="C4" t="n">
-        <v>147.2</v>
+        <v>146.8</v>
       </c>
       <c r="D4" t="n">
-        <v>147.2</v>
+        <v>146.9</v>
       </c>
       <c r="E4" t="n">
-        <v>147.2</v>
+        <v>146.8</v>
       </c>
       <c r="F4" t="n">
-        <v>3.5</v>
+        <v>4029.3712</v>
       </c>
       <c r="G4" t="n">
-        <v>147.96</v>
+        <v>-29949.3148</v>
       </c>
       <c r="H4" t="n">
-        <v>148.7683333333333</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -555,33 +541,34 @@
         <v>147</v>
       </c>
       <c r="C5" t="n">
-        <v>146.8</v>
+        <v>148</v>
       </c>
       <c r="D5" t="n">
+        <v>148</v>
+      </c>
+      <c r="E5" t="n">
         <v>147</v>
       </c>
-      <c r="E5" t="n">
-        <v>146.8</v>
-      </c>
       <c r="F5" t="n">
-        <v>3162.2067</v>
+        <v>394</v>
       </c>
       <c r="G5" t="n">
-        <v>147.9133333333334</v>
+        <v>-29555.3148</v>
       </c>
       <c r="H5" t="n">
-        <v>148.6849999999999</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+        <v>146.8</v>
+      </c>
+      <c r="K5" t="n">
+        <v>146.8</v>
+      </c>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +577,41 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>147.8</v>
+        <v>146.8</v>
       </c>
       <c r="C6" t="n">
-        <v>147.8</v>
+        <v>146.8</v>
       </c>
       <c r="D6" t="n">
-        <v>147.8</v>
+        <v>146.8</v>
       </c>
       <c r="E6" t="n">
-        <v>147.8</v>
+        <v>146.8</v>
       </c>
       <c r="F6" t="n">
-        <v>470.2319</v>
+        <v>177.2842</v>
       </c>
       <c r="G6" t="n">
-        <v>147.9666666666667</v>
+        <v>-29732.599</v>
       </c>
       <c r="H6" t="n">
-        <v>148.6183333333333</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+        <v>148</v>
+      </c>
+      <c r="K6" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +620,41 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>146.8</v>
+        <v>148</v>
       </c>
       <c r="C7" t="n">
-        <v>146.8</v>
+        <v>148</v>
       </c>
       <c r="D7" t="n">
-        <v>146.8</v>
+        <v>148</v>
       </c>
       <c r="E7" t="n">
-        <v>146.8</v>
+        <v>148</v>
       </c>
       <c r="F7" t="n">
-        <v>781.1024</v>
+        <v>2520.847</v>
       </c>
       <c r="G7" t="n">
-        <v>147.8933333333334</v>
+        <v>-27211.752</v>
       </c>
       <c r="H7" t="n">
-        <v>148.5333333333332</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="K7" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +663,41 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>146.3</v>
+        <v>147</v>
       </c>
       <c r="C8" t="n">
-        <v>146.3</v>
+        <v>148</v>
       </c>
       <c r="D8" t="n">
-        <v>146.3</v>
+        <v>148</v>
       </c>
       <c r="E8" t="n">
-        <v>146.3</v>
+        <v>147</v>
       </c>
       <c r="F8" t="n">
-        <v>683.526</v>
+        <v>3888.946</v>
       </c>
       <c r="G8" t="n">
-        <v>147.7733333333334</v>
+        <v>-27211.752</v>
       </c>
       <c r="H8" t="n">
-        <v>148.4399999999999</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+        <v>148</v>
+      </c>
+      <c r="K8" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +706,41 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C9" t="n">
-        <v>144.5</v>
+        <v>147</v>
       </c>
       <c r="D9" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E9" t="n">
-        <v>144.5</v>
+        <v>147</v>
       </c>
       <c r="F9" t="n">
-        <v>24321.9726</v>
+        <v>112.699</v>
       </c>
       <c r="G9" t="n">
-        <v>147.4866666666667</v>
+        <v>-27324.451</v>
       </c>
       <c r="H9" t="n">
-        <v>148.3483333333332</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+        <v>148</v>
+      </c>
+      <c r="K9" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +749,41 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>145.8</v>
+        <v>148.8</v>
       </c>
       <c r="C10" t="n">
-        <v>146</v>
+        <v>148.8</v>
       </c>
       <c r="D10" t="n">
-        <v>146</v>
+        <v>148.8</v>
       </c>
       <c r="E10" t="n">
-        <v>145.8</v>
+        <v>148.8</v>
       </c>
       <c r="F10" t="n">
-        <v>1500</v>
+        <v>240.502</v>
       </c>
       <c r="G10" t="n">
-        <v>147.2333333333334</v>
+        <v>-27083.949</v>
       </c>
       <c r="H10" t="n">
-        <v>148.2983333333332</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+        <v>147</v>
+      </c>
+      <c r="K10" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +792,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>145.9</v>
+        <v>149</v>
       </c>
       <c r="C11" t="n">
-        <v>146.8</v>
+        <v>149</v>
       </c>
       <c r="D11" t="n">
-        <v>146.8</v>
+        <v>149</v>
       </c>
       <c r="E11" t="n">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F11" t="n">
-        <v>5588</v>
+        <v>3113.934</v>
       </c>
       <c r="G11" t="n">
-        <v>146.9600000000001</v>
+        <v>-23970.015</v>
       </c>
       <c r="H11" t="n">
-        <v>148.2599999999999</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +833,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>146.7</v>
+        <v>148</v>
       </c>
       <c r="C12" t="n">
-        <v>146.6</v>
+        <v>148</v>
       </c>
       <c r="D12" t="n">
-        <v>146.7</v>
+        <v>148</v>
       </c>
       <c r="E12" t="n">
-        <v>146.6</v>
+        <v>148</v>
       </c>
       <c r="F12" t="n">
-        <v>1490</v>
+        <v>1014.4709</v>
       </c>
       <c r="G12" t="n">
-        <v>146.8666666666667</v>
+        <v>-24984.4859</v>
       </c>
       <c r="H12" t="n">
-        <v>148.1899999999999</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +874,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>146.6</v>
+        <v>149.8</v>
       </c>
       <c r="C13" t="n">
-        <v>147.9</v>
+        <v>149</v>
       </c>
       <c r="D13" t="n">
-        <v>147.9</v>
+        <v>149.8</v>
       </c>
       <c r="E13" t="n">
-        <v>144.7</v>
+        <v>149</v>
       </c>
       <c r="F13" t="n">
-        <v>16095.7996</v>
+        <v>3109.7744</v>
       </c>
       <c r="G13" t="n">
-        <v>146.8600000000001</v>
+        <v>-21874.7115</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1716666666666</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +915,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>147.9</v>
+        <v>149.7</v>
       </c>
       <c r="C14" t="n">
-        <v>147.9</v>
+        <v>149.8</v>
       </c>
       <c r="D14" t="n">
-        <v>147.9</v>
+        <v>149.8</v>
       </c>
       <c r="E14" t="n">
-        <v>147.9</v>
+        <v>149.7</v>
       </c>
       <c r="F14" t="n">
-        <v>5277.105</v>
+        <v>4947.7481</v>
       </c>
       <c r="G14" t="n">
-        <v>146.8800000000001</v>
+        <v>-16926.9634</v>
       </c>
       <c r="H14" t="n">
-        <v>148.1199999999999</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +956,41 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>147.9</v>
+        <v>148.1</v>
       </c>
       <c r="C15" t="n">
-        <v>147.9</v>
+        <v>148.1</v>
       </c>
       <c r="D15" t="n">
-        <v>147.9</v>
+        <v>148.1</v>
       </c>
       <c r="E15" t="n">
-        <v>147.9</v>
+        <v>148.1</v>
       </c>
       <c r="F15" t="n">
-        <v>3189</v>
+        <v>925.4614</v>
       </c>
       <c r="G15" t="n">
-        <v>146.9400000000001</v>
+        <v>-17852.4248</v>
       </c>
       <c r="H15" t="n">
-        <v>148.0683333333332</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +999,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>147.9</v>
+        <v>148.1</v>
       </c>
       <c r="C16" t="n">
-        <v>147.9</v>
+        <v>148.1</v>
       </c>
       <c r="D16" t="n">
-        <v>147.9</v>
+        <v>148.1</v>
       </c>
       <c r="E16" t="n">
-        <v>147.9</v>
+        <v>148.1</v>
       </c>
       <c r="F16" t="n">
-        <v>8703</v>
+        <v>2420.0035</v>
       </c>
       <c r="G16" t="n">
-        <v>146.9466666666667</v>
+        <v>-17852.4248</v>
       </c>
       <c r="H16" t="n">
-        <v>148.0166666666665</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +1040,41 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>146.7</v>
+        <v>148.1</v>
       </c>
       <c r="C17" t="n">
-        <v>146.7</v>
+        <v>148.1</v>
       </c>
       <c r="D17" t="n">
-        <v>146.7</v>
+        <v>148.1</v>
       </c>
       <c r="E17" t="n">
-        <v>146.7</v>
+        <v>148.1</v>
       </c>
       <c r="F17" t="n">
-        <v>108.4226</v>
+        <v>125</v>
       </c>
       <c r="G17" t="n">
-        <v>146.9266666666667</v>
+        <v>-17852.4248</v>
       </c>
       <c r="H17" t="n">
-        <v>147.9349999999999</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,40 +1083,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C18" t="n">
-        <v>147</v>
+        <v>148.1</v>
       </c>
       <c r="D18" t="n">
-        <v>147</v>
+        <v>148.1</v>
       </c>
       <c r="E18" t="n">
-        <v>147</v>
+        <v>147.4</v>
       </c>
       <c r="F18" t="n">
-        <v>13227.2153</v>
+        <v>6895.3123</v>
       </c>
       <c r="G18" t="n">
-        <v>146.9400000000001</v>
+        <v>-17852.4248</v>
       </c>
       <c r="H18" t="n">
-        <v>147.9016666666666</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>146.7</v>
-      </c>
-      <c r="L18" t="n">
-        <v>146.7</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1088,42 +1124,41 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>148</v>
+        <v>147.5</v>
       </c>
       <c r="C19" t="n">
-        <v>148</v>
+        <v>147.5</v>
       </c>
       <c r="D19" t="n">
-        <v>148</v>
+        <v>147.5</v>
       </c>
       <c r="E19" t="n">
-        <v>148</v>
+        <v>147.5</v>
       </c>
       <c r="F19" t="n">
-        <v>29.9609</v>
+        <v>5738.2834</v>
       </c>
       <c r="G19" t="n">
-        <v>146.9933333333334</v>
+        <v>-23590.7082</v>
       </c>
       <c r="H19" t="n">
-        <v>147.8849999999999</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>146.7</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1132,42 +1167,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C20" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D20" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E20" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F20" t="n">
-        <v>21.8495</v>
+        <v>61</v>
       </c>
       <c r="G20" t="n">
-        <v>147.0733333333334</v>
+        <v>-23651.7082</v>
       </c>
       <c r="H20" t="n">
-        <v>147.8933333333332</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>146.7</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1176,36 +1208,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C21" t="n">
-        <v>148.1</v>
+        <v>147.9</v>
       </c>
       <c r="D21" t="n">
-        <v>148.1</v>
+        <v>147.9</v>
       </c>
       <c r="E21" t="n">
-        <v>147.2</v>
+        <v>147</v>
       </c>
       <c r="F21" t="n">
-        <v>13518.2383</v>
+        <v>2500</v>
       </c>
       <c r="G21" t="n">
-        <v>147.0933333333334</v>
+        <v>-21151.7082</v>
       </c>
       <c r="H21" t="n">
-        <v>147.9133333333332</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1214,36 +1249,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>148.9</v>
+        <v>147.9</v>
       </c>
       <c r="C22" t="n">
-        <v>147.5</v>
+        <v>148.1</v>
       </c>
       <c r="D22" t="n">
-        <v>148.9</v>
+        <v>148.1</v>
       </c>
       <c r="E22" t="n">
-        <v>147.5</v>
+        <v>147.9</v>
       </c>
       <c r="F22" t="n">
-        <v>7053.4781</v>
+        <v>1000</v>
       </c>
       <c r="G22" t="n">
-        <v>147.14</v>
+        <v>-20151.7082</v>
       </c>
       <c r="H22" t="n">
-        <v>147.8733333333332</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1252,36 +1290,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>148.9</v>
+        <v>148.1</v>
       </c>
       <c r="C23" t="n">
-        <v>149</v>
+        <v>148.8</v>
       </c>
       <c r="D23" t="n">
-        <v>149</v>
+        <v>148.8</v>
       </c>
       <c r="E23" t="n">
-        <v>148.9</v>
+        <v>148.1</v>
       </c>
       <c r="F23" t="n">
-        <v>1034</v>
+        <v>125</v>
       </c>
       <c r="G23" t="n">
-        <v>147.32</v>
+        <v>-20026.7082</v>
       </c>
       <c r="H23" t="n">
-        <v>147.8883333333332</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1290,36 +1331,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>148.9</v>
+        <v>149.8</v>
       </c>
       <c r="C24" t="n">
-        <v>148.9</v>
+        <v>149.8</v>
       </c>
       <c r="D24" t="n">
-        <v>148.9</v>
+        <v>149.8</v>
       </c>
       <c r="E24" t="n">
-        <v>148.9</v>
+        <v>149.8</v>
       </c>
       <c r="F24" t="n">
-        <v>2898.7734</v>
+        <v>228.2626</v>
       </c>
       <c r="G24" t="n">
-        <v>147.6133333333333</v>
+        <v>-19798.4456</v>
       </c>
       <c r="H24" t="n">
-        <v>147.8866666666666</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1331,33 +1375,36 @@
         <v>149.9</v>
       </c>
       <c r="C25" t="n">
-        <v>149.6</v>
+        <v>150.9</v>
       </c>
       <c r="D25" t="n">
+        <v>150.9</v>
+      </c>
+      <c r="E25" t="n">
         <v>149.9</v>
       </c>
-      <c r="E25" t="n">
-        <v>146.2</v>
-      </c>
       <c r="F25" t="n">
-        <v>5845.5895</v>
+        <v>3000</v>
       </c>
       <c r="G25" t="n">
-        <v>147.8533333333334</v>
+        <v>-16798.4456</v>
       </c>
       <c r="H25" t="n">
-        <v>147.8849999999999</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1366,36 +1413,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>149.8</v>
+        <v>148.2</v>
       </c>
       <c r="C26" t="n">
-        <v>148.6</v>
+        <v>148</v>
       </c>
       <c r="D26" t="n">
-        <v>149.8</v>
+        <v>148.2</v>
       </c>
       <c r="E26" t="n">
         <v>148</v>
       </c>
       <c r="F26" t="n">
-        <v>2466.5087</v>
+        <v>3093.29</v>
       </c>
       <c r="G26" t="n">
-        <v>147.9733333333333</v>
+        <v>-19891.7356</v>
       </c>
       <c r="H26" t="n">
-        <v>147.8616666666666</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1404,36 +1454,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>148.6</v>
+        <v>148</v>
       </c>
       <c r="C27" t="n">
-        <v>148.6</v>
+        <v>148</v>
       </c>
       <c r="D27" t="n">
-        <v>148.6</v>
+        <v>148</v>
       </c>
       <c r="E27" t="n">
-        <v>148.6</v>
+        <v>148</v>
       </c>
       <c r="F27" t="n">
-        <v>1702.0953</v>
+        <v>22</v>
       </c>
       <c r="G27" t="n">
-        <v>148.1066666666667</v>
+        <v>-19891.7356</v>
       </c>
       <c r="H27" t="n">
-        <v>147.8716666666666</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1442,36 +1495,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>147.6</v>
+        <v>148</v>
       </c>
       <c r="C28" t="n">
         <v>147.6</v>
       </c>
       <c r="D28" t="n">
-        <v>147.6</v>
+        <v>148</v>
       </c>
       <c r="E28" t="n">
         <v>147.6</v>
       </c>
       <c r="F28" t="n">
-        <v>650.8567</v>
+        <v>766</v>
       </c>
       <c r="G28" t="n">
-        <v>148.0866666666666</v>
+        <v>-20657.7356</v>
       </c>
       <c r="H28" t="n">
-        <v>147.8649999999999</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1480,36 +1536,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>149</v>
+        <v>147.6</v>
       </c>
       <c r="C29" t="n">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D29" t="n">
-        <v>149</v>
+        <v>147.6</v>
       </c>
       <c r="E29" t="n">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F29" t="n">
-        <v>4866.7383</v>
+        <v>875</v>
       </c>
       <c r="G29" t="n">
-        <v>148.16</v>
+        <v>-21532.7356</v>
       </c>
       <c r="H29" t="n">
-        <v>147.8799999999999</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1518,36 +1577,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>149.7</v>
+        <v>147.8</v>
       </c>
       <c r="C30" t="n">
-        <v>149.5</v>
+        <v>147.8</v>
       </c>
       <c r="D30" t="n">
-        <v>149.7</v>
+        <v>147.8</v>
       </c>
       <c r="E30" t="n">
-        <v>147</v>
+        <v>147.8</v>
       </c>
       <c r="F30" t="n">
-        <v>12437.47</v>
+        <v>1280</v>
       </c>
       <c r="G30" t="n">
-        <v>148.2666666666666</v>
+        <v>-20252.7356</v>
       </c>
       <c r="H30" t="n">
-        <v>147.9033333333332</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1556,36 +1618,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C31" t="n">
-        <v>149.8</v>
+        <v>147</v>
       </c>
       <c r="D31" t="n">
-        <v>149.8</v>
+        <v>147</v>
       </c>
       <c r="E31" t="n">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F31" t="n">
-        <v>1972.6031</v>
+        <v>22046.367</v>
       </c>
       <c r="G31" t="n">
-        <v>148.3933333333333</v>
+        <v>-42299.1026</v>
       </c>
       <c r="H31" t="n">
-        <v>147.9183333333332</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1594,36 +1659,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>149.8</v>
+        <v>147</v>
       </c>
       <c r="C32" t="n">
-        <v>149</v>
+        <v>146.8</v>
       </c>
       <c r="D32" t="n">
-        <v>149.8</v>
+        <v>147</v>
       </c>
       <c r="E32" t="n">
-        <v>149</v>
+        <v>146.8</v>
       </c>
       <c r="F32" t="n">
-        <v>4991.744</v>
+        <v>5271.2321</v>
       </c>
       <c r="G32" t="n">
-        <v>148.5466666666667</v>
+        <v>-47570.3347</v>
       </c>
       <c r="H32" t="n">
-        <v>147.9183333333332</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1632,36 +1700,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>149.6</v>
+        <v>147.2</v>
       </c>
       <c r="C33" t="n">
-        <v>149.6</v>
+        <v>147.2</v>
       </c>
       <c r="D33" t="n">
-        <v>149.6</v>
+        <v>147.2</v>
       </c>
       <c r="E33" t="n">
-        <v>149.6</v>
+        <v>147.2</v>
       </c>
       <c r="F33" t="n">
-        <v>2662.2052</v>
+        <v>3.5</v>
       </c>
       <c r="G33" t="n">
-        <v>148.72</v>
+        <v>-47566.8347</v>
       </c>
       <c r="H33" t="n">
-        <v>147.9449999999999</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1670,36 +1741,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>149.6</v>
+        <v>147</v>
       </c>
       <c r="C34" t="n">
-        <v>149.6</v>
+        <v>146.8</v>
       </c>
       <c r="D34" t="n">
-        <v>149.6</v>
+        <v>147</v>
       </c>
       <c r="E34" t="n">
-        <v>149.6</v>
+        <v>146.8</v>
       </c>
       <c r="F34" t="n">
-        <v>591.2987000000001</v>
+        <v>3162.2067</v>
       </c>
       <c r="G34" t="n">
-        <v>148.8266666666667</v>
+        <v>-50729.0414</v>
       </c>
       <c r="H34" t="n">
-        <v>147.9716666666666</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,36 +1782,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>149.6</v>
+        <v>147.8</v>
       </c>
       <c r="C35" t="n">
-        <v>149.6</v>
+        <v>147.8</v>
       </c>
       <c r="D35" t="n">
-        <v>149.6</v>
+        <v>147.8</v>
       </c>
       <c r="E35" t="n">
-        <v>149.6</v>
+        <v>147.8</v>
       </c>
       <c r="F35" t="n">
-        <v>157.7328</v>
+        <v>470.2319</v>
       </c>
       <c r="G35" t="n">
-        <v>148.9333333333333</v>
+        <v>-50258.8095</v>
       </c>
       <c r="H35" t="n">
-        <v>148.0183333333333</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1746,36 +1823,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>149.6</v>
+        <v>146.8</v>
       </c>
       <c r="C36" t="n">
-        <v>149.6</v>
+        <v>146.8</v>
       </c>
       <c r="D36" t="n">
-        <v>149.6</v>
+        <v>146.8</v>
       </c>
       <c r="E36" t="n">
-        <v>149.6</v>
+        <v>146.8</v>
       </c>
       <c r="F36" t="n">
-        <v>375</v>
+        <v>781.1024</v>
       </c>
       <c r="G36" t="n">
-        <v>149.0333333333333</v>
+        <v>-51039.91190000001</v>
       </c>
       <c r="H36" t="n">
-        <v>148.0449999999999</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1784,36 +1864,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>149.6</v>
+        <v>146.3</v>
       </c>
       <c r="C37" t="n">
-        <v>149.6</v>
+        <v>146.3</v>
       </c>
       <c r="D37" t="n">
-        <v>149.6</v>
+        <v>146.3</v>
       </c>
       <c r="E37" t="n">
-        <v>149.6</v>
+        <v>146.3</v>
       </c>
       <c r="F37" t="n">
-        <v>228.8543</v>
+        <v>683.526</v>
       </c>
       <c r="G37" t="n">
-        <v>149.1733333333333</v>
+        <v>-51723.4379</v>
       </c>
       <c r="H37" t="n">
-        <v>148.0916666666666</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1822,36 +1905,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C38" t="n">
-        <v>148.1</v>
+        <v>144.5</v>
       </c>
       <c r="D38" t="n">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E38" t="n">
-        <v>148.1</v>
+        <v>144.5</v>
       </c>
       <c r="F38" t="n">
-        <v>1503</v>
+        <v>24321.9726</v>
       </c>
       <c r="G38" t="n">
-        <v>149.1133333333333</v>
+        <v>-76045.4105</v>
       </c>
       <c r="H38" t="n">
-        <v>148.0933333333333</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1860,36 +1946,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>149</v>
+        <v>145.8</v>
       </c>
       <c r="C39" t="n">
-        <v>149.1</v>
+        <v>146</v>
       </c>
       <c r="D39" t="n">
-        <v>149.1</v>
+        <v>146</v>
       </c>
       <c r="E39" t="n">
-        <v>149</v>
+        <v>145.8</v>
       </c>
       <c r="F39" t="n">
-        <v>3526.7472</v>
+        <v>1500</v>
       </c>
       <c r="G39" t="n">
-        <v>149.1266666666666</v>
+        <v>-74545.4105</v>
       </c>
       <c r="H39" t="n">
-        <v>148.1116666666666</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1898,36 +1987,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>148.2</v>
+        <v>145.9</v>
       </c>
       <c r="C40" t="n">
-        <v>148.2</v>
+        <v>146.8</v>
       </c>
       <c r="D40" t="n">
-        <v>148.2</v>
+        <v>146.8</v>
       </c>
       <c r="E40" t="n">
-        <v>148.2</v>
+        <v>145</v>
       </c>
       <c r="F40" t="n">
-        <v>4218.7209</v>
+        <v>5588</v>
       </c>
       <c r="G40" t="n">
-        <v>149.0333333333333</v>
+        <v>-68957.4105</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1316666666666</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1936,36 +2028,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>149.9</v>
+        <v>146.7</v>
       </c>
       <c r="C41" t="n">
-        <v>149</v>
+        <v>146.6</v>
       </c>
       <c r="D41" t="n">
-        <v>149.9</v>
+        <v>146.7</v>
       </c>
       <c r="E41" t="n">
-        <v>149</v>
+        <v>146.6</v>
       </c>
       <c r="F41" t="n">
-        <v>3392.2528</v>
+        <v>1490</v>
       </c>
       <c r="G41" t="n">
-        <v>149.0599999999999</v>
+        <v>-70447.4105</v>
       </c>
       <c r="H41" t="n">
-        <v>148.135</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1974,36 +2069,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>149.9</v>
+        <v>146.6</v>
       </c>
       <c r="C42" t="n">
-        <v>149.9</v>
+        <v>147.9</v>
       </c>
       <c r="D42" t="n">
-        <v>149.9</v>
+        <v>147.9</v>
       </c>
       <c r="E42" t="n">
-        <v>149.9</v>
+        <v>144.7</v>
       </c>
       <c r="F42" t="n">
-        <v>2130</v>
+        <v>16095.7996</v>
       </c>
       <c r="G42" t="n">
-        <v>149.1466666666666</v>
+        <v>-54351.6109</v>
       </c>
       <c r="H42" t="n">
-        <v>148.15</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2012,36 +2110,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>149.9</v>
+        <v>147.9</v>
       </c>
       <c r="C43" t="n">
-        <v>150</v>
+        <v>147.9</v>
       </c>
       <c r="D43" t="n">
-        <v>150</v>
+        <v>147.9</v>
       </c>
       <c r="E43" t="n">
-        <v>149.9</v>
+        <v>147.9</v>
       </c>
       <c r="F43" t="n">
-        <v>5706.5985</v>
+        <v>5277.105</v>
       </c>
       <c r="G43" t="n">
-        <v>149.3066666666666</v>
+        <v>-54351.6109</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2050,36 +2151,41 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>150</v>
+        <v>147.9</v>
       </c>
       <c r="C44" t="n">
-        <v>149.1</v>
+        <v>147.9</v>
       </c>
       <c r="D44" t="n">
-        <v>150</v>
+        <v>147.9</v>
       </c>
       <c r="E44" t="n">
-        <v>149.1</v>
+        <v>147.9</v>
       </c>
       <c r="F44" t="n">
-        <v>2794.6867</v>
+        <v>3189</v>
       </c>
       <c r="G44" t="n">
-        <v>149.3133333333333</v>
+        <v>-54351.6109</v>
       </c>
       <c r="H44" t="n">
-        <v>148.185</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+        <v>147.9</v>
+      </c>
+      <c r="K44" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2088,36 +2194,41 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>150</v>
+        <v>147.9</v>
       </c>
       <c r="C45" t="n">
-        <v>150</v>
+        <v>147.9</v>
       </c>
       <c r="D45" t="n">
-        <v>150</v>
+        <v>147.9</v>
       </c>
       <c r="E45" t="n">
-        <v>150</v>
+        <v>147.9</v>
       </c>
       <c r="F45" t="n">
-        <v>6650.0404</v>
+        <v>8703</v>
       </c>
       <c r="G45" t="n">
-        <v>149.3466666666666</v>
+        <v>-54351.6109</v>
       </c>
       <c r="H45" t="n">
-        <v>148.1883333333333</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+        <v>147.9</v>
+      </c>
+      <c r="K45" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2126,36 +2237,41 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>150</v>
+        <v>146.7</v>
       </c>
       <c r="C46" t="n">
-        <v>150</v>
+        <v>146.7</v>
       </c>
       <c r="D46" t="n">
-        <v>150</v>
+        <v>146.7</v>
       </c>
       <c r="E46" t="n">
-        <v>150</v>
+        <v>146.7</v>
       </c>
       <c r="F46" t="n">
-        <v>910.8684</v>
+        <v>108.4226</v>
       </c>
       <c r="G46" t="n">
-        <v>149.36</v>
+        <v>-54460.0335</v>
       </c>
       <c r="H46" t="n">
-        <v>148.22</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+        <v>147.9</v>
+      </c>
+      <c r="K46" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2164,36 +2280,41 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>150.5</v>
+        <v>147</v>
       </c>
       <c r="C47" t="n">
-        <v>150.5</v>
+        <v>147</v>
       </c>
       <c r="D47" t="n">
-        <v>150.5</v>
+        <v>147</v>
       </c>
       <c r="E47" t="n">
-        <v>150.5</v>
+        <v>147</v>
       </c>
       <c r="F47" t="n">
-        <v>188</v>
+        <v>13227.2153</v>
       </c>
       <c r="G47" t="n">
-        <v>149.46</v>
+        <v>-41232.81819999999</v>
       </c>
       <c r="H47" t="n">
-        <v>148.26</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+        <v>146.7</v>
+      </c>
+      <c r="K47" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2202,36 +2323,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>150.6</v>
+        <v>148</v>
       </c>
       <c r="C48" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D48" t="n">
-        <v>150.6</v>
+        <v>148</v>
       </c>
       <c r="E48" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F48" t="n">
-        <v>1693.3859</v>
+        <v>29.9609</v>
       </c>
       <c r="G48" t="n">
-        <v>149.42</v>
+        <v>-41202.8573</v>
       </c>
       <c r="H48" t="n">
-        <v>148.275</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2240,36 +2364,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C49" t="n">
-        <v>148.3</v>
+        <v>148</v>
       </c>
       <c r="D49" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E49" t="n">
-        <v>148.3</v>
+        <v>148</v>
       </c>
       <c r="F49" t="n">
-        <v>14738.7501</v>
+        <v>21.8495</v>
       </c>
       <c r="G49" t="n">
-        <v>149.3333333333333</v>
+        <v>-41202.8573</v>
       </c>
       <c r="H49" t="n">
-        <v>148.2783333333333</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2278,36 +2405,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C50" t="n">
-        <v>149</v>
+        <v>148.1</v>
       </c>
       <c r="D50" t="n">
-        <v>149</v>
+        <v>148.1</v>
       </c>
       <c r="E50" t="n">
-        <v>149</v>
+        <v>147.2</v>
       </c>
       <c r="F50" t="n">
-        <v>2210.8125</v>
+        <v>13518.2383</v>
       </c>
       <c r="G50" t="n">
-        <v>149.2933333333333</v>
+        <v>-27684.619</v>
       </c>
       <c r="H50" t="n">
-        <v>148.3033333333333</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2316,36 +2446,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>148.3</v>
+        <v>148.9</v>
       </c>
       <c r="C51" t="n">
-        <v>148.3</v>
+        <v>147.5</v>
       </c>
       <c r="D51" t="n">
-        <v>148.3</v>
+        <v>148.9</v>
       </c>
       <c r="E51" t="n">
-        <v>148.3</v>
+        <v>147.5</v>
       </c>
       <c r="F51" t="n">
-        <v>5</v>
+        <v>7053.4781</v>
       </c>
       <c r="G51" t="n">
-        <v>149.2066666666666</v>
+        <v>-34738.0971</v>
       </c>
       <c r="H51" t="n">
-        <v>148.3249999999999</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2357,33 +2490,36 @@
         <v>148.9</v>
       </c>
       <c r="C52" t="n">
-        <v>148.9</v>
+        <v>149</v>
       </c>
       <c r="D52" t="n">
-        <v>148.9</v>
+        <v>149</v>
       </c>
       <c r="E52" t="n">
         <v>148.9</v>
       </c>
       <c r="F52" t="n">
-        <v>522</v>
+        <v>1034</v>
       </c>
       <c r="G52" t="n">
-        <v>149.16</v>
+        <v>-33704.0971</v>
       </c>
       <c r="H52" t="n">
-        <v>148.3416666666666</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2392,36 +2528,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>149</v>
+        <v>148.9</v>
       </c>
       <c r="C53" t="n">
-        <v>149</v>
+        <v>148.9</v>
       </c>
       <c r="D53" t="n">
-        <v>149</v>
+        <v>148.9</v>
       </c>
       <c r="E53" t="n">
-        <v>149</v>
+        <v>148.9</v>
       </c>
       <c r="F53" t="n">
-        <v>2000</v>
+        <v>2898.7734</v>
       </c>
       <c r="G53" t="n">
-        <v>149.22</v>
+        <v>-36602.8705</v>
       </c>
       <c r="H53" t="n">
-        <v>148.3566666666666</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2430,36 +2569,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>148.2</v>
+        <v>149.9</v>
       </c>
       <c r="C54" t="n">
-        <v>147.6</v>
+        <v>149.6</v>
       </c>
       <c r="D54" t="n">
-        <v>148.2</v>
+        <v>149.9</v>
       </c>
       <c r="E54" t="n">
-        <v>147.6</v>
+        <v>146.2</v>
       </c>
       <c r="F54" t="n">
-        <v>5.588</v>
+        <v>5845.5895</v>
       </c>
       <c r="G54" t="n">
-        <v>149.12</v>
+        <v>-30757.281</v>
       </c>
       <c r="H54" t="n">
-        <v>148.3366666666666</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2468,36 +2610,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>147.7</v>
+        <v>149.8</v>
       </c>
       <c r="C55" t="n">
-        <v>149.1</v>
+        <v>148.6</v>
       </c>
       <c r="D55" t="n">
-        <v>149.1</v>
+        <v>149.8</v>
       </c>
       <c r="E55" t="n">
-        <v>147.7</v>
+        <v>148</v>
       </c>
       <c r="F55" t="n">
-        <v>3098.3026</v>
+        <v>2466.5087</v>
       </c>
       <c r="G55" t="n">
-        <v>149.18</v>
+        <v>-33223.78969999999</v>
       </c>
       <c r="H55" t="n">
-        <v>148.325</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2506,36 +2651,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>149.1</v>
+        <v>148.6</v>
       </c>
       <c r="C56" t="n">
-        <v>149.1</v>
+        <v>148.6</v>
       </c>
       <c r="D56" t="n">
-        <v>149.1</v>
+        <v>148.6</v>
       </c>
       <c r="E56" t="n">
-        <v>149.1</v>
+        <v>148.6</v>
       </c>
       <c r="F56" t="n">
-        <v>161</v>
+        <v>1702.0953</v>
       </c>
       <c r="G56" t="n">
-        <v>149.1866666666667</v>
+        <v>-33223.78969999999</v>
       </c>
       <c r="H56" t="n">
-        <v>148.295</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2556,24 +2704,27 @@
         <v>147.6</v>
       </c>
       <c r="F57" t="n">
-        <v>9.48</v>
+        <v>650.8567</v>
       </c>
       <c r="G57" t="n">
-        <v>149.0333333333333</v>
+        <v>-33874.64639999999</v>
       </c>
       <c r="H57" t="n">
-        <v>148.2883333333333</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2585,33 +2736,36 @@
         <v>149</v>
       </c>
       <c r="C58" t="n">
-        <v>149.1</v>
+        <v>149</v>
       </c>
       <c r="D58" t="n">
-        <v>149.1</v>
+        <v>149</v>
       </c>
       <c r="E58" t="n">
         <v>149</v>
       </c>
       <c r="F58" t="n">
-        <v>3000</v>
+        <v>4866.7383</v>
       </c>
       <c r="G58" t="n">
-        <v>148.9733333333333</v>
+        <v>-29007.90809999999</v>
       </c>
       <c r="H58" t="n">
-        <v>148.3066666666667</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2620,36 +2774,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>149</v>
+        <v>149.7</v>
       </c>
       <c r="C59" t="n">
-        <v>149.1</v>
+        <v>149.5</v>
       </c>
       <c r="D59" t="n">
-        <v>149.1</v>
+        <v>149.7</v>
       </c>
       <c r="E59" t="n">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F59" t="n">
-        <v>2900.1758</v>
+        <v>12437.47</v>
       </c>
       <c r="G59" t="n">
-        <v>148.9733333333333</v>
+        <v>-16570.43809999999</v>
       </c>
       <c r="H59" t="n">
-        <v>148.3316666666666</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2658,36 +2815,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>149.2</v>
+        <v>149</v>
       </c>
       <c r="C60" t="n">
-        <v>149.2</v>
+        <v>149.8</v>
       </c>
       <c r="D60" t="n">
-        <v>149.2</v>
+        <v>149.8</v>
       </c>
       <c r="E60" t="n">
-        <v>149.2</v>
+        <v>149</v>
       </c>
       <c r="F60" t="n">
-        <v>1267</v>
+        <v>1972.6031</v>
       </c>
       <c r="G60" t="n">
-        <v>148.92</v>
+        <v>-14597.83499999999</v>
       </c>
       <c r="H60" t="n">
-        <v>148.3683333333333</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2696,36 +2856,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>149.1</v>
+        <v>149.8</v>
       </c>
       <c r="C61" t="n">
-        <v>149.4</v>
+        <v>149</v>
       </c>
       <c r="D61" t="n">
-        <v>149.4</v>
+        <v>149.8</v>
       </c>
       <c r="E61" t="n">
-        <v>149.1</v>
+        <v>149</v>
       </c>
       <c r="F61" t="n">
-        <v>4579.8473</v>
+        <v>4991.744</v>
       </c>
       <c r="G61" t="n">
-        <v>148.88</v>
+        <v>-19589.57899999999</v>
       </c>
       <c r="H61" t="n">
-        <v>148.395</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2734,36 +2897,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>149.5</v>
+        <v>149.6</v>
       </c>
       <c r="C62" t="n">
-        <v>149.5</v>
+        <v>149.6</v>
       </c>
       <c r="D62" t="n">
-        <v>149.5</v>
+        <v>149.6</v>
       </c>
       <c r="E62" t="n">
-        <v>149.5</v>
+        <v>149.6</v>
       </c>
       <c r="F62" t="n">
-        <v>1104.1531</v>
+        <v>2662.2052</v>
       </c>
       <c r="G62" t="n">
-        <v>148.8133333333333</v>
+        <v>-16927.37379999999</v>
       </c>
       <c r="H62" t="n">
-        <v>148.4366666666667</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2772,36 +2938,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>149</v>
+        <v>149.6</v>
       </c>
       <c r="C63" t="n">
-        <v>149</v>
+        <v>149.6</v>
       </c>
       <c r="D63" t="n">
-        <v>149</v>
+        <v>149.6</v>
       </c>
       <c r="E63" t="n">
-        <v>149</v>
+        <v>149.6</v>
       </c>
       <c r="F63" t="n">
-        <v>8</v>
+        <v>591.2987000000001</v>
       </c>
       <c r="G63" t="n">
-        <v>148.8133333333333</v>
+        <v>-16927.37379999999</v>
       </c>
       <c r="H63" t="n">
-        <v>148.4733333333334</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2813,33 +2982,36 @@
         <v>149.6</v>
       </c>
       <c r="C64" t="n">
-        <v>149.7</v>
+        <v>149.6</v>
       </c>
       <c r="D64" t="n">
-        <v>149.7</v>
+        <v>149.6</v>
       </c>
       <c r="E64" t="n">
         <v>149.6</v>
       </c>
       <c r="F64" t="n">
-        <v>77.77</v>
+        <v>157.7328</v>
       </c>
       <c r="G64" t="n">
-        <v>148.9066666666666</v>
+        <v>-16927.37379999999</v>
       </c>
       <c r="H64" t="n">
-        <v>148.515</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2848,36 +3020,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>149.4</v>
+        <v>149.6</v>
       </c>
       <c r="C65" t="n">
-        <v>148.1</v>
+        <v>149.6</v>
       </c>
       <c r="D65" t="n">
-        <v>149.4</v>
+        <v>149.6</v>
       </c>
       <c r="E65" t="n">
-        <v>148.1</v>
+        <v>149.6</v>
       </c>
       <c r="F65" t="n">
-        <v>669.9807</v>
+        <v>375</v>
       </c>
       <c r="G65" t="n">
-        <v>148.8466666666666</v>
+        <v>-16927.37379999999</v>
       </c>
       <c r="H65" t="n">
-        <v>148.5366666666667</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2886,36 +3061,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>148.1</v>
+        <v>149.6</v>
       </c>
       <c r="C66" t="n">
-        <v>148.1</v>
+        <v>149.6</v>
       </c>
       <c r="D66" t="n">
-        <v>148.1</v>
+        <v>149.6</v>
       </c>
       <c r="E66" t="n">
-        <v>148.1</v>
+        <v>149.6</v>
       </c>
       <c r="F66" t="n">
-        <v>2204.644</v>
+        <v>228.8543</v>
       </c>
       <c r="G66" t="n">
-        <v>148.8333333333333</v>
+        <v>-16927.37379999999</v>
       </c>
       <c r="H66" t="n">
-        <v>148.5416666666667</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2924,36 +3102,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C67" t="n">
-        <v>147</v>
+        <v>148.1</v>
       </c>
       <c r="D67" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E67" t="n">
-        <v>147</v>
+        <v>148.1</v>
       </c>
       <c r="F67" t="n">
-        <v>4200</v>
+        <v>1503</v>
       </c>
       <c r="G67" t="n">
-        <v>148.7066666666666</v>
+        <v>-18430.37379999999</v>
       </c>
       <c r="H67" t="n">
-        <v>148.5450000000001</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2962,36 +3143,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>147.3</v>
+        <v>149</v>
       </c>
       <c r="C68" t="n">
-        <v>147.2</v>
+        <v>149.1</v>
       </c>
       <c r="D68" t="n">
-        <v>147.3</v>
+        <v>149.1</v>
       </c>
       <c r="E68" t="n">
-        <v>147.2</v>
+        <v>149</v>
       </c>
       <c r="F68" t="n">
-        <v>11527.4004</v>
+        <v>3526.7472</v>
       </c>
       <c r="G68" t="n">
-        <v>148.5866666666666</v>
+        <v>-14903.62659999999</v>
       </c>
       <c r="H68" t="n">
-        <v>148.5600000000001</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3000,40 +3184,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>148.1</v>
+        <v>148.2</v>
       </c>
       <c r="C69" t="n">
-        <v>148.1</v>
+        <v>148.2</v>
       </c>
       <c r="D69" t="n">
-        <v>148.1</v>
+        <v>148.2</v>
       </c>
       <c r="E69" t="n">
-        <v>148.1</v>
+        <v>148.2</v>
       </c>
       <c r="F69" t="n">
-        <v>250</v>
+        <v>4218.7209</v>
       </c>
       <c r="G69" t="n">
-        <v>148.6199999999999</v>
+        <v>-19122.34749999999</v>
       </c>
       <c r="H69" t="n">
-        <v>148.6200000000001</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>147.2</v>
-      </c>
-      <c r="L69" t="n">
-        <v>147.2</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3042,44 +3225,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>148.1</v>
+        <v>149.9</v>
       </c>
       <c r="C70" t="n">
-        <v>148.1</v>
+        <v>149</v>
       </c>
       <c r="D70" t="n">
-        <v>148.1</v>
+        <v>149.9</v>
       </c>
       <c r="E70" t="n">
-        <v>148.1</v>
+        <v>149</v>
       </c>
       <c r="F70" t="n">
-        <v>76</v>
+        <v>3392.2528</v>
       </c>
       <c r="G70" t="n">
-        <v>148.5533333333333</v>
+        <v>-15730.09469999999</v>
       </c>
       <c r="H70" t="n">
-        <v>148.6550000000001</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>147.2</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3088,44 +3266,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>148.1</v>
+        <v>149.9</v>
       </c>
       <c r="C71" t="n">
-        <v>148.1</v>
+        <v>149.9</v>
       </c>
       <c r="D71" t="n">
-        <v>148.1</v>
+        <v>149.9</v>
       </c>
       <c r="E71" t="n">
-        <v>148.1</v>
+        <v>149.9</v>
       </c>
       <c r="F71" t="n">
-        <v>8199.967699999999</v>
+        <v>2130</v>
       </c>
       <c r="G71" t="n">
-        <v>148.4866666666666</v>
+        <v>-13600.09469999999</v>
       </c>
       <c r="H71" t="n">
-        <v>148.6766666666668</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="L71" t="n">
-        <v>147.2</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3134,36 +3307,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>148.1</v>
+        <v>149.9</v>
       </c>
       <c r="C72" t="n">
-        <v>148.1</v>
+        <v>150</v>
       </c>
       <c r="D72" t="n">
-        <v>148.1</v>
+        <v>150</v>
       </c>
       <c r="E72" t="n">
-        <v>148.1</v>
+        <v>149.9</v>
       </c>
       <c r="F72" t="n">
-        <v>3072.5298</v>
+        <v>5706.5985</v>
       </c>
       <c r="G72" t="n">
-        <v>148.5199999999999</v>
+        <v>-7893.496199999989</v>
       </c>
       <c r="H72" t="n">
-        <v>148.7016666666668</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3172,36 +3348,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>148.1</v>
+        <v>150</v>
       </c>
       <c r="C73" t="n">
-        <v>148.1</v>
+        <v>149.1</v>
       </c>
       <c r="D73" t="n">
-        <v>148.1</v>
+        <v>150</v>
       </c>
       <c r="E73" t="n">
-        <v>148.1</v>
+        <v>149.1</v>
       </c>
       <c r="F73" t="n">
-        <v>1485.5384</v>
+        <v>2794.6867</v>
       </c>
       <c r="G73" t="n">
-        <v>148.4533333333333</v>
+        <v>-10688.18289999999</v>
       </c>
       <c r="H73" t="n">
-        <v>148.7050000000001</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3210,40 +3389,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>148.1</v>
+        <v>150</v>
       </c>
       <c r="C74" t="n">
-        <v>148.1</v>
+        <v>150</v>
       </c>
       <c r="D74" t="n">
-        <v>148.1</v>
+        <v>150</v>
       </c>
       <c r="E74" t="n">
-        <v>148.1</v>
+        <v>150</v>
       </c>
       <c r="F74" t="n">
-        <v>134.8118</v>
+        <v>6650.0404</v>
       </c>
       <c r="G74" t="n">
-        <v>148.3866666666666</v>
+        <v>-4038.142499999989</v>
       </c>
       <c r="H74" t="n">
-        <v>148.7083333333335</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="L74" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3252,44 +3430,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>148.1</v>
+        <v>150</v>
       </c>
       <c r="C75" t="n">
-        <v>148.1</v>
+        <v>150</v>
       </c>
       <c r="D75" t="n">
-        <v>148.1</v>
+        <v>150</v>
       </c>
       <c r="E75" t="n">
-        <v>148.1</v>
+        <v>150</v>
       </c>
       <c r="F75" t="n">
-        <v>120.3758</v>
+        <v>910.8684</v>
       </c>
       <c r="G75" t="n">
-        <v>148.3133333333332</v>
+        <v>-4038.142499999989</v>
       </c>
       <c r="H75" t="n">
-        <v>148.7116666666668</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="L75" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3298,42 +3471,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>147.1</v>
+        <v>150.5</v>
       </c>
       <c r="C76" t="n">
-        <v>147.1</v>
+        <v>150.5</v>
       </c>
       <c r="D76" t="n">
-        <v>147.1</v>
+        <v>150.5</v>
       </c>
       <c r="E76" t="n">
-        <v>147.1</v>
+        <v>150.5</v>
       </c>
       <c r="F76" t="n">
-        <v>52.3034</v>
+        <v>188</v>
       </c>
       <c r="G76" t="n">
-        <v>148.1599999999999</v>
+        <v>-3850.142499999989</v>
       </c>
       <c r="H76" t="n">
-        <v>148.6983333333335</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3342,40 +3512,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>147.2</v>
+        <v>150.6</v>
       </c>
       <c r="C77" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D77" t="n">
-        <v>148.1</v>
+        <v>150.6</v>
       </c>
       <c r="E77" t="n">
-        <v>147.2</v>
+        <v>149</v>
       </c>
       <c r="F77" t="n">
-        <v>3821</v>
+        <v>1693.3859</v>
       </c>
       <c r="G77" t="n">
-        <v>148.0599999999999</v>
+        <v>-5543.528399999989</v>
       </c>
       <c r="H77" t="n">
-        <v>148.7200000000002</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>147.1</v>
-      </c>
-      <c r="L77" t="n">
-        <v>147.1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3384,44 +3553,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>148.1</v>
+        <v>149</v>
       </c>
       <c r="C78" t="n">
-        <v>148.1</v>
+        <v>148.3</v>
       </c>
       <c r="D78" t="n">
-        <v>148.1</v>
+        <v>149</v>
       </c>
       <c r="E78" t="n">
-        <v>148.1</v>
+        <v>148.3</v>
       </c>
       <c r="F78" t="n">
-        <v>20253.1188</v>
+        <v>14738.7501</v>
       </c>
       <c r="G78" t="n">
-        <v>147.9999999999999</v>
+        <v>-20282.27849999999</v>
       </c>
       <c r="H78" t="n">
-        <v>148.7383333333335</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>148</v>
-      </c>
-      <c r="L78" t="n">
-        <v>147.1</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3430,42 +3594,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>148.1</v>
+        <v>149</v>
       </c>
       <c r="C79" t="n">
-        <v>148.1</v>
+        <v>149</v>
       </c>
       <c r="D79" t="n">
-        <v>148.1</v>
+        <v>149</v>
       </c>
       <c r="E79" t="n">
-        <v>148.1</v>
+        <v>149</v>
       </c>
       <c r="F79" t="n">
-        <v>3881.6002</v>
+        <v>2210.8125</v>
       </c>
       <c r="G79" t="n">
-        <v>147.8933333333333</v>
+        <v>-18071.46599999999</v>
       </c>
       <c r="H79" t="n">
-        <v>148.7400000000002</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>147.1</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3474,36 +3635,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>148.1</v>
+        <v>148.3</v>
       </c>
       <c r="C80" t="n">
-        <v>148.1</v>
+        <v>148.3</v>
       </c>
       <c r="D80" t="n">
-        <v>148.1</v>
+        <v>148.3</v>
       </c>
       <c r="E80" t="n">
-        <v>148.1</v>
+        <v>148.3</v>
       </c>
       <c r="F80" t="n">
-        <v>2076.1073</v>
+        <v>5</v>
       </c>
       <c r="G80" t="n">
-        <v>147.8933333333333</v>
+        <v>-18076.46599999999</v>
       </c>
       <c r="H80" t="n">
-        <v>148.7416666666668</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3512,42 +3676,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>147.1</v>
+        <v>148.9</v>
       </c>
       <c r="C81" t="n">
-        <v>147</v>
+        <v>148.9</v>
       </c>
       <c r="D81" t="n">
-        <v>147.1</v>
+        <v>148.9</v>
       </c>
       <c r="E81" t="n">
-        <v>147</v>
+        <v>148.9</v>
       </c>
       <c r="F81" t="n">
-        <v>2778.2707</v>
+        <v>522</v>
       </c>
       <c r="G81" t="n">
-        <v>147.8199999999999</v>
+        <v>-17554.46599999999</v>
       </c>
       <c r="H81" t="n">
-        <v>148.7233333333335</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3556,42 +3717,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>147.1</v>
+        <v>149</v>
       </c>
       <c r="C82" t="n">
-        <v>148.3</v>
+        <v>149</v>
       </c>
       <c r="D82" t="n">
-        <v>148.3</v>
+        <v>149</v>
       </c>
       <c r="E82" t="n">
-        <v>147.1</v>
+        <v>149</v>
       </c>
       <c r="F82" t="n">
-        <v>4873.7832</v>
+        <v>2000</v>
       </c>
       <c r="G82" t="n">
-        <v>147.9066666666666</v>
+        <v>-15554.46599999999</v>
       </c>
       <c r="H82" t="n">
-        <v>148.7366666666668</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>147</v>
-      </c>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3600,42 +3758,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>148.5</v>
+        <v>148.2</v>
       </c>
       <c r="C83" t="n">
-        <v>148.5</v>
+        <v>147.6</v>
       </c>
       <c r="D83" t="n">
-        <v>148.5</v>
+        <v>148.2</v>
       </c>
       <c r="E83" t="n">
-        <v>148.5</v>
+        <v>147.6</v>
       </c>
       <c r="F83" t="n">
-        <v>745</v>
+        <v>5.588</v>
       </c>
       <c r="G83" t="n">
-        <v>147.9933333333333</v>
+        <v>-15560.05399999999</v>
       </c>
       <c r="H83" t="n">
-        <v>148.7283333333335</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>148.3</v>
-      </c>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3644,40 +3799,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>147.8</v>
+        <v>147.7</v>
       </c>
       <c r="C84" t="n">
-        <v>147.8</v>
+        <v>149.1</v>
       </c>
       <c r="D84" t="n">
-        <v>147.8</v>
+        <v>149.1</v>
       </c>
       <c r="E84" t="n">
-        <v>147.8</v>
+        <v>147.7</v>
       </c>
       <c r="F84" t="n">
-        <v>20</v>
+        <v>3098.3026</v>
       </c>
       <c r="G84" t="n">
-        <v>147.9733333333333</v>
+        <v>-12461.75139999999</v>
       </c>
       <c r="H84" t="n">
-        <v>148.7100000000002</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3686,40 +3840,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>147.8</v>
+        <v>149.1</v>
       </c>
       <c r="C85" t="n">
-        <v>147.8</v>
+        <v>149.1</v>
       </c>
       <c r="D85" t="n">
-        <v>147.8</v>
+        <v>149.1</v>
       </c>
       <c r="E85" t="n">
-        <v>147.8</v>
+        <v>149.1</v>
       </c>
       <c r="F85" t="n">
-        <v>67.48999999999999</v>
+        <v>161</v>
       </c>
       <c r="G85" t="n">
-        <v>147.9533333333333</v>
+        <v>-12461.75139999999</v>
       </c>
       <c r="H85" t="n">
-        <v>148.6800000000001</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3728,40 +3881,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>146.1</v>
+        <v>147.6</v>
       </c>
       <c r="C86" t="n">
-        <v>146.1</v>
+        <v>147.6</v>
       </c>
       <c r="D86" t="n">
-        <v>146.1</v>
+        <v>147.6</v>
       </c>
       <c r="E86" t="n">
-        <v>146.1</v>
+        <v>147.6</v>
       </c>
       <c r="F86" t="n">
-        <v>3.5</v>
+        <v>9.48</v>
       </c>
       <c r="G86" t="n">
-        <v>147.82</v>
+        <v>-12471.23139999999</v>
       </c>
       <c r="H86" t="n">
-        <v>148.6383333333335</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3770,40 +3922,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>147.8</v>
+        <v>149</v>
       </c>
       <c r="C87" t="n">
-        <v>147.8</v>
+        <v>149.1</v>
       </c>
       <c r="D87" t="n">
-        <v>147.8</v>
+        <v>149.1</v>
       </c>
       <c r="E87" t="n">
-        <v>147.8</v>
+        <v>149</v>
       </c>
       <c r="F87" t="n">
-        <v>73.614</v>
+        <v>3000</v>
       </c>
       <c r="G87" t="n">
-        <v>147.8</v>
+        <v>-9471.23139999999</v>
       </c>
       <c r="H87" t="n">
-        <v>148.6250000000001</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3812,40 +3963,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>148.6</v>
+        <v>149</v>
       </c>
       <c r="C88" t="n">
-        <v>148.6</v>
+        <v>149.1</v>
       </c>
       <c r="D88" t="n">
-        <v>148.6</v>
+        <v>149.1</v>
       </c>
       <c r="E88" t="n">
-        <v>148.6</v>
+        <v>149</v>
       </c>
       <c r="F88" t="n">
-        <v>73</v>
+        <v>2900.1758</v>
       </c>
       <c r="G88" t="n">
-        <v>147.8333333333333</v>
+        <v>-9471.23139999999</v>
       </c>
       <c r="H88" t="n">
-        <v>148.6416666666668</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3854,40 +4004,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>148</v>
+        <v>149.2</v>
       </c>
       <c r="C89" t="n">
-        <v>148</v>
+        <v>149.2</v>
       </c>
       <c r="D89" t="n">
-        <v>148</v>
+        <v>149.2</v>
       </c>
       <c r="E89" t="n">
-        <v>148</v>
+        <v>149.2</v>
       </c>
       <c r="F89" t="n">
-        <v>2956.8202</v>
+        <v>1267</v>
       </c>
       <c r="G89" t="n">
-        <v>147.8266666666667</v>
+        <v>-8204.23139999999</v>
       </c>
       <c r="H89" t="n">
-        <v>148.6250000000001</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,40 +4045,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>148</v>
+        <v>149.1</v>
       </c>
       <c r="C90" t="n">
-        <v>148</v>
+        <v>149.4</v>
       </c>
       <c r="D90" t="n">
-        <v>148</v>
+        <v>149.4</v>
       </c>
       <c r="E90" t="n">
-        <v>148</v>
+        <v>149.1</v>
       </c>
       <c r="F90" t="n">
-        <v>1964.343</v>
+        <v>4579.8473</v>
       </c>
       <c r="G90" t="n">
-        <v>147.82</v>
+        <v>-3624.384099999989</v>
       </c>
       <c r="H90" t="n">
-        <v>148.6000000000001</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3938,40 +4086,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>148</v>
+        <v>149.5</v>
       </c>
       <c r="C91" t="n">
-        <v>148.3</v>
+        <v>149.5</v>
       </c>
       <c r="D91" t="n">
-        <v>149</v>
+        <v>149.5</v>
       </c>
       <c r="E91" t="n">
-        <v>148</v>
+        <v>149.5</v>
       </c>
       <c r="F91" t="n">
-        <v>1458.71</v>
+        <v>1104.1531</v>
       </c>
       <c r="G91" t="n">
-        <v>147.9</v>
+        <v>-2520.230999999989</v>
       </c>
       <c r="H91" t="n">
-        <v>148.5750000000001</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3980,40 +4127,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>148.3</v>
+        <v>149</v>
       </c>
       <c r="C92" t="n">
-        <v>148.2</v>
+        <v>149</v>
       </c>
       <c r="D92" t="n">
-        <v>148.3</v>
+        <v>149</v>
       </c>
       <c r="E92" t="n">
-        <v>148.2</v>
+        <v>149</v>
       </c>
       <c r="F92" t="n">
-        <v>470.5335</v>
+        <v>8</v>
       </c>
       <c r="G92" t="n">
-        <v>147.9133333333334</v>
+        <v>-2528.230999999989</v>
       </c>
       <c r="H92" t="n">
-        <v>148.5616666666668</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4022,42 +4168,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>149</v>
+        <v>149.6</v>
       </c>
       <c r="C93" t="n">
-        <v>149</v>
+        <v>149.7</v>
       </c>
       <c r="D93" t="n">
-        <v>149</v>
+        <v>149.7</v>
       </c>
       <c r="E93" t="n">
-        <v>149</v>
+        <v>149.6</v>
       </c>
       <c r="F93" t="n">
-        <v>560.8654</v>
+        <v>77.77</v>
       </c>
       <c r="G93" t="n">
-        <v>147.9733333333334</v>
+        <v>-2450.460999999989</v>
       </c>
       <c r="H93" t="n">
-        <v>148.5516666666668</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>148.2</v>
-      </c>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4066,40 +4209,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>148.9</v>
+        <v>149.4</v>
       </c>
       <c r="C94" t="n">
-        <v>148</v>
+        <v>148.1</v>
       </c>
       <c r="D94" t="n">
-        <v>148.9</v>
+        <v>149.4</v>
       </c>
       <c r="E94" t="n">
-        <v>148</v>
+        <v>148.1</v>
       </c>
       <c r="F94" t="n">
-        <v>2391</v>
+        <v>669.9807</v>
       </c>
       <c r="G94" t="n">
-        <v>147.9666666666667</v>
+        <v>-3120.441699999989</v>
       </c>
       <c r="H94" t="n">
-        <v>148.5250000000001</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4108,40 +4250,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>148.2</v>
+        <v>148.1</v>
       </c>
       <c r="C95" t="n">
-        <v>148.2</v>
+        <v>148.1</v>
       </c>
       <c r="D95" t="n">
-        <v>148.2</v>
+        <v>148.1</v>
       </c>
       <c r="E95" t="n">
-        <v>148.2</v>
+        <v>148.1</v>
       </c>
       <c r="F95" t="n">
-        <v>608</v>
+        <v>2204.644</v>
       </c>
       <c r="G95" t="n">
-        <v>147.9733333333334</v>
+        <v>-3120.441699999989</v>
       </c>
       <c r="H95" t="n">
-        <v>148.5016666666668</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4150,40 +4291,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>148.6</v>
+        <v>148</v>
       </c>
       <c r="C96" t="n">
-        <v>148.6</v>
+        <v>147</v>
       </c>
       <c r="D96" t="n">
-        <v>148.6</v>
+        <v>148</v>
       </c>
       <c r="E96" t="n">
-        <v>148.6</v>
+        <v>147</v>
       </c>
       <c r="F96" t="n">
-        <v>320</v>
+        <v>4200</v>
       </c>
       <c r="G96" t="n">
-        <v>148.08</v>
+        <v>-7320.441699999989</v>
       </c>
       <c r="H96" t="n">
-        <v>148.4850000000001</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4192,42 +4332,41 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>148.6</v>
+        <v>147.3</v>
       </c>
       <c r="C97" t="n">
-        <v>149.5</v>
+        <v>147.2</v>
       </c>
       <c r="D97" t="n">
-        <v>149.6</v>
+        <v>147.3</v>
       </c>
       <c r="E97" t="n">
-        <v>148.6</v>
+        <v>147.2</v>
       </c>
       <c r="F97" t="n">
-        <v>1269.911</v>
+        <v>11527.4004</v>
       </c>
       <c r="G97" t="n">
-        <v>148.16</v>
+        <v>4206.958700000011</v>
       </c>
       <c r="H97" t="n">
-        <v>148.4833333333335</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="K97" t="n">
-        <v>148.6</v>
-      </c>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4236,40 +4375,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>148.2</v>
+        <v>148.1</v>
       </c>
       <c r="C98" t="n">
-        <v>148.2</v>
+        <v>148.1</v>
       </c>
       <c r="D98" t="n">
-        <v>148.2</v>
+        <v>148.1</v>
       </c>
       <c r="E98" t="n">
-        <v>148.2</v>
+        <v>148.1</v>
       </c>
       <c r="F98" t="n">
-        <v>597.5133</v>
+        <v>250</v>
       </c>
       <c r="G98" t="n">
-        <v>148.14</v>
+        <v>4456.958700000011</v>
       </c>
       <c r="H98" t="n">
-        <v>148.4850000000001</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4278,42 +4416,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>148.2</v>
+        <v>148.1</v>
       </c>
       <c r="C99" t="n">
-        <v>148.2</v>
+        <v>148.1</v>
       </c>
       <c r="D99" t="n">
-        <v>148.2</v>
+        <v>148.1</v>
       </c>
       <c r="E99" t="n">
-        <v>148.2</v>
+        <v>148.1</v>
       </c>
       <c r="F99" t="n">
-        <v>503.2466</v>
+        <v>76</v>
       </c>
       <c r="G99" t="n">
-        <v>148.1666666666666</v>
+        <v>4456.958700000011</v>
       </c>
       <c r="H99" t="n">
-        <v>148.4700000000001</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>148.2</v>
-      </c>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4322,40 +4457,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>149</v>
+        <v>148.1</v>
       </c>
       <c r="C100" t="n">
-        <v>148.2</v>
+        <v>148.1</v>
       </c>
       <c r="D100" t="n">
-        <v>149</v>
+        <v>148.1</v>
       </c>
       <c r="E100" t="n">
-        <v>148.2</v>
+        <v>148.1</v>
       </c>
       <c r="F100" t="n">
-        <v>10133.7773</v>
+        <v>8199.967699999999</v>
       </c>
       <c r="G100" t="n">
-        <v>148.1933333333333</v>
+        <v>4456.958700000011</v>
       </c>
       <c r="H100" t="n">
-        <v>148.4700000000001</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4364,42 +4498,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>148.2</v>
+        <v>148.1</v>
       </c>
       <c r="C101" t="n">
-        <v>148.2</v>
+        <v>148.1</v>
       </c>
       <c r="D101" t="n">
-        <v>148.2</v>
+        <v>148.1</v>
       </c>
       <c r="E101" t="n">
-        <v>148.2</v>
+        <v>148.1</v>
       </c>
       <c r="F101" t="n">
-        <v>107.9</v>
+        <v>3072.5298</v>
       </c>
       <c r="G101" t="n">
-        <v>148.3333333333333</v>
+        <v>4456.958700000011</v>
       </c>
       <c r="H101" t="n">
-        <v>148.4566666666668</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>148.2</v>
-      </c>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4408,42 +4539,39 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>148.2</v>
+        <v>148.1</v>
       </c>
       <c r="C102" t="n">
-        <v>148.2</v>
+        <v>148.1</v>
       </c>
       <c r="D102" t="n">
-        <v>148.2</v>
+        <v>148.1</v>
       </c>
       <c r="E102" t="n">
-        <v>148.2</v>
+        <v>148.1</v>
       </c>
       <c r="F102" t="n">
-        <v>1265</v>
+        <v>1485.5384</v>
       </c>
       <c r="G102" t="n">
-        <v>148.3599999999999</v>
+        <v>4456.958700000011</v>
       </c>
       <c r="H102" t="n">
-        <v>148.4283333333335</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>148.2</v>
-      </c>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4452,42 +4580,39 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>148.2</v>
+        <v>148.1</v>
       </c>
       <c r="C103" t="n">
-        <v>148.2</v>
+        <v>148.1</v>
       </c>
       <c r="D103" t="n">
-        <v>148.2</v>
+        <v>148.1</v>
       </c>
       <c r="E103" t="n">
-        <v>148.2</v>
+        <v>148.1</v>
       </c>
       <c r="F103" t="n">
-        <v>1265</v>
+        <v>134.8118</v>
       </c>
       <c r="G103" t="n">
-        <v>148.3333333333332</v>
+        <v>4456.958700000011</v>
       </c>
       <c r="H103" t="n">
-        <v>148.3983333333335</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>148.2</v>
-      </c>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,30 +4633,27 @@
         <v>148.1</v>
       </c>
       <c r="F104" t="n">
-        <v>52.7372</v>
+        <v>120.3758</v>
       </c>
       <c r="G104" t="n">
-        <v>148.3399999999999</v>
+        <v>4456.958700000011</v>
       </c>
       <c r="H104" t="n">
-        <v>148.3816666666668</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>148.2</v>
-      </c>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4540,42 +4662,39 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>148.8</v>
+        <v>147.1</v>
       </c>
       <c r="C105" t="n">
-        <v>148.8</v>
+        <v>147.1</v>
       </c>
       <c r="D105" t="n">
-        <v>148.8</v>
+        <v>147.1</v>
       </c>
       <c r="E105" t="n">
-        <v>148.8</v>
+        <v>147.1</v>
       </c>
       <c r="F105" t="n">
-        <v>381.114</v>
+        <v>52.3034</v>
       </c>
       <c r="G105" t="n">
-        <v>148.3933333333333</v>
+        <v>4404.655300000011</v>
       </c>
       <c r="H105" t="n">
-        <v>148.3616666666668</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
-      </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4584,42 +4703,39 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>149</v>
+        <v>147.2</v>
       </c>
       <c r="C106" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D106" t="n">
-        <v>149</v>
+        <v>148.1</v>
       </c>
       <c r="E106" t="n">
-        <v>149</v>
+        <v>147.2</v>
       </c>
       <c r="F106" t="n">
-        <v>1254.2847</v>
+        <v>3821</v>
       </c>
       <c r="G106" t="n">
-        <v>148.4399999999999</v>
+        <v>8225.655300000011</v>
       </c>
       <c r="H106" t="n">
-        <v>148.3450000000002</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>148.8</v>
-      </c>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4628,40 +4744,39 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>148.9</v>
+        <v>148.1</v>
       </c>
       <c r="C107" t="n">
-        <v>149</v>
+        <v>148.1</v>
       </c>
       <c r="D107" t="n">
-        <v>149</v>
+        <v>148.1</v>
       </c>
       <c r="E107" t="n">
-        <v>148.9</v>
+        <v>148.1</v>
       </c>
       <c r="F107" t="n">
-        <v>1953.5721</v>
+        <v>20253.1188</v>
       </c>
       <c r="G107" t="n">
-        <v>148.4933333333333</v>
+        <v>28478.77410000001</v>
       </c>
       <c r="H107" t="n">
-        <v>148.3200000000002</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4670,40 +4785,39 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>148.5</v>
+        <v>148.1</v>
       </c>
       <c r="C108" t="n">
-        <v>148.5</v>
+        <v>148.1</v>
       </c>
       <c r="D108" t="n">
-        <v>148.5</v>
+        <v>148.1</v>
       </c>
       <c r="E108" t="n">
-        <v>148.5</v>
+        <v>148.1</v>
       </c>
       <c r="F108" t="n">
-        <v>202.999</v>
+        <v>3881.6002</v>
       </c>
       <c r="G108" t="n">
-        <v>148.4599999999999</v>
+        <v>28478.77410000001</v>
       </c>
       <c r="H108" t="n">
-        <v>148.3116666666668</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4712,40 +4826,39 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>149</v>
+        <v>148.1</v>
       </c>
       <c r="C109" t="n">
-        <v>148.4</v>
+        <v>148.1</v>
       </c>
       <c r="D109" t="n">
-        <v>149</v>
+        <v>148.1</v>
       </c>
       <c r="E109" t="n">
-        <v>148.4</v>
+        <v>148.1</v>
       </c>
       <c r="F109" t="n">
-        <v>770</v>
+        <v>2076.1073</v>
       </c>
       <c r="G109" t="n">
-        <v>148.4866666666666</v>
+        <v>28478.77410000001</v>
       </c>
       <c r="H109" t="n">
-        <v>148.3133333333335</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4754,40 +4867,39 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>149</v>
+        <v>147.1</v>
       </c>
       <c r="C110" t="n">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D110" t="n">
-        <v>149</v>
+        <v>147.1</v>
       </c>
       <c r="E110" t="n">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F110" t="n">
-        <v>1305</v>
+        <v>2778.2707</v>
       </c>
       <c r="G110" t="n">
-        <v>148.5399999999999</v>
+        <v>25700.50340000001</v>
       </c>
       <c r="H110" t="n">
-        <v>148.3133333333335</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4796,40 +4908,39 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>149</v>
+        <v>147.1</v>
       </c>
       <c r="C111" t="n">
-        <v>149</v>
+        <v>148.3</v>
       </c>
       <c r="D111" t="n">
-        <v>149</v>
+        <v>148.3</v>
       </c>
       <c r="E111" t="n">
-        <v>149</v>
+        <v>147.1</v>
       </c>
       <c r="F111" t="n">
-        <v>2548</v>
+        <v>4873.7832</v>
       </c>
       <c r="G111" t="n">
-        <v>148.5666666666666</v>
+        <v>30574.28660000001</v>
       </c>
       <c r="H111" t="n">
-        <v>148.3250000000002</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4838,40 +4949,39 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>149</v>
+        <v>148.5</v>
       </c>
       <c r="C112" t="n">
-        <v>149</v>
+        <v>148.5</v>
       </c>
       <c r="D112" t="n">
-        <v>149</v>
+        <v>148.5</v>
       </c>
       <c r="E112" t="n">
-        <v>149</v>
+        <v>148.5</v>
       </c>
       <c r="F112" t="n">
-        <v>23232.3888</v>
+        <v>745</v>
       </c>
       <c r="G112" t="n">
-        <v>148.5333333333333</v>
+        <v>31319.28660000001</v>
       </c>
       <c r="H112" t="n">
-        <v>148.3266666666669</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4880,40 +4990,39 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>149</v>
+        <v>147.8</v>
       </c>
       <c r="C113" t="n">
-        <v>149</v>
+        <v>147.8</v>
       </c>
       <c r="D113" t="n">
-        <v>149</v>
+        <v>147.8</v>
       </c>
       <c r="E113" t="n">
-        <v>149</v>
+        <v>147.8</v>
       </c>
       <c r="F113" t="n">
-        <v>382.8758</v>
+        <v>20</v>
       </c>
       <c r="G113" t="n">
-        <v>148.5866666666666</v>
+        <v>31299.28660000001</v>
       </c>
       <c r="H113" t="n">
-        <v>148.3266666666669</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4922,40 +5031,39 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>149</v>
+        <v>147.8</v>
       </c>
       <c r="C114" t="n">
-        <v>149</v>
+        <v>147.8</v>
       </c>
       <c r="D114" t="n">
-        <v>149</v>
+        <v>147.8</v>
       </c>
       <c r="E114" t="n">
-        <v>149</v>
+        <v>147.8</v>
       </c>
       <c r="F114" t="n">
-        <v>387.9997</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="G114" t="n">
-        <v>148.64</v>
+        <v>31299.28660000001</v>
       </c>
       <c r="H114" t="n">
-        <v>148.3500000000002</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4964,40 +5072,39 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>149.6</v>
+        <v>146.1</v>
       </c>
       <c r="C115" t="n">
-        <v>149.8</v>
+        <v>146.1</v>
       </c>
       <c r="D115" t="n">
-        <v>149.8</v>
+        <v>146.1</v>
       </c>
       <c r="E115" t="n">
-        <v>149.6</v>
+        <v>146.1</v>
       </c>
       <c r="F115" t="n">
-        <v>2154.91</v>
+        <v>3.5</v>
       </c>
       <c r="G115" t="n">
-        <v>148.7466666666666</v>
+        <v>31295.78660000001</v>
       </c>
       <c r="H115" t="n">
-        <v>148.3616666666668</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N115" t="n">
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5006,40 +5113,39 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>148.9</v>
+        <v>147.8</v>
       </c>
       <c r="C116" t="n">
-        <v>148.9</v>
+        <v>147.8</v>
       </c>
       <c r="D116" t="n">
-        <v>148.9</v>
+        <v>147.8</v>
       </c>
       <c r="E116" t="n">
-        <v>148.9</v>
+        <v>147.8</v>
       </c>
       <c r="F116" t="n">
-        <v>1256.1823</v>
+        <v>73.614</v>
       </c>
       <c r="G116" t="n">
-        <v>148.7933333333334</v>
+        <v>31369.40060000001</v>
       </c>
       <c r="H116" t="n">
-        <v>148.3583333333335</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5048,40 +5154,39 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>148.9</v>
+        <v>148.6</v>
       </c>
       <c r="C117" t="n">
-        <v>148.9</v>
+        <v>148.6</v>
       </c>
       <c r="D117" t="n">
-        <v>148.9</v>
+        <v>148.6</v>
       </c>
       <c r="E117" t="n">
-        <v>148.9</v>
+        <v>148.6</v>
       </c>
       <c r="F117" t="n">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="G117" t="n">
-        <v>148.84</v>
+        <v>31442.40060000001</v>
       </c>
       <c r="H117" t="n">
-        <v>148.3800000000001</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5090,40 +5195,39 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>148.9</v>
+        <v>148</v>
       </c>
       <c r="C118" t="n">
-        <v>149.7</v>
+        <v>148</v>
       </c>
       <c r="D118" t="n">
-        <v>149.7</v>
+        <v>148</v>
       </c>
       <c r="E118" t="n">
-        <v>148.9</v>
+        <v>148</v>
       </c>
       <c r="F118" t="n">
-        <v>2691</v>
+        <v>2956.8202</v>
       </c>
       <c r="G118" t="n">
-        <v>148.94</v>
+        <v>28485.58040000001</v>
       </c>
       <c r="H118" t="n">
-        <v>148.3900000000002</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N118" t="n">
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5132,40 +5236,39 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>149.8</v>
+        <v>148</v>
       </c>
       <c r="C119" t="n">
-        <v>149.8</v>
+        <v>148</v>
       </c>
       <c r="D119" t="n">
-        <v>149.8</v>
+        <v>148</v>
       </c>
       <c r="E119" t="n">
-        <v>149.8</v>
+        <v>148</v>
       </c>
       <c r="F119" t="n">
-        <v>918</v>
+        <v>1964.343</v>
       </c>
       <c r="G119" t="n">
-        <v>149.0533333333334</v>
+        <v>28485.58040000001</v>
       </c>
       <c r="H119" t="n">
-        <v>148.4016666666668</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5174,40 +5277,39 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>149.8</v>
+        <v>148</v>
       </c>
       <c r="C120" t="n">
-        <v>149.8</v>
+        <v>148.3</v>
       </c>
       <c r="D120" t="n">
-        <v>149.8</v>
+        <v>149</v>
       </c>
       <c r="E120" t="n">
-        <v>149.8</v>
+        <v>148</v>
       </c>
       <c r="F120" t="n">
-        <v>15.2408</v>
+        <v>1458.71</v>
       </c>
       <c r="G120" t="n">
-        <v>149.12</v>
+        <v>29944.29040000001</v>
       </c>
       <c r="H120" t="n">
-        <v>148.4116666666668</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N120" t="n">
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5216,40 +5318,39 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>149</v>
+        <v>148.3</v>
       </c>
       <c r="C121" t="n">
-        <v>149</v>
+        <v>148.2</v>
       </c>
       <c r="D121" t="n">
-        <v>149</v>
+        <v>148.3</v>
       </c>
       <c r="E121" t="n">
-        <v>149</v>
+        <v>148.2</v>
       </c>
       <c r="F121" t="n">
-        <v>3183.2636</v>
+        <v>470.5335</v>
       </c>
       <c r="G121" t="n">
-        <v>149.12</v>
+        <v>29473.7569</v>
       </c>
       <c r="H121" t="n">
-        <v>148.4050000000001</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N121" t="n">
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5258,40 +5359,39 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C122" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D122" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E122" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F122" t="n">
-        <v>218.9002</v>
+        <v>560.8654</v>
       </c>
       <c r="G122" t="n">
-        <v>149.1866666666667</v>
+        <v>30034.6223</v>
       </c>
       <c r="H122" t="n">
-        <v>148.4133333333334</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N122" t="n">
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5300,40 +5400,39 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>150.6</v>
+        <v>148.9</v>
       </c>
       <c r="C123" t="n">
-        <v>150.8</v>
+        <v>148</v>
       </c>
       <c r="D123" t="n">
-        <v>150.9</v>
+        <v>148.9</v>
       </c>
       <c r="E123" t="n">
-        <v>150.6</v>
+        <v>148</v>
       </c>
       <c r="F123" t="n">
-        <v>2117.597</v>
+        <v>2391</v>
       </c>
       <c r="G123" t="n">
-        <v>149.3400000000001</v>
+        <v>27643.6223</v>
       </c>
       <c r="H123" t="n">
-        <v>148.4433333333334</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N123" t="n">
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5342,40 +5441,39 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>150.9</v>
+        <v>148.2</v>
       </c>
       <c r="C124" t="n">
-        <v>151</v>
+        <v>148.2</v>
       </c>
       <c r="D124" t="n">
-        <v>151</v>
+        <v>148.2</v>
       </c>
       <c r="E124" t="n">
-        <v>150.9</v>
+        <v>148.2</v>
       </c>
       <c r="F124" t="n">
-        <v>7621.7408</v>
+        <v>608</v>
       </c>
       <c r="G124" t="n">
-        <v>149.5133333333334</v>
+        <v>28251.6223</v>
       </c>
       <c r="H124" t="n">
-        <v>148.4650000000001</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N124" t="n">
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5384,40 +5482,39 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>151.1</v>
+        <v>148.6</v>
       </c>
       <c r="C125" t="n">
-        <v>151.1</v>
+        <v>148.6</v>
       </c>
       <c r="D125" t="n">
-        <v>151.1</v>
+        <v>148.6</v>
       </c>
       <c r="E125" t="n">
-        <v>151.1</v>
+        <v>148.6</v>
       </c>
       <c r="F125" t="n">
-        <v>214.39</v>
+        <v>320</v>
       </c>
       <c r="G125" t="n">
-        <v>149.6533333333334</v>
+        <v>28571.6223</v>
       </c>
       <c r="H125" t="n">
-        <v>148.5150000000001</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N125" t="n">
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5426,76 +5523,80 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>151.1</v>
+        <v>148.6</v>
       </c>
       <c r="C126" t="n">
-        <v>151.1</v>
+        <v>149.5</v>
       </c>
       <c r="D126" t="n">
-        <v>151.1</v>
+        <v>149.6</v>
       </c>
       <c r="E126" t="n">
-        <v>151.1</v>
+        <v>148.6</v>
       </c>
       <c r="F126" t="n">
-        <v>485.61</v>
+        <v>1269.911</v>
       </c>
       <c r="G126" t="n">
-        <v>149.7933333333334</v>
+        <v>29841.5333</v>
       </c>
       <c r="H126" t="n">
-        <v>148.5650000000001</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>1</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>151</v>
+        <v>148.2</v>
       </c>
       <c r="C127" t="n">
-        <v>151</v>
+        <v>148.2</v>
       </c>
       <c r="D127" t="n">
-        <v>151</v>
+        <v>148.2</v>
       </c>
       <c r="E127" t="n">
-        <v>151</v>
+        <v>148.2</v>
       </c>
       <c r="F127" t="n">
-        <v>1914.589</v>
+        <v>597.5133</v>
       </c>
       <c r="G127" t="n">
-        <v>149.9266666666667</v>
+        <v>29244.02</v>
       </c>
       <c r="H127" t="n">
-        <v>148.6316666666667</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>1</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5504,36 +5605,39 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>151</v>
+        <v>148.2</v>
       </c>
       <c r="C128" t="n">
-        <v>151</v>
+        <v>148.2</v>
       </c>
       <c r="D128" t="n">
-        <v>151</v>
+        <v>148.2</v>
       </c>
       <c r="E128" t="n">
-        <v>151</v>
+        <v>148.2</v>
       </c>
       <c r="F128" t="n">
-        <v>125</v>
+        <v>503.2466</v>
       </c>
       <c r="G128" t="n">
-        <v>150.06</v>
+        <v>29244.02</v>
       </c>
       <c r="H128" t="n">
-        <v>148.6950000000001</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>1</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5542,36 +5646,39 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C129" t="n">
-        <v>151</v>
+        <v>148.2</v>
       </c>
       <c r="D129" t="n">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E129" t="n">
-        <v>151</v>
+        <v>148.2</v>
       </c>
       <c r="F129" t="n">
-        <v>556.3424</v>
+        <v>10133.7773</v>
       </c>
       <c r="G129" t="n">
-        <v>150.1933333333334</v>
+        <v>29244.02</v>
       </c>
       <c r="H129" t="n">
-        <v>148.7433333333334</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>1</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5580,36 +5687,39 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>150.2</v>
+        <v>148.2</v>
       </c>
       <c r="C130" t="n">
-        <v>150.2</v>
+        <v>148.2</v>
       </c>
       <c r="D130" t="n">
-        <v>150.2</v>
+        <v>148.2</v>
       </c>
       <c r="E130" t="n">
-        <v>150.2</v>
+        <v>148.2</v>
       </c>
       <c r="F130" t="n">
-        <v>897.4362</v>
+        <v>107.9</v>
       </c>
       <c r="G130" t="n">
-        <v>150.22</v>
+        <v>29244.02</v>
       </c>
       <c r="H130" t="n">
-        <v>148.7783333333334</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>1</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="n">
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5618,36 +5728,39 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>150.9</v>
+        <v>148.2</v>
       </c>
       <c r="C131" t="n">
-        <v>150.9</v>
+        <v>148.2</v>
       </c>
       <c r="D131" t="n">
-        <v>150.9</v>
+        <v>148.2</v>
       </c>
       <c r="E131" t="n">
-        <v>150.9</v>
+        <v>148.2</v>
       </c>
       <c r="F131" t="n">
-        <v>287.8392</v>
+        <v>1265</v>
       </c>
       <c r="G131" t="n">
-        <v>150.3533333333334</v>
+        <v>29244.02</v>
       </c>
       <c r="H131" t="n">
-        <v>148.8250000000001</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>1</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="n">
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5656,36 +5769,1180 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="C132" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="D132" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="E132" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1265</v>
+      </c>
+      <c r="G132" t="n">
+        <v>29244.02</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="C133" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="D133" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="E133" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="F133" t="n">
+        <v>52.7372</v>
+      </c>
+      <c r="G133" t="n">
+        <v>29191.2828</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>148.8</v>
+      </c>
+      <c r="C134" t="n">
+        <v>148.8</v>
+      </c>
+      <c r="D134" t="n">
+        <v>148.8</v>
+      </c>
+      <c r="E134" t="n">
+        <v>148.8</v>
+      </c>
+      <c r="F134" t="n">
+        <v>381.114</v>
+      </c>
+      <c r="G134" t="n">
+        <v>29572.39680000001</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>149</v>
+      </c>
+      <c r="C135" t="n">
+        <v>149</v>
+      </c>
+      <c r="D135" t="n">
+        <v>149</v>
+      </c>
+      <c r="E135" t="n">
+        <v>149</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1254.2847</v>
+      </c>
+      <c r="G135" t="n">
+        <v>30826.68150000001</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="C136" t="n">
+        <v>149</v>
+      </c>
+      <c r="D136" t="n">
+        <v>149</v>
+      </c>
+      <c r="E136" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1953.5721</v>
+      </c>
+      <c r="G136" t="n">
+        <v>30826.68150000001</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="C137" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="D137" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="E137" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="F137" t="n">
+        <v>202.999</v>
+      </c>
+      <c r="G137" t="n">
+        <v>30623.68250000001</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>149</v>
+      </c>
+      <c r="C138" t="n">
+        <v>148.4</v>
+      </c>
+      <c r="D138" t="n">
+        <v>149</v>
+      </c>
+      <c r="E138" t="n">
+        <v>148.4</v>
+      </c>
+      <c r="F138" t="n">
+        <v>770</v>
+      </c>
+      <c r="G138" t="n">
+        <v>29853.68250000001</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>149</v>
+      </c>
+      <c r="C139" t="n">
+        <v>149</v>
+      </c>
+      <c r="D139" t="n">
+        <v>149</v>
+      </c>
+      <c r="E139" t="n">
+        <v>149</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1305</v>
+      </c>
+      <c r="G139" t="n">
+        <v>31158.68250000001</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>149</v>
+      </c>
+      <c r="C140" t="n">
+        <v>149</v>
+      </c>
+      <c r="D140" t="n">
+        <v>149</v>
+      </c>
+      <c r="E140" t="n">
+        <v>149</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2548</v>
+      </c>
+      <c r="G140" t="n">
+        <v>31158.68250000001</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>149</v>
+      </c>
+      <c r="C141" t="n">
+        <v>149</v>
+      </c>
+      <c r="D141" t="n">
+        <v>149</v>
+      </c>
+      <c r="E141" t="n">
+        <v>149</v>
+      </c>
+      <c r="F141" t="n">
+        <v>23232.3888</v>
+      </c>
+      <c r="G141" t="n">
+        <v>31158.68250000001</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>149</v>
+      </c>
+      <c r="C142" t="n">
+        <v>149</v>
+      </c>
+      <c r="D142" t="n">
+        <v>149</v>
+      </c>
+      <c r="E142" t="n">
+        <v>149</v>
+      </c>
+      <c r="F142" t="n">
+        <v>382.8758</v>
+      </c>
+      <c r="G142" t="n">
+        <v>31158.68250000001</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>149</v>
+      </c>
+      <c r="C143" t="n">
+        <v>149</v>
+      </c>
+      <c r="D143" t="n">
+        <v>149</v>
+      </c>
+      <c r="E143" t="n">
+        <v>149</v>
+      </c>
+      <c r="F143" t="n">
+        <v>387.9997</v>
+      </c>
+      <c r="G143" t="n">
+        <v>31158.68250000001</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>149.6</v>
+      </c>
+      <c r="C144" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="D144" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="E144" t="n">
+        <v>149.6</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2154.91</v>
+      </c>
+      <c r="G144" t="n">
+        <v>33313.59250000001</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="C145" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="D145" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="E145" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1256.1823</v>
+      </c>
+      <c r="G145" t="n">
+        <v>32057.41020000001</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="C146" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="D146" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="E146" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="F146" t="n">
+        <v>30</v>
+      </c>
+      <c r="G146" t="n">
+        <v>32057.41020000001</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="C147" t="n">
+        <v>149.7</v>
+      </c>
+      <c r="D147" t="n">
+        <v>149.7</v>
+      </c>
+      <c r="E147" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2691</v>
+      </c>
+      <c r="G147" t="n">
+        <v>34748.41020000001</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="C148" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="D148" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="E148" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="F148" t="n">
+        <v>918</v>
+      </c>
+      <c r="G148" t="n">
+        <v>35666.41020000001</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="C149" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="D149" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="E149" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="F149" t="n">
+        <v>15.2408</v>
+      </c>
+      <c r="G149" t="n">
+        <v>35666.41020000001</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>149</v>
+      </c>
+      <c r="C150" t="n">
+        <v>149</v>
+      </c>
+      <c r="D150" t="n">
+        <v>149</v>
+      </c>
+      <c r="E150" t="n">
+        <v>149</v>
+      </c>
+      <c r="F150" t="n">
+        <v>3183.2636</v>
+      </c>
+      <c r="G150" t="n">
+        <v>32483.14660000001</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>150</v>
+      </c>
+      <c r="C151" t="n">
+        <v>150</v>
+      </c>
+      <c r="D151" t="n">
+        <v>150</v>
+      </c>
+      <c r="E151" t="n">
+        <v>150</v>
+      </c>
+      <c r="F151" t="n">
+        <v>218.9002</v>
+      </c>
+      <c r="G151" t="n">
+        <v>32702.04680000001</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>150.6</v>
+      </c>
+      <c r="C152" t="n">
+        <v>150.8</v>
+      </c>
+      <c r="D152" t="n">
+        <v>150.9</v>
+      </c>
+      <c r="E152" t="n">
+        <v>150.6</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2117.597</v>
+      </c>
+      <c r="G152" t="n">
+        <v>34819.64380000001</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>150.9</v>
+      </c>
+      <c r="C153" t="n">
+        <v>151</v>
+      </c>
+      <c r="D153" t="n">
+        <v>151</v>
+      </c>
+      <c r="E153" t="n">
+        <v>150.9</v>
+      </c>
+      <c r="F153" t="n">
+        <v>7621.7408</v>
+      </c>
+      <c r="G153" t="n">
+        <v>42441.3846</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1.023610354223433</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="C154" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="D154" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="E154" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="F154" t="n">
+        <v>214.39</v>
+      </c>
+      <c r="G154" t="n">
+        <v>42655.7746</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="C155" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="D155" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="E155" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="F155" t="n">
+        <v>485.61</v>
+      </c>
+      <c r="G155" t="n">
+        <v>42655.7746</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>151</v>
+      </c>
+      <c r="C156" t="n">
+        <v>151</v>
+      </c>
+      <c r="D156" t="n">
+        <v>151</v>
+      </c>
+      <c r="E156" t="n">
+        <v>151</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1914.589</v>
+      </c>
+      <c r="G156" t="n">
+        <v>40741.1856</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>151</v>
+      </c>
+      <c r="C157" t="n">
+        <v>151</v>
+      </c>
+      <c r="D157" t="n">
+        <v>151</v>
+      </c>
+      <c r="E157" t="n">
+        <v>151</v>
+      </c>
+      <c r="F157" t="n">
+        <v>125</v>
+      </c>
+      <c r="G157" t="n">
+        <v>40741.1856</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>151</v>
+      </c>
+      <c r="C158" t="n">
+        <v>151</v>
+      </c>
+      <c r="D158" t="n">
+        <v>151</v>
+      </c>
+      <c r="E158" t="n">
+        <v>151</v>
+      </c>
+      <c r="F158" t="n">
+        <v>556.3424</v>
+      </c>
+      <c r="G158" t="n">
+        <v>40741.1856</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>150.2</v>
+      </c>
+      <c r="C159" t="n">
+        <v>150.2</v>
+      </c>
+      <c r="D159" t="n">
+        <v>150.2</v>
+      </c>
+      <c r="E159" t="n">
+        <v>150.2</v>
+      </c>
+      <c r="F159" t="n">
+        <v>897.4362</v>
+      </c>
+      <c r="G159" t="n">
+        <v>39843.74940000001</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>150.9</v>
+      </c>
+      <c r="C160" t="n">
+        <v>150.9</v>
+      </c>
+      <c r="D160" t="n">
+        <v>150.9</v>
+      </c>
+      <c r="E160" t="n">
+        <v>150.9</v>
+      </c>
+      <c r="F160" t="n">
+        <v>287.8392</v>
+      </c>
+      <c r="G160" t="n">
+        <v>40131.58860000001</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
         <v>150.1</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C161" t="n">
         <v>150</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D161" t="n">
         <v>150.1</v>
       </c>
-      <c r="E132" t="n">
+      <c r="E161" t="n">
         <v>150</v>
       </c>
-      <c r="F132" t="n">
+      <c r="F161" t="n">
         <v>2860.7484</v>
       </c>
-      <c r="G132" t="n">
-        <v>150.4266666666667</v>
-      </c>
-      <c r="H132" t="n">
-        <v>148.8566666666667</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
-        <v>1</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="n">
+      <c r="G161" t="n">
+        <v>37270.84020000001</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-13 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-13 BackTest STEEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M161"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>148</v>
+        <v>147.9</v>
       </c>
       <c r="C2" t="n">
-        <v>148</v>
+        <v>147.9</v>
       </c>
       <c r="D2" t="n">
-        <v>148</v>
+        <v>147.9</v>
       </c>
       <c r="E2" t="n">
-        <v>148</v>
+        <v>147.9</v>
       </c>
       <c r="F2" t="n">
-        <v>259.1909</v>
+        <v>3189</v>
       </c>
       <c r="G2" t="n">
-        <v>-25919.9436</v>
+        <v>-54351.6109</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>147</v>
+        <v>147.9</v>
       </c>
       <c r="C3" t="n">
-        <v>148</v>
+        <v>147.9</v>
       </c>
       <c r="D3" t="n">
-        <v>148</v>
+        <v>147.9</v>
       </c>
       <c r="E3" t="n">
-        <v>147</v>
+        <v>147.9</v>
       </c>
       <c r="F3" t="n">
-        <v>2655.656</v>
+        <v>8703</v>
       </c>
       <c r="G3" t="n">
-        <v>-25919.9436</v>
+        <v>-54351.6109</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>146.9</v>
+        <v>146.7</v>
       </c>
       <c r="C4" t="n">
-        <v>146.8</v>
+        <v>146.7</v>
       </c>
       <c r="D4" t="n">
-        <v>146.9</v>
+        <v>146.7</v>
       </c>
       <c r="E4" t="n">
-        <v>146.8</v>
+        <v>146.7</v>
       </c>
       <c r="F4" t="n">
-        <v>4029.3712</v>
+        <v>108.4226</v>
       </c>
       <c r="G4" t="n">
-        <v>-29949.3148</v>
+        <v>-54460.0335</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -541,79 +549,69 @@
         <v>147</v>
       </c>
       <c r="C5" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D5" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E5" t="n">
         <v>147</v>
       </c>
       <c r="F5" t="n">
-        <v>394</v>
+        <v>13227.2153</v>
       </c>
       <c r="G5" t="n">
-        <v>-29555.3148</v>
+        <v>-41232.81819999999</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="K5" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>146.8</v>
+        <v>148</v>
       </c>
       <c r="C6" t="n">
-        <v>146.8</v>
+        <v>148</v>
       </c>
       <c r="D6" t="n">
-        <v>146.8</v>
+        <v>148</v>
       </c>
       <c r="E6" t="n">
-        <v>146.8</v>
+        <v>148</v>
       </c>
       <c r="F6" t="n">
-        <v>177.2842</v>
+        <v>29.9609</v>
       </c>
       <c r="G6" t="n">
-        <v>-29732.599</v>
+        <v>-41202.8573</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>148</v>
-      </c>
-      <c r="K6" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -632,182 +630,154 @@
         <v>148</v>
       </c>
       <c r="F7" t="n">
-        <v>2520.847</v>
+        <v>21.8495</v>
       </c>
       <c r="G7" t="n">
-        <v>-27211.752</v>
+        <v>-41202.8573</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="K7" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C8" t="n">
-        <v>148</v>
+        <v>148.1</v>
       </c>
       <c r="D8" t="n">
-        <v>148</v>
+        <v>148.1</v>
       </c>
       <c r="E8" t="n">
-        <v>147</v>
+        <v>147.2</v>
       </c>
       <c r="F8" t="n">
-        <v>3888.946</v>
+        <v>13518.2383</v>
       </c>
       <c r="G8" t="n">
-        <v>-27211.752</v>
+        <v>-27684.619</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>148</v>
-      </c>
-      <c r="K8" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>147</v>
+        <v>148.9</v>
       </c>
       <c r="C9" t="n">
-        <v>147</v>
+        <v>147.5</v>
       </c>
       <c r="D9" t="n">
-        <v>147</v>
+        <v>148.9</v>
       </c>
       <c r="E9" t="n">
-        <v>147</v>
+        <v>147.5</v>
       </c>
       <c r="F9" t="n">
-        <v>112.699</v>
+        <v>7053.4781</v>
       </c>
       <c r="G9" t="n">
-        <v>-27324.451</v>
+        <v>-34738.0971</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>148</v>
-      </c>
-      <c r="K9" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>148.8</v>
+        <v>148.9</v>
       </c>
       <c r="C10" t="n">
-        <v>148.8</v>
+        <v>149</v>
       </c>
       <c r="D10" t="n">
-        <v>148.8</v>
+        <v>149</v>
       </c>
       <c r="E10" t="n">
-        <v>148.8</v>
+        <v>148.9</v>
       </c>
       <c r="F10" t="n">
-        <v>240.502</v>
+        <v>1034</v>
       </c>
       <c r="G10" t="n">
-        <v>-27083.949</v>
+        <v>-33704.0971</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>147</v>
-      </c>
-      <c r="K10" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>149</v>
+        <v>148.9</v>
       </c>
       <c r="C11" t="n">
-        <v>149</v>
+        <v>148.9</v>
       </c>
       <c r="D11" t="n">
-        <v>149</v>
+        <v>148.9</v>
       </c>
       <c r="E11" t="n">
-        <v>149</v>
+        <v>148.9</v>
       </c>
       <c r="F11" t="n">
-        <v>3113.934</v>
+        <v>2898.7734</v>
       </c>
       <c r="G11" t="n">
-        <v>-23970.015</v>
+        <v>-36602.8705</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -816,39 +786,34 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>148</v>
+        <v>149.9</v>
       </c>
       <c r="C12" t="n">
-        <v>148</v>
+        <v>149.6</v>
       </c>
       <c r="D12" t="n">
-        <v>148</v>
+        <v>149.9</v>
       </c>
       <c r="E12" t="n">
-        <v>148</v>
+        <v>146.2</v>
       </c>
       <c r="F12" t="n">
-        <v>1014.4709</v>
+        <v>5845.5895</v>
       </c>
       <c r="G12" t="n">
-        <v>-24984.4859</v>
+        <v>-30757.281</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -857,17 +822,12 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -877,60 +837,61 @@
         <v>149.8</v>
       </c>
       <c r="C13" t="n">
-        <v>149</v>
+        <v>148.6</v>
       </c>
       <c r="D13" t="n">
         <v>149.8</v>
       </c>
       <c r="E13" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F13" t="n">
-        <v>3109.7744</v>
+        <v>2466.5087</v>
       </c>
       <c r="G13" t="n">
-        <v>-21874.7115</v>
+        <v>-33223.78969999999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="J13" t="n">
+        <v>149.6</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>149.7</v>
+        <v>148.6</v>
       </c>
       <c r="C14" t="n">
-        <v>149.8</v>
+        <v>148.6</v>
       </c>
       <c r="D14" t="n">
-        <v>149.8</v>
+        <v>148.6</v>
       </c>
       <c r="E14" t="n">
-        <v>149.7</v>
+        <v>148.6</v>
       </c>
       <c r="F14" t="n">
-        <v>4947.7481</v>
+        <v>1702.0953</v>
       </c>
       <c r="G14" t="n">
-        <v>-16926.9634</v>
+        <v>-33223.78969999999</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -939,9 +900,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -950,41 +909,38 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>148.1</v>
+        <v>147.6</v>
       </c>
       <c r="C15" t="n">
-        <v>148.1</v>
+        <v>147.6</v>
       </c>
       <c r="D15" t="n">
-        <v>148.1</v>
+        <v>147.6</v>
       </c>
       <c r="E15" t="n">
-        <v>148.1</v>
+        <v>147.6</v>
       </c>
       <c r="F15" t="n">
-        <v>925.4614</v>
+        <v>650.8567</v>
       </c>
       <c r="G15" t="n">
-        <v>-17852.4248</v>
+        <v>-33874.64639999999</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>149.8</v>
-      </c>
-      <c r="K15" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -993,28 +949,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>148.1</v>
+        <v>149</v>
       </c>
       <c r="C16" t="n">
-        <v>148.1</v>
+        <v>149</v>
       </c>
       <c r="D16" t="n">
-        <v>148.1</v>
+        <v>149</v>
       </c>
       <c r="E16" t="n">
-        <v>148.1</v>
+        <v>149</v>
       </c>
       <c r="F16" t="n">
-        <v>2420.0035</v>
+        <v>4866.7383</v>
       </c>
       <c r="G16" t="n">
-        <v>-17852.4248</v>
+        <v>-29007.90809999999</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1023,9 +980,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1034,41 +989,38 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>148.1</v>
+        <v>149.7</v>
       </c>
       <c r="C17" t="n">
-        <v>148.1</v>
+        <v>149.5</v>
       </c>
       <c r="D17" t="n">
-        <v>148.1</v>
+        <v>149.7</v>
       </c>
       <c r="E17" t="n">
-        <v>148.1</v>
+        <v>147</v>
       </c>
       <c r="F17" t="n">
-        <v>125</v>
+        <v>12437.47</v>
       </c>
       <c r="G17" t="n">
-        <v>-17852.4248</v>
+        <v>-16570.43809999999</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1077,28 +1029,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C18" t="n">
-        <v>148.1</v>
+        <v>149.8</v>
       </c>
       <c r="D18" t="n">
-        <v>148.1</v>
+        <v>149.8</v>
       </c>
       <c r="E18" t="n">
-        <v>147.4</v>
+        <v>149</v>
       </c>
       <c r="F18" t="n">
-        <v>6895.3123</v>
+        <v>1972.6031</v>
       </c>
       <c r="G18" t="n">
-        <v>-17852.4248</v>
+        <v>-14597.83499999999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1107,9 +1060,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1118,41 +1069,38 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>147.5</v>
+        <v>149.8</v>
       </c>
       <c r="C19" t="n">
-        <v>147.5</v>
+        <v>149</v>
       </c>
       <c r="D19" t="n">
-        <v>147.5</v>
+        <v>149.8</v>
       </c>
       <c r="E19" t="n">
-        <v>147.5</v>
+        <v>149</v>
       </c>
       <c r="F19" t="n">
-        <v>5738.2834</v>
+        <v>4991.744</v>
       </c>
       <c r="G19" t="n">
-        <v>-23590.7082</v>
+        <v>-19589.57899999999</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1161,28 +1109,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>147</v>
+        <v>149.6</v>
       </c>
       <c r="C20" t="n">
-        <v>147</v>
+        <v>149.6</v>
       </c>
       <c r="D20" t="n">
-        <v>147</v>
+        <v>149.6</v>
       </c>
       <c r="E20" t="n">
-        <v>147</v>
+        <v>149.6</v>
       </c>
       <c r="F20" t="n">
-        <v>61</v>
+        <v>2662.2052</v>
       </c>
       <c r="G20" t="n">
-        <v>-23651.7082</v>
+        <v>-16927.37379999999</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1191,9 +1140,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1202,28 +1149,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>147</v>
+        <v>149.6</v>
       </c>
       <c r="C21" t="n">
-        <v>147.9</v>
+        <v>149.6</v>
       </c>
       <c r="D21" t="n">
-        <v>147.9</v>
+        <v>149.6</v>
       </c>
       <c r="E21" t="n">
-        <v>147</v>
+        <v>149.6</v>
       </c>
       <c r="F21" t="n">
-        <v>2500</v>
+        <v>591.2987000000001</v>
       </c>
       <c r="G21" t="n">
-        <v>-21151.7082</v>
+        <v>-16927.37379999999</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1232,9 +1180,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1243,28 +1189,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>147.9</v>
+        <v>149.6</v>
       </c>
       <c r="C22" t="n">
-        <v>148.1</v>
+        <v>149.6</v>
       </c>
       <c r="D22" t="n">
-        <v>148.1</v>
+        <v>149.6</v>
       </c>
       <c r="E22" t="n">
-        <v>147.9</v>
+        <v>149.6</v>
       </c>
       <c r="F22" t="n">
-        <v>1000</v>
+        <v>157.7328</v>
       </c>
       <c r="G22" t="n">
-        <v>-20151.7082</v>
+        <v>-16927.37379999999</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1273,9 +1220,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1284,28 +1229,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>148.1</v>
+        <v>149.6</v>
       </c>
       <c r="C23" t="n">
-        <v>148.8</v>
+        <v>149.6</v>
       </c>
       <c r="D23" t="n">
-        <v>148.8</v>
+        <v>149.6</v>
       </c>
       <c r="E23" t="n">
-        <v>148.1</v>
+        <v>149.6</v>
       </c>
       <c r="F23" t="n">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="G23" t="n">
-        <v>-20026.7082</v>
+        <v>-16927.37379999999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1314,9 +1260,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1325,28 +1269,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>149.8</v>
+        <v>149.6</v>
       </c>
       <c r="C24" t="n">
-        <v>149.8</v>
+        <v>149.6</v>
       </c>
       <c r="D24" t="n">
-        <v>149.8</v>
+        <v>149.6</v>
       </c>
       <c r="E24" t="n">
-        <v>149.8</v>
+        <v>149.6</v>
       </c>
       <c r="F24" t="n">
-        <v>228.2626</v>
+        <v>228.8543</v>
       </c>
       <c r="G24" t="n">
-        <v>-19798.4456</v>
+        <v>-16927.37379999999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1355,9 +1300,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1366,28 +1309,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>149.9</v>
+        <v>149</v>
       </c>
       <c r="C25" t="n">
-        <v>150.9</v>
+        <v>148.1</v>
       </c>
       <c r="D25" t="n">
-        <v>150.9</v>
+        <v>149</v>
       </c>
       <c r="E25" t="n">
-        <v>149.9</v>
+        <v>148.1</v>
       </c>
       <c r="F25" t="n">
-        <v>3000</v>
+        <v>1503</v>
       </c>
       <c r="G25" t="n">
-        <v>-16798.4456</v>
+        <v>-18430.37379999999</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1396,9 +1340,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1407,28 +1349,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>148.2</v>
+        <v>149</v>
       </c>
       <c r="C26" t="n">
-        <v>148</v>
+        <v>149.1</v>
       </c>
       <c r="D26" t="n">
-        <v>148.2</v>
+        <v>149.1</v>
       </c>
       <c r="E26" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F26" t="n">
-        <v>3093.29</v>
+        <v>3526.7472</v>
       </c>
       <c r="G26" t="n">
-        <v>-19891.7356</v>
+        <v>-14903.62659999999</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1437,9 +1380,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1448,28 +1389,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>148</v>
+        <v>148.2</v>
       </c>
       <c r="C27" t="n">
-        <v>148</v>
+        <v>148.2</v>
       </c>
       <c r="D27" t="n">
-        <v>148</v>
+        <v>148.2</v>
       </c>
       <c r="E27" t="n">
-        <v>148</v>
+        <v>148.2</v>
       </c>
       <c r="F27" t="n">
-        <v>22</v>
+        <v>4218.7209</v>
       </c>
       <c r="G27" t="n">
-        <v>-19891.7356</v>
+        <v>-19122.34749999999</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1478,9 +1420,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1489,28 +1429,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>148</v>
+        <v>149.9</v>
       </c>
       <c r="C28" t="n">
-        <v>147.6</v>
+        <v>149</v>
       </c>
       <c r="D28" t="n">
-        <v>148</v>
+        <v>149.9</v>
       </c>
       <c r="E28" t="n">
-        <v>147.6</v>
+        <v>149</v>
       </c>
       <c r="F28" t="n">
-        <v>766</v>
+        <v>3392.2528</v>
       </c>
       <c r="G28" t="n">
-        <v>-20657.7356</v>
+        <v>-15730.09469999999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1519,9 +1460,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1530,28 +1469,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>147.6</v>
+        <v>149.9</v>
       </c>
       <c r="C29" t="n">
-        <v>147</v>
+        <v>149.9</v>
       </c>
       <c r="D29" t="n">
-        <v>147.6</v>
+        <v>149.9</v>
       </c>
       <c r="E29" t="n">
-        <v>147</v>
+        <v>149.9</v>
       </c>
       <c r="F29" t="n">
-        <v>875</v>
+        <v>2130</v>
       </c>
       <c r="G29" t="n">
-        <v>-21532.7356</v>
+        <v>-13600.09469999999</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1560,9 +1500,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1571,28 +1509,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>147.8</v>
+        <v>149.9</v>
       </c>
       <c r="C30" t="n">
-        <v>147.8</v>
+        <v>150</v>
       </c>
       <c r="D30" t="n">
-        <v>147.8</v>
+        <v>150</v>
       </c>
       <c r="E30" t="n">
-        <v>147.8</v>
+        <v>149.9</v>
       </c>
       <c r="F30" t="n">
-        <v>1280</v>
+        <v>5706.5985</v>
       </c>
       <c r="G30" t="n">
-        <v>-20252.7356</v>
+        <v>-7893.496199999989</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1601,9 +1540,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1612,28 +1549,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C31" t="n">
-        <v>147</v>
+        <v>149.1</v>
       </c>
       <c r="D31" t="n">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E31" t="n">
-        <v>147</v>
+        <v>149.1</v>
       </c>
       <c r="F31" t="n">
-        <v>22046.367</v>
+        <v>2794.6867</v>
       </c>
       <c r="G31" t="n">
-        <v>-42299.1026</v>
+        <v>-10688.18289999999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1642,9 +1580,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1653,28 +1589,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C32" t="n">
-        <v>146.8</v>
+        <v>150</v>
       </c>
       <c r="D32" t="n">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E32" t="n">
-        <v>146.8</v>
+        <v>150</v>
       </c>
       <c r="F32" t="n">
-        <v>5271.2321</v>
+        <v>6650.0404</v>
       </c>
       <c r="G32" t="n">
-        <v>-47570.3347</v>
+        <v>-4038.142499999989</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1683,9 +1620,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1694,28 +1629,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>147.2</v>
+        <v>150</v>
       </c>
       <c r="C33" t="n">
-        <v>147.2</v>
+        <v>150</v>
       </c>
       <c r="D33" t="n">
-        <v>147.2</v>
+        <v>150</v>
       </c>
       <c r="E33" t="n">
-        <v>147.2</v>
+        <v>150</v>
       </c>
       <c r="F33" t="n">
-        <v>3.5</v>
+        <v>910.8684</v>
       </c>
       <c r="G33" t="n">
-        <v>-47566.8347</v>
+        <v>-4038.142499999989</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1724,9 +1660,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1735,28 +1669,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>147</v>
+        <v>150.5</v>
       </c>
       <c r="C34" t="n">
-        <v>146.8</v>
+        <v>150.5</v>
       </c>
       <c r="D34" t="n">
-        <v>147</v>
+        <v>150.5</v>
       </c>
       <c r="E34" t="n">
-        <v>146.8</v>
+        <v>150.5</v>
       </c>
       <c r="F34" t="n">
-        <v>3162.2067</v>
+        <v>188</v>
       </c>
       <c r="G34" t="n">
-        <v>-50729.0414</v>
+        <v>-3850.142499999989</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1765,9 +1700,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1776,28 +1709,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>147.8</v>
+        <v>150.6</v>
       </c>
       <c r="C35" t="n">
-        <v>147.8</v>
+        <v>149</v>
       </c>
       <c r="D35" t="n">
-        <v>147.8</v>
+        <v>150.6</v>
       </c>
       <c r="E35" t="n">
-        <v>147.8</v>
+        <v>149</v>
       </c>
       <c r="F35" t="n">
-        <v>470.2319</v>
+        <v>1693.3859</v>
       </c>
       <c r="G35" t="n">
-        <v>-50258.8095</v>
+        <v>-5543.528399999989</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1806,9 +1740,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1817,28 +1749,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>146.8</v>
+        <v>149</v>
       </c>
       <c r="C36" t="n">
-        <v>146.8</v>
+        <v>148.3</v>
       </c>
       <c r="D36" t="n">
-        <v>146.8</v>
+        <v>149</v>
       </c>
       <c r="E36" t="n">
-        <v>146.8</v>
+        <v>148.3</v>
       </c>
       <c r="F36" t="n">
-        <v>781.1024</v>
+        <v>14738.7501</v>
       </c>
       <c r="G36" t="n">
-        <v>-51039.91190000001</v>
+        <v>-20282.27849999999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1847,9 +1780,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1858,28 +1789,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>146.3</v>
+        <v>149</v>
       </c>
       <c r="C37" t="n">
-        <v>146.3</v>
+        <v>149</v>
       </c>
       <c r="D37" t="n">
-        <v>146.3</v>
+        <v>149</v>
       </c>
       <c r="E37" t="n">
-        <v>146.3</v>
+        <v>149</v>
       </c>
       <c r="F37" t="n">
-        <v>683.526</v>
+        <v>2210.8125</v>
       </c>
       <c r="G37" t="n">
-        <v>-51723.4379</v>
+        <v>-18071.46599999999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1888,9 +1820,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1899,28 +1829,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>146</v>
+        <v>148.3</v>
       </c>
       <c r="C38" t="n">
-        <v>144.5</v>
+        <v>148.3</v>
       </c>
       <c r="D38" t="n">
-        <v>146</v>
+        <v>148.3</v>
       </c>
       <c r="E38" t="n">
-        <v>144.5</v>
+        <v>148.3</v>
       </c>
       <c r="F38" t="n">
-        <v>24321.9726</v>
+        <v>5</v>
       </c>
       <c r="G38" t="n">
-        <v>-76045.4105</v>
+        <v>-18076.46599999999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1929,9 +1860,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1940,28 +1869,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>145.8</v>
+        <v>148.9</v>
       </c>
       <c r="C39" t="n">
-        <v>146</v>
+        <v>148.9</v>
       </c>
       <c r="D39" t="n">
-        <v>146</v>
+        <v>148.9</v>
       </c>
       <c r="E39" t="n">
-        <v>145.8</v>
+        <v>148.9</v>
       </c>
       <c r="F39" t="n">
-        <v>1500</v>
+        <v>522</v>
       </c>
       <c r="G39" t="n">
-        <v>-74545.4105</v>
+        <v>-17554.46599999999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1970,9 +1900,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1981,28 +1909,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>145.9</v>
+        <v>149</v>
       </c>
       <c r="C40" t="n">
-        <v>146.8</v>
+        <v>149</v>
       </c>
       <c r="D40" t="n">
-        <v>146.8</v>
+        <v>149</v>
       </c>
       <c r="E40" t="n">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F40" t="n">
-        <v>5588</v>
+        <v>2000</v>
       </c>
       <c r="G40" t="n">
-        <v>-68957.4105</v>
+        <v>-15554.46599999999</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2011,9 +1940,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2022,28 +1949,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>146.7</v>
+        <v>148.2</v>
       </c>
       <c r="C41" t="n">
-        <v>146.6</v>
+        <v>147.6</v>
       </c>
       <c r="D41" t="n">
-        <v>146.7</v>
+        <v>148.2</v>
       </c>
       <c r="E41" t="n">
-        <v>146.6</v>
+        <v>147.6</v>
       </c>
       <c r="F41" t="n">
-        <v>1490</v>
+        <v>5.588</v>
       </c>
       <c r="G41" t="n">
-        <v>-70447.4105</v>
+        <v>-15560.05399999999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2052,9 +1980,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2063,28 +1989,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>146.6</v>
+        <v>147.7</v>
       </c>
       <c r="C42" t="n">
-        <v>147.9</v>
+        <v>149.1</v>
       </c>
       <c r="D42" t="n">
-        <v>147.9</v>
+        <v>149.1</v>
       </c>
       <c r="E42" t="n">
-        <v>144.7</v>
+        <v>147.7</v>
       </c>
       <c r="F42" t="n">
-        <v>16095.7996</v>
+        <v>3098.3026</v>
       </c>
       <c r="G42" t="n">
-        <v>-54351.6109</v>
+        <v>-12461.75139999999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2093,9 +2020,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2104,28 +2029,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>147.9</v>
+        <v>149.1</v>
       </c>
       <c r="C43" t="n">
-        <v>147.9</v>
+        <v>149.1</v>
       </c>
       <c r="D43" t="n">
-        <v>147.9</v>
+        <v>149.1</v>
       </c>
       <c r="E43" t="n">
-        <v>147.9</v>
+        <v>149.1</v>
       </c>
       <c r="F43" t="n">
-        <v>5277.105</v>
+        <v>161</v>
       </c>
       <c r="G43" t="n">
-        <v>-54351.6109</v>
+        <v>-12461.75139999999</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2134,9 +2060,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2145,28 +2069,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>147.9</v>
+        <v>147.6</v>
       </c>
       <c r="C44" t="n">
-        <v>147.9</v>
+        <v>147.6</v>
       </c>
       <c r="D44" t="n">
-        <v>147.9</v>
+        <v>147.6</v>
       </c>
       <c r="E44" t="n">
-        <v>147.9</v>
+        <v>147.6</v>
       </c>
       <c r="F44" t="n">
-        <v>3189</v>
+        <v>9.48</v>
       </c>
       <c r="G44" t="n">
-        <v>-54351.6109</v>
+        <v>-12471.23139999999</v>
       </c>
       <c r="H44" t="n">
         <v>1</v>
@@ -2175,11 +2100,9 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>147.9</v>
-      </c>
-      <c r="K44" t="n">
-        <v>146.8</v>
-      </c>
+        <v>149.1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2188,41 +2111,38 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>147.9</v>
+        <v>149</v>
       </c>
       <c r="C45" t="n">
-        <v>147.9</v>
+        <v>149.1</v>
       </c>
       <c r="D45" t="n">
-        <v>147.9</v>
+        <v>149.1</v>
       </c>
       <c r="E45" t="n">
-        <v>147.9</v>
+        <v>149</v>
       </c>
       <c r="F45" t="n">
-        <v>8703</v>
+        <v>3000</v>
       </c>
       <c r="G45" t="n">
-        <v>-54351.6109</v>
+        <v>-9471.23139999999</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>147.9</v>
-      </c>
-      <c r="K45" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2231,41 +2151,38 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>146.7</v>
+        <v>149</v>
       </c>
       <c r="C46" t="n">
-        <v>146.7</v>
+        <v>149.1</v>
       </c>
       <c r="D46" t="n">
-        <v>146.7</v>
+        <v>149.1</v>
       </c>
       <c r="E46" t="n">
-        <v>146.7</v>
+        <v>149</v>
       </c>
       <c r="F46" t="n">
-        <v>108.4226</v>
+        <v>2900.1758</v>
       </c>
       <c r="G46" t="n">
-        <v>-54460.0335</v>
+        <v>-9471.23139999999</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>147.9</v>
-      </c>
-      <c r="K46" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2274,41 +2191,38 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>147</v>
+        <v>149.2</v>
       </c>
       <c r="C47" t="n">
-        <v>147</v>
+        <v>149.2</v>
       </c>
       <c r="D47" t="n">
-        <v>147</v>
+        <v>149.2</v>
       </c>
       <c r="E47" t="n">
-        <v>147</v>
+        <v>149.2</v>
       </c>
       <c r="F47" t="n">
-        <v>13227.2153</v>
+        <v>1267</v>
       </c>
       <c r="G47" t="n">
-        <v>-41232.81819999999</v>
+        <v>-8204.23139999999</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>146.7</v>
-      </c>
-      <c r="K47" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2317,28 +2231,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>148</v>
+        <v>149.1</v>
       </c>
       <c r="C48" t="n">
-        <v>148</v>
+        <v>149.4</v>
       </c>
       <c r="D48" t="n">
-        <v>148</v>
+        <v>149.4</v>
       </c>
       <c r="E48" t="n">
-        <v>148</v>
+        <v>149.1</v>
       </c>
       <c r="F48" t="n">
-        <v>29.9609</v>
+        <v>4579.8473</v>
       </c>
       <c r="G48" t="n">
-        <v>-41202.8573</v>
+        <v>-3624.384099999989</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2347,9 +2262,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2358,28 +2271,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>148</v>
+        <v>149.5</v>
       </c>
       <c r="C49" t="n">
-        <v>148</v>
+        <v>149.5</v>
       </c>
       <c r="D49" t="n">
-        <v>148</v>
+        <v>149.5</v>
       </c>
       <c r="E49" t="n">
-        <v>148</v>
+        <v>149.5</v>
       </c>
       <c r="F49" t="n">
-        <v>21.8495</v>
+        <v>1104.1531</v>
       </c>
       <c r="G49" t="n">
-        <v>-41202.8573</v>
+        <v>-2520.230999999989</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2388,9 +2302,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2399,39 +2311,40 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C50" t="n">
-        <v>148.1</v>
+        <v>149</v>
       </c>
       <c r="D50" t="n">
-        <v>148.1</v>
+        <v>149</v>
       </c>
       <c r="E50" t="n">
-        <v>147.2</v>
+        <v>149</v>
       </c>
       <c r="F50" t="n">
-        <v>13518.2383</v>
+        <v>8</v>
       </c>
       <c r="G50" t="n">
-        <v>-27684.619</v>
+        <v>-2528.230999999989</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="J50" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2440,39 +2353,40 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>148.9</v>
+        <v>149.6</v>
       </c>
       <c r="C51" t="n">
-        <v>147.5</v>
+        <v>149.7</v>
       </c>
       <c r="D51" t="n">
-        <v>148.9</v>
+        <v>149.7</v>
       </c>
       <c r="E51" t="n">
-        <v>147.5</v>
+        <v>149.6</v>
       </c>
       <c r="F51" t="n">
-        <v>7053.4781</v>
+        <v>77.77</v>
       </c>
       <c r="G51" t="n">
-        <v>-34738.0971</v>
+        <v>-2450.460999999989</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="J51" t="n">
+        <v>149</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2481,39 +2395,40 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>148.9</v>
+        <v>149.4</v>
       </c>
       <c r="C52" t="n">
-        <v>149</v>
+        <v>148.1</v>
       </c>
       <c r="D52" t="n">
-        <v>149</v>
+        <v>149.4</v>
       </c>
       <c r="E52" t="n">
-        <v>148.9</v>
+        <v>148.1</v>
       </c>
       <c r="F52" t="n">
-        <v>1034</v>
+        <v>669.9807</v>
       </c>
       <c r="G52" t="n">
-        <v>-33704.0971</v>
+        <v>-3120.441699999989</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="J52" t="n">
+        <v>149.7</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2522,39 +2437,40 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>148.9</v>
+        <v>148.1</v>
       </c>
       <c r="C53" t="n">
-        <v>148.9</v>
+        <v>148.1</v>
       </c>
       <c r="D53" t="n">
-        <v>148.9</v>
+        <v>148.1</v>
       </c>
       <c r="E53" t="n">
-        <v>148.9</v>
+        <v>148.1</v>
       </c>
       <c r="F53" t="n">
-        <v>2898.7734</v>
+        <v>2204.644</v>
       </c>
       <c r="G53" t="n">
-        <v>-36602.8705</v>
+        <v>-3120.441699999989</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="J53" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2563,39 +2479,40 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>149.9</v>
+        <v>148</v>
       </c>
       <c r="C54" t="n">
-        <v>149.6</v>
+        <v>147</v>
       </c>
       <c r="D54" t="n">
-        <v>149.9</v>
+        <v>148</v>
       </c>
       <c r="E54" t="n">
-        <v>146.2</v>
+        <v>147</v>
       </c>
       <c r="F54" t="n">
-        <v>5845.5895</v>
+        <v>4200</v>
       </c>
       <c r="G54" t="n">
-        <v>-30757.281</v>
+        <v>-7320.441699999989</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="J54" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2604,39 +2521,40 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>149.8</v>
+        <v>147.3</v>
       </c>
       <c r="C55" t="n">
-        <v>148.6</v>
+        <v>147.2</v>
       </c>
       <c r="D55" t="n">
-        <v>149.8</v>
+        <v>147.3</v>
       </c>
       <c r="E55" t="n">
-        <v>148</v>
+        <v>147.2</v>
       </c>
       <c r="F55" t="n">
-        <v>2466.5087</v>
+        <v>11527.4004</v>
       </c>
       <c r="G55" t="n">
-        <v>-33223.78969999999</v>
+        <v>4206.958700000011</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="J55" t="n">
+        <v>147</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2645,39 +2563,40 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>148.6</v>
+        <v>148.1</v>
       </c>
       <c r="C56" t="n">
-        <v>148.6</v>
+        <v>148.1</v>
       </c>
       <c r="D56" t="n">
-        <v>148.6</v>
+        <v>148.1</v>
       </c>
       <c r="E56" t="n">
-        <v>148.6</v>
+        <v>148.1</v>
       </c>
       <c r="F56" t="n">
-        <v>1702.0953</v>
+        <v>250</v>
       </c>
       <c r="G56" t="n">
-        <v>-33223.78969999999</v>
+        <v>4456.958700000011</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="J56" t="n">
+        <v>147.2</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2686,39 +2605,40 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>147.6</v>
+        <v>148.1</v>
       </c>
       <c r="C57" t="n">
-        <v>147.6</v>
+        <v>148.1</v>
       </c>
       <c r="D57" t="n">
-        <v>147.6</v>
+        <v>148.1</v>
       </c>
       <c r="E57" t="n">
-        <v>147.6</v>
+        <v>148.1</v>
       </c>
       <c r="F57" t="n">
-        <v>650.8567</v>
+        <v>76</v>
       </c>
       <c r="G57" t="n">
-        <v>-33874.64639999999</v>
+        <v>4456.958700000011</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="J57" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2727,39 +2647,40 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>149</v>
+        <v>148.1</v>
       </c>
       <c r="C58" t="n">
-        <v>149</v>
+        <v>148.1</v>
       </c>
       <c r="D58" t="n">
-        <v>149</v>
+        <v>148.1</v>
       </c>
       <c r="E58" t="n">
-        <v>149</v>
+        <v>148.1</v>
       </c>
       <c r="F58" t="n">
-        <v>4866.7383</v>
+        <v>8199.967699999999</v>
       </c>
       <c r="G58" t="n">
-        <v>-29007.90809999999</v>
+        <v>4456.958700000011</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="J58" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2768,39 +2689,40 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>149.7</v>
+        <v>148.1</v>
       </c>
       <c r="C59" t="n">
-        <v>149.5</v>
+        <v>148.1</v>
       </c>
       <c r="D59" t="n">
-        <v>149.7</v>
+        <v>148.1</v>
       </c>
       <c r="E59" t="n">
-        <v>147</v>
+        <v>148.1</v>
       </c>
       <c r="F59" t="n">
-        <v>12437.47</v>
+        <v>3072.5298</v>
       </c>
       <c r="G59" t="n">
-        <v>-16570.43809999999</v>
+        <v>4456.958700000011</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="J59" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2809,39 +2731,40 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>149</v>
+        <v>148.1</v>
       </c>
       <c r="C60" t="n">
-        <v>149.8</v>
+        <v>148.1</v>
       </c>
       <c r="D60" t="n">
-        <v>149.8</v>
+        <v>148.1</v>
       </c>
       <c r="E60" t="n">
-        <v>149</v>
+        <v>148.1</v>
       </c>
       <c r="F60" t="n">
-        <v>1972.6031</v>
+        <v>1485.5384</v>
       </c>
       <c r="G60" t="n">
-        <v>-14597.83499999999</v>
+        <v>4456.958700000011</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="J60" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2850,39 +2773,40 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>149.8</v>
+        <v>148.1</v>
       </c>
       <c r="C61" t="n">
-        <v>149</v>
+        <v>148.1</v>
       </c>
       <c r="D61" t="n">
-        <v>149.8</v>
+        <v>148.1</v>
       </c>
       <c r="E61" t="n">
-        <v>149</v>
+        <v>148.1</v>
       </c>
       <c r="F61" t="n">
-        <v>4991.744</v>
+        <v>134.8118</v>
       </c>
       <c r="G61" t="n">
-        <v>-19589.57899999999</v>
+        <v>4456.958700000011</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="J61" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2891,28 +2815,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>149.6</v>
+        <v>148.1</v>
       </c>
       <c r="C62" t="n">
-        <v>149.6</v>
+        <v>148.1</v>
       </c>
       <c r="D62" t="n">
-        <v>149.6</v>
+        <v>148.1</v>
       </c>
       <c r="E62" t="n">
-        <v>149.6</v>
+        <v>148.1</v>
       </c>
       <c r="F62" t="n">
-        <v>2662.2052</v>
+        <v>120.3758</v>
       </c>
       <c r="G62" t="n">
-        <v>-16927.37379999999</v>
+        <v>4456.958700000011</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2921,9 +2846,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2932,39 +2855,40 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>149.6</v>
+        <v>147.1</v>
       </c>
       <c r="C63" t="n">
-        <v>149.6</v>
+        <v>147.1</v>
       </c>
       <c r="D63" t="n">
-        <v>149.6</v>
+        <v>147.1</v>
       </c>
       <c r="E63" t="n">
-        <v>149.6</v>
+        <v>147.1</v>
       </c>
       <c r="F63" t="n">
-        <v>591.2987000000001</v>
+        <v>52.3034</v>
       </c>
       <c r="G63" t="n">
-        <v>-16927.37379999999</v>
+        <v>4404.655300000011</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="J63" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2973,28 +2897,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>149.6</v>
+        <v>147.2</v>
       </c>
       <c r="C64" t="n">
-        <v>149.6</v>
+        <v>148</v>
       </c>
       <c r="D64" t="n">
-        <v>149.6</v>
+        <v>148.1</v>
       </c>
       <c r="E64" t="n">
-        <v>149.6</v>
+        <v>147.2</v>
       </c>
       <c r="F64" t="n">
-        <v>157.7328</v>
+        <v>3821</v>
       </c>
       <c r="G64" t="n">
-        <v>-16927.37379999999</v>
+        <v>8225.655300000011</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3003,9 +2928,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3014,28 +2937,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>149.6</v>
+        <v>148.1</v>
       </c>
       <c r="C65" t="n">
-        <v>149.6</v>
+        <v>148.1</v>
       </c>
       <c r="D65" t="n">
-        <v>149.6</v>
+        <v>148.1</v>
       </c>
       <c r="E65" t="n">
-        <v>149.6</v>
+        <v>148.1</v>
       </c>
       <c r="F65" t="n">
-        <v>375</v>
+        <v>20253.1188</v>
       </c>
       <c r="G65" t="n">
-        <v>-16927.37379999999</v>
+        <v>28478.77410000001</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3044,9 +2968,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3055,28 +2977,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>149.6</v>
+        <v>148.1</v>
       </c>
       <c r="C66" t="n">
-        <v>149.6</v>
+        <v>148.1</v>
       </c>
       <c r="D66" t="n">
-        <v>149.6</v>
+        <v>148.1</v>
       </c>
       <c r="E66" t="n">
-        <v>149.6</v>
+        <v>148.1</v>
       </c>
       <c r="F66" t="n">
-        <v>228.8543</v>
+        <v>3881.6002</v>
       </c>
       <c r="G66" t="n">
-        <v>-16927.37379999999</v>
+        <v>28478.77410000001</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3085,9 +3008,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3096,28 +3017,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>149</v>
+        <v>148.1</v>
       </c>
       <c r="C67" t="n">
         <v>148.1</v>
       </c>
       <c r="D67" t="n">
-        <v>149</v>
+        <v>148.1</v>
       </c>
       <c r="E67" t="n">
         <v>148.1</v>
       </c>
       <c r="F67" t="n">
-        <v>1503</v>
+        <v>2076.1073</v>
       </c>
       <c r="G67" t="n">
-        <v>-18430.37379999999</v>
+        <v>28478.77410000001</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3126,9 +3048,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3137,28 +3057,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>149</v>
+        <v>147.1</v>
       </c>
       <c r="C68" t="n">
-        <v>149.1</v>
+        <v>147</v>
       </c>
       <c r="D68" t="n">
-        <v>149.1</v>
+        <v>147.1</v>
       </c>
       <c r="E68" t="n">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F68" t="n">
-        <v>3526.7472</v>
+        <v>2778.2707</v>
       </c>
       <c r="G68" t="n">
-        <v>-14903.62659999999</v>
+        <v>25700.50340000001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3167,9 +3088,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3178,28 +3097,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>148.2</v>
+        <v>147.1</v>
       </c>
       <c r="C69" t="n">
-        <v>148.2</v>
+        <v>148.3</v>
       </c>
       <c r="D69" t="n">
-        <v>148.2</v>
+        <v>148.3</v>
       </c>
       <c r="E69" t="n">
-        <v>148.2</v>
+        <v>147.1</v>
       </c>
       <c r="F69" t="n">
-        <v>4218.7209</v>
+        <v>4873.7832</v>
       </c>
       <c r="G69" t="n">
-        <v>-19122.34749999999</v>
+        <v>30574.28660000001</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3208,9 +3128,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3219,28 +3137,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>149.9</v>
+        <v>148.5</v>
       </c>
       <c r="C70" t="n">
-        <v>149</v>
+        <v>148.5</v>
       </c>
       <c r="D70" t="n">
-        <v>149.9</v>
+        <v>148.5</v>
       </c>
       <c r="E70" t="n">
-        <v>149</v>
+        <v>148.5</v>
       </c>
       <c r="F70" t="n">
-        <v>3392.2528</v>
+        <v>745</v>
       </c>
       <c r="G70" t="n">
-        <v>-15730.09469999999</v>
+        <v>31319.28660000001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3249,9 +3168,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3260,28 +3177,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>149.9</v>
+        <v>147.8</v>
       </c>
       <c r="C71" t="n">
-        <v>149.9</v>
+        <v>147.8</v>
       </c>
       <c r="D71" t="n">
-        <v>149.9</v>
+        <v>147.8</v>
       </c>
       <c r="E71" t="n">
-        <v>149.9</v>
+        <v>147.8</v>
       </c>
       <c r="F71" t="n">
-        <v>2130</v>
+        <v>20</v>
       </c>
       <c r="G71" t="n">
-        <v>-13600.09469999999</v>
+        <v>31299.28660000001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3290,9 +3208,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3301,28 +3217,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>149.9</v>
+        <v>147.8</v>
       </c>
       <c r="C72" t="n">
-        <v>150</v>
+        <v>147.8</v>
       </c>
       <c r="D72" t="n">
-        <v>150</v>
+        <v>147.8</v>
       </c>
       <c r="E72" t="n">
-        <v>149.9</v>
+        <v>147.8</v>
       </c>
       <c r="F72" t="n">
-        <v>5706.5985</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="G72" t="n">
-        <v>-7893.496199999989</v>
+        <v>31299.28660000001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3331,9 +3248,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3342,28 +3257,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>150</v>
+        <v>146.1</v>
       </c>
       <c r="C73" t="n">
-        <v>149.1</v>
+        <v>146.1</v>
       </c>
       <c r="D73" t="n">
-        <v>150</v>
+        <v>146.1</v>
       </c>
       <c r="E73" t="n">
-        <v>149.1</v>
+        <v>146.1</v>
       </c>
       <c r="F73" t="n">
-        <v>2794.6867</v>
+        <v>3.5</v>
       </c>
       <c r="G73" t="n">
-        <v>-10688.18289999999</v>
+        <v>31295.78660000001</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3372,9 +3288,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3383,28 +3297,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>150</v>
+        <v>147.8</v>
       </c>
       <c r="C74" t="n">
-        <v>150</v>
+        <v>147.8</v>
       </c>
       <c r="D74" t="n">
-        <v>150</v>
+        <v>147.8</v>
       </c>
       <c r="E74" t="n">
-        <v>150</v>
+        <v>147.8</v>
       </c>
       <c r="F74" t="n">
-        <v>6650.0404</v>
+        <v>73.614</v>
       </c>
       <c r="G74" t="n">
-        <v>-4038.142499999989</v>
+        <v>31369.40060000001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3413,9 +3328,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3424,28 +3337,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>150</v>
+        <v>148.6</v>
       </c>
       <c r="C75" t="n">
-        <v>150</v>
+        <v>148.6</v>
       </c>
       <c r="D75" t="n">
-        <v>150</v>
+        <v>148.6</v>
       </c>
       <c r="E75" t="n">
-        <v>150</v>
+        <v>148.6</v>
       </c>
       <c r="F75" t="n">
-        <v>910.8684</v>
+        <v>73</v>
       </c>
       <c r="G75" t="n">
-        <v>-4038.142499999989</v>
+        <v>31442.40060000001</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3454,9 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3465,28 +3377,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>150.5</v>
+        <v>148</v>
       </c>
       <c r="C76" t="n">
-        <v>150.5</v>
+        <v>148</v>
       </c>
       <c r="D76" t="n">
-        <v>150.5</v>
+        <v>148</v>
       </c>
       <c r="E76" t="n">
-        <v>150.5</v>
+        <v>148</v>
       </c>
       <c r="F76" t="n">
-        <v>188</v>
+        <v>2956.8202</v>
       </c>
       <c r="G76" t="n">
-        <v>-3850.142499999989</v>
+        <v>28485.58040000001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3495,9 +3408,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3506,28 +3417,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>150.6</v>
+        <v>148</v>
       </c>
       <c r="C77" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D77" t="n">
-        <v>150.6</v>
+        <v>148</v>
       </c>
       <c r="E77" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F77" t="n">
-        <v>1693.3859</v>
+        <v>1964.343</v>
       </c>
       <c r="G77" t="n">
-        <v>-5543.528399999989</v>
+        <v>28485.58040000001</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3536,9 +3448,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3547,13 +3457,14 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C78" t="n">
         <v>148.3</v>
@@ -3562,13 +3473,13 @@
         <v>149</v>
       </c>
       <c r="E78" t="n">
-        <v>148.3</v>
+        <v>148</v>
       </c>
       <c r="F78" t="n">
-        <v>14738.7501</v>
+        <v>1458.71</v>
       </c>
       <c r="G78" t="n">
-        <v>-20282.27849999999</v>
+        <v>29944.29040000001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3577,9 +3488,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3588,28 +3497,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>149</v>
+        <v>148.3</v>
       </c>
       <c r="C79" t="n">
-        <v>149</v>
+        <v>148.2</v>
       </c>
       <c r="D79" t="n">
-        <v>149</v>
+        <v>148.3</v>
       </c>
       <c r="E79" t="n">
-        <v>149</v>
+        <v>148.2</v>
       </c>
       <c r="F79" t="n">
-        <v>2210.8125</v>
+        <v>470.5335</v>
       </c>
       <c r="G79" t="n">
-        <v>-18071.46599999999</v>
+        <v>29473.7569</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3618,9 +3528,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3629,28 +3537,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>148.3</v>
+        <v>149</v>
       </c>
       <c r="C80" t="n">
-        <v>148.3</v>
+        <v>149</v>
       </c>
       <c r="D80" t="n">
-        <v>148.3</v>
+        <v>149</v>
       </c>
       <c r="E80" t="n">
-        <v>148.3</v>
+        <v>149</v>
       </c>
       <c r="F80" t="n">
-        <v>5</v>
+        <v>560.8654</v>
       </c>
       <c r="G80" t="n">
-        <v>-18076.46599999999</v>
+        <v>30034.6223</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3659,9 +3568,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3670,6 +3577,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3679,19 +3587,19 @@
         <v>148.9</v>
       </c>
       <c r="C81" t="n">
-        <v>148.9</v>
+        <v>148</v>
       </c>
       <c r="D81" t="n">
         <v>148.9</v>
       </c>
       <c r="E81" t="n">
-        <v>148.9</v>
+        <v>148</v>
       </c>
       <c r="F81" t="n">
-        <v>522</v>
+        <v>2391</v>
       </c>
       <c r="G81" t="n">
-        <v>-17554.46599999999</v>
+        <v>27643.6223</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3700,9 +3608,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3711,28 +3617,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>149</v>
+        <v>148.2</v>
       </c>
       <c r="C82" t="n">
-        <v>149</v>
+        <v>148.2</v>
       </c>
       <c r="D82" t="n">
-        <v>149</v>
+        <v>148.2</v>
       </c>
       <c r="E82" t="n">
-        <v>149</v>
+        <v>148.2</v>
       </c>
       <c r="F82" t="n">
-        <v>2000</v>
+        <v>608</v>
       </c>
       <c r="G82" t="n">
-        <v>-15554.46599999999</v>
+        <v>28251.6223</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3741,9 +3648,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3752,28 +3657,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>148.2</v>
+        <v>148.6</v>
       </c>
       <c r="C83" t="n">
-        <v>147.6</v>
+        <v>148.6</v>
       </c>
       <c r="D83" t="n">
-        <v>148.2</v>
+        <v>148.6</v>
       </c>
       <c r="E83" t="n">
-        <v>147.6</v>
+        <v>148.6</v>
       </c>
       <c r="F83" t="n">
-        <v>5.588</v>
+        <v>320</v>
       </c>
       <c r="G83" t="n">
-        <v>-15560.05399999999</v>
+        <v>28571.6223</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3782,9 +3688,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3793,28 +3697,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>147.7</v>
+        <v>148.6</v>
       </c>
       <c r="C84" t="n">
-        <v>149.1</v>
+        <v>149.5</v>
       </c>
       <c r="D84" t="n">
-        <v>149.1</v>
+        <v>149.6</v>
       </c>
       <c r="E84" t="n">
-        <v>147.7</v>
+        <v>148.6</v>
       </c>
       <c r="F84" t="n">
-        <v>3098.3026</v>
+        <v>1269.911</v>
       </c>
       <c r="G84" t="n">
-        <v>-12461.75139999999</v>
+        <v>29841.5333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3823,9 +3728,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3834,28 +3737,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>149.1</v>
+        <v>148.2</v>
       </c>
       <c r="C85" t="n">
-        <v>149.1</v>
+        <v>148.2</v>
       </c>
       <c r="D85" t="n">
-        <v>149.1</v>
+        <v>148.2</v>
       </c>
       <c r="E85" t="n">
-        <v>149.1</v>
+        <v>148.2</v>
       </c>
       <c r="F85" t="n">
-        <v>161</v>
+        <v>597.5133</v>
       </c>
       <c r="G85" t="n">
-        <v>-12461.75139999999</v>
+        <v>29244.02</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3864,9 +3768,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3875,28 +3777,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>147.6</v>
+        <v>148.2</v>
       </c>
       <c r="C86" t="n">
-        <v>147.6</v>
+        <v>148.2</v>
       </c>
       <c r="D86" t="n">
-        <v>147.6</v>
+        <v>148.2</v>
       </c>
       <c r="E86" t="n">
-        <v>147.6</v>
+        <v>148.2</v>
       </c>
       <c r="F86" t="n">
-        <v>9.48</v>
+        <v>503.2466</v>
       </c>
       <c r="G86" t="n">
-        <v>-12471.23139999999</v>
+        <v>29244.02</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3905,9 +3808,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3916,6 +3817,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3925,19 +3827,19 @@
         <v>149</v>
       </c>
       <c r="C87" t="n">
-        <v>149.1</v>
+        <v>148.2</v>
       </c>
       <c r="D87" t="n">
-        <v>149.1</v>
+        <v>149</v>
       </c>
       <c r="E87" t="n">
-        <v>149</v>
+        <v>148.2</v>
       </c>
       <c r="F87" t="n">
-        <v>3000</v>
+        <v>10133.7773</v>
       </c>
       <c r="G87" t="n">
-        <v>-9471.23139999999</v>
+        <v>29244.02</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3946,9 +3848,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3957,28 +3857,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>149</v>
+        <v>148.2</v>
       </c>
       <c r="C88" t="n">
-        <v>149.1</v>
+        <v>148.2</v>
       </c>
       <c r="D88" t="n">
-        <v>149.1</v>
+        <v>148.2</v>
       </c>
       <c r="E88" t="n">
-        <v>149</v>
+        <v>148.2</v>
       </c>
       <c r="F88" t="n">
-        <v>2900.1758</v>
+        <v>107.9</v>
       </c>
       <c r="G88" t="n">
-        <v>-9471.23139999999</v>
+        <v>29244.02</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3987,9 +3888,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3998,28 +3897,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>149.2</v>
+        <v>148.2</v>
       </c>
       <c r="C89" t="n">
-        <v>149.2</v>
+        <v>148.2</v>
       </c>
       <c r="D89" t="n">
-        <v>149.2</v>
+        <v>148.2</v>
       </c>
       <c r="E89" t="n">
-        <v>149.2</v>
+        <v>148.2</v>
       </c>
       <c r="F89" t="n">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="G89" t="n">
-        <v>-8204.23139999999</v>
+        <v>29244.02</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4028,9 +3928,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4039,28 +3937,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>149.1</v>
+        <v>148.2</v>
       </c>
       <c r="C90" t="n">
-        <v>149.4</v>
+        <v>148.2</v>
       </c>
       <c r="D90" t="n">
-        <v>149.4</v>
+        <v>148.2</v>
       </c>
       <c r="E90" t="n">
-        <v>149.1</v>
+        <v>148.2</v>
       </c>
       <c r="F90" t="n">
-        <v>4579.8473</v>
+        <v>1265</v>
       </c>
       <c r="G90" t="n">
-        <v>-3624.384099999989</v>
+        <v>29244.02</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4069,9 +3968,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4080,28 +3977,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>149.5</v>
+        <v>148.1</v>
       </c>
       <c r="C91" t="n">
-        <v>149.5</v>
+        <v>148.1</v>
       </c>
       <c r="D91" t="n">
-        <v>149.5</v>
+        <v>148.1</v>
       </c>
       <c r="E91" t="n">
-        <v>149.5</v>
+        <v>148.1</v>
       </c>
       <c r="F91" t="n">
-        <v>1104.1531</v>
+        <v>52.7372</v>
       </c>
       <c r="G91" t="n">
-        <v>-2520.230999999989</v>
+        <v>29191.2828</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4110,9 +4008,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4121,28 +4017,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>149</v>
+        <v>148.8</v>
       </c>
       <c r="C92" t="n">
-        <v>149</v>
+        <v>148.8</v>
       </c>
       <c r="D92" t="n">
-        <v>149</v>
+        <v>148.8</v>
       </c>
       <c r="E92" t="n">
-        <v>149</v>
+        <v>148.8</v>
       </c>
       <c r="F92" t="n">
-        <v>8</v>
+        <v>381.114</v>
       </c>
       <c r="G92" t="n">
-        <v>-2528.230999999989</v>
+        <v>29572.39680000001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4151,9 +4048,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4162,28 +4057,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>149.6</v>
+        <v>149</v>
       </c>
       <c r="C93" t="n">
-        <v>149.7</v>
+        <v>149</v>
       </c>
       <c r="D93" t="n">
-        <v>149.7</v>
+        <v>149</v>
       </c>
       <c r="E93" t="n">
-        <v>149.6</v>
+        <v>149</v>
       </c>
       <c r="F93" t="n">
-        <v>77.77</v>
+        <v>1254.2847</v>
       </c>
       <c r="G93" t="n">
-        <v>-2450.460999999989</v>
+        <v>30826.68150000001</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4192,9 +4088,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4203,28 +4097,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>149.4</v>
+        <v>148.9</v>
       </c>
       <c r="C94" t="n">
-        <v>148.1</v>
+        <v>149</v>
       </c>
       <c r="D94" t="n">
-        <v>149.4</v>
+        <v>149</v>
       </c>
       <c r="E94" t="n">
-        <v>148.1</v>
+        <v>148.9</v>
       </c>
       <c r="F94" t="n">
-        <v>669.9807</v>
+        <v>1953.5721</v>
       </c>
       <c r="G94" t="n">
-        <v>-3120.441699999989</v>
+        <v>30826.68150000001</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4233,9 +4128,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4244,28 +4137,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>148.1</v>
+        <v>148.5</v>
       </c>
       <c r="C95" t="n">
-        <v>148.1</v>
+        <v>148.5</v>
       </c>
       <c r="D95" t="n">
-        <v>148.1</v>
+        <v>148.5</v>
       </c>
       <c r="E95" t="n">
-        <v>148.1</v>
+        <v>148.5</v>
       </c>
       <c r="F95" t="n">
-        <v>2204.644</v>
+        <v>202.999</v>
       </c>
       <c r="G95" t="n">
-        <v>-3120.441699999989</v>
+        <v>30623.68250000001</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4274,9 +4168,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4285,28 +4177,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C96" t="n">
-        <v>147</v>
+        <v>148.4</v>
       </c>
       <c r="D96" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E96" t="n">
-        <v>147</v>
+        <v>148.4</v>
       </c>
       <c r="F96" t="n">
-        <v>4200</v>
+        <v>770</v>
       </c>
       <c r="G96" t="n">
-        <v>-7320.441699999989</v>
+        <v>29853.68250000001</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4315,9 +4208,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4326,41 +4217,38 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>147.3</v>
+        <v>149</v>
       </c>
       <c r="C97" t="n">
-        <v>147.2</v>
+        <v>149</v>
       </c>
       <c r="D97" t="n">
-        <v>147.3</v>
+        <v>149</v>
       </c>
       <c r="E97" t="n">
-        <v>147.2</v>
+        <v>149</v>
       </c>
       <c r="F97" t="n">
-        <v>11527.4004</v>
+        <v>1305</v>
       </c>
       <c r="G97" t="n">
-        <v>4206.958700000011</v>
+        <v>31158.68250000001</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>147</v>
-      </c>
-      <c r="K97" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4369,28 +4257,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>148.1</v>
+        <v>149</v>
       </c>
       <c r="C98" t="n">
-        <v>148.1</v>
+        <v>149</v>
       </c>
       <c r="D98" t="n">
-        <v>148.1</v>
+        <v>149</v>
       </c>
       <c r="E98" t="n">
-        <v>148.1</v>
+        <v>149</v>
       </c>
       <c r="F98" t="n">
-        <v>250</v>
+        <v>2548</v>
       </c>
       <c r="G98" t="n">
-        <v>4456.958700000011</v>
+        <v>31158.68250000001</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4399,9 +4288,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4410,28 +4297,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>148.1</v>
+        <v>149</v>
       </c>
       <c r="C99" t="n">
-        <v>148.1</v>
+        <v>149</v>
       </c>
       <c r="D99" t="n">
-        <v>148.1</v>
+        <v>149</v>
       </c>
       <c r="E99" t="n">
-        <v>148.1</v>
+        <v>149</v>
       </c>
       <c r="F99" t="n">
-        <v>76</v>
+        <v>23232.3888</v>
       </c>
       <c r="G99" t="n">
-        <v>4456.958700000011</v>
+        <v>31158.68250000001</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4440,9 +4328,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4451,28 +4337,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>148.1</v>
+        <v>149</v>
       </c>
       <c r="C100" t="n">
-        <v>148.1</v>
+        <v>149</v>
       </c>
       <c r="D100" t="n">
-        <v>148.1</v>
+        <v>149</v>
       </c>
       <c r="E100" t="n">
-        <v>148.1</v>
+        <v>149</v>
       </c>
       <c r="F100" t="n">
-        <v>8199.967699999999</v>
+        <v>382.8758</v>
       </c>
       <c r="G100" t="n">
-        <v>4456.958700000011</v>
+        <v>31158.68250000001</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4481,9 +4368,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4492,28 +4377,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>148.1</v>
+        <v>149</v>
       </c>
       <c r="C101" t="n">
-        <v>148.1</v>
+        <v>149</v>
       </c>
       <c r="D101" t="n">
-        <v>148.1</v>
+        <v>149</v>
       </c>
       <c r="E101" t="n">
-        <v>148.1</v>
+        <v>149</v>
       </c>
       <c r="F101" t="n">
-        <v>3072.5298</v>
+        <v>387.9997</v>
       </c>
       <c r="G101" t="n">
-        <v>4456.958700000011</v>
+        <v>31158.68250000001</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4522,9 +4408,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4533,28 +4417,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>148.1</v>
+        <v>149.6</v>
       </c>
       <c r="C102" t="n">
-        <v>148.1</v>
+        <v>149.8</v>
       </c>
       <c r="D102" t="n">
-        <v>148.1</v>
+        <v>149.8</v>
       </c>
       <c r="E102" t="n">
-        <v>148.1</v>
+        <v>149.6</v>
       </c>
       <c r="F102" t="n">
-        <v>1485.5384</v>
+        <v>2154.91</v>
       </c>
       <c r="G102" t="n">
-        <v>4456.958700000011</v>
+        <v>33313.59250000001</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4563,9 +4448,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4574,28 +4457,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>148.1</v>
+        <v>148.9</v>
       </c>
       <c r="C103" t="n">
-        <v>148.1</v>
+        <v>148.9</v>
       </c>
       <c r="D103" t="n">
-        <v>148.1</v>
+        <v>148.9</v>
       </c>
       <c r="E103" t="n">
-        <v>148.1</v>
+        <v>148.9</v>
       </c>
       <c r="F103" t="n">
-        <v>134.8118</v>
+        <v>1256.1823</v>
       </c>
       <c r="G103" t="n">
-        <v>4456.958700000011</v>
+        <v>32057.41020000001</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4604,9 +4488,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4615,28 +4497,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>148.1</v>
+        <v>148.9</v>
       </c>
       <c r="C104" t="n">
-        <v>148.1</v>
+        <v>148.9</v>
       </c>
       <c r="D104" t="n">
-        <v>148.1</v>
+        <v>148.9</v>
       </c>
       <c r="E104" t="n">
-        <v>148.1</v>
+        <v>148.9</v>
       </c>
       <c r="F104" t="n">
-        <v>120.3758</v>
+        <v>30</v>
       </c>
       <c r="G104" t="n">
-        <v>4456.958700000011</v>
+        <v>32057.41020000001</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4645,9 +4528,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4656,28 +4537,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>147.1</v>
+        <v>148.9</v>
       </c>
       <c r="C105" t="n">
-        <v>147.1</v>
+        <v>149.7</v>
       </c>
       <c r="D105" t="n">
-        <v>147.1</v>
+        <v>149.7</v>
       </c>
       <c r="E105" t="n">
-        <v>147.1</v>
+        <v>148.9</v>
       </c>
       <c r="F105" t="n">
-        <v>52.3034</v>
+        <v>2691</v>
       </c>
       <c r="G105" t="n">
-        <v>4404.655300000011</v>
+        <v>34748.41020000001</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4686,9 +4568,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4697,28 +4577,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>147.2</v>
+        <v>149.8</v>
       </c>
       <c r="C106" t="n">
-        <v>148</v>
+        <v>149.8</v>
       </c>
       <c r="D106" t="n">
-        <v>148.1</v>
+        <v>149.8</v>
       </c>
       <c r="E106" t="n">
-        <v>147.2</v>
+        <v>149.8</v>
       </c>
       <c r="F106" t="n">
-        <v>3821</v>
+        <v>918</v>
       </c>
       <c r="G106" t="n">
-        <v>8225.655300000011</v>
+        <v>35666.41020000001</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4727,9 +4608,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4738,28 +4617,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>148.1</v>
+        <v>149.8</v>
       </c>
       <c r="C107" t="n">
-        <v>148.1</v>
+        <v>149.8</v>
       </c>
       <c r="D107" t="n">
-        <v>148.1</v>
+        <v>149.8</v>
       </c>
       <c r="E107" t="n">
-        <v>148.1</v>
+        <v>149.8</v>
       </c>
       <c r="F107" t="n">
-        <v>20253.1188</v>
+        <v>15.2408</v>
       </c>
       <c r="G107" t="n">
-        <v>28478.77410000001</v>
+        <v>35666.41020000001</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4768,9 +4648,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4779,28 +4657,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>148.1</v>
+        <v>149</v>
       </c>
       <c r="C108" t="n">
-        <v>148.1</v>
+        <v>149</v>
       </c>
       <c r="D108" t="n">
-        <v>148.1</v>
+        <v>149</v>
       </c>
       <c r="E108" t="n">
-        <v>148.1</v>
+        <v>149</v>
       </c>
       <c r="F108" t="n">
-        <v>3881.6002</v>
+        <v>3183.2636</v>
       </c>
       <c r="G108" t="n">
-        <v>28478.77410000001</v>
+        <v>32483.14660000001</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4809,9 +4688,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4820,28 +4697,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>148.1</v>
+        <v>150</v>
       </c>
       <c r="C109" t="n">
-        <v>148.1</v>
+        <v>150</v>
       </c>
       <c r="D109" t="n">
-        <v>148.1</v>
+        <v>150</v>
       </c>
       <c r="E109" t="n">
-        <v>148.1</v>
+        <v>150</v>
       </c>
       <c r="F109" t="n">
-        <v>2076.1073</v>
+        <v>218.9002</v>
       </c>
       <c r="G109" t="n">
-        <v>28478.77410000001</v>
+        <v>32702.04680000001</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4850,9 +4728,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4861,28 +4737,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>147.1</v>
+        <v>150.6</v>
       </c>
       <c r="C110" t="n">
-        <v>147</v>
+        <v>150.8</v>
       </c>
       <c r="D110" t="n">
-        <v>147.1</v>
+        <v>150.9</v>
       </c>
       <c r="E110" t="n">
-        <v>147</v>
+        <v>150.6</v>
       </c>
       <c r="F110" t="n">
-        <v>2778.2707</v>
+        <v>2117.597</v>
       </c>
       <c r="G110" t="n">
-        <v>25700.50340000001</v>
+        <v>34819.64380000001</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4891,9 +4768,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4902,28 +4777,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>147.1</v>
+        <v>150.9</v>
       </c>
       <c r="C111" t="n">
-        <v>148.3</v>
+        <v>151</v>
       </c>
       <c r="D111" t="n">
-        <v>148.3</v>
+        <v>151</v>
       </c>
       <c r="E111" t="n">
-        <v>147.1</v>
+        <v>150.9</v>
       </c>
       <c r="F111" t="n">
-        <v>4873.7832</v>
+        <v>7621.7408</v>
       </c>
       <c r="G111" t="n">
-        <v>30574.28660000001</v>
+        <v>42441.3846</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4932,9 +4808,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4943,28 +4817,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>148.5</v>
+        <v>151.1</v>
       </c>
       <c r="C112" t="n">
-        <v>148.5</v>
+        <v>151.1</v>
       </c>
       <c r="D112" t="n">
-        <v>148.5</v>
+        <v>151.1</v>
       </c>
       <c r="E112" t="n">
-        <v>148.5</v>
+        <v>151.1</v>
       </c>
       <c r="F112" t="n">
-        <v>745</v>
+        <v>214.39</v>
       </c>
       <c r="G112" t="n">
-        <v>31319.28660000001</v>
+        <v>42655.7746</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4973,9 +4848,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4984,274 +4857,247 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>147.8</v>
+        <v>151.1</v>
       </c>
       <c r="C113" t="n">
-        <v>147.8</v>
+        <v>151.1</v>
       </c>
       <c r="D113" t="n">
-        <v>147.8</v>
+        <v>151.1</v>
       </c>
       <c r="E113" t="n">
-        <v>147.8</v>
+        <v>151.1</v>
       </c>
       <c r="F113" t="n">
-        <v>20</v>
+        <v>485.61</v>
       </c>
       <c r="G113" t="n">
-        <v>31299.28660000001</v>
+        <v>42655.7746</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>146.8</v>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>147.8</v>
+        <v>151</v>
       </c>
       <c r="C114" t="n">
-        <v>147.8</v>
+        <v>151</v>
       </c>
       <c r="D114" t="n">
-        <v>147.8</v>
+        <v>151</v>
       </c>
       <c r="E114" t="n">
-        <v>147.8</v>
+        <v>151</v>
       </c>
       <c r="F114" t="n">
-        <v>67.48999999999999</v>
+        <v>1914.589</v>
       </c>
       <c r="G114" t="n">
-        <v>31299.28660000001</v>
+        <v>40741.1856</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>146.1</v>
+        <v>151</v>
       </c>
       <c r="C115" t="n">
-        <v>146.1</v>
+        <v>151</v>
       </c>
       <c r="D115" t="n">
-        <v>146.1</v>
+        <v>151</v>
       </c>
       <c r="E115" t="n">
-        <v>146.1</v>
+        <v>151</v>
       </c>
       <c r="F115" t="n">
-        <v>3.5</v>
+        <v>125</v>
       </c>
       <c r="G115" t="n">
-        <v>31295.78660000001</v>
+        <v>40741.1856</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>147.8</v>
+        <v>151</v>
       </c>
       <c r="C116" t="n">
-        <v>147.8</v>
+        <v>151</v>
       </c>
       <c r="D116" t="n">
-        <v>147.8</v>
+        <v>151</v>
       </c>
       <c r="E116" t="n">
-        <v>147.8</v>
+        <v>151</v>
       </c>
       <c r="F116" t="n">
-        <v>73.614</v>
+        <v>556.3424</v>
       </c>
       <c r="G116" t="n">
-        <v>31369.40060000001</v>
+        <v>40741.1856</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>148.6</v>
+        <v>150.2</v>
       </c>
       <c r="C117" t="n">
-        <v>148.6</v>
+        <v>150.2</v>
       </c>
       <c r="D117" t="n">
-        <v>148.6</v>
+        <v>150.2</v>
       </c>
       <c r="E117" t="n">
-        <v>148.6</v>
+        <v>150.2</v>
       </c>
       <c r="F117" t="n">
-        <v>73</v>
+        <v>897.4362</v>
       </c>
       <c r="G117" t="n">
-        <v>31442.40060000001</v>
+        <v>39843.74940000001</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>148</v>
+        <v>150.9</v>
       </c>
       <c r="C118" t="n">
-        <v>148</v>
+        <v>150.9</v>
       </c>
       <c r="D118" t="n">
-        <v>148</v>
+        <v>150.9</v>
       </c>
       <c r="E118" t="n">
-        <v>148</v>
+        <v>150.9</v>
       </c>
       <c r="F118" t="n">
-        <v>2956.8202</v>
+        <v>287.8392</v>
       </c>
       <c r="G118" t="n">
-        <v>28485.58040000001</v>
+        <v>40131.58860000001</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>148</v>
+        <v>150.1</v>
       </c>
       <c r="C119" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D119" t="n">
-        <v>148</v>
+        <v>150.1</v>
       </c>
       <c r="E119" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F119" t="n">
-        <v>1964.343</v>
+        <v>2860.7484</v>
       </c>
       <c r="G119" t="n">
-        <v>28485.58040000001</v>
+        <v>37270.84020000001</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5260,1691 +5106,12 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>148</v>
-      </c>
-      <c r="C120" t="n">
-        <v>148.3</v>
-      </c>
-      <c r="D120" t="n">
-        <v>149</v>
-      </c>
-      <c r="E120" t="n">
-        <v>148</v>
-      </c>
-      <c r="F120" t="n">
-        <v>1458.71</v>
-      </c>
-      <c r="G120" t="n">
-        <v>29944.29040000001</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>148.3</v>
-      </c>
-      <c r="C121" t="n">
-        <v>148.2</v>
-      </c>
-      <c r="D121" t="n">
-        <v>148.3</v>
-      </c>
-      <c r="E121" t="n">
-        <v>148.2</v>
-      </c>
-      <c r="F121" t="n">
-        <v>470.5335</v>
-      </c>
-      <c r="G121" t="n">
-        <v>29473.7569</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>149</v>
-      </c>
-      <c r="C122" t="n">
-        <v>149</v>
-      </c>
-      <c r="D122" t="n">
-        <v>149</v>
-      </c>
-      <c r="E122" t="n">
-        <v>149</v>
-      </c>
-      <c r="F122" t="n">
-        <v>560.8654</v>
-      </c>
-      <c r="G122" t="n">
-        <v>30034.6223</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>148.9</v>
-      </c>
-      <c r="C123" t="n">
-        <v>148</v>
-      </c>
-      <c r="D123" t="n">
-        <v>148.9</v>
-      </c>
-      <c r="E123" t="n">
-        <v>148</v>
-      </c>
-      <c r="F123" t="n">
-        <v>2391</v>
-      </c>
-      <c r="G123" t="n">
-        <v>27643.6223</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>148.2</v>
-      </c>
-      <c r="C124" t="n">
-        <v>148.2</v>
-      </c>
-      <c r="D124" t="n">
-        <v>148.2</v>
-      </c>
-      <c r="E124" t="n">
-        <v>148.2</v>
-      </c>
-      <c r="F124" t="n">
-        <v>608</v>
-      </c>
-      <c r="G124" t="n">
-        <v>28251.6223</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>148.6</v>
-      </c>
-      <c r="C125" t="n">
-        <v>148.6</v>
-      </c>
-      <c r="D125" t="n">
-        <v>148.6</v>
-      </c>
-      <c r="E125" t="n">
-        <v>148.6</v>
-      </c>
-      <c r="F125" t="n">
-        <v>320</v>
-      </c>
-      <c r="G125" t="n">
-        <v>28571.6223</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>148.6</v>
-      </c>
-      <c r="C126" t="n">
-        <v>149.5</v>
-      </c>
-      <c r="D126" t="n">
-        <v>149.6</v>
-      </c>
-      <c r="E126" t="n">
-        <v>148.6</v>
-      </c>
-      <c r="F126" t="n">
-        <v>1269.911</v>
-      </c>
-      <c r="G126" t="n">
-        <v>29841.5333</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>148.2</v>
-      </c>
-      <c r="C127" t="n">
-        <v>148.2</v>
-      </c>
-      <c r="D127" t="n">
-        <v>148.2</v>
-      </c>
-      <c r="E127" t="n">
-        <v>148.2</v>
-      </c>
-      <c r="F127" t="n">
-        <v>597.5133</v>
-      </c>
-      <c r="G127" t="n">
-        <v>29244.02</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>148.2</v>
-      </c>
-      <c r="C128" t="n">
-        <v>148.2</v>
-      </c>
-      <c r="D128" t="n">
-        <v>148.2</v>
-      </c>
-      <c r="E128" t="n">
-        <v>148.2</v>
-      </c>
-      <c r="F128" t="n">
-        <v>503.2466</v>
-      </c>
-      <c r="G128" t="n">
-        <v>29244.02</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>149</v>
-      </c>
-      <c r="C129" t="n">
-        <v>148.2</v>
-      </c>
-      <c r="D129" t="n">
-        <v>149</v>
-      </c>
-      <c r="E129" t="n">
-        <v>148.2</v>
-      </c>
-      <c r="F129" t="n">
-        <v>10133.7773</v>
-      </c>
-      <c r="G129" t="n">
-        <v>29244.02</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>148.2</v>
-      </c>
-      <c r="C130" t="n">
-        <v>148.2</v>
-      </c>
-      <c r="D130" t="n">
-        <v>148.2</v>
-      </c>
-      <c r="E130" t="n">
-        <v>148.2</v>
-      </c>
-      <c r="F130" t="n">
-        <v>107.9</v>
-      </c>
-      <c r="G130" t="n">
-        <v>29244.02</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>148.2</v>
-      </c>
-      <c r="C131" t="n">
-        <v>148.2</v>
-      </c>
-      <c r="D131" t="n">
-        <v>148.2</v>
-      </c>
-      <c r="E131" t="n">
-        <v>148.2</v>
-      </c>
-      <c r="F131" t="n">
-        <v>1265</v>
-      </c>
-      <c r="G131" t="n">
-        <v>29244.02</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>148.2</v>
-      </c>
-      <c r="C132" t="n">
-        <v>148.2</v>
-      </c>
-      <c r="D132" t="n">
-        <v>148.2</v>
-      </c>
-      <c r="E132" t="n">
-        <v>148.2</v>
-      </c>
-      <c r="F132" t="n">
-        <v>1265</v>
-      </c>
-      <c r="G132" t="n">
-        <v>29244.02</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="C133" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="D133" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="E133" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="F133" t="n">
-        <v>52.7372</v>
-      </c>
-      <c r="G133" t="n">
-        <v>29191.2828</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>148.8</v>
-      </c>
-      <c r="C134" t="n">
-        <v>148.8</v>
-      </c>
-      <c r="D134" t="n">
-        <v>148.8</v>
-      </c>
-      <c r="E134" t="n">
-        <v>148.8</v>
-      </c>
-      <c r="F134" t="n">
-        <v>381.114</v>
-      </c>
-      <c r="G134" t="n">
-        <v>29572.39680000001</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>149</v>
-      </c>
-      <c r="C135" t="n">
-        <v>149</v>
-      </c>
-      <c r="D135" t="n">
-        <v>149</v>
-      </c>
-      <c r="E135" t="n">
-        <v>149</v>
-      </c>
-      <c r="F135" t="n">
-        <v>1254.2847</v>
-      </c>
-      <c r="G135" t="n">
-        <v>30826.68150000001</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>148.9</v>
-      </c>
-      <c r="C136" t="n">
-        <v>149</v>
-      </c>
-      <c r="D136" t="n">
-        <v>149</v>
-      </c>
-      <c r="E136" t="n">
-        <v>148.9</v>
-      </c>
-      <c r="F136" t="n">
-        <v>1953.5721</v>
-      </c>
-      <c r="G136" t="n">
-        <v>30826.68150000001</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>148.5</v>
-      </c>
-      <c r="C137" t="n">
-        <v>148.5</v>
-      </c>
-      <c r="D137" t="n">
-        <v>148.5</v>
-      </c>
-      <c r="E137" t="n">
-        <v>148.5</v>
-      </c>
-      <c r="F137" t="n">
-        <v>202.999</v>
-      </c>
-      <c r="G137" t="n">
-        <v>30623.68250000001</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>149</v>
-      </c>
-      <c r="C138" t="n">
-        <v>148.4</v>
-      </c>
-      <c r="D138" t="n">
-        <v>149</v>
-      </c>
-      <c r="E138" t="n">
-        <v>148.4</v>
-      </c>
-      <c r="F138" t="n">
-        <v>770</v>
-      </c>
-      <c r="G138" t="n">
-        <v>29853.68250000001</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>149</v>
-      </c>
-      <c r="C139" t="n">
-        <v>149</v>
-      </c>
-      <c r="D139" t="n">
-        <v>149</v>
-      </c>
-      <c r="E139" t="n">
-        <v>149</v>
-      </c>
-      <c r="F139" t="n">
-        <v>1305</v>
-      </c>
-      <c r="G139" t="n">
-        <v>31158.68250000001</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>149</v>
-      </c>
-      <c r="C140" t="n">
-        <v>149</v>
-      </c>
-      <c r="D140" t="n">
-        <v>149</v>
-      </c>
-      <c r="E140" t="n">
-        <v>149</v>
-      </c>
-      <c r="F140" t="n">
-        <v>2548</v>
-      </c>
-      <c r="G140" t="n">
-        <v>31158.68250000001</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>149</v>
-      </c>
-      <c r="C141" t="n">
-        <v>149</v>
-      </c>
-      <c r="D141" t="n">
-        <v>149</v>
-      </c>
-      <c r="E141" t="n">
-        <v>149</v>
-      </c>
-      <c r="F141" t="n">
-        <v>23232.3888</v>
-      </c>
-      <c r="G141" t="n">
-        <v>31158.68250000001</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>149</v>
-      </c>
-      <c r="C142" t="n">
-        <v>149</v>
-      </c>
-      <c r="D142" t="n">
-        <v>149</v>
-      </c>
-      <c r="E142" t="n">
-        <v>149</v>
-      </c>
-      <c r="F142" t="n">
-        <v>382.8758</v>
-      </c>
-      <c r="G142" t="n">
-        <v>31158.68250000001</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>149</v>
-      </c>
-      <c r="C143" t="n">
-        <v>149</v>
-      </c>
-      <c r="D143" t="n">
-        <v>149</v>
-      </c>
-      <c r="E143" t="n">
-        <v>149</v>
-      </c>
-      <c r="F143" t="n">
-        <v>387.9997</v>
-      </c>
-      <c r="G143" t="n">
-        <v>31158.68250000001</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>149.6</v>
-      </c>
-      <c r="C144" t="n">
-        <v>149.8</v>
-      </c>
-      <c r="D144" t="n">
-        <v>149.8</v>
-      </c>
-      <c r="E144" t="n">
-        <v>149.6</v>
-      </c>
-      <c r="F144" t="n">
-        <v>2154.91</v>
-      </c>
-      <c r="G144" t="n">
-        <v>33313.59250000001</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>148.9</v>
-      </c>
-      <c r="C145" t="n">
-        <v>148.9</v>
-      </c>
-      <c r="D145" t="n">
-        <v>148.9</v>
-      </c>
-      <c r="E145" t="n">
-        <v>148.9</v>
-      </c>
-      <c r="F145" t="n">
-        <v>1256.1823</v>
-      </c>
-      <c r="G145" t="n">
-        <v>32057.41020000001</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>148.9</v>
-      </c>
-      <c r="C146" t="n">
-        <v>148.9</v>
-      </c>
-      <c r="D146" t="n">
-        <v>148.9</v>
-      </c>
-      <c r="E146" t="n">
-        <v>148.9</v>
-      </c>
-      <c r="F146" t="n">
-        <v>30</v>
-      </c>
-      <c r="G146" t="n">
-        <v>32057.41020000001</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>148.9</v>
-      </c>
-      <c r="C147" t="n">
-        <v>149.7</v>
-      </c>
-      <c r="D147" t="n">
-        <v>149.7</v>
-      </c>
-      <c r="E147" t="n">
-        <v>148.9</v>
-      </c>
-      <c r="F147" t="n">
-        <v>2691</v>
-      </c>
-      <c r="G147" t="n">
-        <v>34748.41020000001</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>149.8</v>
-      </c>
-      <c r="C148" t="n">
-        <v>149.8</v>
-      </c>
-      <c r="D148" t="n">
-        <v>149.8</v>
-      </c>
-      <c r="E148" t="n">
-        <v>149.8</v>
-      </c>
-      <c r="F148" t="n">
-        <v>918</v>
-      </c>
-      <c r="G148" t="n">
-        <v>35666.41020000001</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>149.8</v>
-      </c>
-      <c r="C149" t="n">
-        <v>149.8</v>
-      </c>
-      <c r="D149" t="n">
-        <v>149.8</v>
-      </c>
-      <c r="E149" t="n">
-        <v>149.8</v>
-      </c>
-      <c r="F149" t="n">
-        <v>15.2408</v>
-      </c>
-      <c r="G149" t="n">
-        <v>35666.41020000001</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>149</v>
-      </c>
-      <c r="C150" t="n">
-        <v>149</v>
-      </c>
-      <c r="D150" t="n">
-        <v>149</v>
-      </c>
-      <c r="E150" t="n">
-        <v>149</v>
-      </c>
-      <c r="F150" t="n">
-        <v>3183.2636</v>
-      </c>
-      <c r="G150" t="n">
-        <v>32483.14660000001</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>150</v>
-      </c>
-      <c r="C151" t="n">
-        <v>150</v>
-      </c>
-      <c r="D151" t="n">
-        <v>150</v>
-      </c>
-      <c r="E151" t="n">
-        <v>150</v>
-      </c>
-      <c r="F151" t="n">
-        <v>218.9002</v>
-      </c>
-      <c r="G151" t="n">
-        <v>32702.04680000001</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>150.6</v>
-      </c>
-      <c r="C152" t="n">
-        <v>150.8</v>
-      </c>
-      <c r="D152" t="n">
-        <v>150.9</v>
-      </c>
-      <c r="E152" t="n">
-        <v>150.6</v>
-      </c>
-      <c r="F152" t="n">
-        <v>2117.597</v>
-      </c>
-      <c r="G152" t="n">
-        <v>34819.64380000001</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>150.9</v>
-      </c>
-      <c r="C153" t="n">
-        <v>151</v>
-      </c>
-      <c r="D153" t="n">
-        <v>151</v>
-      </c>
-      <c r="E153" t="n">
-        <v>150.9</v>
-      </c>
-      <c r="F153" t="n">
-        <v>7621.7408</v>
-      </c>
-      <c r="G153" t="n">
-        <v>42441.3846</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1.023610354223433</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="C154" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="D154" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="E154" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="F154" t="n">
-        <v>214.39</v>
-      </c>
-      <c r="G154" t="n">
-        <v>42655.7746</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="C155" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="D155" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="E155" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="F155" t="n">
-        <v>485.61</v>
-      </c>
-      <c r="G155" t="n">
-        <v>42655.7746</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>151</v>
-      </c>
-      <c r="C156" t="n">
-        <v>151</v>
-      </c>
-      <c r="D156" t="n">
-        <v>151</v>
-      </c>
-      <c r="E156" t="n">
-        <v>151</v>
-      </c>
-      <c r="F156" t="n">
-        <v>1914.589</v>
-      </c>
-      <c r="G156" t="n">
-        <v>40741.1856</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>151</v>
-      </c>
-      <c r="C157" t="n">
-        <v>151</v>
-      </c>
-      <c r="D157" t="n">
-        <v>151</v>
-      </c>
-      <c r="E157" t="n">
-        <v>151</v>
-      </c>
-      <c r="F157" t="n">
-        <v>125</v>
-      </c>
-      <c r="G157" t="n">
-        <v>40741.1856</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>151</v>
-      </c>
-      <c r="C158" t="n">
-        <v>151</v>
-      </c>
-      <c r="D158" t="n">
-        <v>151</v>
-      </c>
-      <c r="E158" t="n">
-        <v>151</v>
-      </c>
-      <c r="F158" t="n">
-        <v>556.3424</v>
-      </c>
-      <c r="G158" t="n">
-        <v>40741.1856</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>150.2</v>
-      </c>
-      <c r="C159" t="n">
-        <v>150.2</v>
-      </c>
-      <c r="D159" t="n">
-        <v>150.2</v>
-      </c>
-      <c r="E159" t="n">
-        <v>150.2</v>
-      </c>
-      <c r="F159" t="n">
-        <v>897.4362</v>
-      </c>
-      <c r="G159" t="n">
-        <v>39843.74940000001</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>1</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>150.9</v>
-      </c>
-      <c r="C160" t="n">
-        <v>150.9</v>
-      </c>
-      <c r="D160" t="n">
-        <v>150.9</v>
-      </c>
-      <c r="E160" t="n">
-        <v>150.9</v>
-      </c>
-      <c r="F160" t="n">
-        <v>287.8392</v>
-      </c>
-      <c r="G160" t="n">
-        <v>40131.58860000001</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>150.1</v>
-      </c>
-      <c r="C161" t="n">
-        <v>150</v>
-      </c>
-      <c r="D161" t="n">
-        <v>150.1</v>
-      </c>
-      <c r="E161" t="n">
-        <v>150</v>
-      </c>
-      <c r="F161" t="n">
-        <v>2860.7484</v>
-      </c>
-      <c r="G161" t="n">
-        <v>37270.84020000001</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
+      <c r="N119" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-13 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-13 BackTest STEEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N119"/>
+  <dimension ref="A1:N190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>147.9</v>
+        <v>151.9</v>
       </c>
       <c r="C2" t="n">
-        <v>147.9</v>
+        <v>151.9</v>
       </c>
       <c r="D2" t="n">
-        <v>147.9</v>
+        <v>151.9</v>
       </c>
       <c r="E2" t="n">
-        <v>147.9</v>
+        <v>151.9</v>
       </c>
       <c r="F2" t="n">
-        <v>3189</v>
+        <v>1493</v>
       </c>
       <c r="G2" t="n">
-        <v>-54351.6109</v>
+        <v>-14100.0461</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>147.9</v>
+        <v>151.9</v>
       </c>
       <c r="C3" t="n">
-        <v>147.9</v>
+        <v>151.8</v>
       </c>
       <c r="D3" t="n">
-        <v>147.9</v>
+        <v>151.9</v>
       </c>
       <c r="E3" t="n">
-        <v>147.9</v>
+        <v>151.8</v>
       </c>
       <c r="F3" t="n">
-        <v>8703</v>
+        <v>556.948</v>
       </c>
       <c r="G3" t="n">
-        <v>-54351.6109</v>
+        <v>-14656.9941</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -510,28 +510,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>146.7</v>
+        <v>151.8</v>
       </c>
       <c r="C4" t="n">
-        <v>146.7</v>
+        <v>151.8</v>
       </c>
       <c r="D4" t="n">
-        <v>146.7</v>
+        <v>151.8</v>
       </c>
       <c r="E4" t="n">
-        <v>146.7</v>
+        <v>151.8</v>
       </c>
       <c r="F4" t="n">
-        <v>108.4226</v>
+        <v>41.4623</v>
       </c>
       <c r="G4" t="n">
-        <v>-54460.0335</v>
+        <v>-14656.9941</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -546,28 +546,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>147</v>
+        <v>150.5</v>
       </c>
       <c r="C5" t="n">
-        <v>147</v>
+        <v>151.9</v>
       </c>
       <c r="D5" t="n">
-        <v>147</v>
+        <v>151.9</v>
       </c>
       <c r="E5" t="n">
-        <v>147</v>
+        <v>150.5</v>
       </c>
       <c r="F5" t="n">
-        <v>13227.2153</v>
+        <v>4236.5377</v>
       </c>
       <c r="G5" t="n">
-        <v>-41232.81819999999</v>
+        <v>-10420.4564</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -582,28 +582,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>148</v>
+        <v>151.9</v>
       </c>
       <c r="C6" t="n">
-        <v>148</v>
+        <v>151.9</v>
       </c>
       <c r="D6" t="n">
-        <v>148</v>
+        <v>151.9</v>
       </c>
       <c r="E6" t="n">
-        <v>148</v>
+        <v>151.9</v>
       </c>
       <c r="F6" t="n">
-        <v>29.9609</v>
+        <v>1350.739</v>
       </c>
       <c r="G6" t="n">
-        <v>-41202.8573</v>
+        <v>-10420.4564</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -618,28 +618,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>148</v>
+        <v>150.4</v>
       </c>
       <c r="C7" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D7" t="n">
-        <v>148</v>
+        <v>150.4</v>
       </c>
       <c r="E7" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F7" t="n">
-        <v>21.8495</v>
+        <v>360.2151</v>
       </c>
       <c r="G7" t="n">
-        <v>-41202.8573</v>
+        <v>-10780.6715</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C8" t="n">
-        <v>148.1</v>
+        <v>149</v>
       </c>
       <c r="D8" t="n">
-        <v>148.1</v>
+        <v>149</v>
       </c>
       <c r="E8" t="n">
-        <v>147.2</v>
+        <v>149</v>
       </c>
       <c r="F8" t="n">
-        <v>13518.2383</v>
+        <v>125</v>
       </c>
       <c r="G8" t="n">
-        <v>-27684.619</v>
+        <v>-10905.6715</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>148.9</v>
+        <v>150</v>
       </c>
       <c r="C9" t="n">
-        <v>147.5</v>
+        <v>149.1</v>
       </c>
       <c r="D9" t="n">
-        <v>148.9</v>
+        <v>150</v>
       </c>
       <c r="E9" t="n">
-        <v>147.5</v>
+        <v>149.1</v>
       </c>
       <c r="F9" t="n">
-        <v>7053.4781</v>
+        <v>250</v>
       </c>
       <c r="G9" t="n">
-        <v>-34738.0971</v>
+        <v>-10655.6715</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>148.9</v>
+        <v>150</v>
       </c>
       <c r="C10" t="n">
-        <v>149</v>
+        <v>150.8</v>
       </c>
       <c r="D10" t="n">
-        <v>149</v>
+        <v>150.8</v>
       </c>
       <c r="E10" t="n">
-        <v>148.9</v>
+        <v>149.1</v>
       </c>
       <c r="F10" t="n">
-        <v>1034</v>
+        <v>2123.0507</v>
       </c>
       <c r="G10" t="n">
-        <v>-33704.0971</v>
+        <v>-8532.620799999999</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>148.9</v>
+        <v>149</v>
       </c>
       <c r="C11" t="n">
-        <v>148.9</v>
+        <v>149</v>
       </c>
       <c r="D11" t="n">
-        <v>148.9</v>
+        <v>149</v>
       </c>
       <c r="E11" t="n">
-        <v>148.9</v>
+        <v>149</v>
       </c>
       <c r="F11" t="n">
-        <v>2898.7734</v>
+        <v>297.0073</v>
       </c>
       <c r="G11" t="n">
-        <v>-36602.8705</v>
+        <v>-8829.628099999998</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>149.9</v>
+        <v>151</v>
       </c>
       <c r="C12" t="n">
-        <v>149.6</v>
+        <v>151</v>
       </c>
       <c r="D12" t="n">
-        <v>149.9</v>
+        <v>151</v>
       </c>
       <c r="E12" t="n">
-        <v>146.2</v>
+        <v>151</v>
       </c>
       <c r="F12" t="n">
-        <v>5845.5895</v>
+        <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>-30757.281</v>
+        <v>-8819.628099999998</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,38 +834,32 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>149.8</v>
+        <v>151</v>
       </c>
       <c r="C13" t="n">
-        <v>148.6</v>
+        <v>151</v>
       </c>
       <c r="D13" t="n">
-        <v>149.8</v>
+        <v>151</v>
       </c>
       <c r="E13" t="n">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F13" t="n">
-        <v>2466.5087</v>
+        <v>268.6</v>
       </c>
       <c r="G13" t="n">
-        <v>-33223.78969999999</v>
+        <v>-8819.628099999998</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>149.6</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -876,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>148.6</v>
+        <v>151</v>
       </c>
       <c r="C14" t="n">
-        <v>148.6</v>
+        <v>151</v>
       </c>
       <c r="D14" t="n">
-        <v>148.6</v>
+        <v>151</v>
       </c>
       <c r="E14" t="n">
-        <v>148.6</v>
+        <v>151</v>
       </c>
       <c r="F14" t="n">
-        <v>1702.0953</v>
+        <v>493.147</v>
       </c>
       <c r="G14" t="n">
-        <v>-33223.78969999999</v>
+        <v>-8819.628099999998</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -901,11 +895,7 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -916,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>147.6</v>
+        <v>151.6</v>
       </c>
       <c r="C15" t="n">
-        <v>147.6</v>
+        <v>151.6</v>
       </c>
       <c r="D15" t="n">
-        <v>147.6</v>
+        <v>151.6</v>
       </c>
       <c r="E15" t="n">
-        <v>147.6</v>
+        <v>151.6</v>
       </c>
       <c r="F15" t="n">
-        <v>650.8567</v>
+        <v>608.122</v>
       </c>
       <c r="G15" t="n">
-        <v>-33874.64639999999</v>
+        <v>-8211.506099999999</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -941,11 +931,7 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -956,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>149</v>
+        <v>149.1</v>
       </c>
       <c r="C16" t="n">
         <v>149</v>
       </c>
       <c r="D16" t="n">
-        <v>149</v>
+        <v>149.1</v>
       </c>
       <c r="E16" t="n">
         <v>149</v>
       </c>
       <c r="F16" t="n">
-        <v>4866.7383</v>
+        <v>5869.7746</v>
       </c>
       <c r="G16" t="n">
-        <v>-29007.90809999999</v>
+        <v>-14081.2807</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -981,11 +967,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -996,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>149.7</v>
+        <v>149</v>
       </c>
       <c r="C17" t="n">
-        <v>149.5</v>
+        <v>149</v>
       </c>
       <c r="D17" t="n">
-        <v>149.7</v>
+        <v>149</v>
       </c>
       <c r="E17" t="n">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F17" t="n">
-        <v>12437.47</v>
+        <v>2019.294</v>
       </c>
       <c r="G17" t="n">
-        <v>-16570.43809999999</v>
+        <v>-14081.2807</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1021,11 +1003,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1036,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>149</v>
+        <v>148.7</v>
       </c>
       <c r="C18" t="n">
-        <v>149.8</v>
+        <v>147.5</v>
       </c>
       <c r="D18" t="n">
-        <v>149.8</v>
+        <v>148.7</v>
       </c>
       <c r="E18" t="n">
-        <v>149</v>
+        <v>147.5</v>
       </c>
       <c r="F18" t="n">
-        <v>1972.6031</v>
+        <v>14967.4098</v>
       </c>
       <c r="G18" t="n">
-        <v>-14597.83499999999</v>
+        <v>-29048.6905</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1061,11 +1039,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1076,34 +1050,36 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>149.8</v>
+        <v>148.1</v>
       </c>
       <c r="C19" t="n">
-        <v>149</v>
+        <v>146.9</v>
       </c>
       <c r="D19" t="n">
-        <v>149.8</v>
+        <v>148.1</v>
       </c>
       <c r="E19" t="n">
-        <v>149</v>
+        <v>146.9</v>
       </c>
       <c r="F19" t="n">
-        <v>4991.744</v>
+        <v>3620.8985</v>
       </c>
       <c r="G19" t="n">
-        <v>-19589.57899999999</v>
+        <v>-32669.589</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>147.5</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M19" t="n">
@@ -1116,30 +1092,32 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>149.6</v>
+        <v>148.2</v>
       </c>
       <c r="C20" t="n">
-        <v>149.6</v>
+        <v>149.9</v>
       </c>
       <c r="D20" t="n">
-        <v>149.6</v>
+        <v>149.9</v>
       </c>
       <c r="E20" t="n">
-        <v>149.6</v>
+        <v>148.2</v>
       </c>
       <c r="F20" t="n">
-        <v>2662.2052</v>
+        <v>839.4855</v>
       </c>
       <c r="G20" t="n">
-        <v>-16927.37379999999</v>
+        <v>-31830.1035</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>146.9</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
@@ -1156,30 +1134,32 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>149.6</v>
+        <v>148.1</v>
       </c>
       <c r="C21" t="n">
-        <v>149.6</v>
+        <v>148.1</v>
       </c>
       <c r="D21" t="n">
-        <v>149.6</v>
+        <v>148.1</v>
       </c>
       <c r="E21" t="n">
-        <v>149.6</v>
+        <v>148.1</v>
       </c>
       <c r="F21" t="n">
-        <v>591.2987000000001</v>
+        <v>325.0051</v>
       </c>
       <c r="G21" t="n">
-        <v>-16927.37379999999</v>
+        <v>-32155.1086</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>149.9</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
@@ -1196,30 +1176,32 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>149.6</v>
+        <v>149</v>
       </c>
       <c r="C22" t="n">
-        <v>149.6</v>
+        <v>149</v>
       </c>
       <c r="D22" t="n">
-        <v>149.6</v>
+        <v>149</v>
       </c>
       <c r="E22" t="n">
-        <v>149.6</v>
+        <v>149</v>
       </c>
       <c r="F22" t="n">
-        <v>157.7328</v>
+        <v>2999.999</v>
       </c>
       <c r="G22" t="n">
-        <v>-16927.37379999999</v>
+        <v>-29155.1096</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
@@ -1236,22 +1218,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>149.6</v>
+        <v>149.7</v>
       </c>
       <c r="C23" t="n">
-        <v>149.6</v>
+        <v>149.7</v>
       </c>
       <c r="D23" t="n">
-        <v>149.6</v>
+        <v>149.7</v>
       </c>
       <c r="E23" t="n">
-        <v>149.6</v>
+        <v>149.7</v>
       </c>
       <c r="F23" t="n">
-        <v>375</v>
+        <v>281.4855</v>
       </c>
       <c r="G23" t="n">
-        <v>-16927.37379999999</v>
+        <v>-28873.6241</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1276,22 +1258,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>149.6</v>
+        <v>150</v>
       </c>
       <c r="C24" t="n">
-        <v>149.6</v>
+        <v>150</v>
       </c>
       <c r="D24" t="n">
-        <v>149.6</v>
+        <v>150</v>
       </c>
       <c r="E24" t="n">
-        <v>149.6</v>
+        <v>150</v>
       </c>
       <c r="F24" t="n">
-        <v>228.8543</v>
+        <v>1303.391</v>
       </c>
       <c r="G24" t="n">
-        <v>-16927.37379999999</v>
+        <v>-27570.2331</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1316,22 +1298,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>149</v>
+        <v>149.9</v>
       </c>
       <c r="C25" t="n">
-        <v>148.1</v>
+        <v>148</v>
       </c>
       <c r="D25" t="n">
-        <v>149</v>
+        <v>149.9</v>
       </c>
       <c r="E25" t="n">
-        <v>148.1</v>
+        <v>148</v>
       </c>
       <c r="F25" t="n">
-        <v>1503</v>
+        <v>896.7080999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>-18430.37379999999</v>
+        <v>-28466.9412</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1356,22 +1338,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>149</v>
+        <v>148.2</v>
       </c>
       <c r="C26" t="n">
-        <v>149.1</v>
+        <v>148</v>
       </c>
       <c r="D26" t="n">
-        <v>149.1</v>
+        <v>148.2</v>
       </c>
       <c r="E26" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F26" t="n">
-        <v>3526.7472</v>
+        <v>1707.6248</v>
       </c>
       <c r="G26" t="n">
-        <v>-14903.62659999999</v>
+        <v>-28466.9412</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1396,22 +1378,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>148.2</v>
+        <v>148.1</v>
       </c>
       <c r="C27" t="n">
-        <v>148.2</v>
+        <v>148.1</v>
       </c>
       <c r="D27" t="n">
-        <v>148.2</v>
+        <v>148.1</v>
       </c>
       <c r="E27" t="n">
-        <v>148.2</v>
+        <v>148.1</v>
       </c>
       <c r="F27" t="n">
-        <v>4218.7209</v>
+        <v>278.5295</v>
       </c>
       <c r="G27" t="n">
-        <v>-19122.34749999999</v>
+        <v>-28188.4117</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1436,30 +1418,32 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>149.9</v>
+        <v>148.1</v>
       </c>
       <c r="C28" t="n">
-        <v>149</v>
+        <v>148.1</v>
       </c>
       <c r="D28" t="n">
-        <v>149.9</v>
+        <v>148.1</v>
       </c>
       <c r="E28" t="n">
-        <v>149</v>
+        <v>148.1</v>
       </c>
       <c r="F28" t="n">
-        <v>3392.2528</v>
+        <v>5003.8251</v>
       </c>
       <c r="G28" t="n">
-        <v>-15730.09469999999</v>
+        <v>-28188.4117</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
@@ -1476,30 +1460,32 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>149.9</v>
+        <v>148.9</v>
       </c>
       <c r="C29" t="n">
-        <v>149.9</v>
+        <v>148.9</v>
       </c>
       <c r="D29" t="n">
-        <v>149.9</v>
+        <v>148.9</v>
       </c>
       <c r="E29" t="n">
-        <v>149.9</v>
+        <v>148.9</v>
       </c>
       <c r="F29" t="n">
-        <v>2130</v>
+        <v>543</v>
       </c>
       <c r="G29" t="n">
-        <v>-13600.09469999999</v>
+        <v>-27645.4117</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
@@ -1516,22 +1502,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>149.9</v>
+        <v>149</v>
       </c>
       <c r="C30" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D30" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E30" t="n">
-        <v>149.9</v>
+        <v>149</v>
       </c>
       <c r="F30" t="n">
-        <v>5706.5985</v>
+        <v>1984.659</v>
       </c>
       <c r="G30" t="n">
-        <v>-7893.496199999989</v>
+        <v>-25660.7527</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1556,22 +1542,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C31" t="n">
-        <v>149.1</v>
+        <v>148</v>
       </c>
       <c r="D31" t="n">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E31" t="n">
-        <v>149.1</v>
+        <v>148</v>
       </c>
       <c r="F31" t="n">
-        <v>2794.6867</v>
+        <v>259.1909</v>
       </c>
       <c r="G31" t="n">
-        <v>-10688.18289999999</v>
+        <v>-25919.9436</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1596,22 +1582,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C32" t="n">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D32" t="n">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E32" t="n">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F32" t="n">
-        <v>6650.0404</v>
+        <v>2655.656</v>
       </c>
       <c r="G32" t="n">
-        <v>-4038.142499999989</v>
+        <v>-25919.9436</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1636,22 +1622,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>150</v>
+        <v>146.9</v>
       </c>
       <c r="C33" t="n">
-        <v>150</v>
+        <v>146.8</v>
       </c>
       <c r="D33" t="n">
-        <v>150</v>
+        <v>146.9</v>
       </c>
       <c r="E33" t="n">
-        <v>150</v>
+        <v>146.8</v>
       </c>
       <c r="F33" t="n">
-        <v>910.8684</v>
+        <v>4029.3712</v>
       </c>
       <c r="G33" t="n">
-        <v>-4038.142499999989</v>
+        <v>-29949.3148</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1676,30 +1662,32 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>150.5</v>
+        <v>147</v>
       </c>
       <c r="C34" t="n">
-        <v>150.5</v>
+        <v>148</v>
       </c>
       <c r="D34" t="n">
-        <v>150.5</v>
+        <v>148</v>
       </c>
       <c r="E34" t="n">
-        <v>150.5</v>
+        <v>147</v>
       </c>
       <c r="F34" t="n">
-        <v>188</v>
+        <v>394</v>
       </c>
       <c r="G34" t="n">
-        <v>-3850.142499999989</v>
+        <v>-29555.3148</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>146.8</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
@@ -1716,22 +1704,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>150.6</v>
+        <v>146.8</v>
       </c>
       <c r="C35" t="n">
-        <v>149</v>
+        <v>146.8</v>
       </c>
       <c r="D35" t="n">
-        <v>150.6</v>
+        <v>146.8</v>
       </c>
       <c r="E35" t="n">
-        <v>149</v>
+        <v>146.8</v>
       </c>
       <c r="F35" t="n">
-        <v>1693.3859</v>
+        <v>177.2842</v>
       </c>
       <c r="G35" t="n">
-        <v>-5543.528399999989</v>
+        <v>-29732.599</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1756,22 +1744,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" t="n">
-        <v>148.3</v>
+        <v>148</v>
       </c>
       <c r="D36" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E36" t="n">
-        <v>148.3</v>
+        <v>148</v>
       </c>
       <c r="F36" t="n">
-        <v>14738.7501</v>
+        <v>2520.847</v>
       </c>
       <c r="G36" t="n">
-        <v>-20282.27849999999</v>
+        <v>-27211.752</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1796,22 +1784,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C37" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D37" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E37" t="n">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F37" t="n">
-        <v>2210.8125</v>
+        <v>3888.946</v>
       </c>
       <c r="G37" t="n">
-        <v>-18071.46599999999</v>
+        <v>-27211.752</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1836,22 +1824,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>148.3</v>
+        <v>147</v>
       </c>
       <c r="C38" t="n">
-        <v>148.3</v>
+        <v>147</v>
       </c>
       <c r="D38" t="n">
-        <v>148.3</v>
+        <v>147</v>
       </c>
       <c r="E38" t="n">
-        <v>148.3</v>
+        <v>147</v>
       </c>
       <c r="F38" t="n">
-        <v>5</v>
+        <v>112.699</v>
       </c>
       <c r="G38" t="n">
-        <v>-18076.46599999999</v>
+        <v>-27324.451</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1876,22 +1864,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>148.9</v>
+        <v>148.8</v>
       </c>
       <c r="C39" t="n">
-        <v>148.9</v>
+        <v>148.8</v>
       </c>
       <c r="D39" t="n">
-        <v>148.9</v>
+        <v>148.8</v>
       </c>
       <c r="E39" t="n">
-        <v>148.9</v>
+        <v>148.8</v>
       </c>
       <c r="F39" t="n">
-        <v>522</v>
+        <v>240.502</v>
       </c>
       <c r="G39" t="n">
-        <v>-17554.46599999999</v>
+        <v>-27083.949</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1928,10 +1916,10 @@
         <v>149</v>
       </c>
       <c r="F40" t="n">
-        <v>2000</v>
+        <v>3113.934</v>
       </c>
       <c r="G40" t="n">
-        <v>-15554.46599999999</v>
+        <v>-23970.015</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1956,22 +1944,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>148.2</v>
+        <v>148</v>
       </c>
       <c r="C41" t="n">
-        <v>147.6</v>
+        <v>148</v>
       </c>
       <c r="D41" t="n">
-        <v>148.2</v>
+        <v>148</v>
       </c>
       <c r="E41" t="n">
-        <v>147.6</v>
+        <v>148</v>
       </c>
       <c r="F41" t="n">
-        <v>5.588</v>
+        <v>1014.4709</v>
       </c>
       <c r="G41" t="n">
-        <v>-15560.05399999999</v>
+        <v>-24984.4859</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1996,22 +1984,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>147.7</v>
+        <v>149.8</v>
       </c>
       <c r="C42" t="n">
-        <v>149.1</v>
+        <v>149</v>
       </c>
       <c r="D42" t="n">
-        <v>149.1</v>
+        <v>149.8</v>
       </c>
       <c r="E42" t="n">
-        <v>147.7</v>
+        <v>149</v>
       </c>
       <c r="F42" t="n">
-        <v>3098.3026</v>
+        <v>3109.7744</v>
       </c>
       <c r="G42" t="n">
-        <v>-12461.75139999999</v>
+        <v>-21874.7115</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2036,22 +2024,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>149.1</v>
+        <v>149.7</v>
       </c>
       <c r="C43" t="n">
-        <v>149.1</v>
+        <v>149.8</v>
       </c>
       <c r="D43" t="n">
-        <v>149.1</v>
+        <v>149.8</v>
       </c>
       <c r="E43" t="n">
-        <v>149.1</v>
+        <v>149.7</v>
       </c>
       <c r="F43" t="n">
-        <v>161</v>
+        <v>4947.7481</v>
       </c>
       <c r="G43" t="n">
-        <v>-12461.75139999999</v>
+        <v>-16926.9634</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2076,32 +2064,30 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>147.6</v>
+        <v>148.1</v>
       </c>
       <c r="C44" t="n">
-        <v>147.6</v>
+        <v>148.1</v>
       </c>
       <c r="D44" t="n">
-        <v>147.6</v>
+        <v>148.1</v>
       </c>
       <c r="E44" t="n">
-        <v>147.6</v>
+        <v>148.1</v>
       </c>
       <c r="F44" t="n">
-        <v>9.48</v>
+        <v>925.4614</v>
       </c>
       <c r="G44" t="n">
-        <v>-12471.23139999999</v>
+        <v>-17852.4248</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>149.1</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
@@ -2118,22 +2104,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>149</v>
+        <v>148.1</v>
       </c>
       <c r="C45" t="n">
-        <v>149.1</v>
+        <v>148.1</v>
       </c>
       <c r="D45" t="n">
-        <v>149.1</v>
+        <v>148.1</v>
       </c>
       <c r="E45" t="n">
-        <v>149</v>
+        <v>148.1</v>
       </c>
       <c r="F45" t="n">
-        <v>3000</v>
+        <v>2420.0035</v>
       </c>
       <c r="G45" t="n">
-        <v>-9471.23139999999</v>
+        <v>-17852.4248</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2158,22 +2144,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>149</v>
+        <v>148.1</v>
       </c>
       <c r="C46" t="n">
-        <v>149.1</v>
+        <v>148.1</v>
       </c>
       <c r="D46" t="n">
-        <v>149.1</v>
+        <v>148.1</v>
       </c>
       <c r="E46" t="n">
-        <v>149</v>
+        <v>148.1</v>
       </c>
       <c r="F46" t="n">
-        <v>2900.1758</v>
+        <v>125</v>
       </c>
       <c r="G46" t="n">
-        <v>-9471.23139999999</v>
+        <v>-17852.4248</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2198,22 +2184,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>149.2</v>
+        <v>148</v>
       </c>
       <c r="C47" t="n">
-        <v>149.2</v>
+        <v>148.1</v>
       </c>
       <c r="D47" t="n">
-        <v>149.2</v>
+        <v>148.1</v>
       </c>
       <c r="E47" t="n">
-        <v>149.2</v>
+        <v>147.4</v>
       </c>
       <c r="F47" t="n">
-        <v>1267</v>
+        <v>6895.3123</v>
       </c>
       <c r="G47" t="n">
-        <v>-8204.23139999999</v>
+        <v>-17852.4248</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2238,22 +2224,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>149.1</v>
+        <v>147.5</v>
       </c>
       <c r="C48" t="n">
-        <v>149.4</v>
+        <v>147.5</v>
       </c>
       <c r="D48" t="n">
-        <v>149.4</v>
+        <v>147.5</v>
       </c>
       <c r="E48" t="n">
-        <v>149.1</v>
+        <v>147.5</v>
       </c>
       <c r="F48" t="n">
-        <v>4579.8473</v>
+        <v>5738.2834</v>
       </c>
       <c r="G48" t="n">
-        <v>-3624.384099999989</v>
+        <v>-23590.7082</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2278,22 +2264,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>149.5</v>
+        <v>147</v>
       </c>
       <c r="C49" t="n">
-        <v>149.5</v>
+        <v>147</v>
       </c>
       <c r="D49" t="n">
-        <v>149.5</v>
+        <v>147</v>
       </c>
       <c r="E49" t="n">
-        <v>149.5</v>
+        <v>147</v>
       </c>
       <c r="F49" t="n">
-        <v>1104.1531</v>
+        <v>61</v>
       </c>
       <c r="G49" t="n">
-        <v>-2520.230999999989</v>
+        <v>-23651.7082</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2318,32 +2304,30 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C50" t="n">
-        <v>149</v>
+        <v>147.9</v>
       </c>
       <c r="D50" t="n">
-        <v>149</v>
+        <v>147.9</v>
       </c>
       <c r="E50" t="n">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F50" t="n">
-        <v>8</v>
+        <v>2500</v>
       </c>
       <c r="G50" t="n">
-        <v>-2528.230999999989</v>
+        <v>-21151.7082</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>149.5</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
@@ -2360,32 +2344,30 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>149.6</v>
+        <v>147.9</v>
       </c>
       <c r="C51" t="n">
-        <v>149.7</v>
+        <v>148.1</v>
       </c>
       <c r="D51" t="n">
-        <v>149.7</v>
+        <v>148.1</v>
       </c>
       <c r="E51" t="n">
-        <v>149.6</v>
+        <v>147.9</v>
       </c>
       <c r="F51" t="n">
-        <v>77.77</v>
+        <v>1000</v>
       </c>
       <c r="G51" t="n">
-        <v>-2450.460999999989</v>
+        <v>-20151.7082</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>149</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
@@ -2402,32 +2384,30 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>149.4</v>
+        <v>148.1</v>
       </c>
       <c r="C52" t="n">
-        <v>148.1</v>
+        <v>148.8</v>
       </c>
       <c r="D52" t="n">
-        <v>149.4</v>
+        <v>148.8</v>
       </c>
       <c r="E52" t="n">
         <v>148.1</v>
       </c>
       <c r="F52" t="n">
-        <v>669.9807</v>
+        <v>125</v>
       </c>
       <c r="G52" t="n">
-        <v>-3120.441699999989</v>
+        <v>-20026.7082</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>149.7</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
@@ -2444,32 +2424,30 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>148.1</v>
+        <v>149.8</v>
       </c>
       <c r="C53" t="n">
-        <v>148.1</v>
+        <v>149.8</v>
       </c>
       <c r="D53" t="n">
-        <v>148.1</v>
+        <v>149.8</v>
       </c>
       <c r="E53" t="n">
-        <v>148.1</v>
+        <v>149.8</v>
       </c>
       <c r="F53" t="n">
-        <v>2204.644</v>
+        <v>228.2626</v>
       </c>
       <c r="G53" t="n">
-        <v>-3120.441699999989</v>
+        <v>-19798.4456</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>148.1</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
@@ -2486,32 +2464,30 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>148</v>
+        <v>149.9</v>
       </c>
       <c r="C54" t="n">
-        <v>147</v>
+        <v>150.9</v>
       </c>
       <c r="D54" t="n">
-        <v>148</v>
+        <v>150.9</v>
       </c>
       <c r="E54" t="n">
-        <v>147</v>
+        <v>149.9</v>
       </c>
       <c r="F54" t="n">
-        <v>4200</v>
+        <v>3000</v>
       </c>
       <c r="G54" t="n">
-        <v>-7320.441699999989</v>
+        <v>-16798.4456</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>148.1</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
@@ -2528,32 +2504,30 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>147.3</v>
+        <v>148.2</v>
       </c>
       <c r="C55" t="n">
-        <v>147.2</v>
+        <v>148</v>
       </c>
       <c r="D55" t="n">
-        <v>147.3</v>
+        <v>148.2</v>
       </c>
       <c r="E55" t="n">
-        <v>147.2</v>
+        <v>148</v>
       </c>
       <c r="F55" t="n">
-        <v>11527.4004</v>
+        <v>3093.29</v>
       </c>
       <c r="G55" t="n">
-        <v>4206.958700000011</v>
+        <v>-19891.7356</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>147</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
@@ -2570,32 +2544,30 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>148.1</v>
+        <v>148</v>
       </c>
       <c r="C56" t="n">
-        <v>148.1</v>
+        <v>148</v>
       </c>
       <c r="D56" t="n">
-        <v>148.1</v>
+        <v>148</v>
       </c>
       <c r="E56" t="n">
-        <v>148.1</v>
+        <v>148</v>
       </c>
       <c r="F56" t="n">
-        <v>250</v>
+        <v>22</v>
       </c>
       <c r="G56" t="n">
-        <v>4456.958700000011</v>
+        <v>-19891.7356</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>147.2</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
@@ -2612,32 +2584,30 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>148.1</v>
+        <v>148</v>
       </c>
       <c r="C57" t="n">
-        <v>148.1</v>
+        <v>147.6</v>
       </c>
       <c r="D57" t="n">
-        <v>148.1</v>
+        <v>148</v>
       </c>
       <c r="E57" t="n">
-        <v>148.1</v>
+        <v>147.6</v>
       </c>
       <c r="F57" t="n">
-        <v>76</v>
+        <v>766</v>
       </c>
       <c r="G57" t="n">
-        <v>4456.958700000011</v>
+        <v>-20657.7356</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>148.1</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
@@ -2654,32 +2624,30 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>148.1</v>
+        <v>147.6</v>
       </c>
       <c r="C58" t="n">
-        <v>148.1</v>
+        <v>147</v>
       </c>
       <c r="D58" t="n">
-        <v>148.1</v>
+        <v>147.6</v>
       </c>
       <c r="E58" t="n">
-        <v>148.1</v>
+        <v>147</v>
       </c>
       <c r="F58" t="n">
-        <v>8199.967699999999</v>
+        <v>875</v>
       </c>
       <c r="G58" t="n">
-        <v>4456.958700000011</v>
+        <v>-21532.7356</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>148.1</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
@@ -2696,32 +2664,30 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>148.1</v>
+        <v>147.8</v>
       </c>
       <c r="C59" t="n">
-        <v>148.1</v>
+        <v>147.8</v>
       </c>
       <c r="D59" t="n">
-        <v>148.1</v>
+        <v>147.8</v>
       </c>
       <c r="E59" t="n">
-        <v>148.1</v>
+        <v>147.8</v>
       </c>
       <c r="F59" t="n">
-        <v>3072.5298</v>
+        <v>1280</v>
       </c>
       <c r="G59" t="n">
-        <v>4456.958700000011</v>
+        <v>-20252.7356</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>148.1</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
@@ -2738,32 +2704,30 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>148.1</v>
+        <v>147</v>
       </c>
       <c r="C60" t="n">
-        <v>148.1</v>
+        <v>147</v>
       </c>
       <c r="D60" t="n">
-        <v>148.1</v>
+        <v>147</v>
       </c>
       <c r="E60" t="n">
-        <v>148.1</v>
+        <v>147</v>
       </c>
       <c r="F60" t="n">
-        <v>1485.5384</v>
+        <v>22046.367</v>
       </c>
       <c r="G60" t="n">
-        <v>4456.958700000011</v>
+        <v>-42299.1026</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>148.1</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
@@ -2780,32 +2744,30 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>148.1</v>
+        <v>147</v>
       </c>
       <c r="C61" t="n">
-        <v>148.1</v>
+        <v>146.8</v>
       </c>
       <c r="D61" t="n">
-        <v>148.1</v>
+        <v>147</v>
       </c>
       <c r="E61" t="n">
-        <v>148.1</v>
+        <v>146.8</v>
       </c>
       <c r="F61" t="n">
-        <v>134.8118</v>
+        <v>5271.2321</v>
       </c>
       <c r="G61" t="n">
-        <v>4456.958700000011</v>
+        <v>-47570.3347</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>148.1</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
@@ -2822,22 +2784,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>148.1</v>
+        <v>147.2</v>
       </c>
       <c r="C62" t="n">
-        <v>148.1</v>
+        <v>147.2</v>
       </c>
       <c r="D62" t="n">
-        <v>148.1</v>
+        <v>147.2</v>
       </c>
       <c r="E62" t="n">
-        <v>148.1</v>
+        <v>147.2</v>
       </c>
       <c r="F62" t="n">
-        <v>120.3758</v>
+        <v>3.5</v>
       </c>
       <c r="G62" t="n">
-        <v>4456.958700000011</v>
+        <v>-47566.8347</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2862,32 +2824,30 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>147.1</v>
+        <v>147</v>
       </c>
       <c r="C63" t="n">
-        <v>147.1</v>
+        <v>146.8</v>
       </c>
       <c r="D63" t="n">
-        <v>147.1</v>
+        <v>147</v>
       </c>
       <c r="E63" t="n">
-        <v>147.1</v>
+        <v>146.8</v>
       </c>
       <c r="F63" t="n">
-        <v>52.3034</v>
+        <v>3162.2067</v>
       </c>
       <c r="G63" t="n">
-        <v>4404.655300000011</v>
+        <v>-50729.0414</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>148.1</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
@@ -2904,22 +2864,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>147.2</v>
+        <v>147.8</v>
       </c>
       <c r="C64" t="n">
-        <v>148</v>
+        <v>147.8</v>
       </c>
       <c r="D64" t="n">
-        <v>148.1</v>
+        <v>147.8</v>
       </c>
       <c r="E64" t="n">
-        <v>147.2</v>
+        <v>147.8</v>
       </c>
       <c r="F64" t="n">
-        <v>3821</v>
+        <v>470.2319</v>
       </c>
       <c r="G64" t="n">
-        <v>8225.655300000011</v>
+        <v>-50258.8095</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2944,22 +2904,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>148.1</v>
+        <v>146.8</v>
       </c>
       <c r="C65" t="n">
-        <v>148.1</v>
+        <v>146.8</v>
       </c>
       <c r="D65" t="n">
-        <v>148.1</v>
+        <v>146.8</v>
       </c>
       <c r="E65" t="n">
-        <v>148.1</v>
+        <v>146.8</v>
       </c>
       <c r="F65" t="n">
-        <v>20253.1188</v>
+        <v>781.1024</v>
       </c>
       <c r="G65" t="n">
-        <v>28478.77410000001</v>
+        <v>-51039.91190000001</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2984,22 +2944,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>148.1</v>
+        <v>146.3</v>
       </c>
       <c r="C66" t="n">
-        <v>148.1</v>
+        <v>146.3</v>
       </c>
       <c r="D66" t="n">
-        <v>148.1</v>
+        <v>146.3</v>
       </c>
       <c r="E66" t="n">
-        <v>148.1</v>
+        <v>146.3</v>
       </c>
       <c r="F66" t="n">
-        <v>3881.6002</v>
+        <v>683.526</v>
       </c>
       <c r="G66" t="n">
-        <v>28478.77410000001</v>
+        <v>-51723.4379</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3024,22 +2984,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>148.1</v>
+        <v>146</v>
       </c>
       <c r="C67" t="n">
-        <v>148.1</v>
+        <v>144.5</v>
       </c>
       <c r="D67" t="n">
-        <v>148.1</v>
+        <v>146</v>
       </c>
       <c r="E67" t="n">
-        <v>148.1</v>
+        <v>144.5</v>
       </c>
       <c r="F67" t="n">
-        <v>2076.1073</v>
+        <v>24321.9726</v>
       </c>
       <c r="G67" t="n">
-        <v>28478.77410000001</v>
+        <v>-76045.4105</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3064,22 +3024,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>147.1</v>
+        <v>145.8</v>
       </c>
       <c r="C68" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D68" t="n">
-        <v>147.1</v>
+        <v>146</v>
       </c>
       <c r="E68" t="n">
-        <v>147</v>
+        <v>145.8</v>
       </c>
       <c r="F68" t="n">
-        <v>2778.2707</v>
+        <v>1500</v>
       </c>
       <c r="G68" t="n">
-        <v>25700.50340000001</v>
+        <v>-74545.4105</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3104,22 +3064,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>147.1</v>
+        <v>145.9</v>
       </c>
       <c r="C69" t="n">
-        <v>148.3</v>
+        <v>146.8</v>
       </c>
       <c r="D69" t="n">
-        <v>148.3</v>
+        <v>146.8</v>
       </c>
       <c r="E69" t="n">
-        <v>147.1</v>
+        <v>145</v>
       </c>
       <c r="F69" t="n">
-        <v>4873.7832</v>
+        <v>5588</v>
       </c>
       <c r="G69" t="n">
-        <v>30574.28660000001</v>
+        <v>-68957.4105</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3144,30 +3104,32 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>148.5</v>
+        <v>146.7</v>
       </c>
       <c r="C70" t="n">
-        <v>148.5</v>
+        <v>146.6</v>
       </c>
       <c r="D70" t="n">
-        <v>148.5</v>
+        <v>146.7</v>
       </c>
       <c r="E70" t="n">
-        <v>148.5</v>
+        <v>146.6</v>
       </c>
       <c r="F70" t="n">
-        <v>745</v>
+        <v>1490</v>
       </c>
       <c r="G70" t="n">
-        <v>31319.28660000001</v>
+        <v>-70447.4105</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>146.8</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
@@ -3184,30 +3146,32 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>147.8</v>
+        <v>146.6</v>
       </c>
       <c r="C71" t="n">
-        <v>147.8</v>
+        <v>147.9</v>
       </c>
       <c r="D71" t="n">
-        <v>147.8</v>
+        <v>147.9</v>
       </c>
       <c r="E71" t="n">
-        <v>147.8</v>
+        <v>144.7</v>
       </c>
       <c r="F71" t="n">
-        <v>20</v>
+        <v>16095.7996</v>
       </c>
       <c r="G71" t="n">
-        <v>31299.28660000001</v>
+        <v>-54351.6109</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>146.6</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
@@ -3224,30 +3188,32 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>147.8</v>
+        <v>147.9</v>
       </c>
       <c r="C72" t="n">
-        <v>147.8</v>
+        <v>147.9</v>
       </c>
       <c r="D72" t="n">
-        <v>147.8</v>
+        <v>147.9</v>
       </c>
       <c r="E72" t="n">
-        <v>147.8</v>
+        <v>147.9</v>
       </c>
       <c r="F72" t="n">
-        <v>67.48999999999999</v>
+        <v>5277.105</v>
       </c>
       <c r="G72" t="n">
-        <v>31299.28660000001</v>
+        <v>-54351.6109</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>147.9</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
@@ -3264,30 +3230,32 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>146.1</v>
+        <v>147.9</v>
       </c>
       <c r="C73" t="n">
-        <v>146.1</v>
+        <v>147.9</v>
       </c>
       <c r="D73" t="n">
-        <v>146.1</v>
+        <v>147.9</v>
       </c>
       <c r="E73" t="n">
-        <v>146.1</v>
+        <v>147.9</v>
       </c>
       <c r="F73" t="n">
-        <v>3.5</v>
+        <v>3189</v>
       </c>
       <c r="G73" t="n">
-        <v>31295.78660000001</v>
+        <v>-54351.6109</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>147.9</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
@@ -3304,30 +3272,32 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>147.8</v>
+        <v>147.9</v>
       </c>
       <c r="C74" t="n">
-        <v>147.8</v>
+        <v>147.9</v>
       </c>
       <c r="D74" t="n">
-        <v>147.8</v>
+        <v>147.9</v>
       </c>
       <c r="E74" t="n">
-        <v>147.8</v>
+        <v>147.9</v>
       </c>
       <c r="F74" t="n">
-        <v>73.614</v>
+        <v>8703</v>
       </c>
       <c r="G74" t="n">
-        <v>31369.40060000001</v>
+        <v>-54351.6109</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>147.9</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
@@ -3344,30 +3314,32 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>148.6</v>
+        <v>146.7</v>
       </c>
       <c r="C75" t="n">
-        <v>148.6</v>
+        <v>146.7</v>
       </c>
       <c r="D75" t="n">
-        <v>148.6</v>
+        <v>146.7</v>
       </c>
       <c r="E75" t="n">
-        <v>148.6</v>
+        <v>146.7</v>
       </c>
       <c r="F75" t="n">
-        <v>73</v>
+        <v>108.4226</v>
       </c>
       <c r="G75" t="n">
-        <v>31442.40060000001</v>
+        <v>-54460.0335</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>147.9</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
@@ -3384,30 +3356,32 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C76" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D76" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E76" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F76" t="n">
-        <v>2956.8202</v>
+        <v>13227.2153</v>
       </c>
       <c r="G76" t="n">
-        <v>28485.58040000001</v>
+        <v>-41232.81819999999</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>146.7</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
@@ -3436,18 +3410,20 @@
         <v>148</v>
       </c>
       <c r="F77" t="n">
-        <v>1964.343</v>
+        <v>29.9609</v>
       </c>
       <c r="G77" t="n">
-        <v>28485.58040000001</v>
+        <v>-41202.8573</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>147</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
@@ -3467,27 +3443,29 @@
         <v>148</v>
       </c>
       <c r="C78" t="n">
-        <v>148.3</v>
+        <v>148</v>
       </c>
       <c r="D78" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E78" t="n">
         <v>148</v>
       </c>
       <c r="F78" t="n">
-        <v>1458.71</v>
+        <v>21.8495</v>
       </c>
       <c r="G78" t="n">
-        <v>29944.29040000001</v>
+        <v>-41202.8573</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>148</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
@@ -3504,30 +3482,32 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>148.3</v>
+        <v>148</v>
       </c>
       <c r="C79" t="n">
-        <v>148.2</v>
+        <v>148.1</v>
       </c>
       <c r="D79" t="n">
-        <v>148.3</v>
+        <v>148.1</v>
       </c>
       <c r="E79" t="n">
-        <v>148.2</v>
+        <v>147.2</v>
       </c>
       <c r="F79" t="n">
-        <v>470.5335</v>
+        <v>13518.2383</v>
       </c>
       <c r="G79" t="n">
-        <v>29473.7569</v>
+        <v>-27684.619</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>148</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
@@ -3544,30 +3524,32 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>149</v>
+        <v>148.9</v>
       </c>
       <c r="C80" t="n">
-        <v>149</v>
+        <v>147.5</v>
       </c>
       <c r="D80" t="n">
-        <v>149</v>
+        <v>148.9</v>
       </c>
       <c r="E80" t="n">
-        <v>149</v>
+        <v>147.5</v>
       </c>
       <c r="F80" t="n">
-        <v>560.8654</v>
+        <v>7053.4781</v>
       </c>
       <c r="G80" t="n">
-        <v>30034.6223</v>
+        <v>-34738.0971</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
@@ -3587,27 +3569,29 @@
         <v>148.9</v>
       </c>
       <c r="C81" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D81" t="n">
+        <v>149</v>
+      </c>
+      <c r="E81" t="n">
         <v>148.9</v>
       </c>
-      <c r="E81" t="n">
-        <v>148</v>
-      </c>
       <c r="F81" t="n">
-        <v>2391</v>
+        <v>1034</v>
       </c>
       <c r="G81" t="n">
-        <v>27643.6223</v>
+        <v>-33704.0971</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>147.5</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
@@ -3624,30 +3608,32 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>148.2</v>
+        <v>148.9</v>
       </c>
       <c r="C82" t="n">
-        <v>148.2</v>
+        <v>148.9</v>
       </c>
       <c r="D82" t="n">
-        <v>148.2</v>
+        <v>148.9</v>
       </c>
       <c r="E82" t="n">
-        <v>148.2</v>
+        <v>148.9</v>
       </c>
       <c r="F82" t="n">
-        <v>608</v>
+        <v>2898.7734</v>
       </c>
       <c r="G82" t="n">
-        <v>28251.6223</v>
+        <v>-36602.8705</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>149</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
@@ -3664,30 +3650,32 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>148.6</v>
+        <v>149.9</v>
       </c>
       <c r="C83" t="n">
-        <v>148.6</v>
+        <v>149.6</v>
       </c>
       <c r="D83" t="n">
-        <v>148.6</v>
+        <v>149.9</v>
       </c>
       <c r="E83" t="n">
-        <v>148.6</v>
+        <v>146.2</v>
       </c>
       <c r="F83" t="n">
-        <v>320</v>
+        <v>5845.5895</v>
       </c>
       <c r="G83" t="n">
-        <v>28571.6223</v>
+        <v>-30757.281</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>148.9</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
@@ -3704,22 +3692,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="C84" t="n">
         <v>148.6</v>
       </c>
-      <c r="C84" t="n">
-        <v>149.5</v>
-      </c>
       <c r="D84" t="n">
-        <v>149.6</v>
+        <v>149.8</v>
       </c>
       <c r="E84" t="n">
-        <v>148.6</v>
+        <v>148</v>
       </c>
       <c r="F84" t="n">
-        <v>1269.911</v>
+        <v>2466.5087</v>
       </c>
       <c r="G84" t="n">
-        <v>29841.5333</v>
+        <v>-33223.78969999999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3744,22 +3732,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>148.2</v>
+        <v>148.6</v>
       </c>
       <c r="C85" t="n">
-        <v>148.2</v>
+        <v>148.6</v>
       </c>
       <c r="D85" t="n">
-        <v>148.2</v>
+        <v>148.6</v>
       </c>
       <c r="E85" t="n">
-        <v>148.2</v>
+        <v>148.6</v>
       </c>
       <c r="F85" t="n">
-        <v>597.5133</v>
+        <v>1702.0953</v>
       </c>
       <c r="G85" t="n">
-        <v>29244.02</v>
+        <v>-33223.78969999999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3784,30 +3772,32 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>148.2</v>
+        <v>147.6</v>
       </c>
       <c r="C86" t="n">
-        <v>148.2</v>
+        <v>147.6</v>
       </c>
       <c r="D86" t="n">
-        <v>148.2</v>
+        <v>147.6</v>
       </c>
       <c r="E86" t="n">
-        <v>148.2</v>
+        <v>147.6</v>
       </c>
       <c r="F86" t="n">
-        <v>503.2466</v>
+        <v>650.8567</v>
       </c>
       <c r="G86" t="n">
-        <v>29244.02</v>
+        <v>-33874.64639999999</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>148.6</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
@@ -3827,27 +3817,29 @@
         <v>149</v>
       </c>
       <c r="C87" t="n">
-        <v>148.2</v>
+        <v>149</v>
       </c>
       <c r="D87" t="n">
         <v>149</v>
       </c>
       <c r="E87" t="n">
-        <v>148.2</v>
+        <v>149</v>
       </c>
       <c r="F87" t="n">
-        <v>10133.7773</v>
+        <v>4866.7383</v>
       </c>
       <c r="G87" t="n">
-        <v>29244.02</v>
+        <v>-29007.90809999999</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>147.6</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
@@ -3864,30 +3856,32 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>148.2</v>
+        <v>149.7</v>
       </c>
       <c r="C88" t="n">
-        <v>148.2</v>
+        <v>149.5</v>
       </c>
       <c r="D88" t="n">
-        <v>148.2</v>
+        <v>149.7</v>
       </c>
       <c r="E88" t="n">
-        <v>148.2</v>
+        <v>147</v>
       </c>
       <c r="F88" t="n">
-        <v>107.9</v>
+        <v>12437.47</v>
       </c>
       <c r="G88" t="n">
-        <v>29244.02</v>
+        <v>-16570.43809999999</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>149</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
@@ -3904,22 +3898,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>148.2</v>
+        <v>149</v>
       </c>
       <c r="C89" t="n">
-        <v>148.2</v>
+        <v>149.8</v>
       </c>
       <c r="D89" t="n">
-        <v>148.2</v>
+        <v>149.8</v>
       </c>
       <c r="E89" t="n">
-        <v>148.2</v>
+        <v>149</v>
       </c>
       <c r="F89" t="n">
-        <v>1265</v>
+        <v>1972.6031</v>
       </c>
       <c r="G89" t="n">
-        <v>29244.02</v>
+        <v>-14597.83499999999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3944,22 +3938,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>148.2</v>
+        <v>149.8</v>
       </c>
       <c r="C90" t="n">
-        <v>148.2</v>
+        <v>149</v>
       </c>
       <c r="D90" t="n">
-        <v>148.2</v>
+        <v>149.8</v>
       </c>
       <c r="E90" t="n">
-        <v>148.2</v>
+        <v>149</v>
       </c>
       <c r="F90" t="n">
-        <v>1265</v>
+        <v>4991.744</v>
       </c>
       <c r="G90" t="n">
-        <v>29244.02</v>
+        <v>-19589.57899999999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3984,22 +3978,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>148.1</v>
+        <v>149.6</v>
       </c>
       <c r="C91" t="n">
-        <v>148.1</v>
+        <v>149.6</v>
       </c>
       <c r="D91" t="n">
-        <v>148.1</v>
+        <v>149.6</v>
       </c>
       <c r="E91" t="n">
-        <v>148.1</v>
+        <v>149.6</v>
       </c>
       <c r="F91" t="n">
-        <v>52.7372</v>
+        <v>2662.2052</v>
       </c>
       <c r="G91" t="n">
-        <v>29191.2828</v>
+        <v>-16927.37379999999</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4024,22 +4018,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>148.8</v>
+        <v>149.6</v>
       </c>
       <c r="C92" t="n">
-        <v>148.8</v>
+        <v>149.6</v>
       </c>
       <c r="D92" t="n">
-        <v>148.8</v>
+        <v>149.6</v>
       </c>
       <c r="E92" t="n">
-        <v>148.8</v>
+        <v>149.6</v>
       </c>
       <c r="F92" t="n">
-        <v>381.114</v>
+        <v>591.2987000000001</v>
       </c>
       <c r="G92" t="n">
-        <v>29572.39680000001</v>
+        <v>-16927.37379999999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4064,22 +4058,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>149</v>
+        <v>149.6</v>
       </c>
       <c r="C93" t="n">
-        <v>149</v>
+        <v>149.6</v>
       </c>
       <c r="D93" t="n">
-        <v>149</v>
+        <v>149.6</v>
       </c>
       <c r="E93" t="n">
-        <v>149</v>
+        <v>149.6</v>
       </c>
       <c r="F93" t="n">
-        <v>1254.2847</v>
+        <v>157.7328</v>
       </c>
       <c r="G93" t="n">
-        <v>30826.68150000001</v>
+        <v>-16927.37379999999</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4104,22 +4098,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>148.9</v>
+        <v>149.6</v>
       </c>
       <c r="C94" t="n">
-        <v>149</v>
+        <v>149.6</v>
       </c>
       <c r="D94" t="n">
-        <v>149</v>
+        <v>149.6</v>
       </c>
       <c r="E94" t="n">
-        <v>148.9</v>
+        <v>149.6</v>
       </c>
       <c r="F94" t="n">
-        <v>1953.5721</v>
+        <v>375</v>
       </c>
       <c r="G94" t="n">
-        <v>30826.68150000001</v>
+        <v>-16927.37379999999</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4144,22 +4138,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>148.5</v>
+        <v>149.6</v>
       </c>
       <c r="C95" t="n">
-        <v>148.5</v>
+        <v>149.6</v>
       </c>
       <c r="D95" t="n">
-        <v>148.5</v>
+        <v>149.6</v>
       </c>
       <c r="E95" t="n">
-        <v>148.5</v>
+        <v>149.6</v>
       </c>
       <c r="F95" t="n">
-        <v>202.999</v>
+        <v>228.8543</v>
       </c>
       <c r="G95" t="n">
-        <v>30623.68250000001</v>
+        <v>-16927.37379999999</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4187,19 +4181,19 @@
         <v>149</v>
       </c>
       <c r="C96" t="n">
-        <v>148.4</v>
+        <v>148.1</v>
       </c>
       <c r="D96" t="n">
         <v>149</v>
       </c>
       <c r="E96" t="n">
-        <v>148.4</v>
+        <v>148.1</v>
       </c>
       <c r="F96" t="n">
-        <v>770</v>
+        <v>1503</v>
       </c>
       <c r="G96" t="n">
-        <v>29853.68250000001</v>
+        <v>-18430.37379999999</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4227,19 +4221,19 @@
         <v>149</v>
       </c>
       <c r="C97" t="n">
-        <v>149</v>
+        <v>149.1</v>
       </c>
       <c r="D97" t="n">
-        <v>149</v>
+        <v>149.1</v>
       </c>
       <c r="E97" t="n">
         <v>149</v>
       </c>
       <c r="F97" t="n">
-        <v>1305</v>
+        <v>3526.7472</v>
       </c>
       <c r="G97" t="n">
-        <v>31158.68250000001</v>
+        <v>-14903.62659999999</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4264,22 +4258,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>149</v>
+        <v>148.2</v>
       </c>
       <c r="C98" t="n">
-        <v>149</v>
+        <v>148.2</v>
       </c>
       <c r="D98" t="n">
-        <v>149</v>
+        <v>148.2</v>
       </c>
       <c r="E98" t="n">
-        <v>149</v>
+        <v>148.2</v>
       </c>
       <c r="F98" t="n">
-        <v>2548</v>
+        <v>4218.7209</v>
       </c>
       <c r="G98" t="n">
-        <v>31158.68250000001</v>
+        <v>-19122.34749999999</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4304,30 +4298,32 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>149</v>
+        <v>149.9</v>
       </c>
       <c r="C99" t="n">
         <v>149</v>
       </c>
       <c r="D99" t="n">
-        <v>149</v>
+        <v>149.9</v>
       </c>
       <c r="E99" t="n">
         <v>149</v>
       </c>
       <c r="F99" t="n">
-        <v>23232.3888</v>
+        <v>3392.2528</v>
       </c>
       <c r="G99" t="n">
-        <v>31158.68250000001</v>
+        <v>-15730.09469999999</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>148.2</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
@@ -4344,22 +4340,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>149</v>
+        <v>149.9</v>
       </c>
       <c r="C100" t="n">
-        <v>149</v>
+        <v>149.9</v>
       </c>
       <c r="D100" t="n">
-        <v>149</v>
+        <v>149.9</v>
       </c>
       <c r="E100" t="n">
-        <v>149</v>
+        <v>149.9</v>
       </c>
       <c r="F100" t="n">
-        <v>382.8758</v>
+        <v>2130</v>
       </c>
       <c r="G100" t="n">
-        <v>31158.68250000001</v>
+        <v>-13600.09469999999</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4384,22 +4380,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>149</v>
+        <v>149.9</v>
       </c>
       <c r="C101" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D101" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E101" t="n">
-        <v>149</v>
+        <v>149.9</v>
       </c>
       <c r="F101" t="n">
-        <v>387.9997</v>
+        <v>5706.5985</v>
       </c>
       <c r="G101" t="n">
-        <v>31158.68250000001</v>
+        <v>-7893.496199999989</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4424,22 +4420,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>149.6</v>
+        <v>150</v>
       </c>
       <c r="C102" t="n">
-        <v>149.8</v>
+        <v>149.1</v>
       </c>
       <c r="D102" t="n">
-        <v>149.8</v>
+        <v>150</v>
       </c>
       <c r="E102" t="n">
-        <v>149.6</v>
+        <v>149.1</v>
       </c>
       <c r="F102" t="n">
-        <v>2154.91</v>
+        <v>2794.6867</v>
       </c>
       <c r="G102" t="n">
-        <v>33313.59250000001</v>
+        <v>-10688.18289999999</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4464,22 +4460,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>148.9</v>
+        <v>150</v>
       </c>
       <c r="C103" t="n">
-        <v>148.9</v>
+        <v>150</v>
       </c>
       <c r="D103" t="n">
-        <v>148.9</v>
+        <v>150</v>
       </c>
       <c r="E103" t="n">
-        <v>148.9</v>
+        <v>150</v>
       </c>
       <c r="F103" t="n">
-        <v>1256.1823</v>
+        <v>6650.0404</v>
       </c>
       <c r="G103" t="n">
-        <v>32057.41020000001</v>
+        <v>-4038.142499999989</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4504,22 +4500,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>148.9</v>
+        <v>150</v>
       </c>
       <c r="C104" t="n">
-        <v>148.9</v>
+        <v>150</v>
       </c>
       <c r="D104" t="n">
-        <v>148.9</v>
+        <v>150</v>
       </c>
       <c r="E104" t="n">
-        <v>148.9</v>
+        <v>150</v>
       </c>
       <c r="F104" t="n">
-        <v>30</v>
+        <v>910.8684</v>
       </c>
       <c r="G104" t="n">
-        <v>32057.41020000001</v>
+        <v>-4038.142499999989</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4544,22 +4540,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>148.9</v>
+        <v>150.5</v>
       </c>
       <c r="C105" t="n">
-        <v>149.7</v>
+        <v>150.5</v>
       </c>
       <c r="D105" t="n">
-        <v>149.7</v>
+        <v>150.5</v>
       </c>
       <c r="E105" t="n">
-        <v>148.9</v>
+        <v>150.5</v>
       </c>
       <c r="F105" t="n">
-        <v>2691</v>
+        <v>188</v>
       </c>
       <c r="G105" t="n">
-        <v>34748.41020000001</v>
+        <v>-3850.142499999989</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4584,22 +4580,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>149.8</v>
+        <v>150.6</v>
       </c>
       <c r="C106" t="n">
-        <v>149.8</v>
+        <v>149</v>
       </c>
       <c r="D106" t="n">
-        <v>149.8</v>
+        <v>150.6</v>
       </c>
       <c r="E106" t="n">
-        <v>149.8</v>
+        <v>149</v>
       </c>
       <c r="F106" t="n">
-        <v>918</v>
+        <v>1693.3859</v>
       </c>
       <c r="G106" t="n">
-        <v>35666.41020000001</v>
+        <v>-5543.528399999989</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4624,22 +4620,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>149.8</v>
+        <v>149</v>
       </c>
       <c r="C107" t="n">
-        <v>149.8</v>
+        <v>148.3</v>
       </c>
       <c r="D107" t="n">
-        <v>149.8</v>
+        <v>149</v>
       </c>
       <c r="E107" t="n">
-        <v>149.8</v>
+        <v>148.3</v>
       </c>
       <c r="F107" t="n">
-        <v>15.2408</v>
+        <v>14738.7501</v>
       </c>
       <c r="G107" t="n">
-        <v>35666.41020000001</v>
+        <v>-20282.27849999999</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4676,10 +4672,10 @@
         <v>149</v>
       </c>
       <c r="F108" t="n">
-        <v>3183.2636</v>
+        <v>2210.8125</v>
       </c>
       <c r="G108" t="n">
-        <v>32483.14660000001</v>
+        <v>-18071.46599999999</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4704,22 +4700,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>150</v>
+        <v>148.3</v>
       </c>
       <c r="C109" t="n">
-        <v>150</v>
+        <v>148.3</v>
       </c>
       <c r="D109" t="n">
-        <v>150</v>
+        <v>148.3</v>
       </c>
       <c r="E109" t="n">
-        <v>150</v>
+        <v>148.3</v>
       </c>
       <c r="F109" t="n">
-        <v>218.9002</v>
+        <v>5</v>
       </c>
       <c r="G109" t="n">
-        <v>32702.04680000001</v>
+        <v>-18076.46599999999</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4744,22 +4740,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>150.6</v>
+        <v>148.9</v>
       </c>
       <c r="C110" t="n">
-        <v>150.8</v>
+        <v>148.9</v>
       </c>
       <c r="D110" t="n">
-        <v>150.9</v>
+        <v>148.9</v>
       </c>
       <c r="E110" t="n">
-        <v>150.6</v>
+        <v>148.9</v>
       </c>
       <c r="F110" t="n">
-        <v>2117.597</v>
+        <v>522</v>
       </c>
       <c r="G110" t="n">
-        <v>34819.64380000001</v>
+        <v>-17554.46599999999</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4784,22 +4780,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>150.9</v>
+        <v>149</v>
       </c>
       <c r="C111" t="n">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D111" t="n">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E111" t="n">
-        <v>150.9</v>
+        <v>149</v>
       </c>
       <c r="F111" t="n">
-        <v>7621.7408</v>
+        <v>2000</v>
       </c>
       <c r="G111" t="n">
-        <v>42441.3846</v>
+        <v>-15554.46599999999</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4824,22 +4820,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>151.1</v>
+        <v>148.2</v>
       </c>
       <c r="C112" t="n">
-        <v>151.1</v>
+        <v>147.6</v>
       </c>
       <c r="D112" t="n">
-        <v>151.1</v>
+        <v>148.2</v>
       </c>
       <c r="E112" t="n">
-        <v>151.1</v>
+        <v>147.6</v>
       </c>
       <c r="F112" t="n">
-        <v>214.39</v>
+        <v>5.588</v>
       </c>
       <c r="G112" t="n">
-        <v>42655.7746</v>
+        <v>-15560.05399999999</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4864,37 +4860,41 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>151.1</v>
+        <v>147.7</v>
       </c>
       <c r="C113" t="n">
-        <v>151.1</v>
+        <v>149.1</v>
       </c>
       <c r="D113" t="n">
-        <v>151.1</v>
+        <v>149.1</v>
       </c>
       <c r="E113" t="n">
-        <v>151.1</v>
+        <v>147.7</v>
       </c>
       <c r="F113" t="n">
-        <v>485.61</v>
+        <v>3098.3026</v>
       </c>
       <c r="G113" t="n">
-        <v>42655.7746</v>
+        <v>-12461.75139999999</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>147.6</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M113" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
       <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
@@ -4902,32 +4902,36 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>151</v>
+        <v>149.1</v>
       </c>
       <c r="C114" t="n">
-        <v>151</v>
+        <v>149.1</v>
       </c>
       <c r="D114" t="n">
-        <v>151</v>
+        <v>149.1</v>
       </c>
       <c r="E114" t="n">
-        <v>151</v>
+        <v>149.1</v>
       </c>
       <c r="F114" t="n">
-        <v>1914.589</v>
+        <v>161</v>
       </c>
       <c r="G114" t="n">
-        <v>40741.1856</v>
+        <v>-12461.75139999999</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4938,32 +4942,36 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>151</v>
+        <v>147.6</v>
       </c>
       <c r="C115" t="n">
-        <v>151</v>
+        <v>147.6</v>
       </c>
       <c r="D115" t="n">
-        <v>151</v>
+        <v>147.6</v>
       </c>
       <c r="E115" t="n">
-        <v>151</v>
+        <v>147.6</v>
       </c>
       <c r="F115" t="n">
-        <v>125</v>
+        <v>9.48</v>
       </c>
       <c r="G115" t="n">
-        <v>40741.1856</v>
+        <v>-12471.23139999999</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4974,32 +4982,36 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C116" t="n">
-        <v>151</v>
+        <v>149.1</v>
       </c>
       <c r="D116" t="n">
-        <v>151</v>
+        <v>149.1</v>
       </c>
       <c r="E116" t="n">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F116" t="n">
-        <v>556.3424</v>
+        <v>3000</v>
       </c>
       <c r="G116" t="n">
-        <v>40741.1856</v>
+        <v>-9471.23139999999</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5010,32 +5022,36 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>150.2</v>
+        <v>149</v>
       </c>
       <c r="C117" t="n">
-        <v>150.2</v>
+        <v>149.1</v>
       </c>
       <c r="D117" t="n">
-        <v>150.2</v>
+        <v>149.1</v>
       </c>
       <c r="E117" t="n">
-        <v>150.2</v>
+        <v>149</v>
       </c>
       <c r="F117" t="n">
-        <v>897.4362</v>
+        <v>2900.1758</v>
       </c>
       <c r="G117" t="n">
-        <v>39843.74940000001</v>
+        <v>-9471.23139999999</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5046,32 +5062,36 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>150.9</v>
+        <v>149.2</v>
       </c>
       <c r="C118" t="n">
-        <v>150.9</v>
+        <v>149.2</v>
       </c>
       <c r="D118" t="n">
-        <v>150.9</v>
+        <v>149.2</v>
       </c>
       <c r="E118" t="n">
-        <v>150.9</v>
+        <v>149.2</v>
       </c>
       <c r="F118" t="n">
-        <v>287.8392</v>
+        <v>1267</v>
       </c>
       <c r="G118" t="n">
-        <v>40131.58860000001</v>
+        <v>-8204.23139999999</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5082,22 +5102,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>150.1</v>
+        <v>149.1</v>
       </c>
       <c r="C119" t="n">
-        <v>150</v>
+        <v>149.4</v>
       </c>
       <c r="D119" t="n">
-        <v>150.1</v>
+        <v>149.4</v>
       </c>
       <c r="E119" t="n">
-        <v>150</v>
+        <v>149.1</v>
       </c>
       <c r="F119" t="n">
-        <v>2860.7484</v>
+        <v>4579.8473</v>
       </c>
       <c r="G119" t="n">
-        <v>37270.84020000001</v>
+        <v>-3624.384099999989</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5107,11 +5127,2853 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
       <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="C120" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="D120" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="E120" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1104.1531</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-2520.230999999989</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>149</v>
+      </c>
+      <c r="C121" t="n">
+        <v>149</v>
+      </c>
+      <c r="D121" t="n">
+        <v>149</v>
+      </c>
+      <c r="E121" t="n">
+        <v>149</v>
+      </c>
+      <c r="F121" t="n">
+        <v>8</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-2528.230999999989</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>149.6</v>
+      </c>
+      <c r="C122" t="n">
+        <v>149.7</v>
+      </c>
+      <c r="D122" t="n">
+        <v>149.7</v>
+      </c>
+      <c r="E122" t="n">
+        <v>149.6</v>
+      </c>
+      <c r="F122" t="n">
+        <v>77.77</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-2450.460999999989</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>149.4</v>
+      </c>
+      <c r="C123" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="D123" t="n">
+        <v>149.4</v>
+      </c>
+      <c r="E123" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="F123" t="n">
+        <v>669.9807</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-3120.441699999989</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="C124" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="D124" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="E124" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="F124" t="n">
+        <v>2204.644</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-3120.441699999989</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>148</v>
+      </c>
+      <c r="C125" t="n">
+        <v>147</v>
+      </c>
+      <c r="D125" t="n">
+        <v>148</v>
+      </c>
+      <c r="E125" t="n">
+        <v>147</v>
+      </c>
+      <c r="F125" t="n">
+        <v>4200</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-7320.441699999989</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>147.3</v>
+      </c>
+      <c r="C126" t="n">
+        <v>147.2</v>
+      </c>
+      <c r="D126" t="n">
+        <v>147.3</v>
+      </c>
+      <c r="E126" t="n">
+        <v>147.2</v>
+      </c>
+      <c r="F126" t="n">
+        <v>11527.4004</v>
+      </c>
+      <c r="G126" t="n">
+        <v>4206.958700000011</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="C127" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="D127" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="E127" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="F127" t="n">
+        <v>250</v>
+      </c>
+      <c r="G127" t="n">
+        <v>4456.958700000011</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="C128" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="D128" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="E128" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="F128" t="n">
+        <v>76</v>
+      </c>
+      <c r="G128" t="n">
+        <v>4456.958700000011</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="C129" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="D129" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="E129" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="F129" t="n">
+        <v>8199.967699999999</v>
+      </c>
+      <c r="G129" t="n">
+        <v>4456.958700000011</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="C130" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="D130" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="E130" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="F130" t="n">
+        <v>3072.5298</v>
+      </c>
+      <c r="G130" t="n">
+        <v>4456.958700000011</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="C131" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="D131" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="E131" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1485.5384</v>
+      </c>
+      <c r="G131" t="n">
+        <v>4456.958700000011</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="C132" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="D132" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="E132" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="F132" t="n">
+        <v>134.8118</v>
+      </c>
+      <c r="G132" t="n">
+        <v>4456.958700000011</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="C133" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="D133" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="E133" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="F133" t="n">
+        <v>120.3758</v>
+      </c>
+      <c r="G133" t="n">
+        <v>4456.958700000011</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>147.1</v>
+      </c>
+      <c r="C134" t="n">
+        <v>147.1</v>
+      </c>
+      <c r="D134" t="n">
+        <v>147.1</v>
+      </c>
+      <c r="E134" t="n">
+        <v>147.1</v>
+      </c>
+      <c r="F134" t="n">
+        <v>52.3034</v>
+      </c>
+      <c r="G134" t="n">
+        <v>4404.655300000011</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>147.2</v>
+      </c>
+      <c r="C135" t="n">
+        <v>148</v>
+      </c>
+      <c r="D135" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="E135" t="n">
+        <v>147.2</v>
+      </c>
+      <c r="F135" t="n">
+        <v>3821</v>
+      </c>
+      <c r="G135" t="n">
+        <v>8225.655300000011</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="C136" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="D136" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="E136" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="F136" t="n">
+        <v>20253.1188</v>
+      </c>
+      <c r="G136" t="n">
+        <v>28478.77410000001</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="C137" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="D137" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="E137" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="F137" t="n">
+        <v>3881.6002</v>
+      </c>
+      <c r="G137" t="n">
+        <v>28478.77410000001</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="C138" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="D138" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="E138" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2076.1073</v>
+      </c>
+      <c r="G138" t="n">
+        <v>28478.77410000001</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>147.1</v>
+      </c>
+      <c r="C139" t="n">
+        <v>147</v>
+      </c>
+      <c r="D139" t="n">
+        <v>147.1</v>
+      </c>
+      <c r="E139" t="n">
+        <v>147</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2778.2707</v>
+      </c>
+      <c r="G139" t="n">
+        <v>25700.50340000001</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>147.1</v>
+      </c>
+      <c r="C140" t="n">
+        <v>148.3</v>
+      </c>
+      <c r="D140" t="n">
+        <v>148.3</v>
+      </c>
+      <c r="E140" t="n">
+        <v>147.1</v>
+      </c>
+      <c r="F140" t="n">
+        <v>4873.7832</v>
+      </c>
+      <c r="G140" t="n">
+        <v>30574.28660000001</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="C141" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="D141" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="E141" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="F141" t="n">
+        <v>745</v>
+      </c>
+      <c r="G141" t="n">
+        <v>31319.28660000001</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>147.8</v>
+      </c>
+      <c r="C142" t="n">
+        <v>147.8</v>
+      </c>
+      <c r="D142" t="n">
+        <v>147.8</v>
+      </c>
+      <c r="E142" t="n">
+        <v>147.8</v>
+      </c>
+      <c r="F142" t="n">
+        <v>20</v>
+      </c>
+      <c r="G142" t="n">
+        <v>31299.28660000001</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>147.8</v>
+      </c>
+      <c r="C143" t="n">
+        <v>147.8</v>
+      </c>
+      <c r="D143" t="n">
+        <v>147.8</v>
+      </c>
+      <c r="E143" t="n">
+        <v>147.8</v>
+      </c>
+      <c r="F143" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="G143" t="n">
+        <v>31299.28660000001</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>146.1</v>
+      </c>
+      <c r="C144" t="n">
+        <v>146.1</v>
+      </c>
+      <c r="D144" t="n">
+        <v>146.1</v>
+      </c>
+      <c r="E144" t="n">
+        <v>146.1</v>
+      </c>
+      <c r="F144" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G144" t="n">
+        <v>31295.78660000001</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>147.8</v>
+      </c>
+      <c r="C145" t="n">
+        <v>147.8</v>
+      </c>
+      <c r="D145" t="n">
+        <v>147.8</v>
+      </c>
+      <c r="E145" t="n">
+        <v>147.8</v>
+      </c>
+      <c r="F145" t="n">
+        <v>73.614</v>
+      </c>
+      <c r="G145" t="n">
+        <v>31369.40060000001</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>148.6</v>
+      </c>
+      <c r="C146" t="n">
+        <v>148.6</v>
+      </c>
+      <c r="D146" t="n">
+        <v>148.6</v>
+      </c>
+      <c r="E146" t="n">
+        <v>148.6</v>
+      </c>
+      <c r="F146" t="n">
+        <v>73</v>
+      </c>
+      <c r="G146" t="n">
+        <v>31442.40060000001</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>148</v>
+      </c>
+      <c r="C147" t="n">
+        <v>148</v>
+      </c>
+      <c r="D147" t="n">
+        <v>148</v>
+      </c>
+      <c r="E147" t="n">
+        <v>148</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2956.8202</v>
+      </c>
+      <c r="G147" t="n">
+        <v>28485.58040000001</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>148</v>
+      </c>
+      <c r="C148" t="n">
+        <v>148</v>
+      </c>
+      <c r="D148" t="n">
+        <v>148</v>
+      </c>
+      <c r="E148" t="n">
+        <v>148</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1964.343</v>
+      </c>
+      <c r="G148" t="n">
+        <v>28485.58040000001</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>148</v>
+      </c>
+      <c r="C149" t="n">
+        <v>148.3</v>
+      </c>
+      <c r="D149" t="n">
+        <v>149</v>
+      </c>
+      <c r="E149" t="n">
+        <v>148</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1458.71</v>
+      </c>
+      <c r="G149" t="n">
+        <v>29944.29040000001</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>148.3</v>
+      </c>
+      <c r="C150" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="D150" t="n">
+        <v>148.3</v>
+      </c>
+      <c r="E150" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="F150" t="n">
+        <v>470.5335</v>
+      </c>
+      <c r="G150" t="n">
+        <v>29473.7569</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>149</v>
+      </c>
+      <c r="C151" t="n">
+        <v>149</v>
+      </c>
+      <c r="D151" t="n">
+        <v>149</v>
+      </c>
+      <c r="E151" t="n">
+        <v>149</v>
+      </c>
+      <c r="F151" t="n">
+        <v>560.8654</v>
+      </c>
+      <c r="G151" t="n">
+        <v>30034.6223</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="C152" t="n">
+        <v>148</v>
+      </c>
+      <c r="D152" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="E152" t="n">
+        <v>148</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2391</v>
+      </c>
+      <c r="G152" t="n">
+        <v>27643.6223</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="C153" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="D153" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="E153" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="F153" t="n">
+        <v>608</v>
+      </c>
+      <c r="G153" t="n">
+        <v>28251.6223</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>148.6</v>
+      </c>
+      <c r="C154" t="n">
+        <v>148.6</v>
+      </c>
+      <c r="D154" t="n">
+        <v>148.6</v>
+      </c>
+      <c r="E154" t="n">
+        <v>148.6</v>
+      </c>
+      <c r="F154" t="n">
+        <v>320</v>
+      </c>
+      <c r="G154" t="n">
+        <v>28571.6223</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>148.6</v>
+      </c>
+      <c r="C155" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="D155" t="n">
+        <v>149.6</v>
+      </c>
+      <c r="E155" t="n">
+        <v>148.6</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1269.911</v>
+      </c>
+      <c r="G155" t="n">
+        <v>29841.5333</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="C156" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="D156" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="E156" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="F156" t="n">
+        <v>597.5133</v>
+      </c>
+      <c r="G156" t="n">
+        <v>29244.02</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="C157" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="D157" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="E157" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="F157" t="n">
+        <v>503.2466</v>
+      </c>
+      <c r="G157" t="n">
+        <v>29244.02</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>149</v>
+      </c>
+      <c r="C158" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="D158" t="n">
+        <v>149</v>
+      </c>
+      <c r="E158" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="F158" t="n">
+        <v>10133.7773</v>
+      </c>
+      <c r="G158" t="n">
+        <v>29244.02</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="C159" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="D159" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="E159" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="F159" t="n">
+        <v>107.9</v>
+      </c>
+      <c r="G159" t="n">
+        <v>29244.02</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="C160" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="D160" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="E160" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1265</v>
+      </c>
+      <c r="G160" t="n">
+        <v>29244.02</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="C161" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="D161" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="E161" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1265</v>
+      </c>
+      <c r="G161" t="n">
+        <v>29244.02</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="C162" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="D162" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="E162" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="F162" t="n">
+        <v>52.7372</v>
+      </c>
+      <c r="G162" t="n">
+        <v>29191.2828</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>148.8</v>
+      </c>
+      <c r="C163" t="n">
+        <v>148.8</v>
+      </c>
+      <c r="D163" t="n">
+        <v>148.8</v>
+      </c>
+      <c r="E163" t="n">
+        <v>148.8</v>
+      </c>
+      <c r="F163" t="n">
+        <v>381.114</v>
+      </c>
+      <c r="G163" t="n">
+        <v>29572.39680000001</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>149</v>
+      </c>
+      <c r="C164" t="n">
+        <v>149</v>
+      </c>
+      <c r="D164" t="n">
+        <v>149</v>
+      </c>
+      <c r="E164" t="n">
+        <v>149</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1254.2847</v>
+      </c>
+      <c r="G164" t="n">
+        <v>30826.68150000001</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="C165" t="n">
+        <v>149</v>
+      </c>
+      <c r="D165" t="n">
+        <v>149</v>
+      </c>
+      <c r="E165" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1953.5721</v>
+      </c>
+      <c r="G165" t="n">
+        <v>30826.68150000001</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="C166" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="D166" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="E166" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="F166" t="n">
+        <v>202.999</v>
+      </c>
+      <c r="G166" t="n">
+        <v>30623.68250000001</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>149</v>
+      </c>
+      <c r="C167" t="n">
+        <v>148.4</v>
+      </c>
+      <c r="D167" t="n">
+        <v>149</v>
+      </c>
+      <c r="E167" t="n">
+        <v>148.4</v>
+      </c>
+      <c r="F167" t="n">
+        <v>770</v>
+      </c>
+      <c r="G167" t="n">
+        <v>29853.68250000001</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>149</v>
+      </c>
+      <c r="C168" t="n">
+        <v>149</v>
+      </c>
+      <c r="D168" t="n">
+        <v>149</v>
+      </c>
+      <c r="E168" t="n">
+        <v>149</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1305</v>
+      </c>
+      <c r="G168" t="n">
+        <v>31158.68250000001</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>149</v>
+      </c>
+      <c r="C169" t="n">
+        <v>149</v>
+      </c>
+      <c r="D169" t="n">
+        <v>149</v>
+      </c>
+      <c r="E169" t="n">
+        <v>149</v>
+      </c>
+      <c r="F169" t="n">
+        <v>2548</v>
+      </c>
+      <c r="G169" t="n">
+        <v>31158.68250000001</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>149</v>
+      </c>
+      <c r="C170" t="n">
+        <v>149</v>
+      </c>
+      <c r="D170" t="n">
+        <v>149</v>
+      </c>
+      <c r="E170" t="n">
+        <v>149</v>
+      </c>
+      <c r="F170" t="n">
+        <v>23232.3888</v>
+      </c>
+      <c r="G170" t="n">
+        <v>31158.68250000001</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>149</v>
+      </c>
+      <c r="C171" t="n">
+        <v>149</v>
+      </c>
+      <c r="D171" t="n">
+        <v>149</v>
+      </c>
+      <c r="E171" t="n">
+        <v>149</v>
+      </c>
+      <c r="F171" t="n">
+        <v>382.8758</v>
+      </c>
+      <c r="G171" t="n">
+        <v>31158.68250000001</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>149</v>
+      </c>
+      <c r="C172" t="n">
+        <v>149</v>
+      </c>
+      <c r="D172" t="n">
+        <v>149</v>
+      </c>
+      <c r="E172" t="n">
+        <v>149</v>
+      </c>
+      <c r="F172" t="n">
+        <v>387.9997</v>
+      </c>
+      <c r="G172" t="n">
+        <v>31158.68250000001</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>149.6</v>
+      </c>
+      <c r="C173" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="D173" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="E173" t="n">
+        <v>149.6</v>
+      </c>
+      <c r="F173" t="n">
+        <v>2154.91</v>
+      </c>
+      <c r="G173" t="n">
+        <v>33313.59250000001</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="C174" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="D174" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="E174" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1256.1823</v>
+      </c>
+      <c r="G174" t="n">
+        <v>32057.41020000001</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="C175" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="D175" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="E175" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="F175" t="n">
+        <v>30</v>
+      </c>
+      <c r="G175" t="n">
+        <v>32057.41020000001</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="C176" t="n">
+        <v>149.7</v>
+      </c>
+      <c r="D176" t="n">
+        <v>149.7</v>
+      </c>
+      <c r="E176" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="F176" t="n">
+        <v>2691</v>
+      </c>
+      <c r="G176" t="n">
+        <v>34748.41020000001</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="C177" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="D177" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="E177" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="F177" t="n">
+        <v>918</v>
+      </c>
+      <c r="G177" t="n">
+        <v>35666.41020000001</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="C178" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="D178" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="E178" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="F178" t="n">
+        <v>15.2408</v>
+      </c>
+      <c r="G178" t="n">
+        <v>35666.41020000001</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>149</v>
+      </c>
+      <c r="C179" t="n">
+        <v>149</v>
+      </c>
+      <c r="D179" t="n">
+        <v>149</v>
+      </c>
+      <c r="E179" t="n">
+        <v>149</v>
+      </c>
+      <c r="F179" t="n">
+        <v>3183.2636</v>
+      </c>
+      <c r="G179" t="n">
+        <v>32483.14660000001</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>150</v>
+      </c>
+      <c r="C180" t="n">
+        <v>150</v>
+      </c>
+      <c r="D180" t="n">
+        <v>150</v>
+      </c>
+      <c r="E180" t="n">
+        <v>150</v>
+      </c>
+      <c r="F180" t="n">
+        <v>218.9002</v>
+      </c>
+      <c r="G180" t="n">
+        <v>32702.04680000001</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>150.6</v>
+      </c>
+      <c r="C181" t="n">
+        <v>150.8</v>
+      </c>
+      <c r="D181" t="n">
+        <v>150.9</v>
+      </c>
+      <c r="E181" t="n">
+        <v>150.6</v>
+      </c>
+      <c r="F181" t="n">
+        <v>2117.597</v>
+      </c>
+      <c r="G181" t="n">
+        <v>34819.64380000001</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>150.9</v>
+      </c>
+      <c r="C182" t="n">
+        <v>151</v>
+      </c>
+      <c r="D182" t="n">
+        <v>151</v>
+      </c>
+      <c r="E182" t="n">
+        <v>150.9</v>
+      </c>
+      <c r="F182" t="n">
+        <v>7621.7408</v>
+      </c>
+      <c r="G182" t="n">
+        <v>42441.3846</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="C183" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="D183" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="E183" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="F183" t="n">
+        <v>214.39</v>
+      </c>
+      <c r="G183" t="n">
+        <v>42655.7746</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="C184" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="D184" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="E184" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="F184" t="n">
+        <v>485.61</v>
+      </c>
+      <c r="G184" t="n">
+        <v>42655.7746</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>151</v>
+      </c>
+      <c r="C185" t="n">
+        <v>151</v>
+      </c>
+      <c r="D185" t="n">
+        <v>151</v>
+      </c>
+      <c r="E185" t="n">
+        <v>151</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1914.589</v>
+      </c>
+      <c r="G185" t="n">
+        <v>40741.1856</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>151</v>
+      </c>
+      <c r="C186" t="n">
+        <v>151</v>
+      </c>
+      <c r="D186" t="n">
+        <v>151</v>
+      </c>
+      <c r="E186" t="n">
+        <v>151</v>
+      </c>
+      <c r="F186" t="n">
+        <v>125</v>
+      </c>
+      <c r="G186" t="n">
+        <v>40741.1856</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>151</v>
+      </c>
+      <c r="C187" t="n">
+        <v>151</v>
+      </c>
+      <c r="D187" t="n">
+        <v>151</v>
+      </c>
+      <c r="E187" t="n">
+        <v>151</v>
+      </c>
+      <c r="F187" t="n">
+        <v>556.3424</v>
+      </c>
+      <c r="G187" t="n">
+        <v>40741.1856</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>150.2</v>
+      </c>
+      <c r="C188" t="n">
+        <v>150.2</v>
+      </c>
+      <c r="D188" t="n">
+        <v>150.2</v>
+      </c>
+      <c r="E188" t="n">
+        <v>150.2</v>
+      </c>
+      <c r="F188" t="n">
+        <v>897.4362</v>
+      </c>
+      <c r="G188" t="n">
+        <v>39843.74940000001</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>150.9</v>
+      </c>
+      <c r="C189" t="n">
+        <v>150.9</v>
+      </c>
+      <c r="D189" t="n">
+        <v>150.9</v>
+      </c>
+      <c r="E189" t="n">
+        <v>150.9</v>
+      </c>
+      <c r="F189" t="n">
+        <v>287.8392</v>
+      </c>
+      <c r="G189" t="n">
+        <v>40131.58860000001</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>150.1</v>
+      </c>
+      <c r="C190" t="n">
+        <v>150</v>
+      </c>
+      <c r="D190" t="n">
+        <v>150.1</v>
+      </c>
+      <c r="E190" t="n">
+        <v>150</v>
+      </c>
+      <c r="F190" t="n">
+        <v>2860.7484</v>
+      </c>
+      <c r="G190" t="n">
+        <v>37270.84020000001</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>1</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-13 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-13 BackTest STEEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N190"/>
+  <dimension ref="A1:M190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-14100.0461</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>-10780.6715</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>-10655.6715</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,24 +1012,15 @@
         <v>-32669.589</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>147.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1110,24 +1045,15 @@
         <v>-31830.1035</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>146.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1152,24 +1078,15 @@
         <v>-32155.1086</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>149.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1194,24 +1111,15 @@
         <v>-29155.1096</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>148.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1238,20 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1278,20 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1318,20 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1358,20 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1398,20 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1436,24 +1309,15 @@
         <v>-28188.4117</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>148.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1478,24 +1342,15 @@
         <v>-27645.4117</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>148.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1522,20 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1562,20 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1602,20 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1642,20 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1680,24 +1507,15 @@
         <v>-29555.3148</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>146.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1724,20 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1764,20 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1804,20 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1844,20 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1884,20 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1924,20 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1964,20 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2004,20 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2044,20 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2084,20 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2124,20 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2164,20 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2204,20 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2244,20 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2284,20 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2324,20 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2364,20 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2404,20 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2444,20 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2484,20 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2524,20 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2564,20 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2604,20 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2644,20 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2684,20 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2724,20 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2764,20 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2804,20 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2844,20 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2884,20 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2924,20 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2964,20 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3004,20 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3042,22 +2629,19 @@
         <v>-74545.4105</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
+        <v>144.5</v>
+      </c>
+      <c r="J68" t="n">
+        <v>144.5</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3084,20 +2668,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>144.5</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3122,24 +2705,21 @@
         <v>-70447.4105</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+        <v>144.5</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3164,24 +2744,15 @@
         <v>-54351.6109</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>146.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3206,24 +2777,15 @@
         <v>-54351.6109</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>147.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3248,24 +2810,15 @@
         <v>-54351.6109</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>147.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3290,24 +2843,15 @@
         <v>-54351.6109</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>147.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3332,24 +2876,19 @@
         <v>-54460.0335</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>147.9</v>
       </c>
       <c r="J75" t="n">
         <v>147.9</v>
       </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3374,24 +2913,23 @@
         <v>-41232.81819999999</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>146.7</v>
       </c>
       <c r="J76" t="n">
-        <v>146.7</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+        <v>147.9</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3416,24 +2954,23 @@
         <v>-41202.8573</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="J77" t="n">
-        <v>147</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+        <v>147.9</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3458,24 +2995,19 @@
         <v>-41202.8573</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="J78" t="n">
         <v>148</v>
       </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3500,24 +3032,21 @@
         <v>-27684.619</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
         <v>148</v>
       </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3542,24 +3071,21 @@
         <v>-34738.0971</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+        <v>148</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3584,24 +3110,21 @@
         <v>-33704.0971</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>147.5</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+        <v>148</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3626,24 +3149,21 @@
         <v>-36602.8705</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>149</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+        <v>148</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3668,24 +3188,21 @@
         <v>-30757.281</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>148.9</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+        <v>148</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3712,20 +3229,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>148</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3752,20 +3268,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>148</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3790,24 +3305,21 @@
         <v>-33874.64639999999</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>148.6</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+        <v>148</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3832,24 +3344,21 @@
         <v>-29007.90809999999</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>147.6</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+        <v>148</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3874,24 +3383,21 @@
         <v>-16570.43809999999</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>149</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+        <v>148</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3918,20 +3424,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>148</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3958,20 +3463,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>148</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3998,20 +3502,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>148</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4038,20 +3541,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>148</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4078,20 +3580,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>148</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4118,20 +3619,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>148</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4158,20 +3658,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>148</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4198,20 +3697,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>148</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4238,20 +3736,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>148</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4278,20 +3775,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>148</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4316,24 +3812,21 @@
         <v>-15730.09469999999</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>148.2</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+        <v>148</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4360,20 +3853,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>148</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4400,20 +3892,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>148</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4440,20 +3931,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>148</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4480,20 +3970,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>148</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4520,20 +4009,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>148</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4560,20 +4048,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>148</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4600,20 +4087,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>148</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4640,20 +4126,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>148</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4680,20 +4165,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>148</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4718,22 +4202,23 @@
         <v>-18076.46599999999</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+        <v>149</v>
+      </c>
+      <c r="J109" t="n">
+        <v>148</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4758,22 +4243,23 @@
         <v>-17554.46599999999</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+        <v>148.3</v>
+      </c>
+      <c r="J110" t="n">
+        <v>148</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4800,20 +4286,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>148</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4840,20 +4325,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>148</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4878,24 +4362,21 @@
         <v>-12461.75139999999</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>147.6</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+        <v>148</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4922,20 +4403,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>148</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4960,22 +4440,23 @@
         <v>-12471.23139999999</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+        <v>149.1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>148</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5000,22 +4481,23 @@
         <v>-9471.23139999999</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+        <v>147.6</v>
+      </c>
+      <c r="J116" t="n">
+        <v>148</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5040,22 +4522,23 @@
         <v>-9471.23139999999</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+        <v>149.1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>148</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5082,20 +4565,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>148</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5122,20 +4604,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>148</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5162,20 +4643,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>148</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5202,20 +4682,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>148</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5240,22 +4719,23 @@
         <v>-2450.460999999989</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+        <v>149</v>
+      </c>
+      <c r="J122" t="n">
+        <v>148</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5280,22 +4760,23 @@
         <v>-3120.441699999989</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+        <v>149.7</v>
+      </c>
+      <c r="J123" t="n">
+        <v>148</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5320,22 +4801,23 @@
         <v>-3120.441699999989</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+        <v>148.1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>148</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5360,22 +4842,23 @@
         <v>-7320.441699999989</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+        <v>148.1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>148</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5400,22 +4883,23 @@
         <v>4206.958700000011</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+        <v>147</v>
+      </c>
+      <c r="J126" t="n">
+        <v>148</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5440,22 +4924,23 @@
         <v>4456.958700000011</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+        <v>147.2</v>
+      </c>
+      <c r="J127" t="n">
+        <v>148</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5480,22 +4965,23 @@
         <v>4456.958700000011</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+        <v>148.1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>148</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5520,22 +5006,23 @@
         <v>4456.958700000011</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+        <v>148.1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>148</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5562,20 +5049,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>148</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5600,22 +5086,23 @@
         <v>4456.958700000011</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+        <v>148.1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>148</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5640,22 +5127,23 @@
         <v>4456.958700000011</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+        <v>148.1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>148</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5680,22 +5168,23 @@
         <v>4456.958700000011</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+        <v>148.1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>148</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5720,22 +5209,23 @@
         <v>4404.655300000011</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+        <v>148.1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>148</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5762,20 +5252,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>148</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5800,22 +5289,23 @@
         <v>28478.77410000001</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+        <v>148</v>
+      </c>
+      <c r="J136" t="n">
+        <v>148</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5842,20 +5332,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>148</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5882,20 +5371,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>148</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5922,20 +5410,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>148</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5962,20 +5449,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>148</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6002,20 +5488,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>148</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6042,20 +5527,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>148</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6082,20 +5566,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>148</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6122,20 +5605,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>148</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6162,20 +5644,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>148</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6200,22 +5681,23 @@
         <v>31442.40060000001</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+        <v>147.8</v>
+      </c>
+      <c r="J146" t="n">
+        <v>148</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6242,20 +5724,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>148</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6282,20 +5763,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>148</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6322,20 +5802,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>148</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6362,20 +5841,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>148</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6402,20 +5880,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>148</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6442,20 +5919,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>148</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6482,20 +5958,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>148</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6522,20 +5997,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>148</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6562,20 +6036,19 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>148</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6602,20 +6075,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>148</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6642,20 +6114,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>148</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6682,20 +6153,19 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>148</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6722,20 +6192,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>148</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6762,20 +6231,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>148</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6802,20 +6270,19 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>148</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6842,20 +6309,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>148</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6882,20 +6348,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>148</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6922,20 +6387,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>148</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6962,20 +6426,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>148</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7002,20 +6465,19 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>148</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7042,20 +6504,19 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>148</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7082,20 +6543,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>148</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7122,20 +6582,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>148</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7162,20 +6621,19 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>148</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7202,20 +6660,19 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>148</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7242,20 +6699,19 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>148</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7282,20 +6738,19 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>148</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7322,20 +6777,19 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>148</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7362,20 +6816,19 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>148</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7402,20 +6855,19 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>148</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7442,20 +6894,19 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>148</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7482,20 +6933,19 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>148</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7522,20 +6972,19 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>148</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7562,20 +7011,19 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>148</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7600,22 +7048,21 @@
         <v>34819.64380000001</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>148</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1.013918918918919</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7640,22 +7087,15 @@
         <v>42441.3846</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7680,22 +7120,15 @@
         <v>42655.7746</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7720,22 +7153,15 @@
         <v>42655.7746</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7760,22 +7186,15 @@
         <v>40741.1856</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7800,22 +7219,15 @@
         <v>40741.1856</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7840,22 +7252,15 @@
         <v>40741.1856</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7880,22 +7285,15 @@
         <v>39843.74940000001</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7920,22 +7318,15 @@
         <v>40131.58860000001</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7962,20 +7353,15 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>1</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L190" t="n">
+        <v>1</v>
       </c>
       <c r="M190" t="inlineStr"/>
-      <c r="N190" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-13 BackTest STEEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-14100.0461</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-14656.9941</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-14656.9941</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-10420.4564</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-10420.4564</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-10780.6715</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-10905.6715</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-10655.6715</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-8532.620799999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-8829.628099999998</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-8819.628099999998</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-8819.628099999998</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-8819.628099999998</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-8211.506099999999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-14081.2807</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-14081.2807</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-29048.6905</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-32669.589</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-31830.1035</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-32155.1086</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -2629,14 +2629,10 @@
         <v>-74545.4105</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>144.5</v>
-      </c>
-      <c r="J68" t="n">
-        <v>144.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
@@ -2669,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>144.5</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2708,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>144.5</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2777,10 +2761,14 @@
         <v>-54351.6109</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>147.9</v>
+      </c>
+      <c r="J72" t="n">
+        <v>147.9</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
@@ -2810,11 +2798,19 @@
         <v>-54351.6109</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>147.9</v>
+      </c>
+      <c r="J73" t="n">
+        <v>147.9</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2843,11 +2839,19 @@
         <v>-54351.6109</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>147.9</v>
+      </c>
+      <c r="J74" t="n">
+        <v>147.9</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2876,7 +2880,7 @@
         <v>-54460.0335</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>147.9</v>
@@ -2913,7 +2917,7 @@
         <v>-41232.81819999999</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>146.7</v>
@@ -2954,11 +2958,9 @@
         <v>-41202.8573</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="n">
-        <v>147</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
         <v>147.9</v>
       </c>
@@ -2995,14 +2997,10 @@
         <v>-41202.8573</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="n">
-        <v>148</v>
-      </c>
-      <c r="J78" t="n">
-        <v>148</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
@@ -3035,14 +3033,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>148</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3074,14 +3066,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>148</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3113,14 +3099,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>148</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3152,14 +3132,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>148</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3191,14 +3165,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>148</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3230,14 +3198,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>148</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3269,14 +3231,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>148</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3308,14 +3264,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>148</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3347,14 +3297,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>148</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3386,14 +3330,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>148</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3425,14 +3363,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>148</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3464,14 +3396,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>148</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3503,14 +3429,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>148</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3542,14 +3462,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>148</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3581,14 +3495,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>148</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3620,14 +3528,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>148</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3659,14 +3561,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>148</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3698,14 +3594,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>148</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3737,14 +3627,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>148</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3776,14 +3660,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>148</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3815,14 +3693,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>148</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3854,14 +3726,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>148</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3893,14 +3759,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>148</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3932,14 +3792,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>148</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3971,14 +3825,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>148</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4010,14 +3858,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>148</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4049,14 +3891,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>148</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4088,14 +3924,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>148</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4127,14 +3957,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>148</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4166,14 +3990,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>148</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4202,19 +4020,11 @@
         <v>-18076.46599999999</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I109" t="n">
-        <v>149</v>
-      </c>
-      <c r="J109" t="n">
-        <v>148</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4243,19 +4053,11 @@
         <v>-17554.46599999999</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="n">
-        <v>148.3</v>
-      </c>
-      <c r="J110" t="n">
-        <v>148</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4287,14 +4089,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>148</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4326,14 +4122,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>148</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4365,14 +4155,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>148</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4404,14 +4188,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>148</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4440,19 +4218,11 @@
         <v>-12471.23139999999</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="n">
-        <v>149.1</v>
-      </c>
-      <c r="J115" t="n">
-        <v>148</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4481,19 +4251,11 @@
         <v>-9471.23139999999</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="n">
-        <v>147.6</v>
-      </c>
-      <c r="J116" t="n">
-        <v>148</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4522,19 +4284,11 @@
         <v>-9471.23139999999</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
-      </c>
-      <c r="I117" t="n">
-        <v>149.1</v>
-      </c>
-      <c r="J117" t="n">
-        <v>148</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4566,14 +4320,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>148</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4605,14 +4353,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>148</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4644,14 +4386,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>148</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4683,14 +4419,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>148</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4719,19 +4449,11 @@
         <v>-2450.460999999989</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I122" t="n">
-        <v>149</v>
-      </c>
-      <c r="J122" t="n">
-        <v>148</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4760,19 +4482,11 @@
         <v>-3120.441699999989</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="n">
-        <v>149.7</v>
-      </c>
-      <c r="J123" t="n">
-        <v>148</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4801,19 +4515,11 @@
         <v>-3120.441699999989</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="J124" t="n">
-        <v>148</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4842,19 +4548,11 @@
         <v>-7320.441699999989</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="J125" t="n">
-        <v>148</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4883,19 +4581,11 @@
         <v>4206.958700000011</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="n">
-        <v>147</v>
-      </c>
-      <c r="J126" t="n">
-        <v>148</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4924,19 +4614,11 @@
         <v>4456.958700000011</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" t="n">
-        <v>147.2</v>
-      </c>
-      <c r="J127" t="n">
-        <v>148</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4965,19 +4647,11 @@
         <v>4456.958700000011</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="J128" t="n">
-        <v>148</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5006,19 +4680,11 @@
         <v>4456.958700000011</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
-      </c>
-      <c r="I129" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="J129" t="n">
-        <v>148</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5050,14 +4716,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>148</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5086,19 +4746,11 @@
         <v>4456.958700000011</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I131" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="J131" t="n">
-        <v>148</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5127,19 +4779,11 @@
         <v>4456.958700000011</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
-      </c>
-      <c r="I132" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="J132" t="n">
-        <v>148</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5168,19 +4812,11 @@
         <v>4456.958700000011</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="J133" t="n">
-        <v>148</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5209,19 +4845,11 @@
         <v>4404.655300000011</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="J134" t="n">
-        <v>148</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5253,14 +4881,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>148</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5289,19 +4911,11 @@
         <v>28478.77410000001</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="n">
-        <v>148</v>
-      </c>
-      <c r="J136" t="n">
-        <v>148</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5333,14 +4947,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>148</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5372,14 +4980,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>148</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5411,14 +5013,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>148</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5450,14 +5046,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>148</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5489,14 +5079,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>148</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5528,14 +5112,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>148</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5567,14 +5145,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>148</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5606,14 +5178,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>148</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5645,14 +5211,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>148</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5681,19 +5241,11 @@
         <v>31442.40060000001</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
-      </c>
-      <c r="I146" t="n">
-        <v>147.8</v>
-      </c>
-      <c r="J146" t="n">
-        <v>148</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5725,14 +5277,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>148</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5764,14 +5310,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>148</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5803,14 +5343,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>148</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5842,14 +5376,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>148</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5881,14 +5409,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>148</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5920,14 +5442,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>148</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5959,14 +5475,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>148</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5998,14 +5508,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>148</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6037,14 +5541,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>148</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6076,14 +5574,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>148</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6115,14 +5607,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>148</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6154,14 +5640,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>148</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6193,14 +5673,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>148</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6232,14 +5706,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>148</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6271,14 +5739,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>148</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6310,14 +5772,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>148</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6349,14 +5805,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>148</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6388,14 +5838,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>148</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6427,14 +5871,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>148</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6466,14 +5904,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>148</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6505,14 +5937,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>148</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6544,14 +5970,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>148</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6583,14 +6003,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>148</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6622,14 +6036,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>148</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6661,14 +6069,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>148</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6700,14 +6102,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>148</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6739,14 +6135,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>148</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6778,14 +6168,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>148</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6817,14 +6201,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>148</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6856,14 +6234,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>148</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6895,14 +6267,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>148</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6934,14 +6300,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>148</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6973,14 +6333,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>148</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7012,14 +6366,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>148</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7048,19 +6396,13 @@
         <v>34819.64380000001</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>148</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
-        <v>1.013918918918919</v>
+        <v>1</v>
       </c>
       <c r="M181" t="inlineStr"/>
     </row>
@@ -7087,7 +6429,7 @@
         <v>42441.3846</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7120,7 +6462,7 @@
         <v>42655.7746</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7153,7 +6495,7 @@
         <v>42655.7746</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7186,7 +6528,7 @@
         <v>40741.1856</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7219,7 +6561,7 @@
         <v>40741.1856</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7252,7 +6594,7 @@
         <v>40741.1856</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7285,7 +6627,7 @@
         <v>39843.74940000001</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7318,7 +6660,7 @@
         <v>40131.58860000001</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7351,7 +6693,7 @@
         <v>37270.84020000001</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7362,6 +6704,6 @@
       <c r="M190" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-13 BackTest STEEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
         <v>-10420.4564</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-10420.4564</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-10780.6715</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-10905.6715</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-10655.6715</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-8532.620799999999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-8829.628099999998</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-8819.628099999998</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-8819.628099999998</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-8819.628099999998</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-8211.506099999999</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-14081.2807</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-14081.2807</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-29048.6905</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-32669.589</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-31830.1035</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-32155.1086</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1474,11 +1474,17 @@
         <v>-29949.3148</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>148</v>
+      </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1513,17 @@
         <v>-29555.3148</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>146.8</v>
+      </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1552,17 @@
         <v>-29732.599</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>148</v>
+      </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1591,17 @@
         <v>-27211.752</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>146.8</v>
+      </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1630,17 @@
         <v>-27211.752</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>148</v>
+      </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1673,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1706,17 @@
         <v>-27083.949</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>147</v>
+      </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1709,7 +1749,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,7 +1786,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1775,7 +1823,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1808,7 +1860,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1841,7 +1897,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1874,7 +1934,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1907,7 +1971,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1940,7 +2008,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1973,7 +2045,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2006,7 +2082,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2039,7 +2119,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2072,7 +2156,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,7 +2193,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2230,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2267,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2304,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2341,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,7 +2378,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2415,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2336,7 +2452,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2369,7 +2489,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2402,7 +2526,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2563,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2600,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2637,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2534,7 +2674,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2567,7 +2711,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2600,7 +2748,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2633,7 +2785,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2666,7 +2822,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2699,7 +2859,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2732,7 +2896,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,15 +2929,15 @@
         <v>-54351.6109</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>147.9</v>
-      </c>
-      <c r="J72" t="n">
-        <v>147.9</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2798,17 +2966,13 @@
         <v>-54351.6109</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>147.9</v>
-      </c>
-      <c r="J73" t="n">
-        <v>147.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L73" t="n">
@@ -2839,17 +3003,13 @@
         <v>-54351.6109</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>147.9</v>
-      </c>
-      <c r="J74" t="n">
-        <v>147.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L74" t="n">
@@ -2880,15 +3040,15 @@
         <v>-54460.0335</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>147.9</v>
-      </c>
-      <c r="J75" t="n">
-        <v>147.9</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2917,17 +3077,13 @@
         <v>-41232.81819999999</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>146.7</v>
-      </c>
-      <c r="J76" t="n">
-        <v>147.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L76" t="n">
@@ -2961,12 +3117,10 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>147.9</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L77" t="n">
@@ -3001,7 +3155,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3034,7 +3192,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3067,7 +3229,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3100,7 +3266,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3133,7 +3303,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3166,7 +3340,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3199,7 +3377,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3232,7 +3414,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3265,7 +3451,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3298,7 +3488,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3331,7 +3525,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3364,7 +3562,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3397,7 +3599,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3430,7 +3636,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3463,7 +3673,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3492,14 +3706,16 @@
         <v>-16927.37379999999</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
@@ -3525,7 +3741,7 @@
         <v>-16927.37379999999</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3558,7 +3774,7 @@
         <v>-16927.37379999999</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3591,7 +3807,7 @@
         <v>-18430.37379999999</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3624,7 +3840,7 @@
         <v>-14903.62659999999</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3657,7 +3873,7 @@
         <v>-19122.34749999999</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3789,7 +4005,7 @@
         <v>-10688.18289999999</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3855,7 +4071,7 @@
         <v>-4038.142499999989</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3888,7 +4104,7 @@
         <v>-3850.142499999989</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3921,7 +4137,7 @@
         <v>-5543.528399999989</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3954,7 +4170,7 @@
         <v>-20282.27849999999</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3987,7 +4203,7 @@
         <v>-18071.46599999999</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4020,7 +4236,7 @@
         <v>-18076.46599999999</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4119,7 +4335,7 @@
         <v>-15560.05399999999</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4152,7 +4368,7 @@
         <v>-12461.75139999999</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4185,7 +4401,7 @@
         <v>-12461.75139999999</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4218,7 +4434,7 @@
         <v>-12471.23139999999</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4317,7 +4533,7 @@
         <v>-8204.23139999999</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -6066,7 +6282,7 @@
         <v>31158.68250000001</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6165,7 +6381,7 @@
         <v>32057.41020000001</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6198,7 +6414,7 @@
         <v>32057.41020000001</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6297,7 +6513,7 @@
         <v>35666.41020000001</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6330,7 +6546,7 @@
         <v>32483.14660000001</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6363,7 +6579,7 @@
         <v>32702.04680000001</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6429,7 +6645,7 @@
         <v>42441.3846</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6495,7 +6711,7 @@
         <v>42655.7746</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6528,7 +6744,7 @@
         <v>40741.1856</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6561,7 +6777,7 @@
         <v>40741.1856</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6594,7 +6810,7 @@
         <v>40741.1856</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6627,7 +6843,7 @@
         <v>39843.74940000001</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6660,7 +6876,7 @@
         <v>40131.58860000001</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6704,6 +6920,6 @@
       <c r="M190" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-13 BackTest STEEM.xlsx
@@ -550,7 +550,7 @@
         <v>-10420.4564</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-10420.4564</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-10780.6715</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-10905.6715</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-10655.6715</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-8829.628099999998</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1474,17 +1474,11 @@
         <v>-29949.3148</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>148</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1513,17 +1507,11 @@
         <v>-29555.3148</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>146.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1552,17 +1540,11 @@
         <v>-29732.599</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>148</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1591,17 +1573,11 @@
         <v>-27211.752</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>146.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1630,17 +1606,11 @@
         <v>-27211.752</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>148</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1673,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1706,17 +1672,11 @@
         <v>-27083.949</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>147</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1749,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1786,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1823,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1860,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1897,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1930,15 +1870,15 @@
         <v>-17852.4248</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1970,10 +1910,12 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L46" t="n">
@@ -2007,10 +1949,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -2044,7 +1988,9 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2081,7 +2027,9 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2118,7 +2066,9 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2155,7 +2105,9 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2192,7 +2144,9 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2229,7 +2183,9 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2266,7 +2222,9 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2303,7 +2261,9 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2340,7 +2300,9 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2377,7 +2339,9 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2414,7 +2378,9 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2451,7 +2417,9 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2488,7 +2456,9 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2525,7 +2495,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2562,7 +2534,9 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2599,7 +2573,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2636,7 +2612,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2670,10 +2648,14 @@
         <v>-51039.91190000001</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>147.8</v>
+      </c>
+      <c r="J65" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2707,10 +2689,14 @@
         <v>-51723.4379</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J66" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2744,10 +2730,14 @@
         <v>-76045.4105</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>146.3</v>
+      </c>
+      <c r="J67" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2784,7 +2774,9 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2821,7 +2813,9 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2855,10 +2849,14 @@
         <v>-70447.4105</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J70" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2892,10 +2890,14 @@
         <v>-54351.6109</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>146.6</v>
+      </c>
+      <c r="J71" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2929,10 +2931,14 @@
         <v>-54351.6109</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>147.9</v>
+      </c>
+      <c r="J72" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2966,10 +2972,14 @@
         <v>-54351.6109</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>147.9</v>
+      </c>
+      <c r="J73" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3003,10 +3013,14 @@
         <v>-54351.6109</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>147.9</v>
+      </c>
+      <c r="J74" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3040,10 +3054,14 @@
         <v>-54460.0335</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>147.9</v>
+      </c>
+      <c r="J75" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3077,10 +3095,14 @@
         <v>-41232.81819999999</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>146.7</v>
+      </c>
+      <c r="J76" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3114,10 +3136,14 @@
         <v>-41202.8573</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>147</v>
+      </c>
+      <c r="J77" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3154,7 +3180,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3188,10 +3216,14 @@
         <v>-27684.619</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>148</v>
+      </c>
+      <c r="J79" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3228,7 +3260,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3265,7 +3299,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3299,10 +3335,14 @@
         <v>-36602.8705</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>149</v>
+      </c>
+      <c r="J82" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3339,7 +3379,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3376,7 +3418,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3410,10 +3454,14 @@
         <v>-33223.78969999999</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>148.6</v>
+      </c>
+      <c r="J85" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3447,10 +3495,14 @@
         <v>-33874.64639999999</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>148.6</v>
+      </c>
+      <c r="J86" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3484,10 +3536,14 @@
         <v>-29007.90809999999</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>147.6</v>
+      </c>
+      <c r="J87" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3521,10 +3577,14 @@
         <v>-16570.43809999999</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>149</v>
+      </c>
+      <c r="J88" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3558,10 +3618,14 @@
         <v>-14597.83499999999</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="J89" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3595,10 +3659,14 @@
         <v>-19589.57899999999</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="J90" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3632,10 +3700,14 @@
         <v>-16927.37379999999</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>149</v>
+      </c>
+      <c r="J91" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3669,10 +3741,14 @@
         <v>-16927.37379999999</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>149.6</v>
+      </c>
+      <c r="J92" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3706,16 +3782,22 @@
         <v>-16927.37379999999</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>149.6</v>
+      </c>
+      <c r="J93" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
       <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
@@ -3741,11 +3823,19 @@
         <v>-16927.37379999999</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>149.6</v>
+      </c>
+      <c r="J94" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3774,11 +3864,19 @@
         <v>-16927.37379999999</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>149.6</v>
+      </c>
+      <c r="J95" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3807,11 +3905,19 @@
         <v>-18430.37379999999</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>149.6</v>
+      </c>
+      <c r="J96" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3840,11 +3946,19 @@
         <v>-14903.62659999999</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3873,11 +3987,19 @@
         <v>-19122.34749999999</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3906,11 +4028,19 @@
         <v>-15730.09469999999</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3939,11 +4069,19 @@
         <v>-13600.09469999999</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>149</v>
+      </c>
+      <c r="J100" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3972,11 +4110,19 @@
         <v>-7893.496199999989</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="J101" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4005,11 +4151,19 @@
         <v>-10688.18289999999</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>150</v>
+      </c>
+      <c r="J102" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4038,11 +4192,19 @@
         <v>-4038.142499999989</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4071,11 +4233,19 @@
         <v>-4038.142499999989</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>150</v>
+      </c>
+      <c r="J104" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4104,11 +4274,17 @@
         <v>-3850.142499999989</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4137,11 +4313,17 @@
         <v>-5543.528399999989</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4170,11 +4352,17 @@
         <v>-20282.27849999999</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4203,11 +4391,17 @@
         <v>-18071.46599999999</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4236,11 +4430,17 @@
         <v>-18076.46599999999</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4272,8 +4472,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4305,8 +4511,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4335,11 +4547,17 @@
         <v>-15560.05399999999</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4368,11 +4586,19 @@
         <v>-12461.75139999999</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>147.6</v>
+      </c>
+      <c r="J113" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4401,11 +4627,19 @@
         <v>-12461.75139999999</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4434,11 +4668,19 @@
         <v>-12471.23139999999</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4467,11 +4709,19 @@
         <v>-9471.23139999999</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>147.6</v>
+      </c>
+      <c r="J116" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4503,8 +4753,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4533,11 +4789,17 @@
         <v>-8204.23139999999</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4569,8 +4831,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4602,8 +4870,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4635,8 +4909,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4668,8 +4948,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4701,8 +4987,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4734,8 +5026,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4767,8 +5065,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4800,8 +5104,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4833,8 +5143,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4866,8 +5182,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4899,8 +5221,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4932,8 +5260,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4965,8 +5299,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4998,8 +5338,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5031,8 +5377,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5064,8 +5416,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5097,8 +5455,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5130,8 +5494,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5163,8 +5533,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5196,8 +5572,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5229,8 +5611,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5262,8 +5650,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5295,8 +5689,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5328,8 +5728,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5361,8 +5767,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5394,8 +5806,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5427,8 +5845,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5460,8 +5884,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5493,8 +5923,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5526,8 +5962,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5559,8 +6001,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5592,8 +6040,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5625,8 +6079,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5658,8 +6118,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5691,8 +6157,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5724,8 +6196,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5757,8 +6235,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5790,8 +6274,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5823,8 +6313,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5856,8 +6352,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5889,8 +6391,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5922,8 +6430,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5955,8 +6469,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5988,8 +6508,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6021,8 +6547,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6054,8 +6586,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6087,8 +6625,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6120,8 +6664,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6153,8 +6703,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6186,8 +6742,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6219,8 +6781,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6252,8 +6820,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6282,11 +6856,17 @@
         <v>31158.68250000001</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6318,8 +6898,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6351,8 +6937,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6381,11 +6973,17 @@
         <v>32057.41020000001</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6414,11 +7012,17 @@
         <v>32057.41020000001</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6450,8 +7054,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6483,8 +7093,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6513,11 +7129,17 @@
         <v>35666.41020000001</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6546,11 +7168,17 @@
         <v>32483.14660000001</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6579,11 +7207,17 @@
         <v>32702.04680000001</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6612,11 +7246,17 @@
         <v>34819.64380000001</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6645,11 +7285,17 @@
         <v>42441.3846</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6678,11 +7324,17 @@
         <v>42655.7746</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6711,11 +7363,17 @@
         <v>42655.7746</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6744,11 +7402,17 @@
         <v>40741.1856</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6777,11 +7441,17 @@
         <v>40741.1856</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6810,11 +7480,17 @@
         <v>40741.1856</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6843,11 +7519,17 @@
         <v>39843.74940000001</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6876,11 +7558,17 @@
         <v>40131.58860000001</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6909,11 +7597,17 @@
         <v>37270.84020000001</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-13 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-13 BackTest STEEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M190"/>
+  <dimension ref="A1:L190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>1493</v>
       </c>
       <c r="G2" t="n">
-        <v>-14100.0461</v>
-      </c>
-      <c r="H2" t="n">
         <v>2</v>
       </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>556.948</v>
       </c>
       <c r="G3" t="n">
-        <v>-14656.9941</v>
-      </c>
-      <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>41.4623</v>
       </c>
       <c r="G4" t="n">
-        <v>-14656.9941</v>
-      </c>
-      <c r="H4" t="n">
         <v>2</v>
       </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>4236.5377</v>
       </c>
       <c r="G5" t="n">
-        <v>-10420.4564</v>
-      </c>
-      <c r="H5" t="n">
         <v>2</v>
       </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>1350.739</v>
       </c>
       <c r="G6" t="n">
-        <v>-10420.4564</v>
-      </c>
-      <c r="H6" t="n">
         <v>2</v>
       </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>360.2151</v>
       </c>
       <c r="G7" t="n">
-        <v>-10780.6715</v>
-      </c>
-      <c r="H7" t="n">
         <v>2</v>
       </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>125</v>
       </c>
       <c r="G8" t="n">
-        <v>-10905.6715</v>
-      </c>
-      <c r="H8" t="n">
         <v>2</v>
       </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>250</v>
       </c>
       <c r="G9" t="n">
-        <v>-10655.6715</v>
-      </c>
-      <c r="H9" t="n">
         <v>2</v>
       </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>2123.0507</v>
       </c>
       <c r="G10" t="n">
-        <v>-8532.620799999999</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>297.0073</v>
       </c>
       <c r="G11" t="n">
-        <v>-8829.628099999998</v>
-      </c>
-      <c r="H11" t="n">
         <v>2</v>
       </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>-8819.628099999998</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>268.6</v>
       </c>
       <c r="G13" t="n">
-        <v>-8819.628099999998</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>493.147</v>
       </c>
       <c r="G14" t="n">
-        <v>-8819.628099999998</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>608.122</v>
       </c>
       <c r="G15" t="n">
-        <v>-8211.506099999999</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>5869.7746</v>
       </c>
       <c r="G16" t="n">
-        <v>-14081.2807</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>2019.294</v>
       </c>
       <c r="G17" t="n">
-        <v>-14081.2807</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>14967.4098</v>
       </c>
       <c r="G18" t="n">
-        <v>-29048.6905</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>3620.8985</v>
       </c>
       <c r="G19" t="n">
-        <v>-32669.589</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>839.4855</v>
       </c>
       <c r="G20" t="n">
-        <v>-31830.1035</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>325.0051</v>
       </c>
       <c r="G21" t="n">
-        <v>-32155.1086</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>2999.999</v>
       </c>
       <c r="G22" t="n">
-        <v>-29155.1096</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>281.4855</v>
       </c>
       <c r="G23" t="n">
-        <v>-28873.6241</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>1303.391</v>
       </c>
       <c r="G24" t="n">
-        <v>-27570.2331</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>896.7080999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>-28466.9412</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>1707.6248</v>
       </c>
       <c r="G26" t="n">
-        <v>-28466.9412</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>278.5295</v>
       </c>
       <c r="G27" t="n">
-        <v>-28188.4117</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>5003.8251</v>
       </c>
       <c r="G28" t="n">
-        <v>-28188.4117</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>543</v>
       </c>
       <c r="G29" t="n">
-        <v>-27645.4117</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>1984.659</v>
       </c>
       <c r="G30" t="n">
-        <v>-25660.7527</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>259.1909</v>
       </c>
       <c r="G31" t="n">
-        <v>-25919.9436</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>2655.656</v>
       </c>
       <c r="G32" t="n">
-        <v>-25919.9436</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>4029.3712</v>
       </c>
       <c r="G33" t="n">
-        <v>-29949.3148</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>394</v>
       </c>
       <c r="G34" t="n">
-        <v>-29555.3148</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>177.2842</v>
       </c>
       <c r="G35" t="n">
-        <v>-29732.599</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,19 @@
         <v>2520.847</v>
       </c>
       <c r="G36" t="n">
-        <v>-27211.752</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>146.8</v>
+      </c>
+      <c r="I36" t="n">
+        <v>146.8</v>
+      </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1497,23 @@
         <v>3888.946</v>
       </c>
       <c r="G37" t="n">
-        <v>-27211.752</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>148</v>
+      </c>
+      <c r="I37" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1535,23 @@
         <v>112.699</v>
       </c>
       <c r="G38" t="n">
-        <v>-27324.451</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>148</v>
+      </c>
+      <c r="I38" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1573,19 @@
         <v>240.502</v>
       </c>
       <c r="G39" t="n">
-        <v>-27083.949</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>147</v>
+      </c>
+      <c r="I39" t="n">
+        <v>147</v>
+      </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1607,21 @@
         <v>3113.934</v>
       </c>
       <c r="G40" t="n">
-        <v>-23970.015</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>147</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1643,21 @@
         <v>1014.4709</v>
       </c>
       <c r="G41" t="n">
-        <v>-24984.4859</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>147</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1679,15 @@
         <v>3109.7744</v>
       </c>
       <c r="G42" t="n">
-        <v>-21874.7115</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1709,15 @@
         <v>4947.7481</v>
       </c>
       <c r="G43" t="n">
-        <v>-16926.9634</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1739,15 @@
         <v>925.4614</v>
       </c>
       <c r="G44" t="n">
-        <v>-17852.4248</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,22 +1769,15 @@
         <v>2420.0035</v>
       </c>
       <c r="G45" t="n">
-        <v>-17852.4248</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="J45" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1904,24 +1799,15 @@
         <v>125</v>
       </c>
       <c r="G46" t="n">
-        <v>-17852.4248</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1943,24 +1829,15 @@
         <v>6895.3123</v>
       </c>
       <c r="G47" t="n">
-        <v>-17852.4248</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1982,24 +1859,15 @@
         <v>5738.2834</v>
       </c>
       <c r="G48" t="n">
-        <v>-23590.7082</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2021,24 +1889,15 @@
         <v>61</v>
       </c>
       <c r="G49" t="n">
-        <v>-23651.7082</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2060,24 +1919,15 @@
         <v>2500</v>
       </c>
       <c r="G50" t="n">
-        <v>-21151.7082</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2099,24 +1949,15 @@
         <v>1000</v>
       </c>
       <c r="G51" t="n">
-        <v>-20151.7082</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2138,24 +1979,15 @@
         <v>125</v>
       </c>
       <c r="G52" t="n">
-        <v>-20026.7082</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2177,24 +2009,15 @@
         <v>228.2626</v>
       </c>
       <c r="G53" t="n">
-        <v>-19798.4456</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2216,24 +2039,15 @@
         <v>3000</v>
       </c>
       <c r="G54" t="n">
-        <v>-16798.4456</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2255,24 +2069,15 @@
         <v>3093.29</v>
       </c>
       <c r="G55" t="n">
-        <v>-19891.7356</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2294,24 +2099,15 @@
         <v>22</v>
       </c>
       <c r="G56" t="n">
-        <v>-19891.7356</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2333,24 +2129,15 @@
         <v>766</v>
       </c>
       <c r="G57" t="n">
-        <v>-20657.7356</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2372,24 +2159,15 @@
         <v>875</v>
       </c>
       <c r="G58" t="n">
-        <v>-21532.7356</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2411,24 +2189,15 @@
         <v>1280</v>
       </c>
       <c r="G59" t="n">
-        <v>-20252.7356</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2450,24 +2219,15 @@
         <v>22046.367</v>
       </c>
       <c r="G60" t="n">
-        <v>-42299.1026</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2489,24 +2249,15 @@
         <v>5271.2321</v>
       </c>
       <c r="G61" t="n">
-        <v>-47570.3347</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2528,24 +2279,15 @@
         <v>3.5</v>
       </c>
       <c r="G62" t="n">
-        <v>-47566.8347</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2567,24 +2309,15 @@
         <v>3162.2067</v>
       </c>
       <c r="G63" t="n">
-        <v>-50729.0414</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2606,24 +2339,15 @@
         <v>470.2319</v>
       </c>
       <c r="G64" t="n">
-        <v>-50258.8095</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2645,26 +2369,15 @@
         <v>781.1024</v>
       </c>
       <c r="G65" t="n">
-        <v>-51039.91190000001</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>147.8</v>
-      </c>
-      <c r="J65" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2686,26 +2399,19 @@
         <v>683.526</v>
       </c>
       <c r="G66" t="n">
-        <v>-51723.4379</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>146.8</v>
       </c>
       <c r="I66" t="n">
         <v>146.8</v>
       </c>
-      <c r="J66" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2727,26 +2433,21 @@
         <v>24321.9726</v>
       </c>
       <c r="G67" t="n">
-        <v>-76045.4105</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="n">
-        <v>146.3</v>
-      </c>
-      <c r="J67" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>146.8</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2768,24 +2469,21 @@
         <v>1500</v>
       </c>
       <c r="G68" t="n">
-        <v>-74545.4105</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2807,24 +2505,21 @@
         <v>5588</v>
       </c>
       <c r="G69" t="n">
-        <v>-68957.4105</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2846,26 +2541,21 @@
         <v>1490</v>
       </c>
       <c r="G70" t="n">
-        <v>-70447.4105</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="n">
         <v>146.8</v>
       </c>
-      <c r="J70" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2887,26 +2577,23 @@
         <v>16095.7996</v>
       </c>
       <c r="G71" t="n">
-        <v>-54351.6109</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>146.6</v>
       </c>
       <c r="I71" t="n">
-        <v>146.6</v>
-      </c>
-      <c r="J71" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>146.8</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2928,26 +2615,23 @@
         <v>5277.105</v>
       </c>
       <c r="G72" t="n">
-        <v>-54351.6109</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>147.9</v>
       </c>
       <c r="I72" t="n">
-        <v>147.9</v>
-      </c>
-      <c r="J72" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>146.8</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2969,26 +2653,21 @@
         <v>3189</v>
       </c>
       <c r="G73" t="n">
-        <v>-54351.6109</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="n">
-        <v>147.9</v>
-      </c>
-      <c r="J73" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>146.8</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3010,26 +2689,21 @@
         <v>8703</v>
       </c>
       <c r="G74" t="n">
-        <v>-54351.6109</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="n">
-        <v>147.9</v>
-      </c>
-      <c r="J74" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>146.8</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3051,26 +2725,23 @@
         <v>108.4226</v>
       </c>
       <c r="G75" t="n">
-        <v>-54460.0335</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>147.9</v>
       </c>
       <c r="I75" t="n">
-        <v>147.9</v>
-      </c>
-      <c r="J75" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>146.8</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3092,26 +2763,23 @@
         <v>13227.2153</v>
       </c>
       <c r="G76" t="n">
-        <v>-41232.81819999999</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>146.7</v>
       </c>
       <c r="I76" t="n">
-        <v>146.7</v>
-      </c>
-      <c r="J76" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>146.8</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3133,26 +2801,23 @@
         <v>29.9609</v>
       </c>
       <c r="G77" t="n">
-        <v>-41202.8573</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="I77" t="n">
-        <v>147</v>
-      </c>
-      <c r="J77" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>146.8</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3174,24 +2839,21 @@
         <v>21.8495</v>
       </c>
       <c r="G78" t="n">
-        <v>-41202.8573</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3213,26 +2875,21 @@
         <v>13518.2383</v>
       </c>
       <c r="G79" t="n">
-        <v>-27684.619</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="n">
-        <v>148</v>
-      </c>
-      <c r="J79" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>146.8</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3254,24 +2911,21 @@
         <v>7053.4781</v>
       </c>
       <c r="G80" t="n">
-        <v>-34738.0971</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3293,24 +2947,21 @@
         <v>1034</v>
       </c>
       <c r="G81" t="n">
-        <v>-33704.0971</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3332,26 +2983,21 @@
         <v>2898.7734</v>
       </c>
       <c r="G82" t="n">
-        <v>-36602.8705</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="n">
-        <v>149</v>
-      </c>
-      <c r="J82" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>146.8</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3373,24 +3019,21 @@
         <v>5845.5895</v>
       </c>
       <c r="G83" t="n">
-        <v>-30757.281</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3412,24 +3055,21 @@
         <v>2466.5087</v>
       </c>
       <c r="G84" t="n">
-        <v>-33223.78969999999</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3451,26 +3091,21 @@
         <v>1702.0953</v>
       </c>
       <c r="G85" t="n">
-        <v>-33223.78969999999</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="n">
-        <v>148.6</v>
-      </c>
-      <c r="J85" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>146.8</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3492,26 +3127,21 @@
         <v>650.8567</v>
       </c>
       <c r="G86" t="n">
-        <v>-33874.64639999999</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="n">
-        <v>148.6</v>
-      </c>
-      <c r="J86" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>146.8</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3533,26 +3163,21 @@
         <v>4866.7383</v>
       </c>
       <c r="G87" t="n">
-        <v>-29007.90809999999</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="n">
-        <v>147.6</v>
-      </c>
-      <c r="J87" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>146.8</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3574,26 +3199,21 @@
         <v>12437.47</v>
       </c>
       <c r="G88" t="n">
-        <v>-16570.43809999999</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="n">
-        <v>149</v>
-      </c>
-      <c r="J88" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>146.8</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3615,26 +3235,21 @@
         <v>1972.6031</v>
       </c>
       <c r="G89" t="n">
-        <v>-14597.83499999999</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="n">
-        <v>149.5</v>
-      </c>
-      <c r="J89" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>146.8</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3656,26 +3271,21 @@
         <v>4991.744</v>
       </c>
       <c r="G90" t="n">
-        <v>-19589.57899999999</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="n">
-        <v>149.8</v>
-      </c>
-      <c r="J90" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>146.8</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3697,26 +3307,21 @@
         <v>2662.2052</v>
       </c>
       <c r="G91" t="n">
-        <v>-16927.37379999999</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="n">
-        <v>149</v>
-      </c>
-      <c r="J91" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>146.8</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3738,26 +3343,21 @@
         <v>591.2987000000001</v>
       </c>
       <c r="G92" t="n">
-        <v>-16927.37379999999</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="n">
-        <v>149.6</v>
-      </c>
-      <c r="J92" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>146.8</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3779,26 +3379,21 @@
         <v>157.7328</v>
       </c>
       <c r="G93" t="n">
-        <v>-16927.37379999999</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="n">
-        <v>149.6</v>
-      </c>
-      <c r="J93" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>146.8</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3820,26 +3415,21 @@
         <v>375</v>
       </c>
       <c r="G94" t="n">
-        <v>-16927.37379999999</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="n">
-        <v>149.6</v>
-      </c>
-      <c r="J94" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>146.8</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3861,26 +3451,21 @@
         <v>228.8543</v>
       </c>
       <c r="G95" t="n">
-        <v>-16927.37379999999</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="n">
-        <v>149.6</v>
-      </c>
-      <c r="J95" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>146.8</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3902,26 +3487,21 @@
         <v>1503</v>
       </c>
       <c r="G96" t="n">
-        <v>-18430.37379999999</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="n">
-        <v>149.6</v>
-      </c>
-      <c r="J96" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>146.8</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3943,26 +3523,21 @@
         <v>3526.7472</v>
       </c>
       <c r="G97" t="n">
-        <v>-14903.62659999999</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="J97" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>146.8</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3984,26 +3559,21 @@
         <v>4218.7209</v>
       </c>
       <c r="G98" t="n">
-        <v>-19122.34749999999</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="n">
-        <v>149.1</v>
-      </c>
-      <c r="J98" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>146.8</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4025,26 +3595,21 @@
         <v>3392.2528</v>
       </c>
       <c r="G99" t="n">
-        <v>-15730.09469999999</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="n">
-        <v>148.2</v>
-      </c>
-      <c r="J99" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>146.8</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4066,26 +3631,21 @@
         <v>2130</v>
       </c>
       <c r="G100" t="n">
-        <v>-13600.09469999999</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="n">
-        <v>149</v>
-      </c>
-      <c r="J100" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>146.8</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4107,26 +3667,21 @@
         <v>5706.5985</v>
       </c>
       <c r="G101" t="n">
-        <v>-7893.496199999989</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="n">
-        <v>149.9</v>
-      </c>
-      <c r="J101" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>146.8</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4148,26 +3703,21 @@
         <v>2794.6867</v>
       </c>
       <c r="G102" t="n">
-        <v>-10688.18289999999</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="n">
-        <v>150</v>
-      </c>
-      <c r="J102" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>146.8</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4189,26 +3739,21 @@
         <v>6650.0404</v>
       </c>
       <c r="G103" t="n">
-        <v>-4038.142499999989</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="n">
-        <v>149.1</v>
-      </c>
-      <c r="J103" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>146.8</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4230,26 +3775,21 @@
         <v>910.8684</v>
       </c>
       <c r="G104" t="n">
-        <v>-4038.142499999989</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="n">
-        <v>150</v>
-      </c>
-      <c r="J104" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>146.8</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4271,24 +3811,21 @@
         <v>188</v>
       </c>
       <c r="G105" t="n">
-        <v>-3850.142499999989</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4310,24 +3847,21 @@
         <v>1693.3859</v>
       </c>
       <c r="G106" t="n">
-        <v>-5543.528399999989</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4349,24 +3883,21 @@
         <v>14738.7501</v>
       </c>
       <c r="G107" t="n">
-        <v>-20282.27849999999</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4388,24 +3919,21 @@
         <v>2210.8125</v>
       </c>
       <c r="G108" t="n">
-        <v>-18071.46599999999</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4427,24 +3955,21 @@
         <v>5</v>
       </c>
       <c r="G109" t="n">
-        <v>-18076.46599999999</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4466,24 +3991,21 @@
         <v>522</v>
       </c>
       <c r="G110" t="n">
-        <v>-17554.46599999999</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4505,24 +4027,21 @@
         <v>2000</v>
       </c>
       <c r="G111" t="n">
-        <v>-15554.46599999999</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4544,24 +4063,21 @@
         <v>5.588</v>
       </c>
       <c r="G112" t="n">
-        <v>-15560.05399999999</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4583,26 +4099,21 @@
         <v>3098.3026</v>
       </c>
       <c r="G113" t="n">
-        <v>-12461.75139999999</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="n">
-        <v>147.6</v>
-      </c>
-      <c r="J113" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>146.8</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4624,26 +4135,21 @@
         <v>161</v>
       </c>
       <c r="G114" t="n">
-        <v>-12461.75139999999</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="n">
-        <v>149.1</v>
-      </c>
-      <c r="J114" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>146.8</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4665,26 +4171,21 @@
         <v>9.48</v>
       </c>
       <c r="G115" t="n">
-        <v>-12471.23139999999</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="n">
-        <v>149.1</v>
-      </c>
-      <c r="J115" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>146.8</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4706,26 +4207,21 @@
         <v>3000</v>
       </c>
       <c r="G116" t="n">
-        <v>-9471.23139999999</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="n">
-        <v>147.6</v>
-      </c>
-      <c r="J116" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>146.8</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4747,24 +4243,21 @@
         <v>2900.1758</v>
       </c>
       <c r="G117" t="n">
-        <v>-9471.23139999999</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4786,24 +4279,21 @@
         <v>1267</v>
       </c>
       <c r="G118" t="n">
-        <v>-8204.23139999999</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4825,24 +4315,21 @@
         <v>4579.8473</v>
       </c>
       <c r="G119" t="n">
-        <v>-3624.384099999989</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4864,24 +4351,21 @@
         <v>1104.1531</v>
       </c>
       <c r="G120" t="n">
-        <v>-2520.230999999989</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4903,24 +4387,21 @@
         <v>8</v>
       </c>
       <c r="G121" t="n">
-        <v>-2528.230999999989</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4942,24 +4423,21 @@
         <v>77.77</v>
       </c>
       <c r="G122" t="n">
-        <v>-2450.460999999989</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4981,24 +4459,21 @@
         <v>669.9807</v>
       </c>
       <c r="G123" t="n">
-        <v>-3120.441699999989</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5020,24 +4495,21 @@
         <v>2204.644</v>
       </c>
       <c r="G124" t="n">
-        <v>-3120.441699999989</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5059,24 +4531,21 @@
         <v>4200</v>
       </c>
       <c r="G125" t="n">
-        <v>-7320.441699999989</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5098,24 +4567,21 @@
         <v>11527.4004</v>
       </c>
       <c r="G126" t="n">
-        <v>4206.958700000011</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5137,24 +4603,21 @@
         <v>250</v>
       </c>
       <c r="G127" t="n">
-        <v>4456.958700000011</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5176,24 +4639,21 @@
         <v>76</v>
       </c>
       <c r="G128" t="n">
-        <v>4456.958700000011</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5215,24 +4675,21 @@
         <v>8199.967699999999</v>
       </c>
       <c r="G129" t="n">
-        <v>4456.958700000011</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5254,24 +4711,21 @@
         <v>3072.5298</v>
       </c>
       <c r="G130" t="n">
-        <v>4456.958700000011</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5293,24 +4747,21 @@
         <v>1485.5384</v>
       </c>
       <c r="G131" t="n">
-        <v>4456.958700000011</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5332,24 +4783,21 @@
         <v>134.8118</v>
       </c>
       <c r="G132" t="n">
-        <v>4456.958700000011</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5371,24 +4819,21 @@
         <v>120.3758</v>
       </c>
       <c r="G133" t="n">
-        <v>4456.958700000011</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5410,24 +4855,21 @@
         <v>52.3034</v>
       </c>
       <c r="G134" t="n">
-        <v>4404.655300000011</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5449,24 +4891,21 @@
         <v>3821</v>
       </c>
       <c r="G135" t="n">
-        <v>8225.655300000011</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5488,24 +4927,21 @@
         <v>20253.1188</v>
       </c>
       <c r="G136" t="n">
-        <v>28478.77410000001</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5527,24 +4963,21 @@
         <v>3881.6002</v>
       </c>
       <c r="G137" t="n">
-        <v>28478.77410000001</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5566,24 +4999,21 @@
         <v>2076.1073</v>
       </c>
       <c r="G138" t="n">
-        <v>28478.77410000001</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5605,24 +5035,21 @@
         <v>2778.2707</v>
       </c>
       <c r="G139" t="n">
-        <v>25700.50340000001</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5644,24 +5071,21 @@
         <v>4873.7832</v>
       </c>
       <c r="G140" t="n">
-        <v>30574.28660000001</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5683,24 +5107,21 @@
         <v>745</v>
       </c>
       <c r="G141" t="n">
-        <v>31319.28660000001</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5722,24 +5143,21 @@
         <v>20</v>
       </c>
       <c r="G142" t="n">
-        <v>31299.28660000001</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5761,24 +5179,21 @@
         <v>67.48999999999999</v>
       </c>
       <c r="G143" t="n">
-        <v>31299.28660000001</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5800,24 +5215,21 @@
         <v>3.5</v>
       </c>
       <c r="G144" t="n">
-        <v>31295.78660000001</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5839,24 +5251,21 @@
         <v>73.614</v>
       </c>
       <c r="G145" t="n">
-        <v>31369.40060000001</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5878,24 +5287,21 @@
         <v>73</v>
       </c>
       <c r="G146" t="n">
-        <v>31442.40060000001</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5917,24 +5323,21 @@
         <v>2956.8202</v>
       </c>
       <c r="G147" t="n">
-        <v>28485.58040000001</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5956,24 +5359,21 @@
         <v>1964.343</v>
       </c>
       <c r="G148" t="n">
-        <v>28485.58040000001</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5995,24 +5395,21 @@
         <v>1458.71</v>
       </c>
       <c r="G149" t="n">
-        <v>29944.29040000001</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6034,24 +5431,21 @@
         <v>470.5335</v>
       </c>
       <c r="G150" t="n">
-        <v>29473.7569</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6073,24 +5467,21 @@
         <v>560.8654</v>
       </c>
       <c r="G151" t="n">
-        <v>30034.6223</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6112,24 +5503,21 @@
         <v>2391</v>
       </c>
       <c r="G152" t="n">
-        <v>27643.6223</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6151,24 +5539,21 @@
         <v>608</v>
       </c>
       <c r="G153" t="n">
-        <v>28251.6223</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6190,24 +5575,21 @@
         <v>320</v>
       </c>
       <c r="G154" t="n">
-        <v>28571.6223</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6229,24 +5611,21 @@
         <v>1269.911</v>
       </c>
       <c r="G155" t="n">
-        <v>29841.5333</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6268,24 +5647,21 @@
         <v>597.5133</v>
       </c>
       <c r="G156" t="n">
-        <v>29244.02</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6307,24 +5683,21 @@
         <v>503.2466</v>
       </c>
       <c r="G157" t="n">
-        <v>29244.02</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6346,24 +5719,21 @@
         <v>10133.7773</v>
       </c>
       <c r="G158" t="n">
-        <v>29244.02</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6385,24 +5755,21 @@
         <v>107.9</v>
       </c>
       <c r="G159" t="n">
-        <v>29244.02</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6424,24 +5791,21 @@
         <v>1265</v>
       </c>
       <c r="G160" t="n">
-        <v>29244.02</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6463,24 +5827,21 @@
         <v>1265</v>
       </c>
       <c r="G161" t="n">
-        <v>29244.02</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6502,24 +5863,21 @@
         <v>52.7372</v>
       </c>
       <c r="G162" t="n">
-        <v>29191.2828</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6541,24 +5899,21 @@
         <v>381.114</v>
       </c>
       <c r="G163" t="n">
-        <v>29572.39680000001</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6580,24 +5935,21 @@
         <v>1254.2847</v>
       </c>
       <c r="G164" t="n">
-        <v>30826.68150000001</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6619,24 +5971,21 @@
         <v>1953.5721</v>
       </c>
       <c r="G165" t="n">
-        <v>30826.68150000001</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6658,24 +6007,21 @@
         <v>202.999</v>
       </c>
       <c r="G166" t="n">
-        <v>30623.68250000001</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6697,24 +6043,21 @@
         <v>770</v>
       </c>
       <c r="G167" t="n">
-        <v>29853.68250000001</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6736,24 +6079,21 @@
         <v>1305</v>
       </c>
       <c r="G168" t="n">
-        <v>31158.68250000001</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6775,24 +6115,21 @@
         <v>2548</v>
       </c>
       <c r="G169" t="n">
-        <v>31158.68250000001</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6814,24 +6151,21 @@
         <v>23232.3888</v>
       </c>
       <c r="G170" t="n">
-        <v>31158.68250000001</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6853,24 +6187,21 @@
         <v>382.8758</v>
       </c>
       <c r="G171" t="n">
-        <v>31158.68250000001</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6892,24 +6223,21 @@
         <v>387.9997</v>
       </c>
       <c r="G172" t="n">
-        <v>31158.68250000001</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6931,24 +6259,21 @@
         <v>2154.91</v>
       </c>
       <c r="G173" t="n">
-        <v>33313.59250000001</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6970,24 +6295,21 @@
         <v>1256.1823</v>
       </c>
       <c r="G174" t="n">
-        <v>32057.41020000001</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7009,24 +6331,21 @@
         <v>30</v>
       </c>
       <c r="G175" t="n">
-        <v>32057.41020000001</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7048,24 +6367,21 @@
         <v>2691</v>
       </c>
       <c r="G176" t="n">
-        <v>34748.41020000001</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7087,24 +6403,21 @@
         <v>918</v>
       </c>
       <c r="G177" t="n">
-        <v>35666.41020000001</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7126,24 +6439,21 @@
         <v>15.2408</v>
       </c>
       <c r="G178" t="n">
-        <v>35666.41020000001</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7165,24 +6475,21 @@
         <v>3183.2636</v>
       </c>
       <c r="G179" t="n">
-        <v>32483.14660000001</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7204,24 +6511,21 @@
         <v>218.9002</v>
       </c>
       <c r="G180" t="n">
-        <v>32702.04680000001</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7243,24 +6547,21 @@
         <v>2117.597</v>
       </c>
       <c r="G181" t="n">
-        <v>34819.64380000001</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7282,24 +6583,21 @@
         <v>7621.7408</v>
       </c>
       <c r="G182" t="n">
-        <v>42441.3846</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7321,24 +6619,21 @@
         <v>214.39</v>
       </c>
       <c r="G183" t="n">
-        <v>42655.7746</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7360,24 +6655,21 @@
         <v>485.61</v>
       </c>
       <c r="G184" t="n">
-        <v>42655.7746</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7399,24 +6691,21 @@
         <v>1914.589</v>
       </c>
       <c r="G185" t="n">
-        <v>40741.1856</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7438,24 +6727,21 @@
         <v>125</v>
       </c>
       <c r="G186" t="n">
-        <v>40741.1856</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7477,24 +6763,21 @@
         <v>556.3424</v>
       </c>
       <c r="G187" t="n">
-        <v>40741.1856</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7516,24 +6799,21 @@
         <v>897.4362</v>
       </c>
       <c r="G188" t="n">
-        <v>39843.74940000001</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7555,24 +6835,21 @@
         <v>287.8392</v>
       </c>
       <c r="G189" t="n">
-        <v>40131.58860000001</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7594,24 +6871,21 @@
         <v>2860.7484</v>
       </c>
       <c r="G190" t="n">
-        <v>37270.84020000001</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
